--- a/1des/frequencia.xlsx
+++ b/1des/frequencia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2023\1des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D419E18A-B77A-4EC9-863E-44EDD4EAB917}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBA08E96-3D8E-44B9-86B1-3CDF5F0CB611}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{16894AAC-534F-4800-A9CE-F9EFF9F0773F}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2998" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3034" uniqueCount="51">
   <si>
     <t>Alunos</t>
   </si>
@@ -571,10 +571,10 @@
   <dimension ref="A1:BY42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="AT7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="AT10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="BV41" sqref="BV41"/>
+      <selection pane="bottomRight" activeCell="BW42" sqref="BW42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2171,6 +2171,9 @@
       <c r="BV7" t="s">
         <v>7</v>
       </c>
+      <c r="BW7" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="8" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -2395,6 +2398,9 @@
       <c r="BV8" t="s">
         <v>7</v>
       </c>
+      <c r="BW8" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="9" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -2619,6 +2625,9 @@
       <c r="BV9" t="s">
         <v>7</v>
       </c>
+      <c r="BW9" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="10" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -2843,6 +2852,9 @@
       <c r="BV10" t="s">
         <v>8</v>
       </c>
+      <c r="BW10" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="11" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -3067,6 +3079,9 @@
       <c r="BV11" t="s">
         <v>7</v>
       </c>
+      <c r="BW11" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="12" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -3291,6 +3306,9 @@
       <c r="BV12" t="s">
         <v>7</v>
       </c>
+      <c r="BW12" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="13" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -3515,6 +3533,9 @@
       <c r="BV13" t="s">
         <v>7</v>
       </c>
+      <c r="BW13" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="14" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -3739,6 +3760,9 @@
       <c r="BV14" t="s">
         <v>7</v>
       </c>
+      <c r="BW14" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="15" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -3963,6 +3987,9 @@
       <c r="BV15" t="s">
         <v>8</v>
       </c>
+      <c r="BW15" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="16" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -4187,8 +4214,11 @@
       <c r="BV16" t="s">
         <v>8</v>
       </c>
+      <c r="BW16" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="17" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -4411,8 +4441,11 @@
       <c r="BV17" t="s">
         <v>8</v>
       </c>
+      <c r="BW17" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="18" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -4635,8 +4668,11 @@
       <c r="BV18" t="s">
         <v>7</v>
       </c>
+      <c r="BW18" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="19" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>9</v>
       </c>
@@ -4859,8 +4895,11 @@
       <c r="BV19" t="s">
         <v>8</v>
       </c>
+      <c r="BW19" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="20" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>27</v>
       </c>
@@ -5083,8 +5122,11 @@
       <c r="BV20" t="s">
         <v>7</v>
       </c>
+      <c r="BW20" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="21" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>28</v>
       </c>
@@ -5307,8 +5349,11 @@
       <c r="BV21" t="s">
         <v>7</v>
       </c>
+      <c r="BW21" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="22" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>30</v>
       </c>
@@ -5531,8 +5576,11 @@
       <c r="BV22" t="s">
         <v>7</v>
       </c>
+      <c r="BW22" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="23" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>31</v>
       </c>
@@ -5755,8 +5803,11 @@
       <c r="BV23" t="s">
         <v>8</v>
       </c>
+      <c r="BW23" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="24" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>32</v>
       </c>
@@ -5979,8 +6030,11 @@
       <c r="BV24" t="s">
         <v>8</v>
       </c>
+      <c r="BW24" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="25" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>33</v>
       </c>
@@ -6203,8 +6257,11 @@
       <c r="BV25" t="s">
         <v>8</v>
       </c>
+      <c r="BW25" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="26" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>48</v>
       </c>
@@ -6427,8 +6484,11 @@
       <c r="BV26" t="s">
         <v>7</v>
       </c>
+      <c r="BW26" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="27" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>17</v>
       </c>
@@ -6651,8 +6711,11 @@
       <c r="BV27" t="s">
         <v>7</v>
       </c>
+      <c r="BW27" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="28" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>34</v>
       </c>
@@ -6875,8 +6938,11 @@
       <c r="BV28" t="s">
         <v>8</v>
       </c>
+      <c r="BW28" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="29" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>35</v>
       </c>
@@ -7099,8 +7165,11 @@
       <c r="BV29" t="s">
         <v>7</v>
       </c>
+      <c r="BW29" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="30" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>36</v>
       </c>
@@ -7323,8 +7392,11 @@
       <c r="BV30" t="s">
         <v>7</v>
       </c>
+      <c r="BW30" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="31" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>37</v>
       </c>
@@ -7547,8 +7619,11 @@
       <c r="BV31" t="s">
         <v>8</v>
       </c>
+      <c r="BW31" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="32" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>46</v>
       </c>
@@ -7771,8 +7846,11 @@
       <c r="BV32" t="s">
         <v>7</v>
       </c>
+      <c r="BW32" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="33" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>10</v>
       </c>
@@ -7995,8 +8073,11 @@
       <c r="BV33" t="s">
         <v>8</v>
       </c>
+      <c r="BW33" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="34" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>38</v>
       </c>
@@ -8219,8 +8300,11 @@
       <c r="BV34" t="s">
         <v>7</v>
       </c>
+      <c r="BW34" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="35" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>39</v>
       </c>
@@ -8443,8 +8527,11 @@
       <c r="BV35" t="s">
         <v>7</v>
       </c>
+      <c r="BW35" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="36" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>40</v>
       </c>
@@ -8667,8 +8754,11 @@
       <c r="BV36" t="s">
         <v>8</v>
       </c>
+      <c r="BW36" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="37" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>41</v>
       </c>
@@ -8891,8 +8981,11 @@
       <c r="BV37" t="s">
         <v>7</v>
       </c>
+      <c r="BW37" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="38" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>42</v>
       </c>
@@ -9115,8 +9208,11 @@
       <c r="BV38" t="s">
         <v>7</v>
       </c>
+      <c r="BW38" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="39" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>49</v>
       </c>
@@ -9339,8 +9435,11 @@
       <c r="BV39" t="s">
         <v>7</v>
       </c>
+      <c r="BW39" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="40" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>43</v>
       </c>
@@ -9563,8 +9662,11 @@
       <c r="BV40" t="s">
         <v>7</v>
       </c>
+      <c r="BW40" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="41" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>44</v>
       </c>
@@ -9787,8 +9889,11 @@
       <c r="BV41" t="s">
         <v>8</v>
       </c>
+      <c r="BW41" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="42" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>45</v>
       </c>
@@ -10009,6 +10114,9 @@
         <v>8</v>
       </c>
       <c r="BV42" t="s">
+        <v>8</v>
+      </c>
+      <c r="BW42" t="s">
         <v>8</v>
       </c>
     </row>

--- a/1des/frequencia.xlsx
+++ b/1des/frequencia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2023\1des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBA08E96-3D8E-44B9-86B1-3CDF5F0CB611}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CA8E292-D2E1-41A6-80B3-6DE56560A8BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{16894AAC-534F-4800-A9CE-F9EFF9F0773F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{16894AAC-534F-4800-A9CE-F9EFF9F0773F}"/>
   </bookViews>
   <sheets>
     <sheet name="Chamada" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3034" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3078" uniqueCount="51">
   <si>
     <t>Alunos</t>
   </si>
@@ -571,10 +571,10 @@
   <dimension ref="A1:BY42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="AT10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="AT3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="BW42" sqref="BW42"/>
+      <selection pane="bottomRight" activeCell="BX39" sqref="BX39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1275,6 +1275,12 @@
       <c r="BV3" t="s">
         <v>8</v>
       </c>
+      <c r="BW3" t="s">
+        <v>8</v>
+      </c>
+      <c r="BX3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="4" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1499,6 +1505,12 @@
       <c r="BV4" t="s">
         <v>7</v>
       </c>
+      <c r="BW4" t="s">
+        <v>7</v>
+      </c>
+      <c r="BX4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="5" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1723,6 +1735,12 @@
       <c r="BV5" t="s">
         <v>8</v>
       </c>
+      <c r="BW5" t="s">
+        <v>8</v>
+      </c>
+      <c r="BX5" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="6" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -1947,6 +1965,12 @@
       <c r="BV6" t="s">
         <v>8</v>
       </c>
+      <c r="BW6" t="s">
+        <v>8</v>
+      </c>
+      <c r="BX6" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="7" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -2174,6 +2198,9 @@
       <c r="BW7" t="s">
         <v>7</v>
       </c>
+      <c r="BX7" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="8" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -2401,6 +2428,9 @@
       <c r="BW8" t="s">
         <v>7</v>
       </c>
+      <c r="BX8" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="9" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -2628,6 +2658,9 @@
       <c r="BW9" t="s">
         <v>7</v>
       </c>
+      <c r="BX9" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="10" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -2855,6 +2888,9 @@
       <c r="BW10" t="s">
         <v>7</v>
       </c>
+      <c r="BX10" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="11" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -3082,6 +3118,9 @@
       <c r="BW11" t="s">
         <v>7</v>
       </c>
+      <c r="BX11" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="12" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -3309,6 +3348,9 @@
       <c r="BW12" t="s">
         <v>7</v>
       </c>
+      <c r="BX12" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="13" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -3536,6 +3578,9 @@
       <c r="BW13" t="s">
         <v>7</v>
       </c>
+      <c r="BX13" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="14" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -3763,6 +3808,9 @@
       <c r="BW14" t="s">
         <v>7</v>
       </c>
+      <c r="BX14" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="15" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -3990,6 +4038,9 @@
       <c r="BW15" t="s">
         <v>8</v>
       </c>
+      <c r="BX15" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="16" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -4217,8 +4268,11 @@
       <c r="BW16" t="s">
         <v>7</v>
       </c>
+      <c r="BX16" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="17" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -4444,8 +4498,11 @@
       <c r="BW17" t="s">
         <v>8</v>
       </c>
+      <c r="BX17" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="18" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -4671,8 +4728,11 @@
       <c r="BW18" t="s">
         <v>8</v>
       </c>
+      <c r="BX18" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="19" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>9</v>
       </c>
@@ -4898,8 +4958,11 @@
       <c r="BW19" t="s">
         <v>8</v>
       </c>
+      <c r="BX19" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="20" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>27</v>
       </c>
@@ -5125,8 +5188,11 @@
       <c r="BW20" t="s">
         <v>7</v>
       </c>
+      <c r="BX20" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="21" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>28</v>
       </c>
@@ -5352,8 +5418,11 @@
       <c r="BW21" t="s">
         <v>7</v>
       </c>
+      <c r="BX21" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="22" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>30</v>
       </c>
@@ -5579,8 +5648,11 @@
       <c r="BW22" t="s">
         <v>7</v>
       </c>
+      <c r="BX22" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="23" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>31</v>
       </c>
@@ -5806,8 +5878,11 @@
       <c r="BW23" t="s">
         <v>8</v>
       </c>
+      <c r="BX23" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="24" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>32</v>
       </c>
@@ -6033,8 +6108,11 @@
       <c r="BW24" t="s">
         <v>8</v>
       </c>
+      <c r="BX24" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="25" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>33</v>
       </c>
@@ -6260,8 +6338,11 @@
       <c r="BW25" t="s">
         <v>7</v>
       </c>
+      <c r="BX25" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="26" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>48</v>
       </c>
@@ -6487,8 +6568,11 @@
       <c r="BW26" t="s">
         <v>7</v>
       </c>
+      <c r="BX26" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="27" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>17</v>
       </c>
@@ -6714,8 +6798,11 @@
       <c r="BW27" t="s">
         <v>7</v>
       </c>
+      <c r="BX27" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="28" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>34</v>
       </c>
@@ -6941,8 +7028,11 @@
       <c r="BW28" t="s">
         <v>8</v>
       </c>
+      <c r="BX28" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="29" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>35</v>
       </c>
@@ -7168,8 +7258,11 @@
       <c r="BW29" t="s">
         <v>7</v>
       </c>
+      <c r="BX29" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="30" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>36</v>
       </c>
@@ -7395,8 +7488,11 @@
       <c r="BW30" t="s">
         <v>7</v>
       </c>
+      <c r="BX30" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="31" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>37</v>
       </c>
@@ -7622,8 +7718,11 @@
       <c r="BW31" t="s">
         <v>8</v>
       </c>
+      <c r="BX31" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="32" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>46</v>
       </c>
@@ -7849,8 +7948,11 @@
       <c r="BW32" t="s">
         <v>7</v>
       </c>
+      <c r="BX32" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="33" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>10</v>
       </c>
@@ -8076,8 +8178,11 @@
       <c r="BW33" t="s">
         <v>7</v>
       </c>
+      <c r="BX33" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="34" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>38</v>
       </c>
@@ -8303,8 +8408,11 @@
       <c r="BW34" t="s">
         <v>7</v>
       </c>
+      <c r="BX34" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="35" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>39</v>
       </c>
@@ -8530,8 +8638,11 @@
       <c r="BW35" t="s">
         <v>7</v>
       </c>
+      <c r="BX35" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="36" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>40</v>
       </c>
@@ -8757,8 +8868,11 @@
       <c r="BW36" t="s">
         <v>8</v>
       </c>
+      <c r="BX36" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="37" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>41</v>
       </c>
@@ -8984,8 +9098,11 @@
       <c r="BW37" t="s">
         <v>7</v>
       </c>
+      <c r="BX37" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="38" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>42</v>
       </c>
@@ -9211,8 +9328,11 @@
       <c r="BW38" t="s">
         <v>7</v>
       </c>
+      <c r="BX38" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="39" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>49</v>
       </c>
@@ -9438,8 +9558,11 @@
       <c r="BW39" t="s">
         <v>7</v>
       </c>
+      <c r="BX39" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="40" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>43</v>
       </c>
@@ -9665,8 +9788,11 @@
       <c r="BW40" t="s">
         <v>7</v>
       </c>
+      <c r="BX40" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="41" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>44</v>
       </c>
@@ -9892,8 +10018,11 @@
       <c r="BW41" t="s">
         <v>8</v>
       </c>
+      <c r="BX41" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="42" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>45</v>
       </c>
@@ -10117,6 +10246,9 @@
         <v>8</v>
       </c>
       <c r="BW42" t="s">
+        <v>8</v>
+      </c>
+      <c r="BX42" t="s">
         <v>8</v>
       </c>
     </row>

--- a/1des/frequencia.xlsx
+++ b/1des/frequencia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2023\1des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CA8E292-D2E1-41A6-80B3-6DE56560A8BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C9169D4-7E30-4264-8806-FCC77CC68295}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{16894AAC-534F-4800-A9CE-F9EFF9F0773F}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3078" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3122" uniqueCount="51">
   <si>
     <t>Alunos</t>
   </si>
@@ -568,13 +568,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2CF2F16-AB51-4356-B13B-717A13C6773A}">
-  <dimension ref="A1:BY42"/>
+  <dimension ref="A1:CC42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="AT3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="BA3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="BX39" sqref="BX39"/>
+      <selection pane="bottomRight" activeCell="BZ3" sqref="BZ3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -585,10 +585,10 @@
     <col min="12" max="34" width="7" bestFit="1" customWidth="1"/>
     <col min="35" max="51" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="52" max="71" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="72" max="77" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="72" max="81" width="7.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -818,8 +818,20 @@
       <c r="BY1" s="2">
         <v>45240</v>
       </c>
+      <c r="BZ1" s="2">
+        <v>45243</v>
+      </c>
+      <c r="CA1" s="2">
+        <v>45244</v>
+      </c>
+      <c r="CB1" s="2">
+        <v>45246</v>
+      </c>
+      <c r="CC1" s="2">
+        <v>45247</v>
+      </c>
     </row>
-    <row r="2" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1051,8 +1063,20 @@
       <c r="BY2" t="s">
         <v>5</v>
       </c>
+      <c r="BZ2" t="s">
+        <v>5</v>
+      </c>
+      <c r="CA2" t="s">
+        <v>6</v>
+      </c>
+      <c r="CB2" t="s">
+        <v>4</v>
+      </c>
+      <c r="CC2" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="3" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -1281,8 +1305,11 @@
       <c r="BX3" t="s">
         <v>8</v>
       </c>
+      <c r="BY3" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="4" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -1511,8 +1538,11 @@
       <c r="BX4" t="s">
         <v>7</v>
       </c>
+      <c r="BY4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="5" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -1741,8 +1771,11 @@
       <c r="BX5" t="s">
         <v>8</v>
       </c>
+      <c r="BY5" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="6" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -1971,8 +2004,11 @@
       <c r="BX6" t="s">
         <v>8</v>
       </c>
+      <c r="BY6" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="7" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -2201,8 +2237,11 @@
       <c r="BX7" t="s">
         <v>7</v>
       </c>
+      <c r="BY7" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="8" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -2431,8 +2470,11 @@
       <c r="BX8" t="s">
         <v>7</v>
       </c>
+      <c r="BY8" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="9" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>50</v>
       </c>
@@ -2661,8 +2703,11 @@
       <c r="BX9" t="s">
         <v>8</v>
       </c>
+      <c r="BY9" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="10" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -2891,8 +2936,11 @@
       <c r="BX10" t="s">
         <v>8</v>
       </c>
+      <c r="BY10" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="11" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -3121,8 +3169,11 @@
       <c r="BX11" t="s">
         <v>7</v>
       </c>
+      <c r="BY11" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="12" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -3351,8 +3402,11 @@
       <c r="BX12" t="s">
         <v>7</v>
       </c>
+      <c r="BY12" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="13" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -3581,8 +3635,11 @@
       <c r="BX13" t="s">
         <v>7</v>
       </c>
+      <c r="BY13" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="14" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -3811,8 +3868,11 @@
       <c r="BX14" t="s">
         <v>8</v>
       </c>
+      <c r="BY14" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="15" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -4041,8 +4101,11 @@
       <c r="BX15" t="s">
         <v>8</v>
       </c>
+      <c r="BY15" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="16" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -4271,8 +4334,11 @@
       <c r="BX16" t="s">
         <v>7</v>
       </c>
+      <c r="BY16" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="17" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -4501,8 +4567,11 @@
       <c r="BX17" t="s">
         <v>8</v>
       </c>
+      <c r="BY17" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="18" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -4731,8 +4800,11 @@
       <c r="BX18" t="s">
         <v>7</v>
       </c>
+      <c r="BY18" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="19" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>9</v>
       </c>
@@ -4961,8 +5033,11 @@
       <c r="BX19" t="s">
         <v>8</v>
       </c>
+      <c r="BY19" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="20" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>27</v>
       </c>
@@ -5191,8 +5266,11 @@
       <c r="BX20" t="s">
         <v>7</v>
       </c>
+      <c r="BY20" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="21" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>28</v>
       </c>
@@ -5421,8 +5499,11 @@
       <c r="BX21" t="s">
         <v>7</v>
       </c>
+      <c r="BY21" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="22" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>30</v>
       </c>
@@ -5651,8 +5732,11 @@
       <c r="BX22" t="s">
         <v>7</v>
       </c>
+      <c r="BY22" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="23" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>31</v>
       </c>
@@ -5881,8 +5965,11 @@
       <c r="BX23" t="s">
         <v>8</v>
       </c>
+      <c r="BY23" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="24" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>32</v>
       </c>
@@ -6111,8 +6198,11 @@
       <c r="BX24" t="s">
         <v>8</v>
       </c>
+      <c r="BY24" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="25" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>33</v>
       </c>
@@ -6341,8 +6431,11 @@
       <c r="BX25" t="s">
         <v>7</v>
       </c>
+      <c r="BY25" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="26" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>48</v>
       </c>
@@ -6571,8 +6664,11 @@
       <c r="BX26" t="s">
         <v>7</v>
       </c>
+      <c r="BY26" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="27" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>17</v>
       </c>
@@ -6801,8 +6897,11 @@
       <c r="BX27" t="s">
         <v>7</v>
       </c>
+      <c r="BY27" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="28" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>34</v>
       </c>
@@ -7031,8 +7130,11 @@
       <c r="BX28" t="s">
         <v>8</v>
       </c>
+      <c r="BY28" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="29" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>35</v>
       </c>
@@ -7261,8 +7363,11 @@
       <c r="BX29" t="s">
         <v>7</v>
       </c>
+      <c r="BY29" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="30" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>36</v>
       </c>
@@ -7491,8 +7596,11 @@
       <c r="BX30" t="s">
         <v>7</v>
       </c>
+      <c r="BY30" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="31" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>37</v>
       </c>
@@ -7721,8 +7829,11 @@
       <c r="BX31" t="s">
         <v>8</v>
       </c>
+      <c r="BY31" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="32" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>46</v>
       </c>
@@ -7951,8 +8062,11 @@
       <c r="BX32" t="s">
         <v>7</v>
       </c>
+      <c r="BY32" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="33" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>10</v>
       </c>
@@ -8181,8 +8295,11 @@
       <c r="BX33" t="s">
         <v>7</v>
       </c>
+      <c r="BY33" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="34" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>38</v>
       </c>
@@ -8411,8 +8528,11 @@
       <c r="BX34" t="s">
         <v>7</v>
       </c>
+      <c r="BY34" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="35" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>39</v>
       </c>
@@ -8641,8 +8761,11 @@
       <c r="BX35" t="s">
         <v>7</v>
       </c>
+      <c r="BY35" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="36" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>40</v>
       </c>
@@ -8871,8 +8994,11 @@
       <c r="BX36" t="s">
         <v>8</v>
       </c>
+      <c r="BY36" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="37" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>41</v>
       </c>
@@ -9101,8 +9227,11 @@
       <c r="BX37" t="s">
         <v>7</v>
       </c>
+      <c r="BY37" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="38" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>42</v>
       </c>
@@ -9331,8 +9460,11 @@
       <c r="BX38" t="s">
         <v>7</v>
       </c>
+      <c r="BY38" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="39" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>49</v>
       </c>
@@ -9561,8 +9693,11 @@
       <c r="BX39" t="s">
         <v>7</v>
       </c>
+      <c r="BY39" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="40" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>43</v>
       </c>
@@ -9791,8 +9926,11 @@
       <c r="BX40" t="s">
         <v>7</v>
       </c>
+      <c r="BY40" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="41" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>44</v>
       </c>
@@ -10021,8 +10159,11 @@
       <c r="BX41" t="s">
         <v>8</v>
       </c>
+      <c r="BY41" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="42" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>45</v>
       </c>
@@ -10249,6 +10390,9 @@
         <v>8</v>
       </c>
       <c r="BX42" t="s">
+        <v>8</v>
+      </c>
+      <c r="BY42" t="s">
         <v>8</v>
       </c>
     </row>

--- a/1des/frequencia.xlsx
+++ b/1des/frequencia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2023\1des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C9169D4-7E30-4264-8806-FCC77CC68295}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53BD7937-35A2-4CC0-BE9D-1A029B09815B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{16894AAC-534F-4800-A9CE-F9EFF9F0773F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{16894AAC-534F-4800-A9CE-F9EFF9F0773F}"/>
   </bookViews>
   <sheets>
     <sheet name="Chamada" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3122" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3202" uniqueCount="51">
   <si>
     <t>Alunos</t>
   </si>
@@ -242,7 +242,22 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentagem" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -571,10 +586,10 @@
   <dimension ref="A1:CC42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="BA3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="BA8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="BZ3" sqref="BZ3"/>
+      <selection pane="bottomRight" activeCell="CA41" sqref="CA41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1308,6 +1323,12 @@
       <c r="BY3" t="s">
         <v>8</v>
       </c>
+      <c r="BZ3" t="s">
+        <v>8</v>
+      </c>
+      <c r="CA3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="4" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1541,6 +1562,12 @@
       <c r="BY4" t="s">
         <v>7</v>
       </c>
+      <c r="BZ4" t="s">
+        <v>7</v>
+      </c>
+      <c r="CA4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="5" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1774,6 +1801,12 @@
       <c r="BY5" t="s">
         <v>8</v>
       </c>
+      <c r="BZ5" t="s">
+        <v>8</v>
+      </c>
+      <c r="CA5" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="6" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -2007,6 +2040,12 @@
       <c r="BY6" t="s">
         <v>8</v>
       </c>
+      <c r="BZ6" t="s">
+        <v>8</v>
+      </c>
+      <c r="CA6" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="7" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -2240,6 +2279,12 @@
       <c r="BY7" t="s">
         <v>7</v>
       </c>
+      <c r="BZ7" t="s">
+        <v>7</v>
+      </c>
+      <c r="CA7" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="8" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -2473,6 +2518,12 @@
       <c r="BY8" t="s">
         <v>7</v>
       </c>
+      <c r="BZ8" t="s">
+        <v>7</v>
+      </c>
+      <c r="CA8" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="9" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -2704,7 +2755,13 @@
         <v>8</v>
       </c>
       <c r="BY9" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="BZ9" t="s">
+        <v>8</v>
+      </c>
+      <c r="CA9" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:81" x14ac:dyDescent="0.25">
@@ -2939,6 +2996,12 @@
       <c r="BY10" t="s">
         <v>8</v>
       </c>
+      <c r="BZ10" t="s">
+        <v>8</v>
+      </c>
+      <c r="CA10" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="11" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -3172,6 +3235,12 @@
       <c r="BY11" t="s">
         <v>7</v>
       </c>
+      <c r="BZ11" t="s">
+        <v>7</v>
+      </c>
+      <c r="CA11" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="12" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -3405,6 +3474,12 @@
       <c r="BY12" t="s">
         <v>7</v>
       </c>
+      <c r="BZ12" t="s">
+        <v>7</v>
+      </c>
+      <c r="CA12" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="13" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -3638,6 +3713,12 @@
       <c r="BY13" t="s">
         <v>7</v>
       </c>
+      <c r="BZ13" t="s">
+        <v>7</v>
+      </c>
+      <c r="CA13" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="14" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -3871,6 +3952,12 @@
       <c r="BY14" t="s">
         <v>8</v>
       </c>
+      <c r="BZ14" t="s">
+        <v>8</v>
+      </c>
+      <c r="CA14" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="15" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -4104,6 +4191,12 @@
       <c r="BY15" t="s">
         <v>8</v>
       </c>
+      <c r="BZ15" t="s">
+        <v>8</v>
+      </c>
+      <c r="CA15" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="16" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -4337,8 +4430,14 @@
       <c r="BY16" t="s">
         <v>7</v>
       </c>
+      <c r="BZ16" t="s">
+        <v>7</v>
+      </c>
+      <c r="CA16" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="17" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -4570,8 +4669,14 @@
       <c r="BY17" t="s">
         <v>8</v>
       </c>
+      <c r="BZ17" t="s">
+        <v>8</v>
+      </c>
+      <c r="CA17" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="18" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -4803,8 +4908,14 @@
       <c r="BY18" t="s">
         <v>7</v>
       </c>
+      <c r="BZ18" t="s">
+        <v>7</v>
+      </c>
+      <c r="CA18" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="19" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>9</v>
       </c>
@@ -5036,8 +5147,14 @@
       <c r="BY19" t="s">
         <v>8</v>
       </c>
+      <c r="BZ19" t="s">
+        <v>8</v>
+      </c>
+      <c r="CA19" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="20" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>27</v>
       </c>
@@ -5269,8 +5386,14 @@
       <c r="BY20" t="s">
         <v>7</v>
       </c>
+      <c r="BZ20" t="s">
+        <v>7</v>
+      </c>
+      <c r="CA20" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="21" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>28</v>
       </c>
@@ -5502,8 +5625,14 @@
       <c r="BY21" t="s">
         <v>7</v>
       </c>
+      <c r="BZ21" t="s">
+        <v>7</v>
+      </c>
+      <c r="CA21" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="22" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>30</v>
       </c>
@@ -5735,8 +5864,14 @@
       <c r="BY22" t="s">
         <v>7</v>
       </c>
+      <c r="BZ22" t="s">
+        <v>7</v>
+      </c>
+      <c r="CA22" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="23" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>31</v>
       </c>
@@ -5968,8 +6103,14 @@
       <c r="BY23" t="s">
         <v>8</v>
       </c>
+      <c r="BZ23" t="s">
+        <v>8</v>
+      </c>
+      <c r="CA23" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="24" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>32</v>
       </c>
@@ -6201,8 +6342,14 @@
       <c r="BY24" t="s">
         <v>8</v>
       </c>
+      <c r="BZ24" t="s">
+        <v>8</v>
+      </c>
+      <c r="CA24" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="25" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>33</v>
       </c>
@@ -6434,8 +6581,14 @@
       <c r="BY25" t="s">
         <v>7</v>
       </c>
+      <c r="BZ25" t="s">
+        <v>8</v>
+      </c>
+      <c r="CA25" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="26" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>48</v>
       </c>
@@ -6667,8 +6820,14 @@
       <c r="BY26" t="s">
         <v>7</v>
       </c>
+      <c r="BZ26" t="s">
+        <v>7</v>
+      </c>
+      <c r="CA26" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="27" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>17</v>
       </c>
@@ -6900,8 +7059,14 @@
       <c r="BY27" t="s">
         <v>7</v>
       </c>
+      <c r="BZ27" t="s">
+        <v>7</v>
+      </c>
+      <c r="CA27" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="28" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>34</v>
       </c>
@@ -7133,8 +7298,14 @@
       <c r="BY28" t="s">
         <v>8</v>
       </c>
+      <c r="BZ28" t="s">
+        <v>8</v>
+      </c>
+      <c r="CA28" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="29" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>35</v>
       </c>
@@ -7366,8 +7537,14 @@
       <c r="BY29" t="s">
         <v>7</v>
       </c>
+      <c r="BZ29" t="s">
+        <v>8</v>
+      </c>
+      <c r="CA29" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="30" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>36</v>
       </c>
@@ -7599,8 +7776,14 @@
       <c r="BY30" t="s">
         <v>7</v>
       </c>
+      <c r="BZ30" t="s">
+        <v>7</v>
+      </c>
+      <c r="CA30" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="31" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>37</v>
       </c>
@@ -7832,8 +8015,14 @@
       <c r="BY31" t="s">
         <v>8</v>
       </c>
+      <c r="BZ31" t="s">
+        <v>8</v>
+      </c>
+      <c r="CA31" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="32" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>46</v>
       </c>
@@ -8065,8 +8254,14 @@
       <c r="BY32" t="s">
         <v>7</v>
       </c>
+      <c r="BZ32" t="s">
+        <v>7</v>
+      </c>
+      <c r="CA32" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="33" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>10</v>
       </c>
@@ -8298,8 +8493,14 @@
       <c r="BY33" t="s">
         <v>7</v>
       </c>
+      <c r="BZ33" t="s">
+        <v>7</v>
+      </c>
+      <c r="CA33" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="34" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>38</v>
       </c>
@@ -8531,8 +8732,14 @@
       <c r="BY34" t="s">
         <v>7</v>
       </c>
+      <c r="BZ34" t="s">
+        <v>7</v>
+      </c>
+      <c r="CA34" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="35" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>39</v>
       </c>
@@ -8764,8 +8971,14 @@
       <c r="BY35" t="s">
         <v>7</v>
       </c>
+      <c r="BZ35" t="s">
+        <v>7</v>
+      </c>
+      <c r="CA35" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="36" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>40</v>
       </c>
@@ -8997,8 +9210,14 @@
       <c r="BY36" t="s">
         <v>8</v>
       </c>
+      <c r="BZ36" t="s">
+        <v>8</v>
+      </c>
+      <c r="CA36" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="37" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>41</v>
       </c>
@@ -9230,8 +9449,14 @@
       <c r="BY37" t="s">
         <v>7</v>
       </c>
+      <c r="BZ37" t="s">
+        <v>7</v>
+      </c>
+      <c r="CA37" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="38" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>42</v>
       </c>
@@ -9463,8 +9688,14 @@
       <c r="BY38" t="s">
         <v>7</v>
       </c>
+      <c r="BZ38" t="s">
+        <v>7</v>
+      </c>
+      <c r="CA38" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="39" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>49</v>
       </c>
@@ -9696,8 +9927,14 @@
       <c r="BY39" t="s">
         <v>7</v>
       </c>
+      <c r="BZ39" t="s">
+        <v>7</v>
+      </c>
+      <c r="CA39" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="40" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>43</v>
       </c>
@@ -9929,8 +10166,14 @@
       <c r="BY40" t="s">
         <v>7</v>
       </c>
+      <c r="BZ40" t="s">
+        <v>7</v>
+      </c>
+      <c r="CA40" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="41" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>44</v>
       </c>
@@ -10162,8 +10405,14 @@
       <c r="BY41" t="s">
         <v>8</v>
       </c>
+      <c r="BZ41" t="s">
+        <v>8</v>
+      </c>
+      <c r="CA41" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="42" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>45</v>
       </c>
@@ -10393,6 +10642,12 @@
         <v>8</v>
       </c>
       <c r="BY42" t="s">
+        <v>8</v>
+      </c>
+      <c r="BZ42" t="s">
+        <v>8</v>
+      </c>
+      <c r="CA42" t="s">
         <v>8</v>
       </c>
     </row>
@@ -10403,7 +10658,15 @@
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
   </mergeCells>
-  <conditionalFormatting sqref="A1:XFD1048576">
+  <conditionalFormatting sqref="A1:XFD2 A43:XFD1048576 A3:BX42 CA3:XFD42">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BY3:BZ42">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>

--- a/1des/frequencia.xlsx
+++ b/1des/frequencia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2023\1des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53BD7937-35A2-4CC0-BE9D-1A029B09815B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46524E08-0C26-498A-A477-D991C1E6CB33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{16894AAC-534F-4800-A9CE-F9EFF9F0773F}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3202" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3282" uniqueCount="51">
   <si>
     <t>Alunos</t>
   </si>
@@ -242,22 +242,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentagem" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -589,7 +574,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="BA8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="CA41" sqref="CA41"/>
+      <selection pane="bottomRight" activeCell="CB43" sqref="CB43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1329,6 +1314,12 @@
       <c r="CA3" t="s">
         <v>8</v>
       </c>
+      <c r="CB3" t="s">
+        <v>8</v>
+      </c>
+      <c r="CC3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="4" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1568,6 +1559,12 @@
       <c r="CA4" t="s">
         <v>7</v>
       </c>
+      <c r="CB4" t="s">
+        <v>7</v>
+      </c>
+      <c r="CC4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="5" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1807,6 +1804,12 @@
       <c r="CA5" t="s">
         <v>8</v>
       </c>
+      <c r="CB5" t="s">
+        <v>8</v>
+      </c>
+      <c r="CC5" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="6" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -2046,6 +2049,12 @@
       <c r="CA6" t="s">
         <v>8</v>
       </c>
+      <c r="CB6" t="s">
+        <v>8</v>
+      </c>
+      <c r="CC6" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="7" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -2285,6 +2294,12 @@
       <c r="CA7" t="s">
         <v>7</v>
       </c>
+      <c r="CB7" t="s">
+        <v>7</v>
+      </c>
+      <c r="CC7" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="8" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -2524,6 +2539,12 @@
       <c r="CA8" t="s">
         <v>7</v>
       </c>
+      <c r="CB8" t="s">
+        <v>7</v>
+      </c>
+      <c r="CC8" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="9" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -2763,6 +2784,12 @@
       <c r="CA9" t="s">
         <v>7</v>
       </c>
+      <c r="CB9" t="s">
+        <v>7</v>
+      </c>
+      <c r="CC9" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="10" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -3002,6 +3029,12 @@
       <c r="CA10" t="s">
         <v>7</v>
       </c>
+      <c r="CB10" t="s">
+        <v>7</v>
+      </c>
+      <c r="CC10" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="11" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -3241,6 +3274,12 @@
       <c r="CA11" t="s">
         <v>7</v>
       </c>
+      <c r="CB11" t="s">
+        <v>7</v>
+      </c>
+      <c r="CC11" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="12" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -3480,6 +3519,12 @@
       <c r="CA12" t="s">
         <v>7</v>
       </c>
+      <c r="CB12" t="s">
+        <v>7</v>
+      </c>
+      <c r="CC12" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="13" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -3719,6 +3764,12 @@
       <c r="CA13" t="s">
         <v>7</v>
       </c>
+      <c r="CB13" t="s">
+        <v>7</v>
+      </c>
+      <c r="CC13" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="14" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -3958,6 +4009,12 @@
       <c r="CA14" t="s">
         <v>8</v>
       </c>
+      <c r="CB14" t="s">
+        <v>8</v>
+      </c>
+      <c r="CC14" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="15" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -4197,6 +4254,12 @@
       <c r="CA15" t="s">
         <v>8</v>
       </c>
+      <c r="CB15" t="s">
+        <v>8</v>
+      </c>
+      <c r="CC15" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="16" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -4436,8 +4499,14 @@
       <c r="CA16" t="s">
         <v>8</v>
       </c>
+      <c r="CB16" t="s">
+        <v>7</v>
+      </c>
+      <c r="CC16" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="17" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -4675,8 +4744,14 @@
       <c r="CA17" t="s">
         <v>8</v>
       </c>
+      <c r="CB17" t="s">
+        <v>8</v>
+      </c>
+      <c r="CC17" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="18" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -4914,8 +4989,14 @@
       <c r="CA18" t="s">
         <v>7</v>
       </c>
+      <c r="CB18" t="s">
+        <v>7</v>
+      </c>
+      <c r="CC18" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="19" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>9</v>
       </c>
@@ -5153,8 +5234,14 @@
       <c r="CA19" t="s">
         <v>8</v>
       </c>
+      <c r="CB19" t="s">
+        <v>8</v>
+      </c>
+      <c r="CC19" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="20" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>27</v>
       </c>
@@ -5392,8 +5479,14 @@
       <c r="CA20" t="s">
         <v>7</v>
       </c>
+      <c r="CB20" t="s">
+        <v>7</v>
+      </c>
+      <c r="CC20" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="21" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>28</v>
       </c>
@@ -5631,8 +5724,14 @@
       <c r="CA21" t="s">
         <v>7</v>
       </c>
+      <c r="CB21" t="s">
+        <v>7</v>
+      </c>
+      <c r="CC21" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="22" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>30</v>
       </c>
@@ -5870,8 +5969,14 @@
       <c r="CA22" t="s">
         <v>7</v>
       </c>
+      <c r="CB22" t="s">
+        <v>7</v>
+      </c>
+      <c r="CC22" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="23" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>31</v>
       </c>
@@ -6109,8 +6214,14 @@
       <c r="CA23" t="s">
         <v>8</v>
       </c>
+      <c r="CB23" t="s">
+        <v>8</v>
+      </c>
+      <c r="CC23" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="24" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>32</v>
       </c>
@@ -6348,8 +6459,14 @@
       <c r="CA24" t="s">
         <v>8</v>
       </c>
+      <c r="CB24" t="s">
+        <v>8</v>
+      </c>
+      <c r="CC24" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="25" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>33</v>
       </c>
@@ -6587,8 +6704,14 @@
       <c r="CA25" t="s">
         <v>7</v>
       </c>
+      <c r="CB25" t="s">
+        <v>7</v>
+      </c>
+      <c r="CC25" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="26" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>48</v>
       </c>
@@ -6826,8 +6949,14 @@
       <c r="CA26" t="s">
         <v>7</v>
       </c>
+      <c r="CB26" t="s">
+        <v>7</v>
+      </c>
+      <c r="CC26" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="27" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>17</v>
       </c>
@@ -7065,8 +7194,14 @@
       <c r="CA27" t="s">
         <v>7</v>
       </c>
+      <c r="CB27" t="s">
+        <v>7</v>
+      </c>
+      <c r="CC27" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="28" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>34</v>
       </c>
@@ -7304,8 +7439,14 @@
       <c r="CA28" t="s">
         <v>8</v>
       </c>
+      <c r="CB28" t="s">
+        <v>8</v>
+      </c>
+      <c r="CC28" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="29" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>35</v>
       </c>
@@ -7543,8 +7684,14 @@
       <c r="CA29" t="s">
         <v>8</v>
       </c>
+      <c r="CB29" t="s">
+        <v>7</v>
+      </c>
+      <c r="CC29" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="30" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>36</v>
       </c>
@@ -7782,8 +7929,14 @@
       <c r="CA30" t="s">
         <v>7</v>
       </c>
+      <c r="CB30" t="s">
+        <v>7</v>
+      </c>
+      <c r="CC30" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="31" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>37</v>
       </c>
@@ -8021,8 +8174,14 @@
       <c r="CA31" t="s">
         <v>8</v>
       </c>
+      <c r="CB31" t="s">
+        <v>8</v>
+      </c>
+      <c r="CC31" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="32" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>46</v>
       </c>
@@ -8260,8 +8419,14 @@
       <c r="CA32" t="s">
         <v>7</v>
       </c>
+      <c r="CB32" t="s">
+        <v>7</v>
+      </c>
+      <c r="CC32" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="33" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>10</v>
       </c>
@@ -8499,8 +8664,14 @@
       <c r="CA33" t="s">
         <v>7</v>
       </c>
+      <c r="CB33" t="s">
+        <v>7</v>
+      </c>
+      <c r="CC33" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="34" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>38</v>
       </c>
@@ -8738,8 +8909,14 @@
       <c r="CA34" t="s">
         <v>7</v>
       </c>
+      <c r="CB34" t="s">
+        <v>7</v>
+      </c>
+      <c r="CC34" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="35" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>39</v>
       </c>
@@ -8977,8 +9154,14 @@
       <c r="CA35" t="s">
         <v>7</v>
       </c>
+      <c r="CB35" t="s">
+        <v>7</v>
+      </c>
+      <c r="CC35" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="36" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>40</v>
       </c>
@@ -9216,8 +9399,14 @@
       <c r="CA36" t="s">
         <v>8</v>
       </c>
+      <c r="CB36" t="s">
+        <v>8</v>
+      </c>
+      <c r="CC36" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="37" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>41</v>
       </c>
@@ -9455,8 +9644,14 @@
       <c r="CA37" t="s">
         <v>8</v>
       </c>
+      <c r="CB37" t="s">
+        <v>7</v>
+      </c>
+      <c r="CC37" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="38" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>42</v>
       </c>
@@ -9694,8 +9889,14 @@
       <c r="CA38" t="s">
         <v>7</v>
       </c>
+      <c r="CB38" t="s">
+        <v>7</v>
+      </c>
+      <c r="CC38" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="39" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>49</v>
       </c>
@@ -9933,8 +10134,14 @@
       <c r="CA39" t="s">
         <v>8</v>
       </c>
+      <c r="CB39" t="s">
+        <v>7</v>
+      </c>
+      <c r="CC39" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="40" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>43</v>
       </c>
@@ -10172,8 +10379,14 @@
       <c r="CA40" t="s">
         <v>7</v>
       </c>
+      <c r="CB40" t="s">
+        <v>7</v>
+      </c>
+      <c r="CC40" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="41" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>44</v>
       </c>
@@ -10411,8 +10624,14 @@
       <c r="CA41" t="s">
         <v>8</v>
       </c>
+      <c r="CB41" t="s">
+        <v>8</v>
+      </c>
+      <c r="CC41" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="42" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>45</v>
       </c>
@@ -10648,6 +10867,12 @@
         <v>8</v>
       </c>
       <c r="CA42" t="s">
+        <v>8</v>
+      </c>
+      <c r="CB42" t="s">
+        <v>8</v>
+      </c>
+      <c r="CC42" t="s">
         <v>8</v>
       </c>
     </row>
@@ -10658,15 +10883,7 @@
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
   </mergeCells>
-  <conditionalFormatting sqref="A1:XFD2 A43:XFD1048576 A3:BX42 CA3:XFD42">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
-      <formula>"F"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
-      <formula>"F"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BY3:BZ42">
+  <conditionalFormatting sqref="A1:XFD1048576">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>

--- a/1des/frequencia.xlsx
+++ b/1des/frequencia.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2023\1des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46524E08-0C26-498A-A477-D991C1E6CB33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC49AD29-9953-4DEF-820F-6C5BBD79AF3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{16894AAC-534F-4800-A9CE-F9EFF9F0773F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{16894AAC-534F-4800-A9CE-F9EFF9F0773F}"/>
   </bookViews>
   <sheets>
-    <sheet name="Chamada" sheetId="1" r:id="rId1"/>
+    <sheet name="todos" sheetId="2" r:id="rId1"/>
+    <sheet name="Chamada" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3282" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2844" uniqueCount="53">
   <si>
     <t>Alunos</t>
   </si>
@@ -178,6 +179,12 @@
   </si>
   <si>
     <t>Bryan Beckham de Alencar de Souza</t>
+  </si>
+  <si>
+    <t>Aluno</t>
+  </si>
+  <si>
+    <t>Orden</t>
   </si>
 </sst>
 </file>
@@ -567,14 +574,361 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED91B053-89F3-40FB-B80E-B27AA5D69A9B}">
+  <dimension ref="A1:B41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="40.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>46</v>
+      </c>
+      <c r="B31">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>42</v>
+      </c>
+      <c r="B37">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>49</v>
+      </c>
+      <c r="B38">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>43</v>
+      </c>
+      <c r="B39">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>44</v>
+      </c>
+      <c r="B40">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>45</v>
+      </c>
+      <c r="B41">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2CF2F16-AB51-4356-B13B-717A13C6773A}">
-  <dimension ref="A1:CC42"/>
+  <dimension ref="A1:CC36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="BA8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="AZ3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="CB43" sqref="CB43"/>
+      <selection pane="bottomRight" activeCell="BR13" sqref="BR13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1813,7 +2167,7 @@
     </row>
     <row r="6" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B6">
         <v>4</v>
@@ -1828,7 +2182,7 @@
         <v>7</v>
       </c>
       <c r="F6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G6" t="s">
         <v>7</v>
@@ -1855,7 +2209,7 @@
         <v>7</v>
       </c>
       <c r="O6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="P6" t="s">
         <v>7</v>
@@ -1876,16 +2230,16 @@
         <v>7</v>
       </c>
       <c r="V6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="W6" t="s">
         <v>7</v>
       </c>
       <c r="X6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Y6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Z6" t="s">
         <v>7</v>
@@ -1897,10 +2251,10 @@
         <v>7</v>
       </c>
       <c r="AC6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AD6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AE6" t="s">
         <v>7</v>
@@ -1909,13 +2263,13 @@
         <v>7</v>
       </c>
       <c r="AG6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AH6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AI6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AJ6" t="s">
         <v>7</v>
@@ -1933,85 +2287,85 @@
         <v>7</v>
       </c>
       <c r="AO6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AP6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AQ6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AR6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AS6" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AT6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AU6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AV6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AW6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AX6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AY6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AZ6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BA6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BB6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BC6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BD6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BE6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BF6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BG6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BH6" t="s">
         <v>8</v>
       </c>
       <c r="BI6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BJ6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BK6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BL6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BM6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BN6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BO6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BP6" t="s">
         <v>8</v>
@@ -2020,45 +2374,45 @@
         <v>8</v>
       </c>
       <c r="BR6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BS6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BT6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BU6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BV6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BW6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BX6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BY6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BZ6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CA6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CB6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CC6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B7">
         <v>5</v>
@@ -2235,7 +2589,7 @@
         <v>7</v>
       </c>
       <c r="BH7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BI7" t="s">
         <v>7</v>
@@ -2259,10 +2613,10 @@
         <v>7</v>
       </c>
       <c r="BP7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BQ7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BR7" t="s">
         <v>7</v>
@@ -2303,19 +2657,19 @@
     </row>
     <row r="8" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="B8">
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="D8" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="E8" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="F8" t="s">
         <v>7</v>
@@ -2339,7 +2693,7 @@
         <v>7</v>
       </c>
       <c r="M8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N8" t="s">
         <v>7</v>
@@ -2351,7 +2705,7 @@
         <v>7</v>
       </c>
       <c r="Q8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R8" t="s">
         <v>7</v>
@@ -2375,7 +2729,7 @@
         <v>7</v>
       </c>
       <c r="Y8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Z8" t="s">
         <v>7</v>
@@ -2402,7 +2756,7 @@
         <v>7</v>
       </c>
       <c r="AH8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AI8" t="s">
         <v>7</v>
@@ -2411,7 +2765,7 @@
         <v>7</v>
       </c>
       <c r="AK8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AL8" t="s">
         <v>7</v>
@@ -2423,7 +2777,7 @@
         <v>7</v>
       </c>
       <c r="AO8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AP8" t="s">
         <v>7</v>
@@ -2438,7 +2792,7 @@
         <v>7</v>
       </c>
       <c r="AT8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AU8" t="s">
         <v>7</v>
@@ -2450,13 +2804,13 @@
         <v>7</v>
       </c>
       <c r="AX8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AY8" t="s">
         <v>7</v>
       </c>
       <c r="AZ8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA8" t="s">
         <v>7</v>
@@ -2465,22 +2819,22 @@
         <v>7</v>
       </c>
       <c r="BC8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BD8" t="s">
         <v>7</v>
       </c>
       <c r="BE8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BF8" t="s">
         <v>7</v>
       </c>
       <c r="BG8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BH8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BI8" t="s">
         <v>7</v>
@@ -2492,7 +2846,7 @@
         <v>7</v>
       </c>
       <c r="BL8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BM8" t="s">
         <v>7</v>
@@ -2507,7 +2861,7 @@
         <v>7</v>
       </c>
       <c r="BQ8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BR8" t="s">
         <v>7</v>
@@ -2516,7 +2870,7 @@
         <v>7</v>
       </c>
       <c r="BT8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BU8" t="s">
         <v>7</v>
@@ -2528,13 +2882,13 @@
         <v>7</v>
       </c>
       <c r="BX8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BY8" t="s">
         <v>7</v>
       </c>
       <c r="BZ8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CA8" t="s">
         <v>7</v>
@@ -2548,19 +2902,19 @@
     </row>
     <row r="9" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="B9">
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="E9" t="s">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="F9" t="s">
         <v>7</v>
@@ -2584,7 +2938,7 @@
         <v>7</v>
       </c>
       <c r="M9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N9" t="s">
         <v>7</v>
@@ -2596,7 +2950,7 @@
         <v>7</v>
       </c>
       <c r="Q9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R9" t="s">
         <v>7</v>
@@ -2620,7 +2974,7 @@
         <v>7</v>
       </c>
       <c r="Y9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Z9" t="s">
         <v>7</v>
@@ -2647,7 +3001,7 @@
         <v>7</v>
       </c>
       <c r="AH9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AI9" t="s">
         <v>7</v>
@@ -2656,7 +3010,7 @@
         <v>7</v>
       </c>
       <c r="AK9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AL9" t="s">
         <v>7</v>
@@ -2668,7 +3022,7 @@
         <v>7</v>
       </c>
       <c r="AO9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AP9" t="s">
         <v>7</v>
@@ -2683,7 +3037,7 @@
         <v>7</v>
       </c>
       <c r="AT9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AU9" t="s">
         <v>7</v>
@@ -2695,13 +3049,13 @@
         <v>7</v>
       </c>
       <c r="AX9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AY9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AZ9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BA9" t="s">
         <v>7</v>
@@ -2710,22 +3064,22 @@
         <v>7</v>
       </c>
       <c r="BC9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BD9" t="s">
         <v>7</v>
       </c>
       <c r="BE9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BF9" t="s">
         <v>7</v>
       </c>
       <c r="BG9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BH9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BI9" t="s">
         <v>7</v>
@@ -2737,7 +3091,7 @@
         <v>7</v>
       </c>
       <c r="BL9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BM9" t="s">
         <v>7</v>
@@ -2752,7 +3106,7 @@
         <v>7</v>
       </c>
       <c r="BQ9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BR9" t="s">
         <v>7</v>
@@ -2761,13 +3115,13 @@
         <v>7</v>
       </c>
       <c r="BT9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BU9" t="s">
         <v>7</v>
       </c>
       <c r="BV9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BW9" t="s">
         <v>7</v>
@@ -2776,7 +3130,7 @@
         <v>8</v>
       </c>
       <c r="BY9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BZ9" t="s">
         <v>8</v>
@@ -2793,7 +3147,7 @@
     </row>
     <row r="10" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B10">
         <v>8</v>
@@ -2868,7 +3222,7 @@
         <v>7</v>
       </c>
       <c r="Z10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AA10" t="s">
         <v>7</v>
@@ -2943,7 +3297,7 @@
         <v>7</v>
       </c>
       <c r="AY10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AZ10" t="s">
         <v>7</v>
@@ -3012,19 +3366,19 @@
         <v>7</v>
       </c>
       <c r="BV10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BW10" t="s">
         <v>7</v>
       </c>
       <c r="BX10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BY10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BZ10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CA10" t="s">
         <v>7</v>
@@ -3038,7 +3392,7 @@
     </row>
     <row r="11" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B11">
         <v>9</v>
@@ -3113,7 +3467,7 @@
         <v>7</v>
       </c>
       <c r="Z11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AA11" t="s">
         <v>7</v>
@@ -3212,7 +3566,7 @@
         <v>7</v>
       </c>
       <c r="BG11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BH11" t="s">
         <v>7</v>
@@ -3283,7 +3637,7 @@
     </row>
     <row r="12" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="B12">
         <v>10</v>
@@ -3418,7 +3772,7 @@
         <v>7</v>
       </c>
       <c r="AT12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AU12" t="s">
         <v>7</v>
@@ -3457,7 +3811,7 @@
         <v>7</v>
       </c>
       <c r="BG12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BH12" t="s">
         <v>7</v>
@@ -3528,7 +3882,7 @@
     </row>
     <row r="13" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B13">
         <v>11</v>
@@ -3543,7 +3897,7 @@
         <v>7</v>
       </c>
       <c r="F13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G13" t="s">
         <v>7</v>
@@ -3570,7 +3924,7 @@
         <v>7</v>
       </c>
       <c r="O13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="P13" t="s">
         <v>7</v>
@@ -3591,7 +3945,7 @@
         <v>7</v>
       </c>
       <c r="V13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="W13" t="s">
         <v>7</v>
@@ -3609,7 +3963,7 @@
         <v>7</v>
       </c>
       <c r="AB13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AC13" t="s">
         <v>7</v>
@@ -3648,7 +4002,7 @@
         <v>7</v>
       </c>
       <c r="AO13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AP13" t="s">
         <v>7</v>
@@ -3657,7 +4011,7 @@
         <v>7</v>
       </c>
       <c r="AR13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AS13" s="3" t="s">
         <v>7</v>
@@ -3675,25 +4029,25 @@
         <v>7</v>
       </c>
       <c r="AX13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AY13" t="s">
         <v>7</v>
       </c>
       <c r="AZ13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA13" t="s">
         <v>7</v>
       </c>
       <c r="BB13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BC13" t="s">
         <v>7</v>
       </c>
       <c r="BD13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BE13" t="s">
         <v>7</v>
@@ -3702,13 +4056,13 @@
         <v>7</v>
       </c>
       <c r="BG13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BH13" t="s">
         <v>7</v>
       </c>
       <c r="BI13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BJ13" t="s">
         <v>7</v>
@@ -3720,19 +4074,19 @@
         <v>7</v>
       </c>
       <c r="BM13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BN13" t="s">
         <v>7</v>
       </c>
       <c r="BO13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BP13" t="s">
         <v>7</v>
       </c>
       <c r="BQ13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BR13" t="s">
         <v>7</v>
@@ -3741,7 +4095,7 @@
         <v>7</v>
       </c>
       <c r="BT13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BU13" t="s">
         <v>7</v>
@@ -3753,27 +4107,27 @@
         <v>7</v>
       </c>
       <c r="BX13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BY13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BZ13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CA13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CB13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CC13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B14">
         <v>12</v>
@@ -3788,7 +4142,7 @@
         <v>7</v>
       </c>
       <c r="F14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G14" t="s">
         <v>7</v>
@@ -3836,7 +4190,7 @@
         <v>7</v>
       </c>
       <c r="V14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="W14" t="s">
         <v>7</v>
@@ -3890,25 +4244,25 @@
         <v>7</v>
       </c>
       <c r="AN14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AO14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AP14" t="s">
         <v>7</v>
       </c>
       <c r="AQ14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AR14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AS14" s="3" t="s">
         <v>7</v>
       </c>
       <c r="AT14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AU14" t="s">
         <v>7</v>
@@ -3926,7 +4280,7 @@
         <v>7</v>
       </c>
       <c r="AZ14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BA14" t="s">
         <v>7</v>
@@ -3938,7 +4292,7 @@
         <v>7</v>
       </c>
       <c r="BD14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BE14" t="s">
         <v>7</v>
@@ -3965,10 +4319,10 @@
         <v>7</v>
       </c>
       <c r="BM14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BN14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BO14" t="s">
         <v>8</v>
@@ -3977,7 +4331,7 @@
         <v>7</v>
       </c>
       <c r="BQ14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BR14" t="s">
         <v>7</v>
@@ -3986,114 +4340,114 @@
         <v>7</v>
       </c>
       <c r="BT14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BU14" t="s">
         <v>7</v>
       </c>
       <c r="BV14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BW14" t="s">
         <v>7</v>
       </c>
       <c r="BX14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BY14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BZ14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CA14" t="s">
         <v>8</v>
       </c>
       <c r="CB14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CC14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B15">
         <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="D15" t="s">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="E15" t="s">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="F15" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="G15" t="s">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="I15" t="s">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="J15" t="s">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="K15" t="s">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="L15" t="s">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="M15" t="s">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="N15" t="s">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="O15" t="s">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="P15" t="s">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="Q15" t="s">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="R15" t="s">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="S15" t="s">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="T15" t="s">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="U15" t="s">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="V15" t="s">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="W15" t="s">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="X15" t="s">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="Y15" t="s">
         <v>7</v>
       </c>
       <c r="Z15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AA15" t="s">
         <v>7</v>
@@ -4105,177 +4459,177 @@
         <v>7</v>
       </c>
       <c r="AD15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AE15" t="s">
         <v>7</v>
       </c>
       <c r="AF15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AG15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AH15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AI15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AJ15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AK15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AL15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AM15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AN15" t="s">
         <v>8</v>
       </c>
       <c r="AO15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AP15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AQ15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AR15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AS15" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AT15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AU15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AV15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AW15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AX15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AY15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AZ15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BA15" t="s">
         <v>8</v>
       </c>
       <c r="BB15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BC15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BD15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BE15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BF15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BG15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BH15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BI15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BJ15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BK15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BL15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BM15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BN15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BO15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BP15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BQ15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BR15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BS15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BT15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BU15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BV15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BW15" t="s">
         <v>8</v>
       </c>
       <c r="BX15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BY15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BZ15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CA15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CB15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CC15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B16">
         <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="D16" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="E16" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="F16" t="s">
         <v>7</v>
@@ -4308,154 +4662,154 @@
         <v>8</v>
       </c>
       <c r="P16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Q16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="S16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="T16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="U16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="V16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="W16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="X16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Y16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Z16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AA16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AB16" t="s">
         <v>8</v>
       </c>
       <c r="AC16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AD16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AE16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AF16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AG16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AH16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AI16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AJ16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AK16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AL16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AM16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AN16" t="s">
         <v>8</v>
       </c>
       <c r="AO16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AP16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AQ16" t="s">
         <v>8</v>
       </c>
       <c r="AR16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AS16" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AT16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AU16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AV16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AW16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AX16" t="s">
         <v>8</v>
       </c>
       <c r="AY16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AZ16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BB16" t="s">
         <v>8</v>
       </c>
       <c r="BC16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BD16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BE16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BF16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BG16" t="s">
         <v>8</v>
       </c>
       <c r="BH16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BI16" t="s">
         <v>8</v>
       </c>
       <c r="BJ16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BK16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BL16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BM16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BN16" t="s">
         <v>8</v>
@@ -4464,51 +4818,51 @@
         <v>8</v>
       </c>
       <c r="BP16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BQ16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BR16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BS16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BT16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BU16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BV16" t="s">
         <v>8</v>
       </c>
       <c r="BW16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BX16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BY16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BZ16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CA16" t="s">
         <v>8</v>
       </c>
       <c r="CB16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CC16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="B17">
         <v>15</v>
@@ -4550,7 +4904,7 @@
         <v>7</v>
       </c>
       <c r="O17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="P17" t="s">
         <v>7</v>
@@ -4562,198 +4916,198 @@
         <v>7</v>
       </c>
       <c r="S17" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="T17" t="s">
         <v>7</v>
       </c>
       <c r="U17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="V17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="W17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="X17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Y17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Z17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AA17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AB17" t="s">
         <v>8</v>
       </c>
       <c r="AC17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AD17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AE17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AF17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AG17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AH17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AI17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AJ17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AK17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AL17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AM17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AN17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AO17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AP17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AQ17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AR17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AS17" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AT17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AU17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AV17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AW17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AX17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AY17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AZ17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BA17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BB17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BC17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BD17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BE17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BF17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BG17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BH17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BI17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BJ17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BK17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BL17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BM17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BN17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BO17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BP17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BQ17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BR17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BS17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BT17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BU17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BV17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BW17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BX17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BY17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BZ17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CA17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CB17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CC17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="B18">
         <v>16</v>
@@ -4768,7 +5122,7 @@
         <v>7</v>
       </c>
       <c r="F18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G18" t="s">
         <v>7</v>
@@ -4870,7 +5224,7 @@
         <v>7</v>
       </c>
       <c r="AN18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AO18" t="s">
         <v>7</v>
@@ -4909,7 +5263,7 @@
         <v>7</v>
       </c>
       <c r="BA18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BB18" t="s">
         <v>7</v>
@@ -4975,7 +5329,7 @@
         <v>7</v>
       </c>
       <c r="BW18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BX18" t="s">
         <v>7</v>
@@ -4998,19 +5352,19 @@
     </row>
     <row r="19" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="B19">
         <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="D19" t="s">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="E19" t="s">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="F19" t="s">
         <v>7</v>
@@ -5043,207 +5397,207 @@
         <v>8</v>
       </c>
       <c r="P19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Q19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="S19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="T19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="U19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="V19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="W19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="X19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Y19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Z19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AA19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AB19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AC19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AD19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AE19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AF19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AG19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AH19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AI19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AJ19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AK19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AL19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AM19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AN19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AO19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AP19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AQ19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AR19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AS19" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AT19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AU19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AV19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AW19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AX19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AY19" t="s">
         <v>8</v>
       </c>
       <c r="AZ19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BA19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BB19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BC19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BD19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BE19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BF19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BG19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BH19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BI19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BJ19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BK19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BL19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BM19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BN19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BO19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BP19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BQ19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BR19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BS19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BT19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BU19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BV19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BW19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BX19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BY19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BZ19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CA19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CB19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CC19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B20">
         <v>18</v>
@@ -5273,13 +5627,13 @@
         <v>7</v>
       </c>
       <c r="K20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N20" t="s">
         <v>7</v>
@@ -5303,7 +5657,7 @@
         <v>7</v>
       </c>
       <c r="U20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="V20" t="s">
         <v>7</v>
@@ -5321,13 +5675,13 @@
         <v>7</v>
       </c>
       <c r="AA20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AB20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AC20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AD20" t="s">
         <v>7</v>
@@ -5336,7 +5690,7 @@
         <v>7</v>
       </c>
       <c r="AF20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AG20" t="s">
         <v>7</v>
@@ -5348,10 +5702,10 @@
         <v>7</v>
       </c>
       <c r="AJ20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AK20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AL20" t="s">
         <v>7</v>
@@ -5360,7 +5714,7 @@
         <v>7</v>
       </c>
       <c r="AN20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AO20" t="s">
         <v>7</v>
@@ -5372,40 +5726,40 @@
         <v>7</v>
       </c>
       <c r="AR20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AS20" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AT20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AU20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AV20" t="s">
         <v>7</v>
       </c>
       <c r="AW20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AX20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AY20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AZ20" t="s">
         <v>7</v>
       </c>
       <c r="BA20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BB20" t="s">
         <v>7</v>
       </c>
       <c r="BC20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BD20" t="s">
         <v>7</v>
@@ -5417,78 +5771,78 @@
         <v>7</v>
       </c>
       <c r="BG20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BH20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BI20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BJ20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BK20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BL20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BM20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BN20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BO20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BP20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BQ20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BR20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BS20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BT20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BU20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BV20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BW20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BX20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BY20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BZ20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CA20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CB20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CC20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B21">
         <v>19</v>
@@ -5503,7 +5857,7 @@
         <v>7</v>
       </c>
       <c r="F21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G21" t="s">
         <v>7</v>
@@ -5524,7 +5878,7 @@
         <v>7</v>
       </c>
       <c r="M21" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="N21" t="s">
         <v>7</v>
@@ -5593,10 +5947,10 @@
         <v>7</v>
       </c>
       <c r="AJ21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AK21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AL21" t="s">
         <v>7</v>
@@ -5611,7 +5965,7 @@
         <v>7</v>
       </c>
       <c r="AP21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AQ21" t="s">
         <v>7</v>
@@ -5641,7 +5995,7 @@
         <v>7</v>
       </c>
       <c r="AZ21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA21" t="s">
         <v>7</v>
@@ -5650,64 +6004,64 @@
         <v>7</v>
       </c>
       <c r="BC21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BD21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BE21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BF21" t="s">
         <v>7</v>
       </c>
       <c r="BG21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BH21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BI21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BJ21" t="s">
         <v>7</v>
       </c>
       <c r="BK21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BL21" t="s">
         <v>7</v>
       </c>
       <c r="BM21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BN21" t="s">
         <v>7</v>
       </c>
       <c r="BO21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BP21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BQ21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BR21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BS21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BT21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BU21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BV21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BW21" t="s">
         <v>7</v>
@@ -5719,7 +6073,7 @@
         <v>7</v>
       </c>
       <c r="BZ21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CA21" t="s">
         <v>7</v>
@@ -5733,19 +6087,19 @@
     </row>
     <row r="22" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="B22">
         <v>20</v>
       </c>
       <c r="C22" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="D22" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="E22" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="F22" t="s">
         <v>7</v>
@@ -5775,7 +6129,7 @@
         <v>7</v>
       </c>
       <c r="O22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="P22" t="s">
         <v>7</v>
@@ -5841,7 +6195,7 @@
         <v>7</v>
       </c>
       <c r="AK22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AL22" t="s">
         <v>7</v>
@@ -5883,7 +6237,7 @@
         <v>7</v>
       </c>
       <c r="AY22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AZ22" t="s">
         <v>7</v>
@@ -5901,7 +6255,7 @@
         <v>7</v>
       </c>
       <c r="BE22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BF22" t="s">
         <v>7</v>
@@ -5943,7 +6297,7 @@
         <v>7</v>
       </c>
       <c r="BS22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BT22" t="s">
         <v>7</v>
@@ -5978,7 +6332,7 @@
     </row>
     <row r="23" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="B23">
         <v>21</v>
@@ -6008,13 +6362,13 @@
         <v>7</v>
       </c>
       <c r="K23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M23" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="N23" t="s">
         <v>7</v>
@@ -6038,7 +6392,7 @@
         <v>7</v>
       </c>
       <c r="U23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="V23" t="s">
         <v>7</v>
@@ -6056,13 +6410,13 @@
         <v>7</v>
       </c>
       <c r="AA23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AB23" t="s">
         <v>7</v>
       </c>
       <c r="AC23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AD23" t="s">
         <v>7</v>
@@ -6071,7 +6425,7 @@
         <v>7</v>
       </c>
       <c r="AF23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AG23" t="s">
         <v>7</v>
@@ -6083,10 +6437,10 @@
         <v>7</v>
       </c>
       <c r="AJ23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AK23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AL23" t="s">
         <v>7</v>
@@ -6095,7 +6449,7 @@
         <v>7</v>
       </c>
       <c r="AN23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AO23" t="s">
         <v>7</v>
@@ -6107,40 +6461,40 @@
         <v>7</v>
       </c>
       <c r="AR23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AS23" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AT23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AU23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AV23" t="s">
         <v>7</v>
       </c>
       <c r="AW23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AX23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AY23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AZ23" t="s">
         <v>7</v>
       </c>
       <c r="BA23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BB23" t="s">
         <v>7</v>
       </c>
       <c r="BC23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BD23" t="s">
         <v>7</v>
@@ -6152,249 +6506,249 @@
         <v>7</v>
       </c>
       <c r="BG23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BH23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BI23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BJ23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BK23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BL23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BM23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BN23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BO23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BP23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BQ23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BR23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BS23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BT23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BU23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BV23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BW23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BX23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BY23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BZ23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CA23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CB23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CC23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B24">
         <v>22</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F24" t="s">
         <v>8</v>
       </c>
       <c r="G24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="P24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Q24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R24" t="s">
         <v>8</v>
       </c>
       <c r="S24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="T24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="U24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="V24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="W24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="X24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Y24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Z24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AA24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AB24" t="s">
         <v>8</v>
       </c>
       <c r="AC24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AD24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AE24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AF24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AG24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AH24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AI24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AJ24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AK24" t="s">
         <v>8</v>
       </c>
       <c r="AL24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AM24" t="s">
         <v>8</v>
       </c>
       <c r="AN24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AO24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AP24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AQ24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AR24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AS24" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AT24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AU24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AV24" t="s">
         <v>8</v>
       </c>
       <c r="AW24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AX24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AY24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AZ24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BA24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BB24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BC24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BD24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BE24" t="s">
         <v>8</v>
       </c>
       <c r="BF24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BG24" t="s">
         <v>8</v>
@@ -6468,7 +6822,7 @@
     </row>
     <row r="25" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B25">
         <v>23</v>
@@ -6483,7 +6837,7 @@
         <v>7</v>
       </c>
       <c r="F25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G25" t="s">
         <v>7</v>
@@ -6504,7 +6858,7 @@
         <v>7</v>
       </c>
       <c r="M25" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="N25" t="s">
         <v>7</v>
@@ -6561,7 +6915,7 @@
         <v>7</v>
       </c>
       <c r="AF25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AG25" t="s">
         <v>7</v>
@@ -6573,10 +6927,10 @@
         <v>7</v>
       </c>
       <c r="AJ25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AK25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AL25" t="s">
         <v>7</v>
@@ -6591,7 +6945,7 @@
         <v>7</v>
       </c>
       <c r="AP25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AQ25" t="s">
         <v>7</v>
@@ -6621,19 +6975,19 @@
         <v>7</v>
       </c>
       <c r="AZ25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BA25" t="s">
         <v>7</v>
       </c>
       <c r="BB25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BC25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BD25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BE25" t="s">
         <v>8</v>
@@ -6642,52 +6996,52 @@
         <v>7</v>
       </c>
       <c r="BG25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BH25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BI25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BJ25" t="s">
         <v>7</v>
       </c>
       <c r="BK25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BL25" t="s">
         <v>7</v>
       </c>
       <c r="BM25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BN25" t="s">
         <v>7</v>
       </c>
       <c r="BO25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BP25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BQ25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BR25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BS25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BT25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BU25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BV25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BW25" t="s">
         <v>7</v>
@@ -6702,7 +7056,7 @@
         <v>8</v>
       </c>
       <c r="CA25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CB25" t="s">
         <v>7</v>
@@ -6713,19 +7067,19 @@
     </row>
     <row r="26" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="B26">
         <v>24</v>
       </c>
       <c r="C26" t="s">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="D26" t="s">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="E26" t="s">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="F26" t="s">
         <v>7</v>
@@ -6749,10 +7103,10 @@
         <v>7</v>
       </c>
       <c r="M26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O26" t="s">
         <v>7</v>
@@ -6788,7 +7142,7 @@
         <v>7</v>
       </c>
       <c r="Z26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AA26" t="s">
         <v>7</v>
@@ -6821,7 +7175,7 @@
         <v>7</v>
       </c>
       <c r="AK26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AL26" t="s">
         <v>7</v>
@@ -6833,7 +7187,7 @@
         <v>7</v>
       </c>
       <c r="AO26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AP26" t="s">
         <v>7</v>
@@ -6851,19 +7205,19 @@
         <v>7</v>
       </c>
       <c r="AU26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AV26" t="s">
         <v>7</v>
       </c>
       <c r="AW26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AX26" t="s">
         <v>7</v>
       </c>
       <c r="AY26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AZ26" t="s">
         <v>7</v>
@@ -6878,19 +7232,19 @@
         <v>7</v>
       </c>
       <c r="BD26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BE26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BF26" t="s">
         <v>7</v>
       </c>
       <c r="BG26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BH26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BI26" t="s">
         <v>7</v>
@@ -6911,7 +7265,7 @@
         <v>7</v>
       </c>
       <c r="BO26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BP26" t="s">
         <v>7</v>
@@ -6923,7 +7277,7 @@
         <v>7</v>
       </c>
       <c r="BS26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BT26" t="s">
         <v>7</v>
@@ -6958,7 +7312,7 @@
     </row>
     <row r="27" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="B27">
         <v>25</v>
@@ -6973,7 +7327,7 @@
         <v>7</v>
       </c>
       <c r="F27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G27" t="s">
         <v>7</v>
@@ -6994,7 +7348,7 @@
         <v>7</v>
       </c>
       <c r="M27" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="N27" t="s">
         <v>7</v>
@@ -7093,7 +7447,7 @@
         <v>7</v>
       </c>
       <c r="AT27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AU27" t="s">
         <v>7</v>
@@ -7168,7 +7522,7 @@
         <v>7</v>
       </c>
       <c r="BS27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BT27" t="s">
         <v>7</v>
@@ -7203,22 +7557,22 @@
     </row>
     <row r="28" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="B28">
         <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="D28" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="E28" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="F28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G28" t="s">
         <v>7</v>
@@ -7254,7 +7608,7 @@
         <v>7</v>
       </c>
       <c r="R28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="S28" t="s">
         <v>7</v>
@@ -7284,10 +7638,10 @@
         <v>7</v>
       </c>
       <c r="AB28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AC28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AD28" t="s">
         <v>7</v>
@@ -7311,7 +7665,7 @@
         <v>7</v>
       </c>
       <c r="AK28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AL28" t="s">
         <v>7</v>
@@ -7362,7 +7716,7 @@
         <v>7</v>
       </c>
       <c r="BB28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BC28" t="s">
         <v>7</v>
@@ -7371,7 +7725,7 @@
         <v>7</v>
       </c>
       <c r="BE28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BF28" t="s">
         <v>7</v>
@@ -7380,67 +7734,67 @@
         <v>8</v>
       </c>
       <c r="BH28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BI28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BJ28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BK28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BL28" t="s">
         <v>8</v>
       </c>
       <c r="BM28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BN28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BO28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BP28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BQ28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BR28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BS28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BT28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BU28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BV28" t="s">
         <v>8</v>
       </c>
       <c r="BW28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BX28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BY28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BZ28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CA28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CB28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CC28" t="s">
         <v>8</v>
@@ -7448,7 +7802,7 @@
     </row>
     <row r="29" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B29">
         <v>27</v>
@@ -7541,7 +7895,7 @@
         <v>7</v>
       </c>
       <c r="AF29" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AG29" t="s">
         <v>7</v>
@@ -7556,7 +7910,7 @@
         <v>7</v>
       </c>
       <c r="AK29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AL29" t="s">
         <v>7</v>
@@ -7607,7 +7961,7 @@
         <v>7</v>
       </c>
       <c r="BB29" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BC29" t="s">
         <v>7</v>
@@ -7616,7 +7970,7 @@
         <v>7</v>
       </c>
       <c r="BE29" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BF29" t="s">
         <v>7</v>
@@ -7679,21 +8033,21 @@
         <v>7</v>
       </c>
       <c r="BZ29" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CA29" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CB29" t="s">
         <v>7</v>
       </c>
       <c r="CC29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B30">
         <v>28</v>
@@ -7729,10 +8083,10 @@
         <v>7</v>
       </c>
       <c r="M30" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N30" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O30" t="s">
         <v>7</v>
@@ -7768,7 +8122,7 @@
         <v>7</v>
       </c>
       <c r="Z30" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AA30" t="s">
         <v>7</v>
@@ -7804,7 +8158,7 @@
         <v>7</v>
       </c>
       <c r="AL30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AM30" t="s">
         <v>7</v>
@@ -7813,7 +8167,7 @@
         <v>7</v>
       </c>
       <c r="AO30" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AP30" t="s">
         <v>7</v>
@@ -7831,19 +8185,19 @@
         <v>7</v>
       </c>
       <c r="AU30" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AV30" t="s">
         <v>7</v>
       </c>
       <c r="AW30" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AX30" t="s">
         <v>7</v>
       </c>
       <c r="AY30" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AZ30" t="s">
         <v>7</v>
@@ -7858,7 +8212,7 @@
         <v>7</v>
       </c>
       <c r="BD30" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BE30" t="s">
         <v>7</v>
@@ -7867,10 +8221,10 @@
         <v>7</v>
       </c>
       <c r="BG30" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BH30" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BI30" t="s">
         <v>7</v>
@@ -7891,7 +8245,7 @@
         <v>7</v>
       </c>
       <c r="BO30" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BP30" t="s">
         <v>7</v>
@@ -7938,7 +8292,7 @@
     </row>
     <row r="31" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B31">
         <v>29</v>
@@ -7950,37 +8304,37 @@
         <v>7</v>
       </c>
       <c r="E31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F31" t="s">
         <v>7</v>
       </c>
       <c r="G31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K31" t="s">
         <v>8</v>
       </c>
       <c r="L31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="P31" t="s">
         <v>8</v>
@@ -8183,7 +8537,7 @@
     </row>
     <row r="32" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B32">
         <v>30</v>
@@ -8318,7 +8672,7 @@
         <v>7</v>
       </c>
       <c r="AT32" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AU32" t="s">
         <v>7</v>
@@ -8336,7 +8690,7 @@
         <v>7</v>
       </c>
       <c r="AZ32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA32" t="s">
         <v>7</v>
@@ -8351,7 +8705,7 @@
         <v>7</v>
       </c>
       <c r="BE32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BF32" t="s">
         <v>7</v>
@@ -8375,28 +8729,28 @@
         <v>7</v>
       </c>
       <c r="BM32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BN32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BO32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BP32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BQ32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BR32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BS32" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BT32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BU32" t="s">
         <v>7</v>
@@ -8417,30 +8771,30 @@
         <v>7</v>
       </c>
       <c r="CA32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CB32" t="s">
         <v>7</v>
       </c>
       <c r="CC32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="B33">
         <v>31</v>
       </c>
       <c r="C33" t="s">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="D33" t="s">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="E33" t="s">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="F33" t="s">
         <v>7</v>
@@ -8470,7 +8824,7 @@
         <v>7</v>
       </c>
       <c r="O33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="P33" t="s">
         <v>7</v>
@@ -8512,7 +8866,7 @@
         <v>7</v>
       </c>
       <c r="AC33" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AD33" t="s">
         <v>7</v>
@@ -8542,7 +8896,7 @@
         <v>7</v>
       </c>
       <c r="AM33" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AN33" t="s">
         <v>7</v>
@@ -8566,10 +8920,10 @@
         <v>7</v>
       </c>
       <c r="AU33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AV33" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AW33" t="s">
         <v>7</v>
@@ -8578,16 +8932,16 @@
         <v>7</v>
       </c>
       <c r="AY33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AZ33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA33" t="s">
         <v>7</v>
       </c>
       <c r="BB33" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BC33" t="s">
         <v>7</v>
@@ -8602,7 +8956,7 @@
         <v>7</v>
       </c>
       <c r="BG33" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BH33" t="s">
         <v>7</v>
@@ -8617,7 +8971,7 @@
         <v>7</v>
       </c>
       <c r="BL33" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BM33" t="s">
         <v>7</v>
@@ -8647,7 +9001,7 @@
         <v>7</v>
       </c>
       <c r="BV33" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BW33" t="s">
         <v>7</v>
@@ -8668,24 +9022,24 @@
         <v>7</v>
       </c>
       <c r="CC33" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="B34">
         <v>32</v>
       </c>
       <c r="C34" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="D34" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="E34" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="F34" t="s">
         <v>7</v>
@@ -8709,7 +9063,7 @@
         <v>7</v>
       </c>
       <c r="M34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N34" t="s">
         <v>7</v>
@@ -8751,7 +9105,7 @@
         <v>7</v>
       </c>
       <c r="AA34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AB34" t="s">
         <v>7</v>
@@ -8802,13 +9156,13 @@
         <v>7</v>
       </c>
       <c r="AR34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AS34" s="3" t="s">
         <v>7</v>
       </c>
       <c r="AT34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AU34" t="s">
         <v>7</v>
@@ -8838,7 +9192,7 @@
         <v>7</v>
       </c>
       <c r="BD34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BE34" t="s">
         <v>7</v>
@@ -8877,7 +9231,7 @@
         <v>7</v>
       </c>
       <c r="BQ34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BR34" t="s">
         <v>7</v>
@@ -8907,7 +9261,7 @@
         <v>7</v>
       </c>
       <c r="CA34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CB34" t="s">
         <v>7</v>
@@ -8918,7 +9272,7 @@
     </row>
     <row r="35" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B35">
         <v>33</v>
@@ -9029,7 +9383,7 @@
         <v>7</v>
       </c>
       <c r="AL35" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AM35" t="s">
         <v>7</v>
@@ -9062,7 +9416,7 @@
         <v>7</v>
       </c>
       <c r="AW35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AX35" t="s">
         <v>7</v>
@@ -9083,7 +9437,7 @@
         <v>7</v>
       </c>
       <c r="BD35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BE35" t="s">
         <v>7</v>
@@ -9122,10 +9476,10 @@
         <v>7</v>
       </c>
       <c r="BQ35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BR35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BS35" t="s">
         <v>7</v>
@@ -9158,12 +9512,12 @@
         <v>7</v>
       </c>
       <c r="CC35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B36">
         <v>34</v>
@@ -9175,7 +9529,7 @@
         <v>7</v>
       </c>
       <c r="E36" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F36" t="s">
         <v>7</v>
@@ -9190,10 +9544,10 @@
         <v>7</v>
       </c>
       <c r="J36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K36" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L36" t="s">
         <v>7</v>
@@ -9208,34 +9562,34 @@
         <v>7</v>
       </c>
       <c r="P36" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Q36" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R36" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="S36" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="T36" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="U36" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="V36" t="s">
         <v>8</v>
       </c>
       <c r="W36" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="X36" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Y36" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Z36" t="s">
         <v>8</v>
@@ -9244,49 +9598,49 @@
         <v>8</v>
       </c>
       <c r="AB36" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AC36" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AD36" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AE36" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AF36" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AG36" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AH36" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AI36" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AJ36" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AK36" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AL36" t="s">
         <v>8</v>
       </c>
       <c r="AM36" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AN36" t="s">
         <v>8</v>
       </c>
       <c r="AO36" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AP36" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AQ36" t="s">
         <v>8</v>
@@ -9295,10 +9649,10 @@
         <v>8</v>
       </c>
       <c r="AS36" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AT36" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AU36" t="s">
         <v>8</v>
@@ -9316,10 +9670,10 @@
         <v>8</v>
       </c>
       <c r="AZ36" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BA36" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BB36" t="s">
         <v>8</v>
@@ -9328,7 +9682,7 @@
         <v>8</v>
       </c>
       <c r="BD36" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BE36" t="s">
         <v>8</v>
@@ -9403,1482 +9757,12 @@
         <v>8</v>
       </c>
       <c r="CC36" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="37" spans="1:81" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>41</v>
-      </c>
-      <c r="B37">
-        <v>35</v>
-      </c>
-      <c r="C37" t="s">
-        <v>7</v>
-      </c>
-      <c r="D37" t="s">
-        <v>7</v>
-      </c>
-      <c r="E37" t="s">
-        <v>7</v>
-      </c>
-      <c r="F37" t="s">
-        <v>8</v>
-      </c>
-      <c r="G37" t="s">
-        <v>7</v>
-      </c>
-      <c r="H37" t="s">
-        <v>7</v>
-      </c>
-      <c r="I37" t="s">
-        <v>7</v>
-      </c>
-      <c r="J37" t="s">
-        <v>7</v>
-      </c>
-      <c r="K37" t="s">
-        <v>7</v>
-      </c>
-      <c r="L37" t="s">
-        <v>7</v>
-      </c>
-      <c r="M37" t="s">
-        <v>7</v>
-      </c>
-      <c r="N37" t="s">
-        <v>7</v>
-      </c>
-      <c r="O37" t="s">
-        <v>7</v>
-      </c>
-      <c r="P37" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q37" t="s">
-        <v>7</v>
-      </c>
-      <c r="R37" t="s">
-        <v>7</v>
-      </c>
-      <c r="S37" t="s">
-        <v>7</v>
-      </c>
-      <c r="T37" t="s">
-        <v>7</v>
-      </c>
-      <c r="U37" t="s">
-        <v>7</v>
-      </c>
-      <c r="V37" t="s">
-        <v>7</v>
-      </c>
-      <c r="W37" t="s">
-        <v>7</v>
-      </c>
-      <c r="X37" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y37" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z37" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA37" t="s">
-        <v>7</v>
-      </c>
-      <c r="AB37" t="s">
-        <v>7</v>
-      </c>
-      <c r="AC37" t="s">
-        <v>7</v>
-      </c>
-      <c r="AD37" t="s">
-        <v>7</v>
-      </c>
-      <c r="AE37" t="s">
-        <v>7</v>
-      </c>
-      <c r="AF37" t="s">
-        <v>7</v>
-      </c>
-      <c r="AG37" t="s">
-        <v>7</v>
-      </c>
-      <c r="AH37" t="s">
-        <v>7</v>
-      </c>
-      <c r="AI37" t="s">
-        <v>7</v>
-      </c>
-      <c r="AJ37" t="s">
-        <v>7</v>
-      </c>
-      <c r="AK37" t="s">
-        <v>7</v>
-      </c>
-      <c r="AL37" t="s">
-        <v>7</v>
-      </c>
-      <c r="AM37" t="s">
-        <v>7</v>
-      </c>
-      <c r="AN37" t="s">
-        <v>7</v>
-      </c>
-      <c r="AO37" t="s">
-        <v>7</v>
-      </c>
-      <c r="AP37" t="s">
-        <v>7</v>
-      </c>
-      <c r="AQ37" t="s">
-        <v>7</v>
-      </c>
-      <c r="AR37" t="s">
-        <v>7</v>
-      </c>
-      <c r="AS37" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AT37" t="s">
-        <v>7</v>
-      </c>
-      <c r="AU37" t="s">
-        <v>7</v>
-      </c>
-      <c r="AV37" t="s">
-        <v>7</v>
-      </c>
-      <c r="AW37" t="s">
-        <v>7</v>
-      </c>
-      <c r="AX37" t="s">
-        <v>7</v>
-      </c>
-      <c r="AY37" t="s">
-        <v>7</v>
-      </c>
-      <c r="AZ37" t="s">
-        <v>8</v>
-      </c>
-      <c r="BA37" t="s">
-        <v>7</v>
-      </c>
-      <c r="BB37" t="s">
-        <v>7</v>
-      </c>
-      <c r="BC37" t="s">
-        <v>7</v>
-      </c>
-      <c r="BD37" t="s">
-        <v>7</v>
-      </c>
-      <c r="BE37" t="s">
-        <v>8</v>
-      </c>
-      <c r="BF37" t="s">
-        <v>7</v>
-      </c>
-      <c r="BG37" t="s">
-        <v>7</v>
-      </c>
-      <c r="BH37" t="s">
-        <v>7</v>
-      </c>
-      <c r="BI37" t="s">
-        <v>7</v>
-      </c>
-      <c r="BJ37" t="s">
-        <v>7</v>
-      </c>
-      <c r="BK37" t="s">
-        <v>7</v>
-      </c>
-      <c r="BL37" t="s">
-        <v>7</v>
-      </c>
-      <c r="BM37" t="s">
-        <v>8</v>
-      </c>
-      <c r="BN37" t="s">
-        <v>8</v>
-      </c>
-      <c r="BO37" t="s">
-        <v>8</v>
-      </c>
-      <c r="BP37" t="s">
-        <v>8</v>
-      </c>
-      <c r="BQ37" t="s">
-        <v>8</v>
-      </c>
-      <c r="BR37" t="s">
-        <v>8</v>
-      </c>
-      <c r="BS37" t="s">
-        <v>7</v>
-      </c>
-      <c r="BT37" t="s">
-        <v>8</v>
-      </c>
-      <c r="BU37" t="s">
-        <v>7</v>
-      </c>
-      <c r="BV37" t="s">
-        <v>7</v>
-      </c>
-      <c r="BW37" t="s">
-        <v>7</v>
-      </c>
-      <c r="BX37" t="s">
-        <v>7</v>
-      </c>
-      <c r="BY37" t="s">
-        <v>7</v>
-      </c>
-      <c r="BZ37" t="s">
-        <v>7</v>
-      </c>
-      <c r="CA37" t="s">
-        <v>8</v>
-      </c>
-      <c r="CB37" t="s">
-        <v>7</v>
-      </c>
-      <c r="CC37" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="38" spans="1:81" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>42</v>
-      </c>
-      <c r="B38">
-        <v>36</v>
-      </c>
-      <c r="C38" t="s">
-        <v>7</v>
-      </c>
-      <c r="D38" t="s">
-        <v>7</v>
-      </c>
-      <c r="E38" t="s">
-        <v>7</v>
-      </c>
-      <c r="F38" t="s">
-        <v>7</v>
-      </c>
-      <c r="G38" t="s">
-        <v>7</v>
-      </c>
-      <c r="H38" t="s">
-        <v>7</v>
-      </c>
-      <c r="I38" t="s">
-        <v>7</v>
-      </c>
-      <c r="J38" t="s">
-        <v>7</v>
-      </c>
-      <c r="K38" t="s">
-        <v>7</v>
-      </c>
-      <c r="L38" t="s">
-        <v>7</v>
-      </c>
-      <c r="M38" t="s">
-        <v>7</v>
-      </c>
-      <c r="N38" t="s">
-        <v>7</v>
-      </c>
-      <c r="O38" t="s">
-        <v>8</v>
-      </c>
-      <c r="P38" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q38" t="s">
-        <v>7</v>
-      </c>
-      <c r="R38" t="s">
-        <v>7</v>
-      </c>
-      <c r="S38" t="s">
-        <v>7</v>
-      </c>
-      <c r="T38" t="s">
-        <v>7</v>
-      </c>
-      <c r="U38" t="s">
-        <v>7</v>
-      </c>
-      <c r="V38" t="s">
-        <v>7</v>
-      </c>
-      <c r="W38" t="s">
-        <v>7</v>
-      </c>
-      <c r="X38" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y38" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z38" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA38" t="s">
-        <v>7</v>
-      </c>
-      <c r="AB38" t="s">
-        <v>7</v>
-      </c>
-      <c r="AC38" t="s">
-        <v>7</v>
-      </c>
-      <c r="AD38" t="s">
-        <v>7</v>
-      </c>
-      <c r="AE38" t="s">
-        <v>7</v>
-      </c>
-      <c r="AF38" t="s">
-        <v>7</v>
-      </c>
-      <c r="AG38" t="s">
-        <v>7</v>
-      </c>
-      <c r="AH38" t="s">
-        <v>7</v>
-      </c>
-      <c r="AI38" t="s">
-        <v>7</v>
-      </c>
-      <c r="AJ38" t="s">
-        <v>7</v>
-      </c>
-      <c r="AK38" t="s">
-        <v>7</v>
-      </c>
-      <c r="AL38" t="s">
-        <v>7</v>
-      </c>
-      <c r="AM38" t="s">
-        <v>7</v>
-      </c>
-      <c r="AN38" t="s">
-        <v>7</v>
-      </c>
-      <c r="AO38" t="s">
-        <v>7</v>
-      </c>
-      <c r="AP38" t="s">
-        <v>7</v>
-      </c>
-      <c r="AQ38" t="s">
-        <v>7</v>
-      </c>
-      <c r="AR38" t="s">
-        <v>7</v>
-      </c>
-      <c r="AS38" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AT38" t="s">
-        <v>7</v>
-      </c>
-      <c r="AU38" t="s">
-        <v>8</v>
-      </c>
-      <c r="AV38" t="s">
-        <v>7</v>
-      </c>
-      <c r="AW38" t="s">
-        <v>7</v>
-      </c>
-      <c r="AX38" t="s">
-        <v>7</v>
-      </c>
-      <c r="AY38" t="s">
-        <v>8</v>
-      </c>
-      <c r="AZ38" t="s">
-        <v>8</v>
-      </c>
-      <c r="BA38" t="s">
-        <v>7</v>
-      </c>
-      <c r="BB38" t="s">
-        <v>7</v>
-      </c>
-      <c r="BC38" t="s">
-        <v>7</v>
-      </c>
-      <c r="BD38" t="s">
-        <v>7</v>
-      </c>
-      <c r="BE38" t="s">
-        <v>7</v>
-      </c>
-      <c r="BF38" t="s">
-        <v>7</v>
-      </c>
-      <c r="BG38" t="s">
-        <v>7</v>
-      </c>
-      <c r="BH38" t="s">
-        <v>7</v>
-      </c>
-      <c r="BI38" t="s">
-        <v>7</v>
-      </c>
-      <c r="BJ38" t="s">
-        <v>7</v>
-      </c>
-      <c r="BK38" t="s">
-        <v>7</v>
-      </c>
-      <c r="BL38" t="s">
-        <v>7</v>
-      </c>
-      <c r="BM38" t="s">
-        <v>7</v>
-      </c>
-      <c r="BN38" t="s">
-        <v>7</v>
-      </c>
-      <c r="BO38" t="s">
-        <v>7</v>
-      </c>
-      <c r="BP38" t="s">
-        <v>7</v>
-      </c>
-      <c r="BQ38" t="s">
-        <v>7</v>
-      </c>
-      <c r="BR38" t="s">
-        <v>7</v>
-      </c>
-      <c r="BS38" t="s">
-        <v>7</v>
-      </c>
-      <c r="BT38" t="s">
-        <v>7</v>
-      </c>
-      <c r="BU38" t="s">
-        <v>7</v>
-      </c>
-      <c r="BV38" t="s">
-        <v>7</v>
-      </c>
-      <c r="BW38" t="s">
-        <v>7</v>
-      </c>
-      <c r="BX38" t="s">
-        <v>7</v>
-      </c>
-      <c r="BY38" t="s">
-        <v>7</v>
-      </c>
-      <c r="BZ38" t="s">
-        <v>7</v>
-      </c>
-      <c r="CA38" t="s">
-        <v>7</v>
-      </c>
-      <c r="CB38" t="s">
-        <v>7</v>
-      </c>
-      <c r="CC38" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="39" spans="1:81" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>49</v>
-      </c>
-      <c r="B39">
-        <v>37</v>
-      </c>
-      <c r="C39" t="s">
-        <v>47</v>
-      </c>
-      <c r="D39" t="s">
-        <v>47</v>
-      </c>
-      <c r="E39" t="s">
-        <v>47</v>
-      </c>
-      <c r="F39" t="s">
-        <v>7</v>
-      </c>
-      <c r="G39" t="s">
-        <v>7</v>
-      </c>
-      <c r="H39" t="s">
-        <v>7</v>
-      </c>
-      <c r="I39" t="s">
-        <v>7</v>
-      </c>
-      <c r="J39" t="s">
-        <v>7</v>
-      </c>
-      <c r="K39" t="s">
-        <v>7</v>
-      </c>
-      <c r="L39" t="s">
-        <v>7</v>
-      </c>
-      <c r="M39" t="s">
-        <v>8</v>
-      </c>
-      <c r="N39" t="s">
-        <v>7</v>
-      </c>
-      <c r="O39" t="s">
-        <v>7</v>
-      </c>
-      <c r="P39" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q39" t="s">
-        <v>7</v>
-      </c>
-      <c r="R39" t="s">
-        <v>7</v>
-      </c>
-      <c r="S39" t="s">
-        <v>7</v>
-      </c>
-      <c r="T39" t="s">
-        <v>7</v>
-      </c>
-      <c r="U39" t="s">
-        <v>7</v>
-      </c>
-      <c r="V39" t="s">
-        <v>7</v>
-      </c>
-      <c r="W39" t="s">
-        <v>7</v>
-      </c>
-      <c r="X39" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y39" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z39" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA39" t="s">
-        <v>8</v>
-      </c>
-      <c r="AB39" t="s">
-        <v>7</v>
-      </c>
-      <c r="AC39" t="s">
-        <v>7</v>
-      </c>
-      <c r="AD39" t="s">
-        <v>7</v>
-      </c>
-      <c r="AE39" t="s">
-        <v>7</v>
-      </c>
-      <c r="AF39" t="s">
-        <v>7</v>
-      </c>
-      <c r="AG39" t="s">
-        <v>7</v>
-      </c>
-      <c r="AH39" t="s">
-        <v>7</v>
-      </c>
-      <c r="AI39" t="s">
-        <v>7</v>
-      </c>
-      <c r="AJ39" t="s">
-        <v>7</v>
-      </c>
-      <c r="AK39" t="s">
-        <v>8</v>
-      </c>
-      <c r="AL39" t="s">
-        <v>7</v>
-      </c>
-      <c r="AM39" t="s">
-        <v>7</v>
-      </c>
-      <c r="AN39" t="s">
-        <v>7</v>
-      </c>
-      <c r="AO39" t="s">
-        <v>7</v>
-      </c>
-      <c r="AP39" t="s">
-        <v>7</v>
-      </c>
-      <c r="AQ39" t="s">
-        <v>7</v>
-      </c>
-      <c r="AR39" t="s">
-        <v>8</v>
-      </c>
-      <c r="AS39" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AT39" t="s">
-        <v>8</v>
-      </c>
-      <c r="AU39" t="s">
-        <v>7</v>
-      </c>
-      <c r="AV39" t="s">
-        <v>7</v>
-      </c>
-      <c r="AW39" t="s">
-        <v>7</v>
-      </c>
-      <c r="AX39" t="s">
-        <v>7</v>
-      </c>
-      <c r="AY39" t="s">
-        <v>7</v>
-      </c>
-      <c r="AZ39" t="s">
-        <v>7</v>
-      </c>
-      <c r="BA39" t="s">
-        <v>7</v>
-      </c>
-      <c r="BB39" t="s">
-        <v>7</v>
-      </c>
-      <c r="BC39" t="s">
-        <v>7</v>
-      </c>
-      <c r="BD39" t="s">
-        <v>8</v>
-      </c>
-      <c r="BE39" t="s">
-        <v>7</v>
-      </c>
-      <c r="BF39" t="s">
-        <v>7</v>
-      </c>
-      <c r="BG39" t="s">
-        <v>7</v>
-      </c>
-      <c r="BH39" t="s">
-        <v>7</v>
-      </c>
-      <c r="BI39" t="s">
-        <v>7</v>
-      </c>
-      <c r="BJ39" t="s">
-        <v>7</v>
-      </c>
-      <c r="BK39" t="s">
-        <v>7</v>
-      </c>
-      <c r="BL39" t="s">
-        <v>7</v>
-      </c>
-      <c r="BM39" t="s">
-        <v>7</v>
-      </c>
-      <c r="BN39" t="s">
-        <v>7</v>
-      </c>
-      <c r="BO39" t="s">
-        <v>7</v>
-      </c>
-      <c r="BP39" t="s">
-        <v>7</v>
-      </c>
-      <c r="BQ39" t="s">
-        <v>8</v>
-      </c>
-      <c r="BR39" t="s">
-        <v>7</v>
-      </c>
-      <c r="BS39" t="s">
-        <v>7</v>
-      </c>
-      <c r="BT39" t="s">
-        <v>7</v>
-      </c>
-      <c r="BU39" t="s">
-        <v>7</v>
-      </c>
-      <c r="BV39" t="s">
-        <v>7</v>
-      </c>
-      <c r="BW39" t="s">
-        <v>7</v>
-      </c>
-      <c r="BX39" t="s">
-        <v>7</v>
-      </c>
-      <c r="BY39" t="s">
-        <v>7</v>
-      </c>
-      <c r="BZ39" t="s">
-        <v>7</v>
-      </c>
-      <c r="CA39" t="s">
-        <v>8</v>
-      </c>
-      <c r="CB39" t="s">
-        <v>7</v>
-      </c>
-      <c r="CC39" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="40" spans="1:81" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>43</v>
-      </c>
-      <c r="B40">
-        <v>38</v>
-      </c>
-      <c r="C40" t="s">
-        <v>7</v>
-      </c>
-      <c r="D40" t="s">
-        <v>7</v>
-      </c>
-      <c r="E40" t="s">
-        <v>7</v>
-      </c>
-      <c r="F40" t="s">
-        <v>7</v>
-      </c>
-      <c r="G40" t="s">
-        <v>7</v>
-      </c>
-      <c r="H40" t="s">
-        <v>7</v>
-      </c>
-      <c r="I40" t="s">
-        <v>7</v>
-      </c>
-      <c r="J40" t="s">
-        <v>7</v>
-      </c>
-      <c r="K40" t="s">
-        <v>7</v>
-      </c>
-      <c r="L40" t="s">
-        <v>7</v>
-      </c>
-      <c r="M40" t="s">
-        <v>7</v>
-      </c>
-      <c r="N40" t="s">
-        <v>7</v>
-      </c>
-      <c r="O40" t="s">
-        <v>7</v>
-      </c>
-      <c r="P40" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q40" t="s">
-        <v>7</v>
-      </c>
-      <c r="R40" t="s">
-        <v>7</v>
-      </c>
-      <c r="S40" t="s">
-        <v>7</v>
-      </c>
-      <c r="T40" t="s">
-        <v>7</v>
-      </c>
-      <c r="U40" t="s">
-        <v>7</v>
-      </c>
-      <c r="V40" t="s">
-        <v>7</v>
-      </c>
-      <c r="W40" t="s">
-        <v>7</v>
-      </c>
-      <c r="X40" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y40" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z40" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA40" t="s">
-        <v>7</v>
-      </c>
-      <c r="AB40" t="s">
-        <v>7</v>
-      </c>
-      <c r="AC40" t="s">
-        <v>7</v>
-      </c>
-      <c r="AD40" t="s">
-        <v>7</v>
-      </c>
-      <c r="AE40" t="s">
-        <v>7</v>
-      </c>
-      <c r="AF40" t="s">
-        <v>7</v>
-      </c>
-      <c r="AG40" t="s">
-        <v>7</v>
-      </c>
-      <c r="AH40" t="s">
-        <v>7</v>
-      </c>
-      <c r="AI40" t="s">
-        <v>7</v>
-      </c>
-      <c r="AJ40" t="s">
-        <v>7</v>
-      </c>
-      <c r="AK40" t="s">
-        <v>7</v>
-      </c>
-      <c r="AL40" t="s">
-        <v>7</v>
-      </c>
-      <c r="AM40" t="s">
-        <v>7</v>
-      </c>
-      <c r="AN40" t="s">
-        <v>7</v>
-      </c>
-      <c r="AO40" t="s">
-        <v>7</v>
-      </c>
-      <c r="AP40" t="s">
-        <v>7</v>
-      </c>
-      <c r="AQ40" t="s">
-        <v>7</v>
-      </c>
-      <c r="AR40" t="s">
-        <v>7</v>
-      </c>
-      <c r="AS40" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AT40" t="s">
-        <v>7</v>
-      </c>
-      <c r="AU40" t="s">
-        <v>7</v>
-      </c>
-      <c r="AV40" t="s">
-        <v>7</v>
-      </c>
-      <c r="AW40" t="s">
-        <v>8</v>
-      </c>
-      <c r="AX40" t="s">
-        <v>7</v>
-      </c>
-      <c r="AY40" t="s">
-        <v>7</v>
-      </c>
-      <c r="AZ40" t="s">
-        <v>7</v>
-      </c>
-      <c r="BA40" t="s">
-        <v>7</v>
-      </c>
-      <c r="BB40" t="s">
-        <v>7</v>
-      </c>
-      <c r="BC40" t="s">
-        <v>7</v>
-      </c>
-      <c r="BD40" t="s">
-        <v>8</v>
-      </c>
-      <c r="BE40" t="s">
-        <v>7</v>
-      </c>
-      <c r="BF40" t="s">
-        <v>7</v>
-      </c>
-      <c r="BG40" t="s">
-        <v>7</v>
-      </c>
-      <c r="BH40" t="s">
-        <v>7</v>
-      </c>
-      <c r="BI40" t="s">
-        <v>7</v>
-      </c>
-      <c r="BJ40" t="s">
-        <v>7</v>
-      </c>
-      <c r="BK40" t="s">
-        <v>7</v>
-      </c>
-      <c r="BL40" t="s">
-        <v>7</v>
-      </c>
-      <c r="BM40" t="s">
-        <v>7</v>
-      </c>
-      <c r="BN40" t="s">
-        <v>7</v>
-      </c>
-      <c r="BO40" t="s">
-        <v>7</v>
-      </c>
-      <c r="BP40" t="s">
-        <v>7</v>
-      </c>
-      <c r="BQ40" t="s">
-        <v>8</v>
-      </c>
-      <c r="BR40" t="s">
-        <v>8</v>
-      </c>
-      <c r="BS40" t="s">
-        <v>7</v>
-      </c>
-      <c r="BT40" t="s">
-        <v>7</v>
-      </c>
-      <c r="BU40" t="s">
-        <v>7</v>
-      </c>
-      <c r="BV40" t="s">
-        <v>7</v>
-      </c>
-      <c r="BW40" t="s">
-        <v>7</v>
-      </c>
-      <c r="BX40" t="s">
-        <v>7</v>
-      </c>
-      <c r="BY40" t="s">
-        <v>7</v>
-      </c>
-      <c r="BZ40" t="s">
-        <v>7</v>
-      </c>
-      <c r="CA40" t="s">
-        <v>7</v>
-      </c>
-      <c r="CB40" t="s">
-        <v>7</v>
-      </c>
-      <c r="CC40" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="41" spans="1:81" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>44</v>
-      </c>
-      <c r="B41">
-        <v>39</v>
-      </c>
-      <c r="C41" t="s">
-        <v>7</v>
-      </c>
-      <c r="D41" t="s">
-        <v>7</v>
-      </c>
-      <c r="E41" t="s">
-        <v>7</v>
-      </c>
-      <c r="F41" t="s">
-        <v>7</v>
-      </c>
-      <c r="G41" t="s">
-        <v>7</v>
-      </c>
-      <c r="H41" t="s">
-        <v>7</v>
-      </c>
-      <c r="I41" t="s">
-        <v>7</v>
-      </c>
-      <c r="J41" t="s">
-        <v>8</v>
-      </c>
-      <c r="K41" t="s">
-        <v>7</v>
-      </c>
-      <c r="L41" t="s">
-        <v>7</v>
-      </c>
-      <c r="M41" t="s">
-        <v>7</v>
-      </c>
-      <c r="N41" t="s">
-        <v>7</v>
-      </c>
-      <c r="O41" t="s">
-        <v>7</v>
-      </c>
-      <c r="P41" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q41" t="s">
-        <v>7</v>
-      </c>
-      <c r="R41" t="s">
-        <v>7</v>
-      </c>
-      <c r="S41" t="s">
-        <v>7</v>
-      </c>
-      <c r="T41" t="s">
-        <v>7</v>
-      </c>
-      <c r="U41" t="s">
-        <v>7</v>
-      </c>
-      <c r="V41" t="s">
-        <v>8</v>
-      </c>
-      <c r="W41" t="s">
-        <v>7</v>
-      </c>
-      <c r="X41" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y41" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z41" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA41" t="s">
-        <v>8</v>
-      </c>
-      <c r="AB41" t="s">
-        <v>7</v>
-      </c>
-      <c r="AC41" t="s">
-        <v>7</v>
-      </c>
-      <c r="AD41" t="s">
-        <v>7</v>
-      </c>
-      <c r="AE41" t="s">
-        <v>7</v>
-      </c>
-      <c r="AF41" t="s">
-        <v>7</v>
-      </c>
-      <c r="AG41" t="s">
-        <v>7</v>
-      </c>
-      <c r="AH41" t="s">
-        <v>7</v>
-      </c>
-      <c r="AI41" t="s">
-        <v>7</v>
-      </c>
-      <c r="AJ41" t="s">
-        <v>7</v>
-      </c>
-      <c r="AK41" t="s">
-        <v>7</v>
-      </c>
-      <c r="AL41" t="s">
-        <v>8</v>
-      </c>
-      <c r="AM41" t="s">
-        <v>7</v>
-      </c>
-      <c r="AN41" t="s">
-        <v>8</v>
-      </c>
-      <c r="AO41" t="s">
-        <v>7</v>
-      </c>
-      <c r="AP41" t="s">
-        <v>7</v>
-      </c>
-      <c r="AQ41" t="s">
-        <v>8</v>
-      </c>
-      <c r="AR41" t="s">
-        <v>8</v>
-      </c>
-      <c r="AS41" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AT41" t="s">
-        <v>7</v>
-      </c>
-      <c r="AU41" t="s">
-        <v>8</v>
-      </c>
-      <c r="AV41" t="s">
-        <v>8</v>
-      </c>
-      <c r="AW41" t="s">
-        <v>8</v>
-      </c>
-      <c r="AX41" t="s">
-        <v>8</v>
-      </c>
-      <c r="AY41" t="s">
-        <v>8</v>
-      </c>
-      <c r="AZ41" t="s">
-        <v>7</v>
-      </c>
-      <c r="BA41" t="s">
-        <v>7</v>
-      </c>
-      <c r="BB41" t="s">
-        <v>8</v>
-      </c>
-      <c r="BC41" t="s">
-        <v>8</v>
-      </c>
-      <c r="BD41" t="s">
-        <v>7</v>
-      </c>
-      <c r="BE41" t="s">
-        <v>8</v>
-      </c>
-      <c r="BF41" t="s">
-        <v>8</v>
-      </c>
-      <c r="BG41" t="s">
-        <v>8</v>
-      </c>
-      <c r="BH41" t="s">
-        <v>8</v>
-      </c>
-      <c r="BI41" t="s">
-        <v>8</v>
-      </c>
-      <c r="BJ41" t="s">
-        <v>8</v>
-      </c>
-      <c r="BK41" t="s">
-        <v>8</v>
-      </c>
-      <c r="BL41" t="s">
-        <v>8</v>
-      </c>
-      <c r="BM41" t="s">
-        <v>8</v>
-      </c>
-      <c r="BN41" t="s">
-        <v>8</v>
-      </c>
-      <c r="BO41" t="s">
-        <v>8</v>
-      </c>
-      <c r="BP41" t="s">
-        <v>8</v>
-      </c>
-      <c r="BQ41" t="s">
-        <v>8</v>
-      </c>
-      <c r="BR41" t="s">
-        <v>8</v>
-      </c>
-      <c r="BS41" t="s">
-        <v>8</v>
-      </c>
-      <c r="BT41" t="s">
-        <v>8</v>
-      </c>
-      <c r="BU41" t="s">
-        <v>8</v>
-      </c>
-      <c r="BV41" t="s">
-        <v>8</v>
-      </c>
-      <c r="BW41" t="s">
-        <v>8</v>
-      </c>
-      <c r="BX41" t="s">
-        <v>8</v>
-      </c>
-      <c r="BY41" t="s">
-        <v>8</v>
-      </c>
-      <c r="BZ41" t="s">
-        <v>8</v>
-      </c>
-      <c r="CA41" t="s">
-        <v>8</v>
-      </c>
-      <c r="CB41" t="s">
-        <v>8</v>
-      </c>
-      <c r="CC41" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="42" spans="1:81" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>45</v>
-      </c>
-      <c r="B42">
-        <v>40</v>
-      </c>
-      <c r="C42" t="s">
-        <v>8</v>
-      </c>
-      <c r="D42" t="s">
-        <v>8</v>
-      </c>
-      <c r="E42" t="s">
-        <v>8</v>
-      </c>
-      <c r="F42" t="s">
-        <v>8</v>
-      </c>
-      <c r="G42" t="s">
-        <v>8</v>
-      </c>
-      <c r="H42" t="s">
-        <v>8</v>
-      </c>
-      <c r="I42" t="s">
-        <v>8</v>
-      </c>
-      <c r="J42" t="s">
-        <v>8</v>
-      </c>
-      <c r="K42" t="s">
-        <v>8</v>
-      </c>
-      <c r="L42" t="s">
-        <v>8</v>
-      </c>
-      <c r="M42" t="s">
-        <v>8</v>
-      </c>
-      <c r="N42" t="s">
-        <v>8</v>
-      </c>
-      <c r="O42" t="s">
-        <v>8</v>
-      </c>
-      <c r="P42" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q42" t="s">
-        <v>8</v>
-      </c>
-      <c r="R42" t="s">
-        <v>8</v>
-      </c>
-      <c r="S42" t="s">
-        <v>8</v>
-      </c>
-      <c r="T42" t="s">
-        <v>8</v>
-      </c>
-      <c r="U42" t="s">
-        <v>8</v>
-      </c>
-      <c r="V42" t="s">
-        <v>8</v>
-      </c>
-      <c r="W42" t="s">
-        <v>8</v>
-      </c>
-      <c r="X42" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y42" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z42" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA42" t="s">
-        <v>8</v>
-      </c>
-      <c r="AB42" t="s">
-        <v>8</v>
-      </c>
-      <c r="AC42" t="s">
-        <v>8</v>
-      </c>
-      <c r="AD42" t="s">
-        <v>8</v>
-      </c>
-      <c r="AE42" t="s">
-        <v>8</v>
-      </c>
-      <c r="AF42" t="s">
-        <v>8</v>
-      </c>
-      <c r="AG42" t="s">
-        <v>8</v>
-      </c>
-      <c r="AH42" t="s">
-        <v>8</v>
-      </c>
-      <c r="AI42" t="s">
-        <v>8</v>
-      </c>
-      <c r="AJ42" t="s">
-        <v>8</v>
-      </c>
-      <c r="AK42" t="s">
-        <v>8</v>
-      </c>
-      <c r="AL42" t="s">
-        <v>8</v>
-      </c>
-      <c r="AM42" t="s">
-        <v>8</v>
-      </c>
-      <c r="AN42" t="s">
-        <v>8</v>
-      </c>
-      <c r="AO42" t="s">
-        <v>8</v>
-      </c>
-      <c r="AP42" t="s">
-        <v>8</v>
-      </c>
-      <c r="AQ42" t="s">
-        <v>8</v>
-      </c>
-      <c r="AR42" t="s">
-        <v>8</v>
-      </c>
-      <c r="AS42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AT42" t="s">
-        <v>8</v>
-      </c>
-      <c r="AU42" t="s">
-        <v>8</v>
-      </c>
-      <c r="AV42" t="s">
-        <v>8</v>
-      </c>
-      <c r="AW42" t="s">
-        <v>8</v>
-      </c>
-      <c r="AX42" t="s">
-        <v>8</v>
-      </c>
-      <c r="AY42" t="s">
-        <v>8</v>
-      </c>
-      <c r="AZ42" t="s">
-        <v>8</v>
-      </c>
-      <c r="BA42" t="s">
-        <v>8</v>
-      </c>
-      <c r="BB42" t="s">
-        <v>8</v>
-      </c>
-      <c r="BC42" t="s">
-        <v>8</v>
-      </c>
-      <c r="BD42" t="s">
-        <v>8</v>
-      </c>
-      <c r="BE42" t="s">
-        <v>8</v>
-      </c>
-      <c r="BF42" t="s">
-        <v>8</v>
-      </c>
-      <c r="BG42" t="s">
-        <v>8</v>
-      </c>
-      <c r="BH42" t="s">
-        <v>8</v>
-      </c>
-      <c r="BI42" t="s">
-        <v>8</v>
-      </c>
-      <c r="BJ42" t="s">
-        <v>8</v>
-      </c>
-      <c r="BK42" t="s">
-        <v>8</v>
-      </c>
-      <c r="BL42" t="s">
-        <v>8</v>
-      </c>
-      <c r="BM42" t="s">
-        <v>8</v>
-      </c>
-      <c r="BN42" t="s">
-        <v>8</v>
-      </c>
-      <c r="BO42" t="s">
-        <v>8</v>
-      </c>
-      <c r="BP42" t="s">
-        <v>8</v>
-      </c>
-      <c r="BQ42" t="s">
-        <v>8</v>
-      </c>
-      <c r="BR42" t="s">
-        <v>8</v>
-      </c>
-      <c r="BS42" t="s">
-        <v>8</v>
-      </c>
-      <c r="BT42" t="s">
-        <v>8</v>
-      </c>
-      <c r="BU42" t="s">
-        <v>8</v>
-      </c>
-      <c r="BV42" t="s">
-        <v>8</v>
-      </c>
-      <c r="BW42" t="s">
-        <v>8</v>
-      </c>
-      <c r="BX42" t="s">
-        <v>8</v>
-      </c>
-      <c r="BY42" t="s">
-        <v>8</v>
-      </c>
-      <c r="BZ42" t="s">
-        <v>8</v>
-      </c>
-      <c r="CA42" t="s">
-        <v>8</v>
-      </c>
-      <c r="CB42" t="s">
-        <v>8</v>
-      </c>
-      <c r="CC42" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:BI42">
-    <sortCondition ref="B2:B42"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:BI36">
+    <sortCondition ref="B2:B36"/>
   </sortState>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>

--- a/1des/frequencia.xlsx
+++ b/1des/frequencia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2023\1des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC49AD29-9953-4DEF-820F-6C5BBD79AF3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B445308-F7CC-438A-8FDC-7DF2F15FB477}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{16894AAC-534F-4800-A9CE-F9EFF9F0773F}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2844" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2882" uniqueCount="53">
   <si>
     <t>Alunos</t>
   </si>
@@ -922,13 +922,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2CF2F16-AB51-4356-B13B-717A13C6773A}">
-  <dimension ref="A1:CC36"/>
+  <dimension ref="A1:CG36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="AZ3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="BC3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="BR13" sqref="BR13"/>
+      <selection pane="bottomRight" activeCell="CD36" sqref="CD36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -939,10 +939,10 @@
     <col min="12" max="34" width="7" bestFit="1" customWidth="1"/>
     <col min="35" max="51" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="52" max="71" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="72" max="81" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="72" max="85" width="7.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1184,8 +1184,20 @@
       <c r="CC1" s="2">
         <v>45247</v>
       </c>
+      <c r="CD1" s="2">
+        <v>45251</v>
+      </c>
+      <c r="CE1" s="2">
+        <v>45252</v>
+      </c>
+      <c r="CF1" s="2">
+        <v>45253</v>
+      </c>
+      <c r="CG1" s="2">
+        <v>45254</v>
+      </c>
     </row>
-    <row r="2" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1429,8 +1441,20 @@
       <c r="CC2" t="s">
         <v>5</v>
       </c>
+      <c r="CD2" t="s">
+        <v>6</v>
+      </c>
+      <c r="CE2" t="s">
+        <v>1</v>
+      </c>
+      <c r="CF2" t="s">
+        <v>4</v>
+      </c>
+      <c r="CG2" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="3" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -1674,8 +1698,11 @@
       <c r="CC3" t="s">
         <v>8</v>
       </c>
+      <c r="CD3" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="4" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -1919,8 +1946,11 @@
       <c r="CC4" t="s">
         <v>7</v>
       </c>
+      <c r="CD4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="5" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -2164,8 +2194,11 @@
       <c r="CC5" t="s">
         <v>8</v>
       </c>
+      <c r="CD5" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="6" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -2409,8 +2442,11 @@
       <c r="CC6" t="s">
         <v>7</v>
       </c>
+      <c r="CD6" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="7" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -2654,8 +2690,11 @@
       <c r="CC7" t="s">
         <v>7</v>
       </c>
+      <c r="CD7" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="8" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>50</v>
       </c>
@@ -2899,8 +2938,11 @@
       <c r="CC8" t="s">
         <v>7</v>
       </c>
+      <c r="CD8" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="9" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -3144,8 +3186,11 @@
       <c r="CC9" t="s">
         <v>7</v>
       </c>
+      <c r="CD9" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="10" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -3389,8 +3434,11 @@
       <c r="CC10" t="s">
         <v>7</v>
       </c>
+      <c r="CD10" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="11" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -3634,8 +3682,11 @@
       <c r="CC11" t="s">
         <v>7</v>
       </c>
+      <c r="CD11" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="12" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -3879,8 +3930,11 @@
       <c r="CC12" t="s">
         <v>7</v>
       </c>
+      <c r="CD12" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="13" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -4124,8 +4178,11 @@
       <c r="CC13" t="s">
         <v>8</v>
       </c>
+      <c r="CD13" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="14" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -4369,8 +4426,11 @@
       <c r="CC14" t="s">
         <v>7</v>
       </c>
+      <c r="CD14" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="15" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -4614,8 +4674,11 @@
       <c r="CC15" t="s">
         <v>7</v>
       </c>
+      <c r="CD15" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="16" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>9</v>
       </c>
@@ -4859,8 +4922,11 @@
       <c r="CC16" t="s">
         <v>8</v>
       </c>
+      <c r="CD16" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="17" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>27</v>
       </c>
@@ -5104,8 +5170,11 @@
       <c r="CC17" t="s">
         <v>7</v>
       </c>
+      <c r="CD17" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="18" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>28</v>
       </c>
@@ -5349,8 +5418,11 @@
       <c r="CC18" t="s">
         <v>7</v>
       </c>
+      <c r="CD18" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="19" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -5594,8 +5666,11 @@
       <c r="CC19" t="s">
         <v>7</v>
       </c>
+      <c r="CD19" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="20" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>31</v>
       </c>
@@ -5839,8 +5914,11 @@
       <c r="CC20" t="s">
         <v>8</v>
       </c>
+      <c r="CD20" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="21" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>33</v>
       </c>
@@ -6084,8 +6162,11 @@
       <c r="CC21" t="s">
         <v>7</v>
       </c>
+      <c r="CD21" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="22" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>48</v>
       </c>
@@ -6329,8 +6410,11 @@
       <c r="CC22" t="s">
         <v>7</v>
       </c>
+      <c r="CD22" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="23" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>17</v>
       </c>
@@ -6574,8 +6658,11 @@
       <c r="CC23" t="s">
         <v>7</v>
       </c>
+      <c r="CD23" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="24" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>34</v>
       </c>
@@ -6819,8 +6906,11 @@
       <c r="CC24" t="s">
         <v>8</v>
       </c>
+      <c r="CD24" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="25" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>35</v>
       </c>
@@ -7064,8 +7154,11 @@
       <c r="CC25" t="s">
         <v>7</v>
       </c>
+      <c r="CD25" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="26" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>36</v>
       </c>
@@ -7309,8 +7402,11 @@
       <c r="CC26" t="s">
         <v>7</v>
       </c>
+      <c r="CD26" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="27" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>46</v>
       </c>
@@ -7554,8 +7650,11 @@
       <c r="CC27" t="s">
         <v>7</v>
       </c>
+      <c r="CD27" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="28" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>10</v>
       </c>
@@ -7799,8 +7898,11 @@
       <c r="CC28" t="s">
         <v>8</v>
       </c>
+      <c r="CD28" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="29" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>38</v>
       </c>
@@ -8044,8 +8146,11 @@
       <c r="CC29" t="s">
         <v>8</v>
       </c>
+      <c r="CD29" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="30" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>39</v>
       </c>
@@ -8289,8 +8394,11 @@
       <c r="CC30" t="s">
         <v>7</v>
       </c>
+      <c r="CD30" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="31" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>40</v>
       </c>
@@ -8534,8 +8642,11 @@
       <c r="CC31" t="s">
         <v>8</v>
       </c>
+      <c r="CD31" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="32" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>41</v>
       </c>
@@ -8779,8 +8890,11 @@
       <c r="CC32" t="s">
         <v>8</v>
       </c>
+      <c r="CD32" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="33" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>42</v>
       </c>
@@ -9024,8 +9138,11 @@
       <c r="CC33" t="s">
         <v>7</v>
       </c>
+      <c r="CD33" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="34" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>49</v>
       </c>
@@ -9269,8 +9386,11 @@
       <c r="CC34" t="s">
         <v>8</v>
       </c>
+      <c r="CD34" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="35" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>43</v>
       </c>
@@ -9514,8 +9634,11 @@
       <c r="CC35" t="s">
         <v>8</v>
       </c>
+      <c r="CD35" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="36" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>44</v>
       </c>
@@ -9757,6 +9880,9 @@
         <v>8</v>
       </c>
       <c r="CC36" t="s">
+        <v>8</v>
+      </c>
+      <c r="CD36" t="s">
         <v>8</v>
       </c>
     </row>

--- a/1des/frequencia.xlsx
+++ b/1des/frequencia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2023\1des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B445308-F7CC-438A-8FDC-7DF2F15FB477}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9691AB77-AC9A-4C47-9CF8-660B7FE51F71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{16894AAC-534F-4800-A9CE-F9EFF9F0773F}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2882" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2992" uniqueCount="54">
   <si>
     <t>Alunos</t>
   </si>
@@ -185,6 +185,9 @@
   </si>
   <si>
     <t>Orden</t>
+  </si>
+  <si>
+    <t>%</t>
   </si>
 </sst>
 </file>
@@ -922,548 +925,585 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2CF2F16-AB51-4356-B13B-717A13C6773A}">
-  <dimension ref="A1:CG36"/>
+  <dimension ref="A1:CM72"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="BC3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="CD36" sqref="CD36"/>
+      <selection pane="bottomRight" activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="40.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="11" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="34" width="7" bestFit="1" customWidth="1"/>
-    <col min="35" max="51" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="52" max="71" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="72" max="85" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="12" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="35" width="7" bestFit="1" customWidth="1"/>
+    <col min="36" max="52" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="53" max="72" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="73" max="90" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4"/>
-      <c r="C1" s="2">
+      <c r="C1" s="4"/>
+      <c r="D1" s="2">
         <v>45126</v>
       </c>
-      <c r="D1" s="2">
+      <c r="E1" s="2">
         <v>45127</v>
       </c>
-      <c r="E1" s="2">
+      <c r="F1" s="2">
         <v>45128</v>
       </c>
-      <c r="F1" s="2">
+      <c r="G1" s="2">
         <v>45131</v>
       </c>
-      <c r="G1" s="2">
+      <c r="H1" s="2">
         <v>45132</v>
       </c>
-      <c r="H1" s="2">
+      <c r="I1" s="2">
         <v>45133</v>
       </c>
-      <c r="I1" s="2">
+      <c r="J1" s="2">
         <v>45134</v>
       </c>
-      <c r="J1" s="2">
+      <c r="K1" s="2">
         <v>45135</v>
       </c>
-      <c r="K1" s="2">
+      <c r="L1" s="2">
         <v>45138</v>
       </c>
-      <c r="L1" s="2">
+      <c r="M1" s="2">
         <v>45139</v>
       </c>
-      <c r="M1" s="2">
+      <c r="N1" s="2">
         <v>45140</v>
       </c>
-      <c r="N1" s="2">
+      <c r="O1" s="2">
         <v>45141</v>
       </c>
-      <c r="O1" s="2">
+      <c r="P1" s="2">
         <v>45142</v>
       </c>
-      <c r="P1" s="2">
+      <c r="Q1" s="2">
         <v>45145</v>
       </c>
-      <c r="Q1" s="2">
+      <c r="R1" s="2">
         <v>45146</v>
       </c>
-      <c r="R1" s="2">
+      <c r="S1" s="2">
         <v>45147</v>
       </c>
-      <c r="S1" s="2">
+      <c r="T1" s="2">
         <v>45148</v>
       </c>
-      <c r="T1" s="2">
+      <c r="U1" s="2">
         <v>45149</v>
       </c>
-      <c r="U1" s="2">
+      <c r="V1" s="2">
         <v>45152</v>
       </c>
-      <c r="V1" s="2">
+      <c r="W1" s="2">
         <v>45153</v>
       </c>
-      <c r="W1" s="2">
+      <c r="X1" s="2">
         <v>45154</v>
       </c>
-      <c r="X1" s="2">
+      <c r="Y1" s="2">
         <v>45155</v>
       </c>
-      <c r="Y1" s="2">
+      <c r="Z1" s="2">
         <v>45156</v>
       </c>
-      <c r="Z1" s="2">
+      <c r="AA1" s="2">
         <v>45159</v>
       </c>
-      <c r="AA1" s="2">
+      <c r="AB1" s="2">
         <v>45160</v>
       </c>
-      <c r="AB1" s="2">
+      <c r="AC1" s="2">
         <v>45161</v>
       </c>
-      <c r="AC1" s="2">
+      <c r="AD1" s="2">
         <v>45162</v>
       </c>
-      <c r="AD1" s="2">
+      <c r="AE1" s="2">
         <v>45163</v>
       </c>
-      <c r="AE1" s="2">
+      <c r="AF1" s="2">
         <v>45166</v>
       </c>
-      <c r="AF1" s="2">
+      <c r="AG1" s="2">
         <v>45167</v>
       </c>
-      <c r="AG1" s="2">
+      <c r="AH1" s="2">
         <v>45168</v>
       </c>
-      <c r="AH1" s="2">
+      <c r="AI1" s="2">
         <v>45169</v>
       </c>
-      <c r="AI1" s="2">
+      <c r="AJ1" s="2">
         <v>45170</v>
       </c>
-      <c r="AJ1" s="2">
+      <c r="AK1" s="2">
         <v>45173</v>
       </c>
-      <c r="AK1" s="2">
+      <c r="AL1" s="2">
         <v>45174</v>
       </c>
-      <c r="AL1" s="2">
+      <c r="AM1" s="2">
         <v>45175</v>
       </c>
-      <c r="AM1" s="2">
+      <c r="AN1" s="2">
         <v>45182</v>
       </c>
-      <c r="AN1" s="2">
+      <c r="AO1" s="2">
         <v>45183</v>
       </c>
-      <c r="AO1" s="2">
+      <c r="AP1" s="2">
         <v>45184</v>
       </c>
-      <c r="AP1" s="2">
+      <c r="AQ1" s="2">
         <v>45187</v>
       </c>
-      <c r="AQ1" s="2">
+      <c r="AR1" s="2">
         <v>45188</v>
       </c>
-      <c r="AR1" s="2">
+      <c r="AS1" s="2">
         <v>45189</v>
       </c>
-      <c r="AS1" s="2">
+      <c r="AT1" s="2">
         <v>45190</v>
       </c>
-      <c r="AT1" s="2">
+      <c r="AU1" s="2">
         <v>45191</v>
       </c>
-      <c r="AU1" s="2">
+      <c r="AV1" s="2">
         <v>45194</v>
       </c>
-      <c r="AV1" s="2">
+      <c r="AW1" s="2">
         <v>45195</v>
       </c>
-      <c r="AW1" s="2">
+      <c r="AX1" s="2">
         <v>45196</v>
       </c>
-      <c r="AX1" s="2">
+      <c r="AY1" s="2">
         <v>45197</v>
       </c>
-      <c r="AY1" s="2">
+      <c r="AZ1" s="2">
         <v>45198</v>
       </c>
-      <c r="AZ1" s="2">
+      <c r="BA1" s="2">
         <v>45201</v>
       </c>
-      <c r="BA1" s="2">
+      <c r="BB1" s="2">
         <v>45202</v>
       </c>
-      <c r="BB1" s="2">
+      <c r="BC1" s="2">
         <v>45203</v>
       </c>
-      <c r="BC1" s="2">
+      <c r="BD1" s="2">
         <v>45204</v>
       </c>
-      <c r="BD1" s="2">
+      <c r="BE1" s="2">
         <v>45205</v>
       </c>
-      <c r="BE1" s="2">
+      <c r="BF1" s="2">
         <v>45208</v>
       </c>
-      <c r="BF1" s="2">
+      <c r="BG1" s="2">
         <v>45209</v>
       </c>
-      <c r="BG1" s="2">
+      <c r="BH1" s="2">
         <v>45210</v>
       </c>
-      <c r="BH1" s="2">
+      <c r="BI1" s="2">
         <v>45215</v>
       </c>
-      <c r="BI1" s="2">
+      <c r="BJ1" s="2">
         <v>45216</v>
       </c>
-      <c r="BJ1" s="2">
+      <c r="BK1" s="2">
         <v>45217</v>
       </c>
-      <c r="BK1" s="2">
+      <c r="BL1" s="2">
         <v>45218</v>
       </c>
-      <c r="BL1" s="2">
+      <c r="BM1" s="2">
         <v>45219</v>
       </c>
-      <c r="BM1" s="2">
+      <c r="BN1" s="2">
         <v>45222</v>
       </c>
-      <c r="BN1" s="2">
+      <c r="BO1" s="2">
         <v>45223</v>
       </c>
-      <c r="BO1" s="2">
+      <c r="BP1" s="2">
         <v>45224</v>
       </c>
-      <c r="BP1" s="2">
+      <c r="BQ1" s="2">
         <v>45225</v>
       </c>
-      <c r="BQ1" s="2">
+      <c r="BR1" s="2">
         <v>45226</v>
       </c>
-      <c r="BR1" s="2">
+      <c r="BS1" s="2">
         <v>45229</v>
       </c>
-      <c r="BS1" s="2">
+      <c r="BT1" s="2">
         <v>45230</v>
       </c>
-      <c r="BT1" s="2">
+      <c r="BU1" s="2">
         <v>45231</v>
       </c>
-      <c r="BU1" s="2">
+      <c r="BV1" s="2">
         <v>45236</v>
       </c>
-      <c r="BV1" s="2">
+      <c r="BW1" s="2">
         <v>45237</v>
       </c>
-      <c r="BW1" s="2">
+      <c r="BX1" s="2">
         <v>45238</v>
       </c>
-      <c r="BX1" s="2">
+      <c r="BY1" s="2">
         <v>45239</v>
       </c>
-      <c r="BY1" s="2">
+      <c r="BZ1" s="2">
         <v>45240</v>
       </c>
-      <c r="BZ1" s="2">
+      <c r="CA1" s="2">
         <v>45243</v>
       </c>
-      <c r="CA1" s="2">
+      <c r="CB1" s="2">
         <v>45244</v>
       </c>
-      <c r="CB1" s="2">
+      <c r="CC1" s="2">
         <v>45246</v>
       </c>
-      <c r="CC1" s="2">
+      <c r="CD1" s="2">
         <v>45247</v>
       </c>
-      <c r="CD1" s="2">
+      <c r="CE1" s="2">
         <v>45251</v>
       </c>
-      <c r="CE1" s="2">
+      <c r="CF1" s="2">
         <v>45252</v>
       </c>
-      <c r="CF1" s="2">
+      <c r="CG1" s="2">
         <v>45253</v>
       </c>
-      <c r="CG1" s="2">
+      <c r="CH1" s="2">
         <v>45254</v>
       </c>
-    </row>
-    <row r="2" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="CI1" s="2">
+        <v>45257</v>
+      </c>
+      <c r="CJ1" s="2">
+        <v>45258</v>
+      </c>
+      <c r="CK1" s="2">
+        <v>45259</v>
+      </c>
+      <c r="CL1" s="2">
+        <v>45260</v>
+      </c>
+      <c r="CM1" s="2">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="2" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>4</v>
-      </c>
-      <c r="E2" t="s">
-        <v>5</v>
       </c>
       <c r="F2" t="s">
         <v>5</v>
       </c>
       <c r="G2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" t="s">
         <v>6</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>1</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>4</v>
-      </c>
-      <c r="J2" t="s">
-        <v>5</v>
       </c>
       <c r="K2" t="s">
         <v>5</v>
       </c>
       <c r="L2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M2" t="s">
         <v>6</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>1</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>4</v>
-      </c>
-      <c r="O2" t="s">
-        <v>5</v>
       </c>
       <c r="P2" t="s">
         <v>5</v>
       </c>
       <c r="Q2" t="s">
+        <v>5</v>
+      </c>
+      <c r="R2" t="s">
         <v>6</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>1</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>4</v>
-      </c>
-      <c r="T2" t="s">
-        <v>5</v>
       </c>
       <c r="U2" t="s">
         <v>5</v>
       </c>
       <c r="V2" t="s">
+        <v>5</v>
+      </c>
+      <c r="W2" t="s">
         <v>6</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>1</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>4</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>5</v>
       </c>
       <c r="Z2" t="s">
         <v>5</v>
       </c>
       <c r="AA2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB2" t="s">
         <v>6</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>1</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>4</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>5</v>
       </c>
       <c r="AE2" t="s">
         <v>5</v>
       </c>
       <c r="AF2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG2" t="s">
         <v>6</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AH2" t="s">
         <v>1</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AI2" t="s">
         <v>4</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>5</v>
       </c>
       <c r="AJ2" t="s">
         <v>5</v>
       </c>
       <c r="AK2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL2" t="s">
         <v>6</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>1</v>
       </c>
       <c r="AM2" t="s">
         <v>1</v>
       </c>
       <c r="AN2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO2" t="s">
         <v>4</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>5</v>
       </c>
       <c r="AP2" t="s">
         <v>5</v>
       </c>
       <c r="AQ2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AR2" t="s">
         <v>6</v>
       </c>
-      <c r="AR2" t="s">
+      <c r="AS2" t="s">
         <v>1</v>
       </c>
-      <c r="AS2" t="s">
+      <c r="AT2" t="s">
         <v>4</v>
-      </c>
-      <c r="AT2" t="s">
-        <v>5</v>
       </c>
       <c r="AU2" t="s">
         <v>5</v>
       </c>
       <c r="AV2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AW2" t="s">
         <v>6</v>
       </c>
-      <c r="AW2" t="s">
+      <c r="AX2" t="s">
         <v>1</v>
       </c>
-      <c r="AX2" t="s">
+      <c r="AY2" t="s">
         <v>4</v>
-      </c>
-      <c r="AY2" t="s">
-        <v>5</v>
       </c>
       <c r="AZ2" t="s">
         <v>5</v>
       </c>
       <c r="BA2" t="s">
+        <v>5</v>
+      </c>
+      <c r="BB2" t="s">
         <v>6</v>
       </c>
-      <c r="BB2" t="s">
+      <c r="BC2" t="s">
         <v>1</v>
       </c>
-      <c r="BC2" t="s">
+      <c r="BD2" t="s">
         <v>4</v>
-      </c>
-      <c r="BD2" t="s">
-        <v>5</v>
       </c>
       <c r="BE2" t="s">
         <v>5</v>
       </c>
       <c r="BF2" t="s">
+        <v>5</v>
+      </c>
+      <c r="BG2" t="s">
         <v>6</v>
       </c>
-      <c r="BG2" t="s">
+      <c r="BH2" t="s">
         <v>1</v>
       </c>
-      <c r="BH2" t="s">
+      <c r="BI2" t="s">
         <v>5</v>
       </c>
-      <c r="BI2" t="s">
+      <c r="BJ2" t="s">
         <v>6</v>
       </c>
-      <c r="BJ2" t="s">
+      <c r="BK2" t="s">
         <v>1</v>
       </c>
-      <c r="BK2" t="s">
+      <c r="BL2" t="s">
         <v>4</v>
-      </c>
-      <c r="BL2" t="s">
-        <v>5</v>
       </c>
       <c r="BM2" t="s">
         <v>5</v>
       </c>
       <c r="BN2" t="s">
+        <v>5</v>
+      </c>
+      <c r="BO2" t="s">
         <v>6</v>
       </c>
-      <c r="BO2" t="s">
+      <c r="BP2" t="s">
         <v>1</v>
       </c>
-      <c r="BP2" t="s">
+      <c r="BQ2" t="s">
         <v>4</v>
-      </c>
-      <c r="BQ2" t="s">
-        <v>5</v>
       </c>
       <c r="BR2" t="s">
         <v>5</v>
       </c>
       <c r="BS2" t="s">
+        <v>5</v>
+      </c>
+      <c r="BT2" t="s">
         <v>6</v>
       </c>
-      <c r="BT2" t="s">
+      <c r="BU2" t="s">
         <v>1</v>
       </c>
-      <c r="BU2" t="s">
+      <c r="BV2" t="s">
         <v>5</v>
       </c>
-      <c r="BV2" t="s">
+      <c r="BW2" t="s">
         <v>6</v>
       </c>
-      <c r="BW2" t="s">
+      <c r="BX2" t="s">
         <v>1</v>
       </c>
-      <c r="BX2" t="s">
+      <c r="BY2" t="s">
         <v>4</v>
-      </c>
-      <c r="BY2" t="s">
-        <v>5</v>
       </c>
       <c r="BZ2" t="s">
         <v>5</v>
       </c>
       <c r="CA2" t="s">
+        <v>5</v>
+      </c>
+      <c r="CB2" t="s">
         <v>6</v>
       </c>
-      <c r="CB2" t="s">
+      <c r="CC2" t="s">
         <v>4</v>
       </c>
-      <c r="CC2" t="s">
+      <c r="CD2" t="s">
         <v>5</v>
       </c>
-      <c r="CD2" t="s">
+      <c r="CE2" t="s">
         <v>6</v>
       </c>
-      <c r="CE2" t="s">
+      <c r="CF2" t="s">
         <v>1</v>
       </c>
-      <c r="CF2" t="s">
+      <c r="CG2" t="s">
         <v>4</v>
       </c>
-      <c r="CG2" t="s">
+      <c r="CH2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="CI2" t="s">
+        <v>5</v>
+      </c>
+      <c r="CJ2" t="s">
+        <v>6</v>
+      </c>
+      <c r="CK2" t="s">
+        <v>1</v>
+      </c>
+      <c r="CL2" t="s">
+        <v>4</v>
+      </c>
+      <c r="CM2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>19</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="3">
+        <f>B39/(B39+C39)</f>
+        <v>0.21951219512195122</v>
+      </c>
+      <c r="C3">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
       <c r="D3" t="s">
         <v>7</v>
       </c>
@@ -1474,13 +1514,13 @@
         <v>7</v>
       </c>
       <c r="G3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H3" t="s">
         <v>8</v>
       </c>
       <c r="I3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J3" t="s">
         <v>7</v>
@@ -1498,10 +1538,10 @@
         <v>7</v>
       </c>
       <c r="O3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="P3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Q3" t="s">
         <v>7</v>
@@ -1516,10 +1556,10 @@
         <v>7</v>
       </c>
       <c r="U3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="V3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="W3" t="s">
         <v>7</v>
@@ -1528,7 +1568,7 @@
         <v>7</v>
       </c>
       <c r="Y3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Z3" t="s">
         <v>8</v>
@@ -1587,10 +1627,10 @@
       <c r="AR3" t="s">
         <v>8</v>
       </c>
-      <c r="AS3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AT3" t="s">
+      <c r="AS3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AT3" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AU3" t="s">
@@ -1701,28 +1741,38 @@
       <c r="CD3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="CE3" t="s">
+        <v>8</v>
+      </c>
+      <c r="CF3" t="s">
+        <v>8</v>
+      </c>
+      <c r="CG3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>20</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="3">
+        <f t="shared" ref="B4:B36" si="0">B40/(B40+C40)</f>
+        <v>0.93902439024390238</v>
+      </c>
+      <c r="C4">
         <v>2</v>
       </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E4" t="s">
         <v>7</v>
       </c>
       <c r="F4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H4" t="s">
         <v>7</v>
@@ -1835,10 +1885,10 @@
       <c r="AR4" t="s">
         <v>7</v>
       </c>
-      <c r="AS4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AT4" t="s">
+      <c r="AS4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AT4" s="3" t="s">
         <v>7</v>
       </c>
       <c r="AU4" t="s">
@@ -1848,10 +1898,10 @@
         <v>7</v>
       </c>
       <c r="AW4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AX4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AY4" t="s">
         <v>7</v>
@@ -1860,10 +1910,10 @@
         <v>7</v>
       </c>
       <c r="BA4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BB4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BC4" t="s">
         <v>7</v>
@@ -1899,10 +1949,10 @@
         <v>7</v>
       </c>
       <c r="BN4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BO4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BP4" t="s">
         <v>7</v>
@@ -1949,17 +1999,27 @@
       <c r="CD4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="CE4" t="s">
+        <v>7</v>
+      </c>
+      <c r="CF4" t="s">
+        <v>7</v>
+      </c>
+      <c r="CG4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>21</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="3">
+        <f t="shared" si="0"/>
+        <v>3.6585365853658534E-2</v>
+      </c>
+      <c r="C5">
         <v>3</v>
       </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
       <c r="D5" t="s">
         <v>7</v>
       </c>
@@ -1967,7 +2027,7 @@
         <v>7</v>
       </c>
       <c r="F5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G5" t="s">
         <v>8</v>
@@ -2083,10 +2143,10 @@
       <c r="AR5" t="s">
         <v>8</v>
       </c>
-      <c r="AS5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AT5" t="s">
+      <c r="AS5" t="s">
+        <v>8</v>
+      </c>
+      <c r="AT5" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AU5" t="s">
@@ -2197,17 +2257,27 @@
       <c r="CD5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="CE5" t="s">
+        <v>8</v>
+      </c>
+      <c r="CF5" t="s">
+        <v>8</v>
+      </c>
+      <c r="CG5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>22</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="3">
+        <f t="shared" si="0"/>
+        <v>0.96341463414634143</v>
+      </c>
+      <c r="C6">
         <v>4</v>
       </c>
-      <c r="C6" t="s">
-        <v>7</v>
-      </c>
       <c r="D6" t="s">
         <v>7</v>
       </c>
@@ -2331,10 +2401,10 @@
       <c r="AR6" t="s">
         <v>7</v>
       </c>
-      <c r="AS6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AT6" t="s">
+      <c r="AS6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AT6" s="3" t="s">
         <v>7</v>
       </c>
       <c r="AU6" t="s">
@@ -2377,10 +2447,10 @@
         <v>7</v>
       </c>
       <c r="BH6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BI6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BJ6" t="s">
         <v>7</v>
@@ -2401,13 +2471,13 @@
         <v>7</v>
       </c>
       <c r="BP6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BQ6" t="s">
         <v>8</v>
       </c>
       <c r="BR6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BS6" t="s">
         <v>7</v>
@@ -2445,17 +2515,27 @@
       <c r="CD6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="CE6" t="s">
+        <v>7</v>
+      </c>
+      <c r="CF6" t="s">
+        <v>7</v>
+      </c>
+      <c r="CG6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>23</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C7">
         <v>5</v>
       </c>
-      <c r="C7" t="s">
-        <v>7</v>
-      </c>
       <c r="D7" t="s">
         <v>7</v>
       </c>
@@ -2579,10 +2659,10 @@
       <c r="AR7" t="s">
         <v>7</v>
       </c>
-      <c r="AS7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AT7" t="s">
+      <c r="AS7" t="s">
+        <v>7</v>
+      </c>
+      <c r="AT7" s="3" t="s">
         <v>7</v>
       </c>
       <c r="AU7" t="s">
@@ -2693,16 +2773,26 @@
       <c r="CD7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="CE7" t="s">
+        <v>7</v>
+      </c>
+      <c r="CF7" t="s">
+        <v>7</v>
+      </c>
+      <c r="CG7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>50</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="3">
+        <f t="shared" si="0"/>
+        <v>0.759493670886076</v>
+      </c>
+      <c r="C8">
         <v>6</v>
-      </c>
-      <c r="C8" t="s">
-        <v>47</v>
       </c>
       <c r="D8" t="s">
         <v>47</v>
@@ -2711,7 +2801,7 @@
         <v>47</v>
       </c>
       <c r="F8" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="G8" t="s">
         <v>7</v>
@@ -2732,10 +2822,10 @@
         <v>7</v>
       </c>
       <c r="M8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O8" t="s">
         <v>7</v>
@@ -2744,10 +2834,10 @@
         <v>7</v>
       </c>
       <c r="Q8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="S8" t="s">
         <v>7</v>
@@ -2768,10 +2858,10 @@
         <v>7</v>
       </c>
       <c r="Y8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Z8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AA8" t="s">
         <v>7</v>
@@ -2795,19 +2885,19 @@
         <v>7</v>
       </c>
       <c r="AH8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AI8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AJ8" t="s">
         <v>7</v>
       </c>
       <c r="AK8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AL8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AM8" t="s">
         <v>7</v>
@@ -2816,10 +2906,10 @@
         <v>7</v>
       </c>
       <c r="AO8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AP8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AQ8" t="s">
         <v>7</v>
@@ -2827,14 +2917,14 @@
       <c r="AR8" t="s">
         <v>7</v>
       </c>
-      <c r="AS8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AT8" t="s">
-        <v>8</v>
+      <c r="AS8" t="s">
+        <v>7</v>
+      </c>
+      <c r="AT8" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="AU8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AV8" t="s">
         <v>7</v>
@@ -2843,40 +2933,40 @@
         <v>7</v>
       </c>
       <c r="AX8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AY8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AZ8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BA8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BB8" t="s">
         <v>7</v>
       </c>
       <c r="BC8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BD8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BE8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BF8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BG8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BH8" t="s">
         <v>8</v>
       </c>
       <c r="BI8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BJ8" t="s">
         <v>7</v>
@@ -2885,10 +2975,10 @@
         <v>7</v>
       </c>
       <c r="BL8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BM8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BN8" t="s">
         <v>7</v>
@@ -2900,19 +2990,19 @@
         <v>7</v>
       </c>
       <c r="BQ8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BR8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BS8" t="s">
         <v>7</v>
       </c>
       <c r="BT8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BU8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BV8" t="s">
         <v>7</v>
@@ -2921,16 +3011,16 @@
         <v>7</v>
       </c>
       <c r="BX8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BY8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BZ8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CA8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CB8" t="s">
         <v>7</v>
@@ -2939,17 +3029,27 @@
         <v>7</v>
       </c>
       <c r="CD8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:85" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="CE8" t="s">
+        <v>8</v>
+      </c>
+      <c r="CF8" t="s">
+        <v>7</v>
+      </c>
+      <c r="CG8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>24</v>
       </c>
-      <c r="B9">
-        <v>7</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="B9" s="3">
+        <f t="shared" si="0"/>
+        <v>0.93902439024390238</v>
+      </c>
+      <c r="C9">
         <v>7</v>
       </c>
       <c r="D9" t="s">
@@ -3075,10 +3175,10 @@
       <c r="AR9" t="s">
         <v>7</v>
       </c>
-      <c r="AS9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AT9" t="s">
+      <c r="AS9" t="s">
+        <v>7</v>
+      </c>
+      <c r="AT9" s="3" t="s">
         <v>7</v>
       </c>
       <c r="AU9" t="s">
@@ -3094,10 +3194,10 @@
         <v>7</v>
       </c>
       <c r="AY9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AZ9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA9" t="s">
         <v>7</v>
@@ -3163,13 +3263,13 @@
         <v>7</v>
       </c>
       <c r="BV9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BW9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BX9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BY9" t="s">
         <v>8</v>
@@ -3178,7 +3278,7 @@
         <v>8</v>
       </c>
       <c r="CA9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CB9" t="s">
         <v>7</v>
@@ -3189,16 +3289,26 @@
       <c r="CD9" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="CE9" t="s">
+        <v>7</v>
+      </c>
+      <c r="CF9" t="s">
+        <v>7</v>
+      </c>
+      <c r="CG9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>25</v>
       </c>
-      <c r="B10">
-        <v>8</v>
-      </c>
-      <c r="C10" t="s">
-        <v>7</v>
+      <c r="B10" s="3">
+        <f t="shared" si="0"/>
+        <v>0.98780487804878048</v>
+      </c>
+      <c r="C10">
+        <v>8</v>
       </c>
       <c r="D10" t="s">
         <v>7</v>
@@ -3267,10 +3377,10 @@
         <v>7</v>
       </c>
       <c r="Z10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AA10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AB10" t="s">
         <v>7</v>
@@ -3323,10 +3433,10 @@
       <c r="AR10" t="s">
         <v>7</v>
       </c>
-      <c r="AS10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AT10" t="s">
+      <c r="AS10" t="s">
+        <v>7</v>
+      </c>
+      <c r="AT10" s="3" t="s">
         <v>7</v>
       </c>
       <c r="AU10" t="s">
@@ -3437,17 +3547,27 @@
       <c r="CD10" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="11" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="CE10" t="s">
+        <v>7</v>
+      </c>
+      <c r="CF10" t="s">
+        <v>7</v>
+      </c>
+      <c r="CG10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>26</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="3">
+        <f t="shared" si="0"/>
+        <v>0.97560975609756095</v>
+      </c>
+      <c r="C11">
         <v>9</v>
       </c>
-      <c r="C11" t="s">
-        <v>7</v>
-      </c>
       <c r="D11" t="s">
         <v>7</v>
       </c>
@@ -3571,10 +3691,10 @@
       <c r="AR11" t="s">
         <v>7</v>
       </c>
-      <c r="AS11" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AT11" t="s">
+      <c r="AS11" t="s">
+        <v>7</v>
+      </c>
+      <c r="AT11" s="3" t="s">
         <v>7</v>
       </c>
       <c r="AU11" t="s">
@@ -3614,10 +3734,10 @@
         <v>7</v>
       </c>
       <c r="BG11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BH11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BI11" t="s">
         <v>7</v>
@@ -3683,19 +3803,29 @@
         <v>7</v>
       </c>
       <c r="CD11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:85" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="CE11" t="s">
+        <v>8</v>
+      </c>
+      <c r="CF11" t="s">
+        <v>7</v>
+      </c>
+      <c r="CG11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="3">
+        <f t="shared" si="0"/>
+        <v>0.98780487804878048</v>
+      </c>
+      <c r="C12">
         <v>10</v>
       </c>
-      <c r="C12" t="s">
-        <v>7</v>
-      </c>
       <c r="D12" t="s">
         <v>7</v>
       </c>
@@ -3819,14 +3949,14 @@
       <c r="AR12" t="s">
         <v>7</v>
       </c>
-      <c r="AS12" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AT12" t="s">
-        <v>8</v>
+      <c r="AS12" t="s">
+        <v>7</v>
+      </c>
+      <c r="AT12" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="AU12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AV12" t="s">
         <v>7</v>
@@ -3933,17 +4063,27 @@
       <c r="CD12" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="13" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="CE12" t="s">
+        <v>7</v>
+      </c>
+      <c r="CF12" t="s">
+        <v>7</v>
+      </c>
+      <c r="CG12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="3">
+        <f t="shared" si="0"/>
+        <v>0.70731707317073167</v>
+      </c>
+      <c r="C13">
         <v>11</v>
       </c>
-      <c r="C13" t="s">
-        <v>7</v>
-      </c>
       <c r="D13" t="s">
         <v>7</v>
       </c>
@@ -3951,10 +4091,10 @@
         <v>7</v>
       </c>
       <c r="F13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H13" t="s">
         <v>7</v>
@@ -3978,10 +4118,10 @@
         <v>7</v>
       </c>
       <c r="O13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="P13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Q13" t="s">
         <v>7</v>
@@ -3999,10 +4139,10 @@
         <v>7</v>
       </c>
       <c r="V13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="W13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="X13" t="s">
         <v>7</v>
@@ -4017,10 +4157,10 @@
         <v>7</v>
       </c>
       <c r="AB13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AC13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AD13" t="s">
         <v>7</v>
@@ -4056,25 +4196,25 @@
         <v>7</v>
       </c>
       <c r="AO13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AP13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AQ13" t="s">
         <v>7</v>
       </c>
       <c r="AR13" t="s">
-        <v>8</v>
-      </c>
-      <c r="AS13" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AT13" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="AS13" t="s">
+        <v>8</v>
+      </c>
+      <c r="AT13" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="AU13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AV13" t="s">
         <v>7</v>
@@ -4083,43 +4223,43 @@
         <v>7</v>
       </c>
       <c r="AX13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AY13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AZ13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BA13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BB13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BC13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BD13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BE13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BF13" t="s">
         <v>7</v>
       </c>
       <c r="BG13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BH13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BI13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BJ13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BK13" t="s">
         <v>7</v>
@@ -4128,31 +4268,31 @@
         <v>7</v>
       </c>
       <c r="BM13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BN13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BO13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BP13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BQ13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BR13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BS13" t="s">
         <v>7</v>
       </c>
       <c r="BT13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BU13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BV13" t="s">
         <v>7</v>
@@ -4161,7 +4301,7 @@
         <v>7</v>
       </c>
       <c r="BX13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BY13" t="s">
         <v>8</v>
@@ -4181,17 +4321,27 @@
       <c r="CD13" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="14" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="CE13" t="s">
+        <v>8</v>
+      </c>
+      <c r="CF13" t="s">
+        <v>7</v>
+      </c>
+      <c r="CG13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>14</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="3">
+        <f t="shared" si="0"/>
+        <v>0.84146341463414631</v>
+      </c>
+      <c r="C14">
         <v>12</v>
       </c>
-      <c r="C14" t="s">
-        <v>7</v>
-      </c>
       <c r="D14" t="s">
         <v>7</v>
       </c>
@@ -4226,10 +4376,10 @@
         <v>7</v>
       </c>
       <c r="O14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="P14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Q14" t="s">
         <v>7</v>
@@ -4265,10 +4415,10 @@
         <v>7</v>
       </c>
       <c r="AB14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AC14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AD14" t="s">
         <v>7</v>
@@ -4301,24 +4451,24 @@
         <v>7</v>
       </c>
       <c r="AN14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AO14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AP14" t="s">
         <v>7</v>
       </c>
       <c r="AQ14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AR14" t="s">
-        <v>7</v>
-      </c>
-      <c r="AS14" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AT14" t="s">
+        <v>8</v>
+      </c>
+      <c r="AS14" t="s">
+        <v>7</v>
+      </c>
+      <c r="AT14" s="3" t="s">
         <v>7</v>
       </c>
       <c r="AU14" t="s">
@@ -4331,10 +4481,10 @@
         <v>7</v>
       </c>
       <c r="AX14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AY14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AZ14" t="s">
         <v>7</v>
@@ -4343,10 +4493,10 @@
         <v>7</v>
       </c>
       <c r="BB14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BC14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BD14" t="s">
         <v>7</v>
@@ -4358,16 +4508,16 @@
         <v>7</v>
       </c>
       <c r="BG14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BH14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BI14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BJ14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BK14" t="s">
         <v>7</v>
@@ -4379,13 +4529,13 @@
         <v>7</v>
       </c>
       <c r="BN14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BO14" t="s">
         <v>8</v>
       </c>
       <c r="BP14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BQ14" t="s">
         <v>7</v>
@@ -4403,10 +4553,10 @@
         <v>7</v>
       </c>
       <c r="BV14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BW14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BX14" t="s">
         <v>7</v>
@@ -4418,28 +4568,38 @@
         <v>7</v>
       </c>
       <c r="CA14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CB14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CC14" t="s">
         <v>7</v>
       </c>
       <c r="CD14" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:85" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="CE14" t="s">
+        <v>8</v>
+      </c>
+      <c r="CF14" t="s">
+        <v>7</v>
+      </c>
+      <c r="CG14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>16</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="3">
+        <f t="shared" si="0"/>
+        <v>0.95121951219512191</v>
+      </c>
+      <c r="C15">
         <v>13</v>
       </c>
-      <c r="C15" t="s">
-        <v>7</v>
-      </c>
       <c r="D15" t="s">
         <v>7</v>
       </c>
@@ -4447,10 +4607,10 @@
         <v>7</v>
       </c>
       <c r="F15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H15" t="s">
         <v>7</v>
@@ -4549,10 +4709,10 @@
         <v>7</v>
       </c>
       <c r="AN15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AO15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AP15" t="s">
         <v>7</v>
@@ -4563,10 +4723,10 @@
       <c r="AR15" t="s">
         <v>7</v>
       </c>
-      <c r="AS15" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AT15" t="s">
+      <c r="AS15" t="s">
+        <v>7</v>
+      </c>
+      <c r="AT15" s="3" t="s">
         <v>7</v>
       </c>
       <c r="AU15" t="s">
@@ -4588,10 +4748,10 @@
         <v>7</v>
       </c>
       <c r="BA15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BB15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BC15" t="s">
         <v>7</v>
@@ -4654,10 +4814,10 @@
         <v>7</v>
       </c>
       <c r="BW15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BX15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BY15" t="s">
         <v>7</v>
@@ -4677,16 +4837,26 @@
       <c r="CD15" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="16" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="CE15" t="s">
+        <v>7</v>
+      </c>
+      <c r="CF15" t="s">
+        <v>7</v>
+      </c>
+      <c r="CG15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>9</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="3">
+        <f t="shared" si="0"/>
+        <v>0.11392405063291139</v>
+      </c>
+      <c r="C16">
         <v>14</v>
-      </c>
-      <c r="C16" t="s">
-        <v>47</v>
       </c>
       <c r="D16" t="s">
         <v>47</v>
@@ -4695,7 +4865,7 @@
         <v>47</v>
       </c>
       <c r="F16" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="G16" t="s">
         <v>7</v>
@@ -4722,7 +4892,7 @@
         <v>7</v>
       </c>
       <c r="O16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="P16" t="s">
         <v>8</v>
@@ -4811,10 +4981,10 @@
       <c r="AR16" t="s">
         <v>8</v>
       </c>
-      <c r="AS16" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AT16" t="s">
+      <c r="AS16" t="s">
+        <v>8</v>
+      </c>
+      <c r="AT16" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AU16" t="s">
@@ -4925,17 +5095,27 @@
       <c r="CD16" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="17" spans="1:82" x14ac:dyDescent="0.25">
+      <c r="CE16" t="s">
+        <v>8</v>
+      </c>
+      <c r="CF16" t="s">
+        <v>8</v>
+      </c>
+      <c r="CG16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>27</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="3">
+        <f t="shared" si="0"/>
+        <v>0.98780487804878048</v>
+      </c>
+      <c r="C17">
         <v>15</v>
       </c>
-      <c r="C17" t="s">
-        <v>7</v>
-      </c>
       <c r="D17" t="s">
         <v>7</v>
       </c>
@@ -5009,10 +5189,10 @@
         <v>7</v>
       </c>
       <c r="AB17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AC17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AD17" t="s">
         <v>7</v>
@@ -5059,10 +5239,10 @@
       <c r="AR17" t="s">
         <v>7</v>
       </c>
-      <c r="AS17" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AT17" t="s">
+      <c r="AS17" t="s">
+        <v>7</v>
+      </c>
+      <c r="AT17" s="3" t="s">
         <v>7</v>
       </c>
       <c r="AU17" t="s">
@@ -5173,17 +5353,27 @@
       <c r="CD17" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="18" spans="1:82" x14ac:dyDescent="0.25">
+      <c r="CE17" t="s">
+        <v>7</v>
+      </c>
+      <c r="CF17" t="s">
+        <v>7</v>
+      </c>
+      <c r="CG17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>28</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C18">
         <v>16</v>
       </c>
-      <c r="C18" t="s">
-        <v>7</v>
-      </c>
       <c r="D18" t="s">
         <v>7</v>
       </c>
@@ -5307,10 +5497,10 @@
       <c r="AR18" t="s">
         <v>7</v>
       </c>
-      <c r="AS18" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AT18" t="s">
+      <c r="AS18" t="s">
+        <v>7</v>
+      </c>
+      <c r="AT18" s="3" t="s">
         <v>7</v>
       </c>
       <c r="AU18" t="s">
@@ -5421,17 +5611,27 @@
       <c r="CD18" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="19" spans="1:82" x14ac:dyDescent="0.25">
+      <c r="CE18" t="s">
+        <v>7</v>
+      </c>
+      <c r="CF18" t="s">
+        <v>7</v>
+      </c>
+      <c r="CG18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>30</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="3">
+        <f t="shared" si="0"/>
+        <v>0.96341463414634143</v>
+      </c>
+      <c r="C19">
         <v>17</v>
       </c>
-      <c r="C19" t="s">
-        <v>7</v>
-      </c>
       <c r="D19" t="s">
         <v>7</v>
       </c>
@@ -5466,10 +5666,10 @@
         <v>7</v>
       </c>
       <c r="O19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="P19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Q19" t="s">
         <v>7</v>
@@ -5555,10 +5755,10 @@
       <c r="AR19" t="s">
         <v>7</v>
       </c>
-      <c r="AS19" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AT19" t="s">
+      <c r="AS19" t="s">
+        <v>7</v>
+      </c>
+      <c r="AT19" s="3" t="s">
         <v>7</v>
       </c>
       <c r="AU19" t="s">
@@ -5574,10 +5774,10 @@
         <v>7</v>
       </c>
       <c r="AY19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AZ19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA19" t="s">
         <v>7</v>
@@ -5667,19 +5867,29 @@
         <v>7</v>
       </c>
       <c r="CD19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:82" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="CE19" t="s">
+        <v>8</v>
+      </c>
+      <c r="CF19" t="s">
+        <v>7</v>
+      </c>
+      <c r="CG19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>31</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="3">
+        <f t="shared" si="0"/>
+        <v>0.45121951219512196</v>
+      </c>
+      <c r="C20">
         <v>18</v>
       </c>
-      <c r="C20" t="s">
-        <v>7</v>
-      </c>
       <c r="D20" t="s">
         <v>7</v>
       </c>
@@ -5702,7 +5912,7 @@
         <v>7</v>
       </c>
       <c r="K20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L20" t="s">
         <v>8</v>
@@ -5711,7 +5921,7 @@
         <v>8</v>
       </c>
       <c r="N20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O20" t="s">
         <v>7</v>
@@ -5732,10 +5942,10 @@
         <v>7</v>
       </c>
       <c r="U20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="V20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="W20" t="s">
         <v>7</v>
@@ -5750,25 +5960,25 @@
         <v>7</v>
       </c>
       <c r="AA20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AB20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AC20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AD20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AE20" t="s">
         <v>7</v>
       </c>
       <c r="AF20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AG20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AH20" t="s">
         <v>7</v>
@@ -5777,22 +5987,22 @@
         <v>7</v>
       </c>
       <c r="AJ20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AK20" t="s">
         <v>8</v>
       </c>
       <c r="AL20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AM20" t="s">
         <v>7</v>
       </c>
       <c r="AN20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AO20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AP20" t="s">
         <v>7</v>
@@ -5801,22 +6011,22 @@
         <v>7</v>
       </c>
       <c r="AR20" t="s">
-        <v>8</v>
-      </c>
-      <c r="AS20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AT20" t="s">
+        <v>7</v>
+      </c>
+      <c r="AS20" t="s">
+        <v>8</v>
+      </c>
+      <c r="AT20" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AU20" t="s">
         <v>8</v>
       </c>
       <c r="AV20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AW20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AX20" t="s">
         <v>8</v>
@@ -5825,19 +6035,19 @@
         <v>8</v>
       </c>
       <c r="AZ20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BB20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BC20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BD20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BE20" t="s">
         <v>7</v>
@@ -5846,7 +6056,7 @@
         <v>7</v>
       </c>
       <c r="BG20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BH20" t="s">
         <v>8</v>
@@ -5917,17 +6127,27 @@
       <c r="CD20" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="21" spans="1:82" x14ac:dyDescent="0.25">
+      <c r="CE20" t="s">
+        <v>8</v>
+      </c>
+      <c r="CF20" t="s">
+        <v>8</v>
+      </c>
+      <c r="CG20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>33</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="3">
+        <f t="shared" si="0"/>
+        <v>0.71951219512195119</v>
+      </c>
+      <c r="C21">
         <v>19</v>
       </c>
-      <c r="C21" t="s">
-        <v>7</v>
-      </c>
       <c r="D21" t="s">
         <v>7</v>
       </c>
@@ -5935,10 +6155,10 @@
         <v>7</v>
       </c>
       <c r="F21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H21" t="s">
         <v>7</v>
@@ -5956,11 +6176,11 @@
         <v>7</v>
       </c>
       <c r="M21" t="s">
+        <v>7</v>
+      </c>
+      <c r="N21" t="s">
         <v>11</v>
       </c>
-      <c r="N21" t="s">
-        <v>7</v>
-      </c>
       <c r="O21" t="s">
         <v>7</v>
       </c>
@@ -6025,13 +6245,13 @@
         <v>7</v>
       </c>
       <c r="AJ21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AK21" t="s">
         <v>8</v>
       </c>
       <c r="AL21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AM21" t="s">
         <v>7</v>
@@ -6043,18 +6263,18 @@
         <v>7</v>
       </c>
       <c r="AP21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AQ21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AR21" t="s">
         <v>7</v>
       </c>
-      <c r="AS21" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AT21" t="s">
+      <c r="AS21" t="s">
+        <v>7</v>
+      </c>
+      <c r="AT21" s="3" t="s">
         <v>7</v>
       </c>
       <c r="AU21" t="s">
@@ -6073,16 +6293,16 @@
         <v>7</v>
       </c>
       <c r="AZ21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BA21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BB21" t="s">
         <v>7</v>
       </c>
       <c r="BC21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BD21" t="s">
         <v>8</v>
@@ -6091,10 +6311,10 @@
         <v>8</v>
       </c>
       <c r="BF21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BG21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BH21" t="s">
         <v>8</v>
@@ -6103,22 +6323,22 @@
         <v>8</v>
       </c>
       <c r="BJ21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BK21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BL21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BM21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BN21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BO21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BP21" t="s">
         <v>8</v>
@@ -6142,7 +6362,7 @@
         <v>8</v>
       </c>
       <c r="BW21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BX21" t="s">
         <v>7</v>
@@ -6151,10 +6371,10 @@
         <v>7</v>
       </c>
       <c r="BZ21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CA21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CB21" t="s">
         <v>7</v>
@@ -6163,18 +6383,28 @@
         <v>7</v>
       </c>
       <c r="CD21" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:82" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="CE21" t="s">
+        <v>8</v>
+      </c>
+      <c r="CF21" t="s">
+        <v>7</v>
+      </c>
+      <c r="CG21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>48</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="3">
+        <f t="shared" si="0"/>
+        <v>0.96202531645569622</v>
+      </c>
+      <c r="C22">
         <v>20</v>
-      </c>
-      <c r="C22" t="s">
-        <v>47</v>
       </c>
       <c r="D22" t="s">
         <v>47</v>
@@ -6183,7 +6413,7 @@
         <v>47</v>
       </c>
       <c r="F22" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="G22" t="s">
         <v>7</v>
@@ -6276,10 +6506,10 @@
         <v>7</v>
       </c>
       <c r="AK22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AL22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AM22" t="s">
         <v>7</v>
@@ -6299,10 +6529,10 @@
       <c r="AR22" t="s">
         <v>7</v>
       </c>
-      <c r="AS22" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AT22" t="s">
+      <c r="AS22" t="s">
+        <v>7</v>
+      </c>
+      <c r="AT22" s="3" t="s">
         <v>7</v>
       </c>
       <c r="AU22" t="s">
@@ -6336,10 +6566,10 @@
         <v>7</v>
       </c>
       <c r="BE22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BF22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BG22" t="s">
         <v>7</v>
@@ -6378,10 +6608,10 @@
         <v>7</v>
       </c>
       <c r="BS22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BT22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BU22" t="s">
         <v>7</v>
@@ -6413,17 +6643,27 @@
       <c r="CD22" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="23" spans="1:82" x14ac:dyDescent="0.25">
+      <c r="CE22" t="s">
+        <v>7</v>
+      </c>
+      <c r="CF22" t="s">
+        <v>7</v>
+      </c>
+      <c r="CG22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>17</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C23">
         <v>21</v>
       </c>
-      <c r="C23" t="s">
-        <v>7</v>
-      </c>
       <c r="D23" t="s">
         <v>7</v>
       </c>
@@ -6452,11 +6692,11 @@
         <v>7</v>
       </c>
       <c r="M23" t="s">
+        <v>7</v>
+      </c>
+      <c r="N23" t="s">
         <v>11</v>
       </c>
-      <c r="N23" t="s">
-        <v>7</v>
-      </c>
       <c r="O23" t="s">
         <v>7</v>
       </c>
@@ -6547,10 +6787,10 @@
       <c r="AR23" t="s">
         <v>7</v>
       </c>
-      <c r="AS23" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AT23" t="s">
+      <c r="AS23" t="s">
+        <v>7</v>
+      </c>
+      <c r="AT23" s="3" t="s">
         <v>7</v>
       </c>
       <c r="AU23" t="s">
@@ -6661,17 +6901,27 @@
       <c r="CD23" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="24" spans="1:82" x14ac:dyDescent="0.25">
+      <c r="CE23" t="s">
+        <v>7</v>
+      </c>
+      <c r="CF23" t="s">
+        <v>7</v>
+      </c>
+      <c r="CG23" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>34</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="3">
+        <f t="shared" si="0"/>
+        <v>0.59756097560975607</v>
+      </c>
+      <c r="C24">
         <v>22</v>
       </c>
-      <c r="C24" t="s">
-        <v>7</v>
-      </c>
       <c r="D24" t="s">
         <v>7</v>
       </c>
@@ -6679,10 +6929,10 @@
         <v>7</v>
       </c>
       <c r="F24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H24" t="s">
         <v>7</v>
@@ -6715,10 +6965,10 @@
         <v>7</v>
       </c>
       <c r="R24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="S24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="T24" t="s">
         <v>7</v>
@@ -6745,10 +6995,10 @@
         <v>7</v>
       </c>
       <c r="AB24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AC24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AD24" t="s">
         <v>7</v>
@@ -6772,16 +7022,16 @@
         <v>7</v>
       </c>
       <c r="AK24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AL24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AM24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AN24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AO24" t="s">
         <v>7</v>
@@ -6795,20 +7045,20 @@
       <c r="AR24" t="s">
         <v>7</v>
       </c>
-      <c r="AS24" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AT24" t="s">
+      <c r="AS24" t="s">
+        <v>7</v>
+      </c>
+      <c r="AT24" s="3" t="s">
         <v>7</v>
       </c>
       <c r="AU24" t="s">
         <v>7</v>
       </c>
       <c r="AV24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AW24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AX24" t="s">
         <v>7</v>
@@ -6832,13 +7082,13 @@
         <v>7</v>
       </c>
       <c r="BE24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BF24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BG24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BH24" t="s">
         <v>8</v>
@@ -6909,17 +7159,27 @@
       <c r="CD24" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="25" spans="1:82" x14ac:dyDescent="0.25">
+      <c r="CE24" t="s">
+        <v>8</v>
+      </c>
+      <c r="CF24" t="s">
+        <v>8</v>
+      </c>
+      <c r="CG24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>35</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="3">
+        <f t="shared" si="0"/>
+        <v>0.93902439024390238</v>
+      </c>
+      <c r="C25">
         <v>23</v>
       </c>
-      <c r="C25" t="s">
-        <v>7</v>
-      </c>
       <c r="D25" t="s">
         <v>7</v>
       </c>
@@ -7005,10 +7265,10 @@
         <v>7</v>
       </c>
       <c r="AF25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AG25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AH25" t="s">
         <v>7</v>
@@ -7043,10 +7303,10 @@
       <c r="AR25" t="s">
         <v>7</v>
       </c>
-      <c r="AS25" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AT25" t="s">
+      <c r="AS25" t="s">
+        <v>7</v>
+      </c>
+      <c r="AT25" s="3" t="s">
         <v>7</v>
       </c>
       <c r="AU25" t="s">
@@ -7071,19 +7331,19 @@
         <v>7</v>
       </c>
       <c r="BB25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BC25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BD25" t="s">
         <v>7</v>
       </c>
       <c r="BE25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BF25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BG25" t="s">
         <v>7</v>
@@ -7143,13 +7403,13 @@
         <v>7</v>
       </c>
       <c r="BZ25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CA25" t="s">
         <v>8</v>
       </c>
       <c r="CB25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CC25" t="s">
         <v>7</v>
@@ -7157,17 +7417,27 @@
       <c r="CD25" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="26" spans="1:82" x14ac:dyDescent="0.25">
+      <c r="CE25" t="s">
+        <v>7</v>
+      </c>
+      <c r="CF25" t="s">
+        <v>7</v>
+      </c>
+      <c r="CG25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>36</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="3">
+        <f t="shared" si="0"/>
+        <v>0.86585365853658536</v>
+      </c>
+      <c r="C26">
         <v>24</v>
       </c>
-      <c r="C26" t="s">
-        <v>7</v>
-      </c>
       <c r="D26" t="s">
         <v>7</v>
       </c>
@@ -7196,13 +7466,13 @@
         <v>7</v>
       </c>
       <c r="M26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N26" t="s">
         <v>8</v>
       </c>
       <c r="O26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="P26" t="s">
         <v>7</v>
@@ -7235,10 +7505,10 @@
         <v>7</v>
       </c>
       <c r="Z26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AA26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AB26" t="s">
         <v>7</v>
@@ -7280,10 +7550,10 @@
         <v>7</v>
       </c>
       <c r="AO26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AP26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AQ26" t="s">
         <v>7</v>
@@ -7291,29 +7561,29 @@
       <c r="AR26" t="s">
         <v>7</v>
       </c>
-      <c r="AS26" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AT26" t="s">
+      <c r="AS26" t="s">
+        <v>7</v>
+      </c>
+      <c r="AT26" s="3" t="s">
         <v>7</v>
       </c>
       <c r="AU26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AV26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AW26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AX26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AY26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AZ26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA26" t="s">
         <v>7</v>
@@ -7325,22 +7595,22 @@
         <v>7</v>
       </c>
       <c r="BD26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BE26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BF26" t="s">
         <v>7</v>
       </c>
       <c r="BG26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BH26" t="s">
         <v>8</v>
       </c>
       <c r="BI26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BJ26" t="s">
         <v>7</v>
@@ -7358,10 +7628,10 @@
         <v>7</v>
       </c>
       <c r="BO26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BP26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BQ26" t="s">
         <v>7</v>
@@ -7405,17 +7675,27 @@
       <c r="CD26" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="27" spans="1:82" x14ac:dyDescent="0.25">
+      <c r="CE26" t="s">
+        <v>7</v>
+      </c>
+      <c r="CF26" t="s">
+        <v>7</v>
+      </c>
+      <c r="CG26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>46</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="3">
+        <f t="shared" si="0"/>
+        <v>0.96341463414634143</v>
+      </c>
+      <c r="C27">
         <v>25</v>
       </c>
-      <c r="C27" t="s">
-        <v>7</v>
-      </c>
       <c r="D27" t="s">
         <v>7</v>
       </c>
@@ -7423,10 +7703,10 @@
         <v>7</v>
       </c>
       <c r="F27" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H27" t="s">
         <v>7</v>
@@ -7539,14 +7819,14 @@
       <c r="AR27" t="s">
         <v>7</v>
       </c>
-      <c r="AS27" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AT27" t="s">
-        <v>8</v>
+      <c r="AS27" t="s">
+        <v>7</v>
+      </c>
+      <c r="AT27" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="AU27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AV27" t="s">
         <v>7</v>
@@ -7618,10 +7898,10 @@
         <v>7</v>
       </c>
       <c r="BS27" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BT27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BU27" t="s">
         <v>7</v>
@@ -7653,16 +7933,26 @@
       <c r="CD27" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="28" spans="1:82" x14ac:dyDescent="0.25">
+      <c r="CE27" t="s">
+        <v>7</v>
+      </c>
+      <c r="CF27" t="s">
+        <v>7</v>
+      </c>
+      <c r="CG27" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>10</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="3">
+        <f t="shared" si="0"/>
+        <v>0.87341772151898733</v>
+      </c>
+      <c r="C28">
         <v>26</v>
-      </c>
-      <c r="C28" t="s">
-        <v>47</v>
       </c>
       <c r="D28" t="s">
         <v>47</v>
@@ -7671,7 +7961,7 @@
         <v>47</v>
       </c>
       <c r="F28" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="G28" t="s">
         <v>7</v>
@@ -7740,10 +8030,10 @@
         <v>7</v>
       </c>
       <c r="AC28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AD28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AE28" t="s">
         <v>7</v>
@@ -7770,10 +8060,10 @@
         <v>7</v>
       </c>
       <c r="AM28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AN28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AO28" t="s">
         <v>7</v>
@@ -7787,20 +8077,20 @@
       <c r="AR28" t="s">
         <v>7</v>
       </c>
-      <c r="AS28" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AT28" t="s">
+      <c r="AS28" t="s">
+        <v>7</v>
+      </c>
+      <c r="AT28" s="3" t="s">
         <v>7</v>
       </c>
       <c r="AU28" t="s">
         <v>7</v>
       </c>
       <c r="AV28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AW28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AX28" t="s">
         <v>7</v>
@@ -7815,10 +8105,10 @@
         <v>7</v>
       </c>
       <c r="BB28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BC28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BD28" t="s">
         <v>7</v>
@@ -7830,10 +8120,10 @@
         <v>7</v>
       </c>
       <c r="BG28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BH28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BI28" t="s">
         <v>7</v>
@@ -7845,10 +8135,10 @@
         <v>7</v>
       </c>
       <c r="BL28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BM28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BN28" t="s">
         <v>7</v>
@@ -7875,10 +8165,10 @@
         <v>7</v>
       </c>
       <c r="BV28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BW28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BX28" t="s">
         <v>7</v>
@@ -7896,22 +8186,32 @@
         <v>7</v>
       </c>
       <c r="CC28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CD28" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="29" spans="1:82" x14ac:dyDescent="0.25">
+      <c r="CE28" t="s">
+        <v>8</v>
+      </c>
+      <c r="CF28" t="s">
+        <v>7</v>
+      </c>
+      <c r="CG28" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>38</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="3">
+        <f t="shared" si="0"/>
+        <v>0.97560975609756095</v>
+      </c>
+      <c r="C29">
         <v>27</v>
       </c>
-      <c r="C29" t="s">
-        <v>7</v>
-      </c>
       <c r="D29" t="s">
         <v>7</v>
       </c>
@@ -8012,10 +8312,10 @@
         <v>7</v>
       </c>
       <c r="AK29" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AL29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AM29" t="s">
         <v>7</v>
@@ -8035,10 +8335,10 @@
       <c r="AR29" t="s">
         <v>7</v>
       </c>
-      <c r="AS29" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AT29" t="s">
+      <c r="AS29" t="s">
+        <v>7</v>
+      </c>
+      <c r="AT29" s="3" t="s">
         <v>7</v>
       </c>
       <c r="AU29" t="s">
@@ -8144,22 +8444,32 @@
         <v>7</v>
       </c>
       <c r="CC29" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CD29" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30" spans="1:82" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="CE29" t="s">
+        <v>7</v>
+      </c>
+      <c r="CF29" t="s">
+        <v>7</v>
+      </c>
+      <c r="CG29" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>39</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="3">
+        <f t="shared" si="0"/>
+        <v>0.98780487804878048</v>
+      </c>
+      <c r="C30">
         <v>28</v>
       </c>
-      <c r="C30" t="s">
-        <v>7</v>
-      </c>
       <c r="D30" t="s">
         <v>7</v>
       </c>
@@ -8263,10 +8573,10 @@
         <v>7</v>
       </c>
       <c r="AL30" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AM30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AN30" t="s">
         <v>7</v>
@@ -8283,10 +8593,10 @@
       <c r="AR30" t="s">
         <v>7</v>
       </c>
-      <c r="AS30" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AT30" t="s">
+      <c r="AS30" t="s">
+        <v>7</v>
+      </c>
+      <c r="AT30" s="3" t="s">
         <v>7</v>
       </c>
       <c r="AU30" t="s">
@@ -8397,25 +8707,35 @@
       <c r="CD30" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="31" spans="1:82" x14ac:dyDescent="0.25">
+      <c r="CE30" t="s">
+        <v>7</v>
+      </c>
+      <c r="CF30" t="s">
+        <v>7</v>
+      </c>
+      <c r="CG30" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>40</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="3">
+        <f t="shared" si="0"/>
+        <v>0.13414634146341464</v>
+      </c>
+      <c r="C31">
         <v>29</v>
       </c>
-      <c r="C31" t="s">
-        <v>7</v>
-      </c>
       <c r="D31" t="s">
         <v>7</v>
       </c>
       <c r="E31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G31" t="s">
         <v>7</v>
@@ -8430,10 +8750,10 @@
         <v>7</v>
       </c>
       <c r="K31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M31" t="s">
         <v>7</v>
@@ -8445,7 +8765,7 @@
         <v>7</v>
       </c>
       <c r="P31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Q31" t="s">
         <v>8</v>
@@ -8531,10 +8851,10 @@
       <c r="AR31" t="s">
         <v>8</v>
       </c>
-      <c r="AS31" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AT31" t="s">
+      <c r="AS31" t="s">
+        <v>8</v>
+      </c>
+      <c r="AT31" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AU31" t="s">
@@ -8645,17 +8965,27 @@
       <c r="CD31" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="32" spans="1:82" x14ac:dyDescent="0.25">
+      <c r="CE31" t="s">
+        <v>8</v>
+      </c>
+      <c r="CF31" t="s">
+        <v>8</v>
+      </c>
+      <c r="CG31" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>41</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="3">
+        <f t="shared" si="0"/>
+        <v>0.84146341463414631</v>
+      </c>
+      <c r="C32">
         <v>30</v>
       </c>
-      <c r="C32" t="s">
-        <v>7</v>
-      </c>
       <c r="D32" t="s">
         <v>7</v>
       </c>
@@ -8663,10 +8993,10 @@
         <v>7</v>
       </c>
       <c r="F32" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H32" t="s">
         <v>7</v>
@@ -8779,10 +9109,10 @@
       <c r="AR32" t="s">
         <v>7</v>
       </c>
-      <c r="AS32" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AT32" t="s">
+      <c r="AS32" t="s">
+        <v>7</v>
+      </c>
+      <c r="AT32" s="3" t="s">
         <v>7</v>
       </c>
       <c r="AU32" t="s">
@@ -8801,10 +9131,10 @@
         <v>7</v>
       </c>
       <c r="AZ32" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BA32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BB32" t="s">
         <v>7</v>
@@ -8816,10 +9146,10 @@
         <v>7</v>
       </c>
       <c r="BE32" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BF32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BG32" t="s">
         <v>7</v>
@@ -8840,7 +9170,7 @@
         <v>7</v>
       </c>
       <c r="BM32" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BN32" t="s">
         <v>8</v>
@@ -8858,13 +9188,13 @@
         <v>8</v>
       </c>
       <c r="BS32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BT32" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BU32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BV32" t="s">
         <v>7</v>
@@ -8882,28 +9212,38 @@
         <v>7</v>
       </c>
       <c r="CA32" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CB32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CC32" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CD32" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="33" spans="1:82" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="CE32" t="s">
+        <v>7</v>
+      </c>
+      <c r="CF32" t="s">
+        <v>7</v>
+      </c>
+      <c r="CG32" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>42</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="3">
+        <f t="shared" si="0"/>
+        <v>0.95121951219512191</v>
+      </c>
+      <c r="C33">
         <v>31</v>
       </c>
-      <c r="C33" t="s">
-        <v>7</v>
-      </c>
       <c r="D33" t="s">
         <v>7</v>
       </c>
@@ -8938,10 +9278,10 @@
         <v>7</v>
       </c>
       <c r="O33" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="P33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Q33" t="s">
         <v>7</v>
@@ -9027,17 +9367,17 @@
       <c r="AR33" t="s">
         <v>7</v>
       </c>
-      <c r="AS33" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AT33" t="s">
+      <c r="AS33" t="s">
+        <v>7</v>
+      </c>
+      <c r="AT33" s="3" t="s">
         <v>7</v>
       </c>
       <c r="AU33" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AV33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AW33" t="s">
         <v>7</v>
@@ -9046,13 +9386,13 @@
         <v>7</v>
       </c>
       <c r="AY33" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AZ33" t="s">
         <v>8</v>
       </c>
       <c r="BA33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BB33" t="s">
         <v>7</v>
@@ -9141,16 +9481,26 @@
       <c r="CD33" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="34" spans="1:82" x14ac:dyDescent="0.25">
+      <c r="CE33" t="s">
+        <v>7</v>
+      </c>
+      <c r="CF33" t="s">
+        <v>7</v>
+      </c>
+      <c r="CG33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>49</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="3">
+        <f t="shared" si="0"/>
+        <v>0.87341772151898733</v>
+      </c>
+      <c r="C34">
         <v>32</v>
-      </c>
-      <c r="C34" t="s">
-        <v>47</v>
       </c>
       <c r="D34" t="s">
         <v>47</v>
@@ -9159,7 +9509,7 @@
         <v>47</v>
       </c>
       <c r="F34" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="G34" t="s">
         <v>7</v>
@@ -9180,10 +9530,10 @@
         <v>7</v>
       </c>
       <c r="M34" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O34" t="s">
         <v>7</v>
@@ -9222,10 +9572,10 @@
         <v>7</v>
       </c>
       <c r="AA34" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AB34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AC34" t="s">
         <v>7</v>
@@ -9252,10 +9602,10 @@
         <v>7</v>
       </c>
       <c r="AK34" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AL34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AM34" t="s">
         <v>7</v>
@@ -9273,16 +9623,16 @@
         <v>7</v>
       </c>
       <c r="AR34" t="s">
-        <v>8</v>
-      </c>
-      <c r="AS34" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AT34" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="AS34" t="s">
+        <v>8</v>
+      </c>
+      <c r="AT34" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="AU34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AV34" t="s">
         <v>7</v>
@@ -9309,10 +9659,10 @@
         <v>7</v>
       </c>
       <c r="BD34" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BE34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BF34" t="s">
         <v>7</v>
@@ -9348,10 +9698,10 @@
         <v>7</v>
       </c>
       <c r="BQ34" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BR34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BS34" t="s">
         <v>7</v>
@@ -9378,28 +9728,38 @@
         <v>7</v>
       </c>
       <c r="CA34" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CB34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CC34" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CD34" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="35" spans="1:82" x14ac:dyDescent="0.25">
+      <c r="CE34" t="s">
+        <v>8</v>
+      </c>
+      <c r="CF34" t="s">
+        <v>7</v>
+      </c>
+      <c r="CG34" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>43</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="3">
+        <f t="shared" si="0"/>
+        <v>0.93902439024390238</v>
+      </c>
+      <c r="C35">
         <v>33</v>
       </c>
-      <c r="C35" t="s">
-        <v>7</v>
-      </c>
       <c r="D35" t="s">
         <v>7</v>
       </c>
@@ -9523,10 +9883,10 @@
       <c r="AR35" t="s">
         <v>7</v>
       </c>
-      <c r="AS35" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AT35" t="s">
+      <c r="AS35" t="s">
+        <v>7</v>
+      </c>
+      <c r="AT35" s="3" t="s">
         <v>7</v>
       </c>
       <c r="AU35" t="s">
@@ -9536,10 +9896,10 @@
         <v>7</v>
       </c>
       <c r="AW35" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AX35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AY35" t="s">
         <v>7</v>
@@ -9557,10 +9917,10 @@
         <v>7</v>
       </c>
       <c r="BD35" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BE35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BF35" t="s">
         <v>7</v>
@@ -9596,13 +9956,13 @@
         <v>7</v>
       </c>
       <c r="BQ35" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BR35" t="s">
         <v>8</v>
       </c>
       <c r="BS35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BT35" t="s">
         <v>7</v>
@@ -9632,22 +9992,32 @@
         <v>7</v>
       </c>
       <c r="CC35" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CD35" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="36" spans="1:82" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="CE35" t="s">
+        <v>7</v>
+      </c>
+      <c r="CF35" t="s">
+        <v>7</v>
+      </c>
+      <c r="CG35" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>44</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="3">
+        <f t="shared" si="0"/>
+        <v>0.47560975609756095</v>
+      </c>
+      <c r="C36">
         <v>34</v>
       </c>
-      <c r="C36" t="s">
-        <v>7</v>
-      </c>
       <c r="D36" t="s">
         <v>7</v>
       </c>
@@ -9667,10 +10037,10 @@
         <v>7</v>
       </c>
       <c r="J36" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L36" t="s">
         <v>7</v>
@@ -9703,10 +10073,10 @@
         <v>7</v>
       </c>
       <c r="V36" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="W36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="X36" t="s">
         <v>7</v>
@@ -9715,13 +10085,13 @@
         <v>7</v>
       </c>
       <c r="Z36" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AA36" t="s">
         <v>8</v>
       </c>
       <c r="AB36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AC36" t="s">
         <v>7</v>
@@ -9751,34 +10121,34 @@
         <v>7</v>
       </c>
       <c r="AL36" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AM36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AN36" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AO36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AP36" t="s">
         <v>7</v>
       </c>
       <c r="AQ36" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AR36" t="s">
         <v>8</v>
       </c>
-      <c r="AS36" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AT36" t="s">
+      <c r="AS36" t="s">
+        <v>8</v>
+      </c>
+      <c r="AT36" s="3" t="s">
         <v>7</v>
       </c>
       <c r="AU36" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AV36" t="s">
         <v>8</v>
@@ -9793,22 +10163,22 @@
         <v>8</v>
       </c>
       <c r="AZ36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA36" t="s">
         <v>7</v>
       </c>
       <c r="BB36" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BC36" t="s">
         <v>8</v>
       </c>
       <c r="BD36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BE36" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BF36" t="s">
         <v>8</v>
@@ -9885,13 +10255,472 @@
       <c r="CD36" t="s">
         <v>8</v>
       </c>
+      <c r="CE36" t="s">
+        <v>8</v>
+      </c>
+      <c r="CF36" t="s">
+        <v>8</v>
+      </c>
+      <c r="CG36" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>19</v>
+      </c>
+      <c r="B39">
+        <f>COUNTIF($D3:$CZ3,$B$38)</f>
+        <v>18</v>
+      </c>
+      <c r="C39">
+        <f>COUNTIF($D3:$CZ3,$C$38)</f>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="40" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>20</v>
+      </c>
+      <c r="B40">
+        <f t="shared" ref="B39:B72" si="1">COUNTIF($D4:$CZ4,$B$38)</f>
+        <v>77</v>
+      </c>
+      <c r="C40">
+        <f t="shared" ref="C40:C72" si="2">COUNTIF($D4:$CZ4,$C$38)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>21</v>
+      </c>
+      <c r="B41">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="2"/>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="42" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>22</v>
+      </c>
+      <c r="B42">
+        <f t="shared" si="1"/>
+        <v>79</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>23</v>
+      </c>
+      <c r="B43">
+        <f t="shared" si="1"/>
+        <v>82</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>50</v>
+      </c>
+      <c r="B44">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="45" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>24</v>
+      </c>
+      <c r="B45">
+        <f t="shared" si="1"/>
+        <v>77</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>25</v>
+      </c>
+      <c r="B46">
+        <f t="shared" si="1"/>
+        <v>81</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>26</v>
+      </c>
+      <c r="B47">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>12</v>
+      </c>
+      <c r="B48">
+        <f t="shared" si="1"/>
+        <v>81</v>
+      </c>
+      <c r="C48">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>13</v>
+      </c>
+      <c r="B49">
+        <f t="shared" si="1"/>
+        <v>58</v>
+      </c>
+      <c r="C49">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>14</v>
+      </c>
+      <c r="B50">
+        <f t="shared" si="1"/>
+        <v>69</v>
+      </c>
+      <c r="C50">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>16</v>
+      </c>
+      <c r="B51">
+        <f t="shared" si="1"/>
+        <v>78</v>
+      </c>
+      <c r="C51">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>9</v>
+      </c>
+      <c r="B52">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="C52">
+        <f t="shared" si="2"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>27</v>
+      </c>
+      <c r="B53">
+        <f t="shared" si="1"/>
+        <v>81</v>
+      </c>
+      <c r="C53">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>28</v>
+      </c>
+      <c r="B54">
+        <f t="shared" si="1"/>
+        <v>82</v>
+      </c>
+      <c r="C54">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>30</v>
+      </c>
+      <c r="B55">
+        <f t="shared" si="1"/>
+        <v>79</v>
+      </c>
+      <c r="C55">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>31</v>
+      </c>
+      <c r="B56">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+      <c r="C56">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>33</v>
+      </c>
+      <c r="B57">
+        <f t="shared" si="1"/>
+        <v>59</v>
+      </c>
+      <c r="C57">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>48</v>
+      </c>
+      <c r="B58">
+        <f t="shared" si="1"/>
+        <v>76</v>
+      </c>
+      <c r="C58">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>17</v>
+      </c>
+      <c r="B59">
+        <f t="shared" si="1"/>
+        <v>82</v>
+      </c>
+      <c r="C59">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>34</v>
+      </c>
+      <c r="B60">
+        <f t="shared" si="1"/>
+        <v>49</v>
+      </c>
+      <c r="C60">
+        <f t="shared" si="2"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>35</v>
+      </c>
+      <c r="B61">
+        <f t="shared" si="1"/>
+        <v>77</v>
+      </c>
+      <c r="C61">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>36</v>
+      </c>
+      <c r="B62">
+        <f t="shared" si="1"/>
+        <v>71</v>
+      </c>
+      <c r="C62">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>46</v>
+      </c>
+      <c r="B63">
+        <f t="shared" si="1"/>
+        <v>79</v>
+      </c>
+      <c r="C63">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>10</v>
+      </c>
+      <c r="B64">
+        <f t="shared" si="1"/>
+        <v>69</v>
+      </c>
+      <c r="C64">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>38</v>
+      </c>
+      <c r="B65">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="C65">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>39</v>
+      </c>
+      <c r="B66">
+        <f t="shared" si="1"/>
+        <v>81</v>
+      </c>
+      <c r="C66">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>40</v>
+      </c>
+      <c r="B67">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="C67">
+        <f t="shared" si="2"/>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>41</v>
+      </c>
+      <c r="B68">
+        <f t="shared" si="1"/>
+        <v>69</v>
+      </c>
+      <c r="C68">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>42</v>
+      </c>
+      <c r="B69">
+        <f t="shared" si="1"/>
+        <v>78</v>
+      </c>
+      <c r="C69">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>49</v>
+      </c>
+      <c r="B70">
+        <f t="shared" si="1"/>
+        <v>69</v>
+      </c>
+      <c r="C70">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>43</v>
+      </c>
+      <c r="B71">
+        <f t="shared" si="1"/>
+        <v>77</v>
+      </c>
+      <c r="C71">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>44</v>
+      </c>
+      <c r="B72">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+      <c r="C72">
+        <f t="shared" si="2"/>
+        <v>43</v>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:BI36">
-    <sortCondition ref="B2:B36"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:BJ36">
+    <sortCondition ref="C2:C36"/>
   </sortState>
   <mergeCells count="1">
-    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A1:C1"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:XFD1048576">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">

--- a/1des/frequencia.xlsx
+++ b/1des/frequencia.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\senai2023\1des\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2023\1des\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D246FBF-8CB2-4D3A-871A-7276CA126E0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="todos" sheetId="2" r:id="rId1"/>
     <sheet name="Chamada" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -192,7 +193,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -576,7 +577,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -923,14 +924,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:CM72"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="BN3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="CD32" sqref="CD32"/>
+      <selection pane="bottomRight" activeCell="CH4" sqref="CH4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10715,7 +10716,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A3:BJ36">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:BJ36">
     <sortCondition ref="C2:C36"/>
   </sortState>
   <mergeCells count="1">

--- a/1des/frequencia.xlsx
+++ b/1des/frequencia.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2023\1des\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\senai2023\1des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9691AB77-AC9A-4C47-9CF8-660B7FE51F71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{16894AAC-534F-4800-A9CE-F9EFF9F0773F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="todos" sheetId="2" r:id="rId1"/>
     <sheet name="Chamada" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -193,7 +192,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -577,7 +576,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED91B053-89F3-40FB-B80E-B27AA5D69A9B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -924,14 +923,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2CF2F16-AB51-4356-B13B-717A13C6773A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CM72"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="BN3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B18" sqref="B18"/>
+      <selection pane="bottomRight" activeCell="CD32" sqref="CD32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4079,7 +4078,7 @@
       </c>
       <c r="B13" s="3">
         <f t="shared" si="0"/>
-        <v>0.70731707317073167</v>
+        <v>0.68292682926829273</v>
       </c>
       <c r="C13">
         <v>11</v>
@@ -4325,10 +4324,10 @@
         <v>8</v>
       </c>
       <c r="CF13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CG13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:91" x14ac:dyDescent="0.25">
@@ -10291,7 +10290,7 @@
         <v>20</v>
       </c>
       <c r="B40">
-        <f t="shared" ref="B39:B72" si="1">COUNTIF($D4:$CZ4,$B$38)</f>
+        <f t="shared" ref="B40:B72" si="1">COUNTIF($D4:$CZ4,$B$38)</f>
         <v>77</v>
       </c>
       <c r="C40">
@@ -10409,11 +10408,11 @@
       </c>
       <c r="B49">
         <f t="shared" si="1"/>
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C49">
         <f t="shared" si="2"/>
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -10716,7 +10715,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:BJ36">
+  <sortState ref="A3:BJ36">
     <sortCondition ref="C2:C36"/>
   </sortState>
   <mergeCells count="1">

--- a/1des/frequencia.xlsx
+++ b/1des/frequencia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2023\1des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D246FBF-8CB2-4D3A-871A-7276CA126E0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0158E694-3262-4065-9CA5-28ACB8EAF9D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2992" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3060" uniqueCount="54">
   <si>
     <t>Alunos</t>
   </si>
@@ -931,7 +931,7 @@
       <pane xSplit="3" ySplit="2" topLeftCell="BN3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="CH4" sqref="CH4"/>
+      <selection pane="bottomRight" activeCell="CH34" sqref="CH34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1499,7 +1499,7 @@
       </c>
       <c r="B3" s="3">
         <f>B39/(B39+C39)</f>
-        <v>0.21951219512195122</v>
+        <v>0.21428571428571427</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -1748,6 +1748,12 @@
         <v>8</v>
       </c>
       <c r="CG3" t="s">
+        <v>8</v>
+      </c>
+      <c r="CH3" t="s">
+        <v>8</v>
+      </c>
+      <c r="CI3" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1757,7 +1763,7 @@
       </c>
       <c r="B4" s="3">
         <f t="shared" ref="B4:B36" si="0">B40/(B40+C40)</f>
-        <v>0.93902439024390238</v>
+        <v>0.94047619047619047</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -2006,6 +2012,12 @@
         <v>7</v>
       </c>
       <c r="CG4" t="s">
+        <v>7</v>
+      </c>
+      <c r="CH4" t="s">
+        <v>7</v>
+      </c>
+      <c r="CI4" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2015,7 +2027,7 @@
       </c>
       <c r="B5" s="3">
         <f t="shared" si="0"/>
-        <v>3.6585365853658534E-2</v>
+        <v>3.5714285714285712E-2</v>
       </c>
       <c r="C5">
         <v>3</v>
@@ -2264,6 +2276,12 @@
         <v>8</v>
       </c>
       <c r="CG5" t="s">
+        <v>8</v>
+      </c>
+      <c r="CH5" t="s">
+        <v>8</v>
+      </c>
+      <c r="CI5" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2273,7 +2291,7 @@
       </c>
       <c r="B6" s="3">
         <f t="shared" si="0"/>
-        <v>0.96341463414634143</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="C6">
         <v>4</v>
@@ -2522,6 +2540,12 @@
         <v>7</v>
       </c>
       <c r="CG6" t="s">
+        <v>7</v>
+      </c>
+      <c r="CH6" t="s">
+        <v>7</v>
+      </c>
+      <c r="CI6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2782,6 +2806,12 @@
       <c r="CG7" t="s">
         <v>7</v>
       </c>
+      <c r="CH7" t="s">
+        <v>7</v>
+      </c>
+      <c r="CI7" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="8" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -2789,7 +2819,7 @@
       </c>
       <c r="B8" s="3">
         <f t="shared" si="0"/>
-        <v>0.759493670886076</v>
+        <v>0.75308641975308643</v>
       </c>
       <c r="C8">
         <v>6</v>
@@ -3039,6 +3069,12 @@
       </c>
       <c r="CG8" t="s">
         <v>7</v>
+      </c>
+      <c r="CH8" t="s">
+        <v>7</v>
+      </c>
+      <c r="CI8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:91" x14ac:dyDescent="0.25">
@@ -3047,7 +3083,7 @@
       </c>
       <c r="B9" s="3">
         <f t="shared" si="0"/>
-        <v>0.93902439024390238</v>
+        <v>0.94047619047619047</v>
       </c>
       <c r="C9">
         <v>7</v>
@@ -3296,6 +3332,12 @@
         <v>7</v>
       </c>
       <c r="CG9" t="s">
+        <v>7</v>
+      </c>
+      <c r="CH9" t="s">
+        <v>7</v>
+      </c>
+      <c r="CI9" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3305,7 +3347,7 @@
       </c>
       <c r="B10" s="3">
         <f t="shared" si="0"/>
-        <v>0.98780487804878048</v>
+        <v>0.98809523809523814</v>
       </c>
       <c r="C10">
         <v>8</v>
@@ -3554,6 +3596,12 @@
         <v>7</v>
       </c>
       <c r="CG10" t="s">
+        <v>7</v>
+      </c>
+      <c r="CH10" t="s">
+        <v>7</v>
+      </c>
+      <c r="CI10" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3563,7 +3611,7 @@
       </c>
       <c r="B11" s="3">
         <f t="shared" si="0"/>
-        <v>0.97560975609756095</v>
+        <v>0.97619047619047616</v>
       </c>
       <c r="C11">
         <v>9</v>
@@ -3812,6 +3860,12 @@
         <v>7</v>
       </c>
       <c r="CG11" t="s">
+        <v>7</v>
+      </c>
+      <c r="CH11" t="s">
+        <v>7</v>
+      </c>
+      <c r="CI11" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3821,7 +3875,7 @@
       </c>
       <c r="B12" s="3">
         <f t="shared" si="0"/>
-        <v>0.98780487804878048</v>
+        <v>0.98809523809523814</v>
       </c>
       <c r="C12">
         <v>10</v>
@@ -4070,6 +4124,12 @@
         <v>7</v>
       </c>
       <c r="CG12" t="s">
+        <v>7</v>
+      </c>
+      <c r="CH12" t="s">
+        <v>7</v>
+      </c>
+      <c r="CI12" t="s">
         <v>7</v>
       </c>
     </row>
@@ -4079,7 +4139,7 @@
       </c>
       <c r="B13" s="3">
         <f t="shared" si="0"/>
-        <v>0.68292682926829273</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="C13">
         <v>11</v>
@@ -4328,6 +4388,12 @@
         <v>8</v>
       </c>
       <c r="CG13" t="s">
+        <v>8</v>
+      </c>
+      <c r="CH13" t="s">
+        <v>8</v>
+      </c>
+      <c r="CI13" t="s">
         <v>8</v>
       </c>
     </row>
@@ -4337,7 +4403,7 @@
       </c>
       <c r="B14" s="3">
         <f t="shared" si="0"/>
-        <v>0.84146341463414631</v>
+        <v>0.84523809523809523</v>
       </c>
       <c r="C14">
         <v>12</v>
@@ -4586,6 +4652,12 @@
         <v>7</v>
       </c>
       <c r="CG14" t="s">
+        <v>7</v>
+      </c>
+      <c r="CH14" t="s">
+        <v>7</v>
+      </c>
+      <c r="CI14" t="s">
         <v>7</v>
       </c>
     </row>
@@ -4595,7 +4667,7 @@
       </c>
       <c r="B15" s="3">
         <f t="shared" si="0"/>
-        <v>0.95121951219512191</v>
+        <v>0.95238095238095233</v>
       </c>
       <c r="C15">
         <v>13</v>
@@ -4844,6 +4916,12 @@
         <v>7</v>
       </c>
       <c r="CG15" t="s">
+        <v>7</v>
+      </c>
+      <c r="CH15" t="s">
+        <v>7</v>
+      </c>
+      <c r="CI15" t="s">
         <v>7</v>
       </c>
     </row>
@@ -4853,7 +4931,7 @@
       </c>
       <c r="B16" s="3">
         <f t="shared" si="0"/>
-        <v>0.11392405063291139</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="C16">
         <v>14</v>
@@ -5104,14 +5182,20 @@
       <c r="CG16" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="17" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="CH16" t="s">
+        <v>8</v>
+      </c>
+      <c r="CI16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>27</v>
       </c>
       <c r="B17" s="3">
         <f t="shared" si="0"/>
-        <v>0.98780487804878048</v>
+        <v>0.98809523809523814</v>
       </c>
       <c r="C17">
         <v>15</v>
@@ -5362,8 +5446,14 @@
       <c r="CG17" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="18" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="CH17" t="s">
+        <v>7</v>
+      </c>
+      <c r="CI17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>28</v>
       </c>
@@ -5620,14 +5710,20 @@
       <c r="CG18" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="19" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="CH18" t="s">
+        <v>7</v>
+      </c>
+      <c r="CI18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>30</v>
       </c>
       <c r="B19" s="3">
         <f t="shared" si="0"/>
-        <v>0.96341463414634143</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="C19">
         <v>17</v>
@@ -5878,14 +5974,20 @@
       <c r="CG19" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="20" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="CH19" t="s">
+        <v>7</v>
+      </c>
+      <c r="CI19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>31</v>
       </c>
       <c r="B20" s="3">
         <f t="shared" si="0"/>
-        <v>0.45121951219512196</v>
+        <v>0.44047619047619047</v>
       </c>
       <c r="C20">
         <v>18</v>
@@ -6136,14 +6238,20 @@
       <c r="CG20" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="21" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="CH20" t="s">
+        <v>8</v>
+      </c>
+      <c r="CI20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>33</v>
       </c>
       <c r="B21" s="3">
         <f t="shared" si="0"/>
-        <v>0.71951219512195119</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="C21">
         <v>19</v>
@@ -6394,14 +6502,20 @@
       <c r="CG21" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="22" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="CH21" t="s">
+        <v>7</v>
+      </c>
+      <c r="CI21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>48</v>
       </c>
       <c r="B22" s="3">
         <f t="shared" si="0"/>
-        <v>0.96202531645569622</v>
+        <v>0.96296296296296291</v>
       </c>
       <c r="C22">
         <v>20</v>
@@ -6652,8 +6766,14 @@
       <c r="CG22" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="23" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="CH22" t="s">
+        <v>7</v>
+      </c>
+      <c r="CI22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>17</v>
       </c>
@@ -6910,14 +7030,20 @@
       <c r="CG23" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="24" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="CH23" t="s">
+        <v>7</v>
+      </c>
+      <c r="CI23" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>34</v>
       </c>
       <c r="B24" s="3">
         <f t="shared" si="0"/>
-        <v>0.59756097560975607</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="C24">
         <v>22</v>
@@ -7168,14 +7294,20 @@
       <c r="CG24" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="25" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="CH24" t="s">
+        <v>8</v>
+      </c>
+      <c r="CI24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>35</v>
       </c>
       <c r="B25" s="3">
         <f t="shared" si="0"/>
-        <v>0.93902439024390238</v>
+        <v>0.94047619047619047</v>
       </c>
       <c r="C25">
         <v>23</v>
@@ -7426,14 +7558,20 @@
       <c r="CG25" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="26" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="CH25" t="s">
+        <v>7</v>
+      </c>
+      <c r="CI25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>36</v>
       </c>
       <c r="B26" s="3">
         <f t="shared" si="0"/>
-        <v>0.86585365853658536</v>
+        <v>0.84523809523809523</v>
       </c>
       <c r="C26">
         <v>24</v>
@@ -7684,14 +7822,20 @@
       <c r="CG26" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="27" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="CH26" t="s">
+        <v>8</v>
+      </c>
+      <c r="CI26" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>46</v>
       </c>
       <c r="B27" s="3">
         <f t="shared" si="0"/>
-        <v>0.96341463414634143</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="C27">
         <v>25</v>
@@ -7942,14 +8086,20 @@
       <c r="CG27" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="28" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="CH27" t="s">
+        <v>7</v>
+      </c>
+      <c r="CI27" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>10</v>
       </c>
       <c r="B28" s="3">
         <f t="shared" si="0"/>
-        <v>0.87341772151898733</v>
+        <v>0.87654320987654322</v>
       </c>
       <c r="C28">
         <v>26</v>
@@ -8200,14 +8350,20 @@
       <c r="CG28" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="29" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="CH28" t="s">
+        <v>7</v>
+      </c>
+      <c r="CI28" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>38</v>
       </c>
       <c r="B29" s="3">
         <f t="shared" si="0"/>
-        <v>0.97560975609756095</v>
+        <v>0.97619047619047616</v>
       </c>
       <c r="C29">
         <v>27</v>
@@ -8458,14 +8614,20 @@
       <c r="CG29" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="30" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="CH29" t="s">
+        <v>7</v>
+      </c>
+      <c r="CI29" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>39</v>
       </c>
       <c r="B30" s="3">
         <f t="shared" si="0"/>
-        <v>0.98780487804878048</v>
+        <v>0.98809523809523814</v>
       </c>
       <c r="C30">
         <v>28</v>
@@ -8716,14 +8878,20 @@
       <c r="CG30" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="31" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="CH30" t="s">
+        <v>7</v>
+      </c>
+      <c r="CI30" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>40</v>
       </c>
       <c r="B31" s="3">
         <f t="shared" si="0"/>
-        <v>0.13414634146341464</v>
+        <v>0.13095238095238096</v>
       </c>
       <c r="C31">
         <v>29</v>
@@ -8974,14 +9142,20 @@
       <c r="CG31" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="32" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="CH31" t="s">
+        <v>8</v>
+      </c>
+      <c r="CI31" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>41</v>
       </c>
       <c r="B32" s="3">
         <f t="shared" si="0"/>
-        <v>0.84146341463414631</v>
+        <v>0.84523809523809523</v>
       </c>
       <c r="C32">
         <v>30</v>
@@ -9232,14 +9406,20 @@
       <c r="CG32" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="33" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="CH32" t="s">
+        <v>7</v>
+      </c>
+      <c r="CI32" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>42</v>
       </c>
       <c r="B33" s="3">
         <f t="shared" si="0"/>
-        <v>0.95121951219512191</v>
+        <v>0.94047619047619047</v>
       </c>
       <c r="C33">
         <v>31</v>
@@ -9490,14 +9670,20 @@
       <c r="CG33" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="34" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="CH33" t="s">
+        <v>7</v>
+      </c>
+      <c r="CI33" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>49</v>
       </c>
       <c r="B34" s="3">
         <f t="shared" si="0"/>
-        <v>0.87341772151898733</v>
+        <v>0.87654320987654322</v>
       </c>
       <c r="C34">
         <v>32</v>
@@ -9748,14 +9934,20 @@
       <c r="CG34" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="35" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="CH34" t="s">
+        <v>7</v>
+      </c>
+      <c r="CI34" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>43</v>
       </c>
       <c r="B35" s="3">
         <f t="shared" si="0"/>
-        <v>0.93902439024390238</v>
+        <v>0.94047619047619047</v>
       </c>
       <c r="C35">
         <v>33</v>
@@ -10006,14 +10198,20 @@
       <c r="CG35" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="36" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="CH35" t="s">
+        <v>7</v>
+      </c>
+      <c r="CI35" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>44</v>
       </c>
       <c r="B36" s="3">
         <f t="shared" si="0"/>
-        <v>0.47560975609756095</v>
+        <v>0.4642857142857143</v>
       </c>
       <c r="C36">
         <v>34</v>
@@ -10264,8 +10462,14 @@
       <c r="CG36" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="38" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="CH36" t="s">
+        <v>8</v>
+      </c>
+      <c r="CI36" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:87" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>7</v>
       </c>
@@ -10273,7 +10477,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>19</v>
       </c>
@@ -10283,23 +10487,23 @@
       </c>
       <c r="C39">
         <f>COUNTIF($D3:$CZ3,$C$38)</f>
-        <v>64</v>
-      </c>
-    </row>
-    <row r="40" spans="1:85" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="40" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>20</v>
       </c>
       <c r="B40">
         <f t="shared" ref="B40:B72" si="1">COUNTIF($D4:$CZ4,$B$38)</f>
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C40">
         <f t="shared" ref="C40:C72" si="2">COUNTIF($D4:$CZ4,$C$38)</f>
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>21</v>
       </c>
@@ -10309,94 +10513,94 @@
       </c>
       <c r="C41">
         <f t="shared" si="2"/>
-        <v>79</v>
-      </c>
-    </row>
-    <row r="42" spans="1:85" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="42" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>22</v>
       </c>
       <c r="B42">
         <f t="shared" si="1"/>
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C42">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>23</v>
       </c>
       <c r="B43">
         <f t="shared" si="1"/>
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C43">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>50</v>
       </c>
       <c r="B44">
         <f t="shared" si="1"/>
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C44">
         <f t="shared" si="2"/>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="45" spans="1:85" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>24</v>
       </c>
       <c r="B45">
         <f t="shared" si="1"/>
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C45">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>25</v>
       </c>
       <c r="B46">
         <f t="shared" si="1"/>
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C46">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>26</v>
       </c>
       <c r="B47">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C47">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>12</v>
       </c>
       <c r="B48">
         <f t="shared" si="1"/>
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C48">
         <f t="shared" si="2"/>
@@ -10413,7 +10617,7 @@
       </c>
       <c r="C49">
         <f t="shared" si="2"/>
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -10422,7 +10626,7 @@
       </c>
       <c r="B50">
         <f t="shared" si="1"/>
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C50">
         <f t="shared" si="2"/>
@@ -10435,7 +10639,7 @@
       </c>
       <c r="B51">
         <f t="shared" si="1"/>
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C51">
         <f t="shared" si="2"/>
@@ -10452,7 +10656,7 @@
       </c>
       <c r="C52">
         <f t="shared" si="2"/>
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -10461,7 +10665,7 @@
       </c>
       <c r="B53">
         <f t="shared" si="1"/>
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C53">
         <f t="shared" si="2"/>
@@ -10474,7 +10678,7 @@
       </c>
       <c r="B54">
         <f t="shared" si="1"/>
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C54">
         <f t="shared" si="2"/>
@@ -10487,7 +10691,7 @@
       </c>
       <c r="B55">
         <f t="shared" si="1"/>
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C55">
         <f t="shared" si="2"/>
@@ -10504,7 +10708,7 @@
       </c>
       <c r="C56">
         <f t="shared" si="2"/>
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -10513,11 +10717,11 @@
       </c>
       <c r="B57">
         <f t="shared" si="1"/>
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C57">
         <f t="shared" si="2"/>
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -10526,7 +10730,7 @@
       </c>
       <c r="B58">
         <f t="shared" si="1"/>
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C58">
         <f t="shared" si="2"/>
@@ -10539,7 +10743,7 @@
       </c>
       <c r="B59">
         <f t="shared" si="1"/>
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C59">
         <f t="shared" si="2"/>
@@ -10556,7 +10760,7 @@
       </c>
       <c r="C60">
         <f t="shared" si="2"/>
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -10565,7 +10769,7 @@
       </c>
       <c r="B61">
         <f t="shared" si="1"/>
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C61">
         <f t="shared" si="2"/>
@@ -10582,7 +10786,7 @@
       </c>
       <c r="C62">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -10591,7 +10795,7 @@
       </c>
       <c r="B63">
         <f t="shared" si="1"/>
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C63">
         <f t="shared" si="2"/>
@@ -10604,7 +10808,7 @@
       </c>
       <c r="B64">
         <f t="shared" si="1"/>
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C64">
         <f t="shared" si="2"/>
@@ -10617,7 +10821,7 @@
       </c>
       <c r="B65">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C65">
         <f t="shared" si="2"/>
@@ -10630,7 +10834,7 @@
       </c>
       <c r="B66">
         <f t="shared" si="1"/>
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C66">
         <f t="shared" si="2"/>
@@ -10647,7 +10851,7 @@
       </c>
       <c r="C67">
         <f t="shared" si="2"/>
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -10656,7 +10860,7 @@
       </c>
       <c r="B68">
         <f t="shared" si="1"/>
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C68">
         <f t="shared" si="2"/>
@@ -10669,11 +10873,11 @@
       </c>
       <c r="B69">
         <f t="shared" si="1"/>
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C69">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -10682,7 +10886,7 @@
       </c>
       <c r="B70">
         <f t="shared" si="1"/>
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C70">
         <f t="shared" si="2"/>
@@ -10695,7 +10899,7 @@
       </c>
       <c r="B71">
         <f t="shared" si="1"/>
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C71">
         <f t="shared" si="2"/>
@@ -10712,7 +10916,7 @@
       </c>
       <c r="C72">
         <f t="shared" si="2"/>
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/1des/frequencia.xlsx
+++ b/1des/frequencia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2023\1des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0158E694-3262-4065-9CA5-28ACB8EAF9D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{317C7F21-6962-4E22-B41D-F24CF51ED3D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3060" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3094" uniqueCount="54">
   <si>
     <t>Alunos</t>
   </si>
@@ -931,7 +931,7 @@
       <pane xSplit="3" ySplit="2" topLeftCell="BN3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="CH34" sqref="CH34"/>
+      <selection pane="bottomRight" activeCell="CJ34" sqref="CJ34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1499,7 +1499,7 @@
       </c>
       <c r="B3" s="3">
         <f>B39/(B39+C39)</f>
-        <v>0.21428571428571427</v>
+        <v>0.21176470588235294</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -1754,6 +1754,9 @@
         <v>8</v>
       </c>
       <c r="CI3" t="s">
+        <v>8</v>
+      </c>
+      <c r="CJ3" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1763,7 +1766,7 @@
       </c>
       <c r="B4" s="3">
         <f t="shared" ref="B4:B36" si="0">B40/(B40+C40)</f>
-        <v>0.94047619047619047</v>
+        <v>0.94117647058823528</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -2018,6 +2021,9 @@
         <v>7</v>
       </c>
       <c r="CI4" t="s">
+        <v>7</v>
+      </c>
+      <c r="CJ4" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2027,7 +2033,7 @@
       </c>
       <c r="B5" s="3">
         <f t="shared" si="0"/>
-        <v>3.5714285714285712E-2</v>
+        <v>3.5294117647058823E-2</v>
       </c>
       <c r="C5">
         <v>3</v>
@@ -2282,6 +2288,9 @@
         <v>8</v>
       </c>
       <c r="CI5" t="s">
+        <v>8</v>
+      </c>
+      <c r="CJ5" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2291,7 +2300,7 @@
       </c>
       <c r="B6" s="3">
         <f t="shared" si="0"/>
-        <v>0.9642857142857143</v>
+        <v>0.96470588235294119</v>
       </c>
       <c r="C6">
         <v>4</v>
@@ -2546,6 +2555,9 @@
         <v>7</v>
       </c>
       <c r="CI6" t="s">
+        <v>7</v>
+      </c>
+      <c r="CJ6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2812,6 +2824,9 @@
       <c r="CI7" t="s">
         <v>7</v>
       </c>
+      <c r="CJ7" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="8" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -2819,7 +2834,7 @@
       </c>
       <c r="B8" s="3">
         <f t="shared" si="0"/>
-        <v>0.75308641975308643</v>
+        <v>0.75609756097560976</v>
       </c>
       <c r="C8">
         <v>6</v>
@@ -3075,6 +3090,9 @@
       </c>
       <c r="CI8" t="s">
         <v>8</v>
+      </c>
+      <c r="CJ8" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:91" x14ac:dyDescent="0.25">
@@ -3083,7 +3101,7 @@
       </c>
       <c r="B9" s="3">
         <f t="shared" si="0"/>
-        <v>0.94047619047619047</v>
+        <v>0.94117647058823528</v>
       </c>
       <c r="C9">
         <v>7</v>
@@ -3338,6 +3356,9 @@
         <v>7</v>
       </c>
       <c r="CI9" t="s">
+        <v>7</v>
+      </c>
+      <c r="CJ9" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3347,7 +3368,7 @@
       </c>
       <c r="B10" s="3">
         <f t="shared" si="0"/>
-        <v>0.98809523809523814</v>
+        <v>0.9882352941176471</v>
       </c>
       <c r="C10">
         <v>8</v>
@@ -3602,6 +3623,9 @@
         <v>7</v>
       </c>
       <c r="CI10" t="s">
+        <v>7</v>
+      </c>
+      <c r="CJ10" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3611,7 +3635,7 @@
       </c>
       <c r="B11" s="3">
         <f t="shared" si="0"/>
-        <v>0.97619047619047616</v>
+        <v>0.97647058823529409</v>
       </c>
       <c r="C11">
         <v>9</v>
@@ -3866,6 +3890,9 @@
         <v>7</v>
       </c>
       <c r="CI11" t="s">
+        <v>7</v>
+      </c>
+      <c r="CJ11" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3875,7 +3902,7 @@
       </c>
       <c r="B12" s="3">
         <f t="shared" si="0"/>
-        <v>0.98809523809523814</v>
+        <v>0.9882352941176471</v>
       </c>
       <c r="C12">
         <v>10</v>
@@ -4130,6 +4157,9 @@
         <v>7</v>
       </c>
       <c r="CI12" t="s">
+        <v>7</v>
+      </c>
+      <c r="CJ12" t="s">
         <v>7</v>
       </c>
     </row>
@@ -4139,7 +4169,7 @@
       </c>
       <c r="B13" s="3">
         <f t="shared" si="0"/>
-        <v>0.66666666666666663</v>
+        <v>0.6588235294117647</v>
       </c>
       <c r="C13">
         <v>11</v>
@@ -4394,6 +4424,9 @@
         <v>8</v>
       </c>
       <c r="CI13" t="s">
+        <v>8</v>
+      </c>
+      <c r="CJ13" t="s">
         <v>8</v>
       </c>
     </row>
@@ -4403,7 +4436,7 @@
       </c>
       <c r="B14" s="3">
         <f t="shared" si="0"/>
-        <v>0.84523809523809523</v>
+        <v>0.84705882352941175</v>
       </c>
       <c r="C14">
         <v>12</v>
@@ -4658,6 +4691,9 @@
         <v>7</v>
       </c>
       <c r="CI14" t="s">
+        <v>7</v>
+      </c>
+      <c r="CJ14" t="s">
         <v>7</v>
       </c>
     </row>
@@ -4667,7 +4703,7 @@
       </c>
       <c r="B15" s="3">
         <f t="shared" si="0"/>
-        <v>0.95238095238095233</v>
+        <v>0.95294117647058818</v>
       </c>
       <c r="C15">
         <v>13</v>
@@ -4922,6 +4958,9 @@
         <v>7</v>
       </c>
       <c r="CI15" t="s">
+        <v>7</v>
+      </c>
+      <c r="CJ15" t="s">
         <v>7</v>
       </c>
     </row>
@@ -4931,7 +4970,7 @@
       </c>
       <c r="B16" s="3">
         <f t="shared" si="0"/>
-        <v>0.1111111111111111</v>
+        <v>0.10975609756097561</v>
       </c>
       <c r="C16">
         <v>14</v>
@@ -5188,14 +5227,17 @@
       <c r="CI16" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="17" spans="1:87" x14ac:dyDescent="0.25">
+      <c r="CJ16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>27</v>
       </c>
       <c r="B17" s="3">
         <f t="shared" si="0"/>
-        <v>0.98809523809523814</v>
+        <v>0.9882352941176471</v>
       </c>
       <c r="C17">
         <v>15</v>
@@ -5452,8 +5494,11 @@
       <c r="CI17" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="18" spans="1:87" x14ac:dyDescent="0.25">
+      <c r="CJ17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>28</v>
       </c>
@@ -5716,14 +5761,17 @@
       <c r="CI18" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="19" spans="1:87" x14ac:dyDescent="0.25">
+      <c r="CJ18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>30</v>
       </c>
       <c r="B19" s="3">
         <f t="shared" si="0"/>
-        <v>0.9642857142857143</v>
+        <v>0.96470588235294119</v>
       </c>
       <c r="C19">
         <v>17</v>
@@ -5980,14 +6028,17 @@
       <c r="CI19" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="20" spans="1:87" x14ac:dyDescent="0.25">
+      <c r="CJ19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>31</v>
       </c>
       <c r="B20" s="3">
         <f t="shared" si="0"/>
-        <v>0.44047619047619047</v>
+        <v>0.43529411764705883</v>
       </c>
       <c r="C20">
         <v>18</v>
@@ -6244,14 +6295,17 @@
       <c r="CI20" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="21" spans="1:87" x14ac:dyDescent="0.25">
+      <c r="CJ20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>33</v>
       </c>
       <c r="B21" s="3">
         <f t="shared" si="0"/>
-        <v>0.7142857142857143</v>
+        <v>0.71764705882352942</v>
       </c>
       <c r="C21">
         <v>19</v>
@@ -6508,14 +6562,17 @@
       <c r="CI21" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="1:87" x14ac:dyDescent="0.25">
+      <c r="CJ21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>48</v>
       </c>
       <c r="B22" s="3">
         <f t="shared" si="0"/>
-        <v>0.96296296296296291</v>
+        <v>0.96341463414634143</v>
       </c>
       <c r="C22">
         <v>20</v>
@@ -6772,8 +6829,11 @@
       <c r="CI22" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="23" spans="1:87" x14ac:dyDescent="0.25">
+      <c r="CJ22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>17</v>
       </c>
@@ -7036,14 +7096,17 @@
       <c r="CI23" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="24" spans="1:87" x14ac:dyDescent="0.25">
+      <c r="CJ23" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>34</v>
       </c>
       <c r="B24" s="3">
         <f t="shared" si="0"/>
-        <v>0.58333333333333337</v>
+        <v>0.57647058823529407</v>
       </c>
       <c r="C24">
         <v>22</v>
@@ -7300,14 +7363,17 @@
       <c r="CI24" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="25" spans="1:87" x14ac:dyDescent="0.25">
+      <c r="CJ24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>35</v>
       </c>
       <c r="B25" s="3">
         <f t="shared" si="0"/>
-        <v>0.94047619047619047</v>
+        <v>0.94117647058823528</v>
       </c>
       <c r="C25">
         <v>23</v>
@@ -7564,14 +7630,17 @@
       <c r="CI25" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="26" spans="1:87" x14ac:dyDescent="0.25">
+      <c r="CJ25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>36</v>
       </c>
       <c r="B26" s="3">
         <f t="shared" si="0"/>
-        <v>0.84523809523809523</v>
+        <v>0.83529411764705885</v>
       </c>
       <c r="C26">
         <v>24</v>
@@ -7828,14 +7897,17 @@
       <c r="CI26" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="27" spans="1:87" x14ac:dyDescent="0.25">
+      <c r="CJ26" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>46</v>
       </c>
       <c r="B27" s="3">
         <f t="shared" si="0"/>
-        <v>0.9642857142857143</v>
+        <v>0.96470588235294119</v>
       </c>
       <c r="C27">
         <v>25</v>
@@ -8092,14 +8164,17 @@
       <c r="CI27" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="28" spans="1:87" x14ac:dyDescent="0.25">
+      <c r="CJ27" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>10</v>
       </c>
       <c r="B28" s="3">
         <f t="shared" si="0"/>
-        <v>0.87654320987654322</v>
+        <v>0.87804878048780488</v>
       </c>
       <c r="C28">
         <v>26</v>
@@ -8356,14 +8431,17 @@
       <c r="CI28" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="29" spans="1:87" x14ac:dyDescent="0.25">
+      <c r="CJ28" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>38</v>
       </c>
       <c r="B29" s="3">
         <f t="shared" si="0"/>
-        <v>0.97619047619047616</v>
+        <v>0.97647058823529409</v>
       </c>
       <c r="C29">
         <v>27</v>
@@ -8620,14 +8698,17 @@
       <c r="CI29" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="30" spans="1:87" x14ac:dyDescent="0.25">
+      <c r="CJ29" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>39</v>
       </c>
       <c r="B30" s="3">
         <f t="shared" si="0"/>
-        <v>0.98809523809523814</v>
+        <v>0.9882352941176471</v>
       </c>
       <c r="C30">
         <v>28</v>
@@ -8884,14 +8965,17 @@
       <c r="CI30" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="31" spans="1:87" x14ac:dyDescent="0.25">
+      <c r="CJ30" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>40</v>
       </c>
       <c r="B31" s="3">
         <f t="shared" si="0"/>
-        <v>0.13095238095238096</v>
+        <v>0.12941176470588237</v>
       </c>
       <c r="C31">
         <v>29</v>
@@ -9148,14 +9232,17 @@
       <c r="CI31" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="32" spans="1:87" x14ac:dyDescent="0.25">
+      <c r="CJ31" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>41</v>
       </c>
       <c r="B32" s="3">
         <f t="shared" si="0"/>
-        <v>0.84523809523809523</v>
+        <v>0.83529411764705885</v>
       </c>
       <c r="C32">
         <v>30</v>
@@ -9412,14 +9499,17 @@
       <c r="CI32" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="33" spans="1:87" x14ac:dyDescent="0.25">
+      <c r="CJ32" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>42</v>
       </c>
       <c r="B33" s="3">
         <f t="shared" si="0"/>
-        <v>0.94047619047619047</v>
+        <v>0.94117647058823528</v>
       </c>
       <c r="C33">
         <v>31</v>
@@ -9676,14 +9766,17 @@
       <c r="CI33" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="34" spans="1:87" x14ac:dyDescent="0.25">
+      <c r="CJ33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>49</v>
       </c>
       <c r="B34" s="3">
         <f t="shared" si="0"/>
-        <v>0.87654320987654322</v>
+        <v>0.86585365853658536</v>
       </c>
       <c r="C34">
         <v>32</v>
@@ -9940,14 +10033,17 @@
       <c r="CI34" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="35" spans="1:87" x14ac:dyDescent="0.25">
+      <c r="CJ34" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>43</v>
       </c>
       <c r="B35" s="3">
         <f t="shared" si="0"/>
-        <v>0.94047619047619047</v>
+        <v>0.94117647058823528</v>
       </c>
       <c r="C35">
         <v>33</v>
@@ -10204,14 +10300,17 @@
       <c r="CI35" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="36" spans="1:87" x14ac:dyDescent="0.25">
+      <c r="CJ35" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>44</v>
       </c>
       <c r="B36" s="3">
         <f t="shared" si="0"/>
-        <v>0.4642857142857143</v>
+        <v>0.45882352941176469</v>
       </c>
       <c r="C36">
         <v>34</v>
@@ -10468,8 +10567,11 @@
       <c r="CI36" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="38" spans="1:87" x14ac:dyDescent="0.25">
+      <c r="CJ36" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:88" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>7</v>
       </c>
@@ -10477,7 +10579,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>19</v>
       </c>
@@ -10487,23 +10589,23 @@
       </c>
       <c r="C39">
         <f>COUNTIF($D3:$CZ3,$C$38)</f>
-        <v>66</v>
-      </c>
-    </row>
-    <row r="40" spans="1:87" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="40" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>20</v>
       </c>
       <c r="B40">
         <f t="shared" ref="B40:B72" si="1">COUNTIF($D4:$CZ4,$B$38)</f>
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C40">
         <f t="shared" ref="C40:C72" si="2">COUNTIF($D4:$CZ4,$C$38)</f>
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>21</v>
       </c>
@@ -10513,94 +10615,94 @@
       </c>
       <c r="C41">
         <f t="shared" si="2"/>
-        <v>81</v>
-      </c>
-    </row>
-    <row r="42" spans="1:87" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="42" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>22</v>
       </c>
       <c r="B42">
         <f t="shared" si="1"/>
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C42">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>23</v>
       </c>
       <c r="B43">
         <f t="shared" si="1"/>
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C43">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>50</v>
       </c>
       <c r="B44">
         <f t="shared" si="1"/>
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C44">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
     </row>
-    <row r="45" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>24</v>
       </c>
       <c r="B45">
         <f t="shared" si="1"/>
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C45">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>25</v>
       </c>
       <c r="B46">
         <f t="shared" si="1"/>
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C46">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>26</v>
       </c>
       <c r="B47">
         <f t="shared" si="1"/>
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C47">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>12</v>
       </c>
       <c r="B48">
         <f t="shared" si="1"/>
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C48">
         <f t="shared" si="2"/>
@@ -10617,7 +10719,7 @@
       </c>
       <c r="C49">
         <f t="shared" si="2"/>
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -10626,7 +10728,7 @@
       </c>
       <c r="B50">
         <f t="shared" si="1"/>
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C50">
         <f t="shared" si="2"/>
@@ -10639,7 +10741,7 @@
       </c>
       <c r="B51">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C51">
         <f t="shared" si="2"/>
@@ -10656,7 +10758,7 @@
       </c>
       <c r="C52">
         <f t="shared" si="2"/>
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -10665,7 +10767,7 @@
       </c>
       <c r="B53">
         <f t="shared" si="1"/>
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C53">
         <f t="shared" si="2"/>
@@ -10678,7 +10780,7 @@
       </c>
       <c r="B54">
         <f t="shared" si="1"/>
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C54">
         <f t="shared" si="2"/>
@@ -10691,7 +10793,7 @@
       </c>
       <c r="B55">
         <f t="shared" si="1"/>
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C55">
         <f t="shared" si="2"/>
@@ -10708,7 +10810,7 @@
       </c>
       <c r="C56">
         <f t="shared" si="2"/>
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -10717,7 +10819,7 @@
       </c>
       <c r="B57">
         <f t="shared" si="1"/>
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C57">
         <f t="shared" si="2"/>
@@ -10730,7 +10832,7 @@
       </c>
       <c r="B58">
         <f t="shared" si="1"/>
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C58">
         <f t="shared" si="2"/>
@@ -10743,7 +10845,7 @@
       </c>
       <c r="B59">
         <f t="shared" si="1"/>
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C59">
         <f t="shared" si="2"/>
@@ -10760,7 +10862,7 @@
       </c>
       <c r="C60">
         <f t="shared" si="2"/>
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -10769,7 +10871,7 @@
       </c>
       <c r="B61">
         <f t="shared" si="1"/>
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C61">
         <f t="shared" si="2"/>
@@ -10786,7 +10888,7 @@
       </c>
       <c r="C62">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -10795,7 +10897,7 @@
       </c>
       <c r="B63">
         <f t="shared" si="1"/>
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C63">
         <f t="shared" si="2"/>
@@ -10808,7 +10910,7 @@
       </c>
       <c r="B64">
         <f t="shared" si="1"/>
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C64">
         <f t="shared" si="2"/>
@@ -10821,7 +10923,7 @@
       </c>
       <c r="B65">
         <f t="shared" si="1"/>
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C65">
         <f t="shared" si="2"/>
@@ -10834,7 +10936,7 @@
       </c>
       <c r="B66">
         <f t="shared" si="1"/>
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C66">
         <f t="shared" si="2"/>
@@ -10851,7 +10953,7 @@
       </c>
       <c r="C67">
         <f t="shared" si="2"/>
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -10864,7 +10966,7 @@
       </c>
       <c r="C68">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -10873,7 +10975,7 @@
       </c>
       <c r="B69">
         <f t="shared" si="1"/>
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C69">
         <f t="shared" si="2"/>
@@ -10890,7 +10992,7 @@
       </c>
       <c r="C70">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -10899,7 +11001,7 @@
       </c>
       <c r="B71">
         <f t="shared" si="1"/>
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C71">
         <f t="shared" si="2"/>
@@ -10916,7 +11018,7 @@
       </c>
       <c r="C72">
         <f t="shared" si="2"/>
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/1des/frequencia.xlsx
+++ b/1des/frequencia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2023\1des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{317C7F21-6962-4E22-B41D-F24CF51ED3D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD26AD57-4021-453E-B694-9DEA3F1372EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3094" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3128" uniqueCount="54">
   <si>
     <t>Alunos</t>
   </si>
@@ -931,7 +931,7 @@
       <pane xSplit="3" ySplit="2" topLeftCell="BN3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="CJ34" sqref="CJ34"/>
+      <selection pane="bottomRight" activeCell="CK35" sqref="CK35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1499,7 +1499,7 @@
       </c>
       <c r="B3" s="3">
         <f>B39/(B39+C39)</f>
-        <v>0.21176470588235294</v>
+        <v>0.20930232558139536</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -1757,6 +1757,9 @@
         <v>8</v>
       </c>
       <c r="CJ3" t="s">
+        <v>8</v>
+      </c>
+      <c r="CK3" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1766,7 +1769,7 @@
       </c>
       <c r="B4" s="3">
         <f t="shared" ref="B4:B36" si="0">B40/(B40+C40)</f>
-        <v>0.94117647058823528</v>
+        <v>0.94186046511627908</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -2024,6 +2027,9 @@
         <v>7</v>
       </c>
       <c r="CJ4" t="s">
+        <v>7</v>
+      </c>
+      <c r="CK4" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2033,7 +2039,7 @@
       </c>
       <c r="B5" s="3">
         <f t="shared" si="0"/>
-        <v>3.5294117647058823E-2</v>
+        <v>3.4883720930232558E-2</v>
       </c>
       <c r="C5">
         <v>3</v>
@@ -2291,6 +2297,9 @@
         <v>8</v>
       </c>
       <c r="CJ5" t="s">
+        <v>8</v>
+      </c>
+      <c r="CK5" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2300,7 +2309,7 @@
       </c>
       <c r="B6" s="3">
         <f t="shared" si="0"/>
-        <v>0.96470588235294119</v>
+        <v>0.96511627906976749</v>
       </c>
       <c r="C6">
         <v>4</v>
@@ -2558,6 +2567,9 @@
         <v>7</v>
       </c>
       <c r="CJ6" t="s">
+        <v>7</v>
+      </c>
+      <c r="CK6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2827,6 +2839,9 @@
       <c r="CJ7" t="s">
         <v>7</v>
       </c>
+      <c r="CK7" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="8" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -2834,7 +2849,7 @@
       </c>
       <c r="B8" s="3">
         <f t="shared" si="0"/>
-        <v>0.75609756097560976</v>
+        <v>0.74698795180722888</v>
       </c>
       <c r="C8">
         <v>6</v>
@@ -3093,6 +3108,9 @@
       </c>
       <c r="CJ8" t="s">
         <v>7</v>
+      </c>
+      <c r="CK8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:91" x14ac:dyDescent="0.25">
@@ -3101,7 +3119,7 @@
       </c>
       <c r="B9" s="3">
         <f t="shared" si="0"/>
-        <v>0.94117647058823528</v>
+        <v>0.93023255813953487</v>
       </c>
       <c r="C9">
         <v>7</v>
@@ -3360,6 +3378,9 @@
       </c>
       <c r="CJ9" t="s">
         <v>7</v>
+      </c>
+      <c r="CK9" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:91" x14ac:dyDescent="0.25">
@@ -3368,7 +3389,7 @@
       </c>
       <c r="B10" s="3">
         <f t="shared" si="0"/>
-        <v>0.9882352941176471</v>
+        <v>0.98837209302325579</v>
       </c>
       <c r="C10">
         <v>8</v>
@@ -3626,6 +3647,9 @@
         <v>7</v>
       </c>
       <c r="CJ10" t="s">
+        <v>7</v>
+      </c>
+      <c r="CK10" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3635,7 +3659,7 @@
       </c>
       <c r="B11" s="3">
         <f t="shared" si="0"/>
-        <v>0.97647058823529409</v>
+        <v>0.97674418604651159</v>
       </c>
       <c r="C11">
         <v>9</v>
@@ -3893,6 +3917,9 @@
         <v>7</v>
       </c>
       <c r="CJ11" t="s">
+        <v>7</v>
+      </c>
+      <c r="CK11" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3902,7 +3929,7 @@
       </c>
       <c r="B12" s="3">
         <f t="shared" si="0"/>
-        <v>0.9882352941176471</v>
+        <v>0.98837209302325579</v>
       </c>
       <c r="C12">
         <v>10</v>
@@ -4160,6 +4187,9 @@
         <v>7</v>
       </c>
       <c r="CJ12" t="s">
+        <v>7</v>
+      </c>
+      <c r="CK12" t="s">
         <v>7</v>
       </c>
     </row>
@@ -4169,7 +4199,7 @@
       </c>
       <c r="B13" s="3">
         <f t="shared" si="0"/>
-        <v>0.6588235294117647</v>
+        <v>0.65116279069767447</v>
       </c>
       <c r="C13">
         <v>11</v>
@@ -4427,6 +4457,9 @@
         <v>8</v>
       </c>
       <c r="CJ13" t="s">
+        <v>8</v>
+      </c>
+      <c r="CK13" t="s">
         <v>8</v>
       </c>
     </row>
@@ -4436,7 +4469,7 @@
       </c>
       <c r="B14" s="3">
         <f t="shared" si="0"/>
-        <v>0.84705882352941175</v>
+        <v>0.84883720930232553</v>
       </c>
       <c r="C14">
         <v>12</v>
@@ -4694,6 +4727,9 @@
         <v>7</v>
       </c>
       <c r="CJ14" t="s">
+        <v>7</v>
+      </c>
+      <c r="CK14" t="s">
         <v>7</v>
       </c>
     </row>
@@ -4703,7 +4739,7 @@
       </c>
       <c r="B15" s="3">
         <f t="shared" si="0"/>
-        <v>0.95294117647058818</v>
+        <v>0.95348837209302328</v>
       </c>
       <c r="C15">
         <v>13</v>
@@ -4961,6 +4997,9 @@
         <v>7</v>
       </c>
       <c r="CJ15" t="s">
+        <v>7</v>
+      </c>
+      <c r="CK15" t="s">
         <v>7</v>
       </c>
     </row>
@@ -4970,7 +5009,7 @@
       </c>
       <c r="B16" s="3">
         <f t="shared" si="0"/>
-        <v>0.10975609756097561</v>
+        <v>0.10843373493975904</v>
       </c>
       <c r="C16">
         <v>14</v>
@@ -5230,14 +5269,17 @@
       <c r="CJ16" t="s">
         <v>8</v>
       </c>
+      <c r="CK16" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="17" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>27</v>
       </c>
       <c r="B17" s="3">
         <f t="shared" si="0"/>
-        <v>0.9882352941176471</v>
+        <v>0.98837209302325579</v>
       </c>
       <c r="C17">
         <v>15</v>
@@ -5497,8 +5539,11 @@
       <c r="CJ17" t="s">
         <v>7</v>
       </c>
+      <c r="CK17" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="18" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>28</v>
       </c>
@@ -5764,14 +5809,17 @@
       <c r="CJ18" t="s">
         <v>7</v>
       </c>
+      <c r="CK18" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="19" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>30</v>
       </c>
       <c r="B19" s="3">
         <f t="shared" si="0"/>
-        <v>0.96470588235294119</v>
+        <v>0.96511627906976749</v>
       </c>
       <c r="C19">
         <v>17</v>
@@ -6031,14 +6079,17 @@
       <c r="CJ19" t="s">
         <v>7</v>
       </c>
+      <c r="CK19" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="20" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>31</v>
       </c>
       <c r="B20" s="3">
         <f t="shared" si="0"/>
-        <v>0.43529411764705883</v>
+        <v>0.43023255813953487</v>
       </c>
       <c r="C20">
         <v>18</v>
@@ -6298,14 +6349,17 @@
       <c r="CJ20" t="s">
         <v>8</v>
       </c>
+      <c r="CK20" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="21" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>33</v>
       </c>
       <c r="B21" s="3">
         <f t="shared" si="0"/>
-        <v>0.71764705882352942</v>
+        <v>0.72093023255813948</v>
       </c>
       <c r="C21">
         <v>19</v>
@@ -6565,14 +6619,17 @@
       <c r="CJ21" t="s">
         <v>7</v>
       </c>
+      <c r="CK21" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="22" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>48</v>
       </c>
       <c r="B22" s="3">
         <f t="shared" si="0"/>
-        <v>0.96341463414634143</v>
+        <v>0.96385542168674698</v>
       </c>
       <c r="C22">
         <v>20</v>
@@ -6832,8 +6889,11 @@
       <c r="CJ22" t="s">
         <v>7</v>
       </c>
+      <c r="CK22" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="23" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>17</v>
       </c>
@@ -7099,14 +7159,17 @@
       <c r="CJ23" t="s">
         <v>7</v>
       </c>
+      <c r="CK23" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="24" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>34</v>
       </c>
       <c r="B24" s="3">
         <f t="shared" si="0"/>
-        <v>0.57647058823529407</v>
+        <v>0.56976744186046513</v>
       </c>
       <c r="C24">
         <v>22</v>
@@ -7366,14 +7429,17 @@
       <c r="CJ24" t="s">
         <v>8</v>
       </c>
+      <c r="CK24" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="25" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>35</v>
       </c>
       <c r="B25" s="3">
         <f t="shared" si="0"/>
-        <v>0.94117647058823528</v>
+        <v>0.94186046511627908</v>
       </c>
       <c r="C25">
         <v>23</v>
@@ -7633,14 +7699,17 @@
       <c r="CJ25" t="s">
         <v>7</v>
       </c>
+      <c r="CK25" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="26" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>36</v>
       </c>
       <c r="B26" s="3">
         <f t="shared" si="0"/>
-        <v>0.83529411764705885</v>
+        <v>0.82558139534883723</v>
       </c>
       <c r="C26">
         <v>24</v>
@@ -7900,14 +7969,17 @@
       <c r="CJ26" t="s">
         <v>8</v>
       </c>
+      <c r="CK26" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="27" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>46</v>
       </c>
       <c r="B27" s="3">
         <f t="shared" si="0"/>
-        <v>0.96470588235294119</v>
+        <v>0.96511627906976749</v>
       </c>
       <c r="C27">
         <v>25</v>
@@ -8167,14 +8239,17 @@
       <c r="CJ27" t="s">
         <v>7</v>
       </c>
+      <c r="CK27" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="28" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>10</v>
       </c>
       <c r="B28" s="3">
         <f t="shared" si="0"/>
-        <v>0.87804878048780488</v>
+        <v>0.87951807228915657</v>
       </c>
       <c r="C28">
         <v>26</v>
@@ -8434,14 +8509,17 @@
       <c r="CJ28" t="s">
         <v>7</v>
       </c>
+      <c r="CK28" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="29" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>38</v>
       </c>
       <c r="B29" s="3">
         <f t="shared" si="0"/>
-        <v>0.97647058823529409</v>
+        <v>0.96511627906976749</v>
       </c>
       <c r="C29">
         <v>27</v>
@@ -8701,14 +8779,17 @@
       <c r="CJ29" t="s">
         <v>7</v>
       </c>
+      <c r="CK29" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="30" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>39</v>
       </c>
       <c r="B30" s="3">
         <f t="shared" si="0"/>
-        <v>0.9882352941176471</v>
+        <v>0.98837209302325579</v>
       </c>
       <c r="C30">
         <v>28</v>
@@ -8968,14 +9049,17 @@
       <c r="CJ30" t="s">
         <v>7</v>
       </c>
+      <c r="CK30" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="31" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>40</v>
       </c>
       <c r="B31" s="3">
         <f t="shared" si="0"/>
-        <v>0.12941176470588237</v>
+        <v>0.12790697674418605</v>
       </c>
       <c r="C31">
         <v>29</v>
@@ -9235,14 +9319,17 @@
       <c r="CJ31" t="s">
         <v>8</v>
       </c>
+      <c r="CK31" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="32" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>41</v>
       </c>
       <c r="B32" s="3">
         <f t="shared" si="0"/>
-        <v>0.83529411764705885</v>
+        <v>0.83720930232558144</v>
       </c>
       <c r="C32">
         <v>30</v>
@@ -9502,14 +9589,17 @@
       <c r="CJ32" t="s">
         <v>8</v>
       </c>
+      <c r="CK32" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="33" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>42</v>
       </c>
       <c r="B33" s="3">
         <f t="shared" si="0"/>
-        <v>0.94117647058823528</v>
+        <v>0.94186046511627908</v>
       </c>
       <c r="C33">
         <v>31</v>
@@ -9769,14 +9859,17 @@
       <c r="CJ33" t="s">
         <v>7</v>
       </c>
+      <c r="CK33" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="34" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>49</v>
       </c>
       <c r="B34" s="3">
         <f t="shared" si="0"/>
-        <v>0.86585365853658536</v>
+        <v>0.86746987951807231</v>
       </c>
       <c r="C34">
         <v>32</v>
@@ -10036,14 +10129,17 @@
       <c r="CJ34" t="s">
         <v>8</v>
       </c>
+      <c r="CK34" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="35" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>43</v>
       </c>
       <c r="B35" s="3">
         <f t="shared" si="0"/>
-        <v>0.94117647058823528</v>
+        <v>0.94186046511627908</v>
       </c>
       <c r="C35">
         <v>33</v>
@@ -10303,14 +10399,17 @@
       <c r="CJ35" t="s">
         <v>7</v>
       </c>
+      <c r="CK35" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="36" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>44</v>
       </c>
       <c r="B36" s="3">
         <f t="shared" si="0"/>
-        <v>0.45882352941176469</v>
+        <v>0.45348837209302323</v>
       </c>
       <c r="C36">
         <v>34</v>
@@ -10570,8 +10669,11 @@
       <c r="CJ36" t="s">
         <v>8</v>
       </c>
+      <c r="CK36" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="38" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:89" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>7</v>
       </c>
@@ -10579,7 +10681,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>19</v>
       </c>
@@ -10589,23 +10691,23 @@
       </c>
       <c r="C39">
         <f>COUNTIF($D3:$CZ3,$C$38)</f>
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
-    <row r="40" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>20</v>
       </c>
       <c r="B40">
         <f t="shared" ref="B40:B72" si="1">COUNTIF($D4:$CZ4,$B$38)</f>
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C40">
         <f t="shared" ref="C40:C72" si="2">COUNTIF($D4:$CZ4,$C$38)</f>
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>21</v>
       </c>
@@ -10615,36 +10717,36 @@
       </c>
       <c r="C41">
         <f t="shared" si="2"/>
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
-    <row r="42" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>22</v>
       </c>
       <c r="B42">
         <f t="shared" si="1"/>
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C42">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>23</v>
       </c>
       <c r="B43">
         <f t="shared" si="1"/>
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C43">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>50</v>
       </c>
@@ -10654,10 +10756,10 @@
       </c>
       <c r="C44">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
-    <row r="45" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>24</v>
       </c>
@@ -10667,42 +10769,42 @@
       </c>
       <c r="C45">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>25</v>
       </c>
       <c r="B46">
         <f t="shared" si="1"/>
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C46">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>26</v>
       </c>
       <c r="B47">
         <f t="shared" si="1"/>
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C47">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>12</v>
       </c>
       <c r="B48">
         <f t="shared" si="1"/>
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C48">
         <f t="shared" si="2"/>
@@ -10719,7 +10821,7 @@
       </c>
       <c r="C49">
         <f t="shared" si="2"/>
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -10728,7 +10830,7 @@
       </c>
       <c r="B50">
         <f t="shared" si="1"/>
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C50">
         <f t="shared" si="2"/>
@@ -10741,7 +10843,7 @@
       </c>
       <c r="B51">
         <f t="shared" si="1"/>
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C51">
         <f t="shared" si="2"/>
@@ -10758,7 +10860,7 @@
       </c>
       <c r="C52">
         <f t="shared" si="2"/>
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -10767,7 +10869,7 @@
       </c>
       <c r="B53">
         <f t="shared" si="1"/>
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C53">
         <f t="shared" si="2"/>
@@ -10780,7 +10882,7 @@
       </c>
       <c r="B54">
         <f t="shared" si="1"/>
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C54">
         <f t="shared" si="2"/>
@@ -10793,7 +10895,7 @@
       </c>
       <c r="B55">
         <f t="shared" si="1"/>
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C55">
         <f t="shared" si="2"/>
@@ -10810,7 +10912,7 @@
       </c>
       <c r="C56">
         <f t="shared" si="2"/>
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -10819,7 +10921,7 @@
       </c>
       <c r="B57">
         <f t="shared" si="1"/>
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C57">
         <f t="shared" si="2"/>
@@ -10832,7 +10934,7 @@
       </c>
       <c r="B58">
         <f t="shared" si="1"/>
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C58">
         <f t="shared" si="2"/>
@@ -10845,7 +10947,7 @@
       </c>
       <c r="B59">
         <f t="shared" si="1"/>
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C59">
         <f t="shared" si="2"/>
@@ -10862,7 +10964,7 @@
       </c>
       <c r="C60">
         <f t="shared" si="2"/>
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -10871,7 +10973,7 @@
       </c>
       <c r="B61">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C61">
         <f t="shared" si="2"/>
@@ -10888,7 +10990,7 @@
       </c>
       <c r="C62">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -10897,7 +10999,7 @@
       </c>
       <c r="B63">
         <f t="shared" si="1"/>
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C63">
         <f t="shared" si="2"/>
@@ -10910,7 +11012,7 @@
       </c>
       <c r="B64">
         <f t="shared" si="1"/>
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C64">
         <f t="shared" si="2"/>
@@ -10927,7 +11029,7 @@
       </c>
       <c r="C65">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -10936,7 +11038,7 @@
       </c>
       <c r="B66">
         <f t="shared" si="1"/>
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C66">
         <f t="shared" si="2"/>
@@ -10953,7 +11055,7 @@
       </c>
       <c r="C67">
         <f t="shared" si="2"/>
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -10962,7 +11064,7 @@
       </c>
       <c r="B68">
         <f t="shared" si="1"/>
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C68">
         <f t="shared" si="2"/>
@@ -10975,7 +11077,7 @@
       </c>
       <c r="B69">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C69">
         <f t="shared" si="2"/>
@@ -10988,7 +11090,7 @@
       </c>
       <c r="B70">
         <f t="shared" si="1"/>
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C70">
         <f t="shared" si="2"/>
@@ -11001,7 +11103,7 @@
       </c>
       <c r="B71">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C71">
         <f t="shared" si="2"/>
@@ -11018,7 +11120,7 @@
       </c>
       <c r="C72">
         <f t="shared" si="2"/>
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/1des/frequencia.xlsx
+++ b/1des/frequencia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2023\1des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD26AD57-4021-453E-B694-9DEA3F1372EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B0F4C13-D348-4964-A15C-4A50D2F46053}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3128" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3161" uniqueCount="54">
   <si>
     <t>Alunos</t>
   </si>
@@ -931,7 +931,7 @@
       <pane xSplit="3" ySplit="2" topLeftCell="BN3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="CK35" sqref="CK35"/>
+      <selection pane="bottomRight" activeCell="CL35" sqref="CL35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1499,7 +1499,7 @@
       </c>
       <c r="B3" s="3">
         <f>B39/(B39+C39)</f>
-        <v>0.20930232558139536</v>
+        <v>0.20689655172413793</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -1760,6 +1760,9 @@
         <v>8</v>
       </c>
       <c r="CK3" t="s">
+        <v>8</v>
+      </c>
+      <c r="CL3" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1769,7 +1772,7 @@
       </c>
       <c r="B4" s="3">
         <f t="shared" ref="B4:B36" si="0">B40/(B40+C40)</f>
-        <v>0.94186046511627908</v>
+        <v>0.94252873563218387</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -2030,6 +2033,9 @@
         <v>7</v>
       </c>
       <c r="CK4" t="s">
+        <v>7</v>
+      </c>
+      <c r="CL4" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2039,7 +2045,7 @@
       </c>
       <c r="B5" s="3">
         <f t="shared" si="0"/>
-        <v>3.4883720930232558E-2</v>
+        <v>3.4482758620689655E-2</v>
       </c>
       <c r="C5">
         <v>3</v>
@@ -2300,6 +2306,9 @@
         <v>8</v>
       </c>
       <c r="CK5" t="s">
+        <v>8</v>
+      </c>
+      <c r="CL5" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2309,7 +2318,7 @@
       </c>
       <c r="B6" s="3">
         <f t="shared" si="0"/>
-        <v>0.96511627906976749</v>
+        <v>0.96551724137931039</v>
       </c>
       <c r="C6">
         <v>4</v>
@@ -2570,6 +2579,9 @@
         <v>7</v>
       </c>
       <c r="CK6" t="s">
+        <v>7</v>
+      </c>
+      <c r="CL6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2842,6 +2854,9 @@
       <c r="CK7" t="s">
         <v>7</v>
       </c>
+      <c r="CL7" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="8" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -2849,7 +2864,7 @@
       </c>
       <c r="B8" s="3">
         <f t="shared" si="0"/>
-        <v>0.74698795180722888</v>
+        <v>0.73809523809523814</v>
       </c>
       <c r="C8">
         <v>6</v>
@@ -3110,6 +3125,9 @@
         <v>7</v>
       </c>
       <c r="CK8" t="s">
+        <v>8</v>
+      </c>
+      <c r="CL8" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3119,7 +3137,7 @@
       </c>
       <c r="B9" s="3">
         <f t="shared" si="0"/>
-        <v>0.93023255813953487</v>
+        <v>0.91954022988505746</v>
       </c>
       <c r="C9">
         <v>7</v>
@@ -3380,6 +3398,9 @@
         <v>7</v>
       </c>
       <c r="CK9" t="s">
+        <v>8</v>
+      </c>
+      <c r="CL9" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3389,7 +3410,7 @@
       </c>
       <c r="B10" s="3">
         <f t="shared" si="0"/>
-        <v>0.98837209302325579</v>
+        <v>0.9885057471264368</v>
       </c>
       <c r="C10">
         <v>8</v>
@@ -3650,6 +3671,9 @@
         <v>7</v>
       </c>
       <c r="CK10" t="s">
+        <v>7</v>
+      </c>
+      <c r="CL10" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3659,7 +3683,7 @@
       </c>
       <c r="B11" s="3">
         <f t="shared" si="0"/>
-        <v>0.97674418604651159</v>
+        <v>0.97701149425287359</v>
       </c>
       <c r="C11">
         <v>9</v>
@@ -3920,6 +3944,9 @@
         <v>7</v>
       </c>
       <c r="CK11" t="s">
+        <v>7</v>
+      </c>
+      <c r="CL11" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3929,7 +3956,7 @@
       </c>
       <c r="B12" s="3">
         <f t="shared" si="0"/>
-        <v>0.98837209302325579</v>
+        <v>0.9885057471264368</v>
       </c>
       <c r="C12">
         <v>10</v>
@@ -4190,6 +4217,9 @@
         <v>7</v>
       </c>
       <c r="CK12" t="s">
+        <v>7</v>
+      </c>
+      <c r="CL12" t="s">
         <v>7</v>
       </c>
     </row>
@@ -4199,7 +4229,7 @@
       </c>
       <c r="B13" s="3">
         <f t="shared" si="0"/>
-        <v>0.65116279069767447</v>
+        <v>0.64367816091954022</v>
       </c>
       <c r="C13">
         <v>11</v>
@@ -4460,6 +4490,9 @@
         <v>8</v>
       </c>
       <c r="CK13" t="s">
+        <v>8</v>
+      </c>
+      <c r="CL13" t="s">
         <v>8</v>
       </c>
     </row>
@@ -4469,7 +4502,7 @@
       </c>
       <c r="B14" s="3">
         <f t="shared" si="0"/>
-        <v>0.84883720930232553</v>
+        <v>0.83908045977011492</v>
       </c>
       <c r="C14">
         <v>12</v>
@@ -4731,6 +4764,9 @@
       </c>
       <c r="CK14" t="s">
         <v>7</v>
+      </c>
+      <c r="CL14" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:91" x14ac:dyDescent="0.25">
@@ -4739,7 +4775,7 @@
       </c>
       <c r="B15" s="3">
         <f t="shared" si="0"/>
-        <v>0.95348837209302328</v>
+        <v>0.95402298850574707</v>
       </c>
       <c r="C15">
         <v>13</v>
@@ -5000,6 +5036,9 @@
         <v>7</v>
       </c>
       <c r="CK15" t="s">
+        <v>7</v>
+      </c>
+      <c r="CL15" t="s">
         <v>7</v>
       </c>
     </row>
@@ -5009,7 +5048,7 @@
       </c>
       <c r="B16" s="3">
         <f t="shared" si="0"/>
-        <v>0.10843373493975904</v>
+        <v>0.10714285714285714</v>
       </c>
       <c r="C16">
         <v>14</v>
@@ -5272,14 +5311,17 @@
       <c r="CK16" t="s">
         <v>8</v>
       </c>
+      <c r="CL16" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="17" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>27</v>
       </c>
       <c r="B17" s="3">
         <f t="shared" si="0"/>
-        <v>0.98837209302325579</v>
+        <v>0.9885057471264368</v>
       </c>
       <c r="C17">
         <v>15</v>
@@ -5542,8 +5584,11 @@
       <c r="CK17" t="s">
         <v>7</v>
       </c>
+      <c r="CL17" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="18" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>28</v>
       </c>
@@ -5812,14 +5857,17 @@
       <c r="CK18" t="s">
         <v>7</v>
       </c>
+      <c r="CL18" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="19" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>30</v>
       </c>
       <c r="B19" s="3">
         <f t="shared" si="0"/>
-        <v>0.96511627906976749</v>
+        <v>0.96551724137931039</v>
       </c>
       <c r="C19">
         <v>17</v>
@@ -6082,8 +6130,11 @@
       <c r="CK19" t="s">
         <v>7</v>
       </c>
+      <c r="CL19" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="20" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>31</v>
       </c>
@@ -6353,13 +6404,13 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>33</v>
       </c>
       <c r="B21" s="3">
         <f t="shared" si="0"/>
-        <v>0.72093023255813948</v>
+        <v>0.71264367816091956</v>
       </c>
       <c r="C21">
         <v>19</v>
@@ -6622,14 +6673,17 @@
       <c r="CK21" t="s">
         <v>7</v>
       </c>
+      <c r="CL21" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="22" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>48</v>
       </c>
       <c r="B22" s="3">
         <f t="shared" si="0"/>
-        <v>0.96385542168674698</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="C22">
         <v>20</v>
@@ -6892,8 +6946,11 @@
       <c r="CK22" t="s">
         <v>7</v>
       </c>
+      <c r="CL22" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="23" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>17</v>
       </c>
@@ -7162,14 +7219,17 @@
       <c r="CK23" t="s">
         <v>7</v>
       </c>
+      <c r="CL23" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="24" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>34</v>
       </c>
       <c r="B24" s="3">
         <f t="shared" si="0"/>
-        <v>0.56976744186046513</v>
+        <v>0.56321839080459768</v>
       </c>
       <c r="C24">
         <v>22</v>
@@ -7432,14 +7492,17 @@
       <c r="CK24" t="s">
         <v>8</v>
       </c>
+      <c r="CL24" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="25" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>35</v>
       </c>
       <c r="B25" s="3">
         <f t="shared" si="0"/>
-        <v>0.94186046511627908</v>
+        <v>0.94252873563218387</v>
       </c>
       <c r="C25">
         <v>23</v>
@@ -7702,14 +7765,17 @@
       <c r="CK25" t="s">
         <v>7</v>
       </c>
+      <c r="CL25" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="26" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>36</v>
       </c>
       <c r="B26" s="3">
         <f t="shared" si="0"/>
-        <v>0.82558139534883723</v>
+        <v>0.81609195402298851</v>
       </c>
       <c r="C26">
         <v>24</v>
@@ -7972,14 +8038,17 @@
       <c r="CK26" t="s">
         <v>8</v>
       </c>
+      <c r="CL26" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="27" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>46</v>
       </c>
       <c r="B27" s="3">
         <f t="shared" si="0"/>
-        <v>0.96511627906976749</v>
+        <v>0.96551724137931039</v>
       </c>
       <c r="C27">
         <v>25</v>
@@ -8242,14 +8311,17 @@
       <c r="CK27" t="s">
         <v>7</v>
       </c>
+      <c r="CL27" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="28" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>10</v>
       </c>
       <c r="B28" s="3">
         <f t="shared" si="0"/>
-        <v>0.87951807228915657</v>
+        <v>0.88095238095238093</v>
       </c>
       <c r="C28">
         <v>26</v>
@@ -8512,14 +8584,17 @@
       <c r="CK28" t="s">
         <v>7</v>
       </c>
+      <c r="CL28" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="29" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>38</v>
       </c>
       <c r="B29" s="3">
         <f t="shared" si="0"/>
-        <v>0.96511627906976749</v>
+        <v>0.95402298850574707</v>
       </c>
       <c r="C29">
         <v>27</v>
@@ -8782,14 +8857,17 @@
       <c r="CK29" t="s">
         <v>8</v>
       </c>
+      <c r="CL29" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="30" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>39</v>
       </c>
       <c r="B30" s="3">
         <f t="shared" si="0"/>
-        <v>0.98837209302325579</v>
+        <v>0.9885057471264368</v>
       </c>
       <c r="C30">
         <v>28</v>
@@ -9052,14 +9130,17 @@
       <c r="CK30" t="s">
         <v>7</v>
       </c>
+      <c r="CL30" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="31" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>40</v>
       </c>
       <c r="B31" s="3">
         <f t="shared" si="0"/>
-        <v>0.12790697674418605</v>
+        <v>0.12643678160919541</v>
       </c>
       <c r="C31">
         <v>29</v>
@@ -9322,14 +9403,17 @@
       <c r="CK31" t="s">
         <v>8</v>
       </c>
+      <c r="CL31" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="32" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>41</v>
       </c>
       <c r="B32" s="3">
         <f t="shared" si="0"/>
-        <v>0.83720930232558144</v>
+        <v>0.83908045977011492</v>
       </c>
       <c r="C32">
         <v>30</v>
@@ -9592,14 +9676,17 @@
       <c r="CK32" t="s">
         <v>7</v>
       </c>
+      <c r="CL32" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="33" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>42</v>
       </c>
       <c r="B33" s="3">
         <f t="shared" si="0"/>
-        <v>0.94186046511627908</v>
+        <v>0.94252873563218387</v>
       </c>
       <c r="C33">
         <v>31</v>
@@ -9862,14 +9949,17 @@
       <c r="CK33" t="s">
         <v>7</v>
       </c>
+      <c r="CL33" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="34" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>49</v>
       </c>
       <c r="B34" s="3">
         <f t="shared" si="0"/>
-        <v>0.86746987951807231</v>
+        <v>0.86904761904761907</v>
       </c>
       <c r="C34">
         <v>32</v>
@@ -10132,14 +10222,17 @@
       <c r="CK34" t="s">
         <v>7</v>
       </c>
+      <c r="CL34" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="35" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>43</v>
       </c>
       <c r="B35" s="3">
         <f t="shared" si="0"/>
-        <v>0.94186046511627908</v>
+        <v>0.94252873563218387</v>
       </c>
       <c r="C35">
         <v>33</v>
@@ -10402,14 +10495,17 @@
       <c r="CK35" t="s">
         <v>7</v>
       </c>
+      <c r="CL35" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="36" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>44</v>
       </c>
       <c r="B36" s="3">
         <f t="shared" si="0"/>
-        <v>0.45348837209302323</v>
+        <v>0.44827586206896552</v>
       </c>
       <c r="C36">
         <v>34</v>
@@ -10672,8 +10768,11 @@
       <c r="CK36" t="s">
         <v>8</v>
       </c>
+      <c r="CL36" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="38" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:90" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>7</v>
       </c>
@@ -10681,7 +10780,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>19</v>
       </c>
@@ -10691,23 +10790,23 @@
       </c>
       <c r="C39">
         <f>COUNTIF($D3:$CZ3,$C$38)</f>
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
-    <row r="40" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>20</v>
       </c>
       <c r="B40">
         <f t="shared" ref="B40:B72" si="1">COUNTIF($D4:$CZ4,$B$38)</f>
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C40">
         <f t="shared" ref="C40:C72" si="2">COUNTIF($D4:$CZ4,$C$38)</f>
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>21</v>
       </c>
@@ -10717,36 +10816,36 @@
       </c>
       <c r="C41">
         <f t="shared" si="2"/>
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
-    <row r="42" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>22</v>
       </c>
       <c r="B42">
         <f t="shared" si="1"/>
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C42">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>23</v>
       </c>
       <c r="B43">
         <f t="shared" si="1"/>
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C43">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>50</v>
       </c>
@@ -10756,10 +10855,10 @@
       </c>
       <c r="C44">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
-    <row r="45" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>24</v>
       </c>
@@ -10769,42 +10868,42 @@
       </c>
       <c r="C45">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>25</v>
       </c>
       <c r="B46">
         <f t="shared" si="1"/>
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C46">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>26</v>
       </c>
       <c r="B47">
         <f t="shared" si="1"/>
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C47">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>12</v>
       </c>
       <c r="B48">
         <f t="shared" si="1"/>
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C48">
         <f t="shared" si="2"/>
@@ -10821,7 +10920,7 @@
       </c>
       <c r="C49">
         <f t="shared" si="2"/>
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -10834,7 +10933,7 @@
       </c>
       <c r="C50">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -10843,7 +10942,7 @@
       </c>
       <c r="B51">
         <f t="shared" si="1"/>
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C51">
         <f t="shared" si="2"/>
@@ -10860,7 +10959,7 @@
       </c>
       <c r="C52">
         <f t="shared" si="2"/>
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -10869,7 +10968,7 @@
       </c>
       <c r="B53">
         <f t="shared" si="1"/>
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C53">
         <f t="shared" si="2"/>
@@ -10882,7 +10981,7 @@
       </c>
       <c r="B54">
         <f t="shared" si="1"/>
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C54">
         <f t="shared" si="2"/>
@@ -10895,7 +10994,7 @@
       </c>
       <c r="B55">
         <f t="shared" si="1"/>
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C55">
         <f t="shared" si="2"/>
@@ -10925,7 +11024,7 @@
       </c>
       <c r="C57">
         <f t="shared" si="2"/>
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -10934,7 +11033,7 @@
       </c>
       <c r="B58">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C58">
         <f t="shared" si="2"/>
@@ -10947,7 +11046,7 @@
       </c>
       <c r="B59">
         <f t="shared" si="1"/>
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C59">
         <f t="shared" si="2"/>
@@ -10964,7 +11063,7 @@
       </c>
       <c r="C60">
         <f t="shared" si="2"/>
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -10973,7 +11072,7 @@
       </c>
       <c r="B61">
         <f t="shared" si="1"/>
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C61">
         <f t="shared" si="2"/>
@@ -10990,7 +11089,7 @@
       </c>
       <c r="C62">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -10999,7 +11098,7 @@
       </c>
       <c r="B63">
         <f t="shared" si="1"/>
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C63">
         <f t="shared" si="2"/>
@@ -11012,7 +11111,7 @@
       </c>
       <c r="B64">
         <f t="shared" si="1"/>
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C64">
         <f t="shared" si="2"/>
@@ -11029,7 +11128,7 @@
       </c>
       <c r="C65">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -11038,7 +11137,7 @@
       </c>
       <c r="B66">
         <f t="shared" si="1"/>
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C66">
         <f t="shared" si="2"/>
@@ -11055,7 +11154,7 @@
       </c>
       <c r="C67">
         <f t="shared" si="2"/>
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -11064,7 +11163,7 @@
       </c>
       <c r="B68">
         <f t="shared" si="1"/>
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C68">
         <f t="shared" si="2"/>
@@ -11077,7 +11176,7 @@
       </c>
       <c r="B69">
         <f t="shared" si="1"/>
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C69">
         <f t="shared" si="2"/>
@@ -11090,7 +11189,7 @@
       </c>
       <c r="B70">
         <f t="shared" si="1"/>
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C70">
         <f t="shared" si="2"/>
@@ -11103,7 +11202,7 @@
       </c>
       <c r="B71">
         <f t="shared" si="1"/>
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C71">
         <f t="shared" si="2"/>
@@ -11120,7 +11219,7 @@
       </c>
       <c r="C72">
         <f t="shared" si="2"/>
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/1des/frequencia.xlsx
+++ b/1des/frequencia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2023\1des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B0F4C13-D348-4964-A15C-4A50D2F46053}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40A54414-AE0E-4577-923C-D95DD666ADE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3161" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3195" uniqueCount="54">
   <si>
     <t>Alunos</t>
   </si>
@@ -931,7 +931,7 @@
       <pane xSplit="3" ySplit="2" topLeftCell="BN3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="CL35" sqref="CL35"/>
+      <selection pane="bottomRight" activeCell="CK17" sqref="CK17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1499,7 +1499,7 @@
       </c>
       <c r="B3" s="3">
         <f>B39/(B39+C39)</f>
-        <v>0.20689655172413793</v>
+        <v>0.20454545454545456</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -1763,6 +1763,9 @@
         <v>8</v>
       </c>
       <c r="CL3" t="s">
+        <v>8</v>
+      </c>
+      <c r="CM3" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1772,7 +1775,7 @@
       </c>
       <c r="B4" s="3">
         <f t="shared" ref="B4:B36" si="0">B40/(B40+C40)</f>
-        <v>0.94252873563218387</v>
+        <v>0.94318181818181823</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -2036,6 +2039,9 @@
         <v>7</v>
       </c>
       <c r="CL4" t="s">
+        <v>7</v>
+      </c>
+      <c r="CM4" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2045,7 +2051,7 @@
       </c>
       <c r="B5" s="3">
         <f t="shared" si="0"/>
-        <v>3.4482758620689655E-2</v>
+        <v>3.4090909090909088E-2</v>
       </c>
       <c r="C5">
         <v>3</v>
@@ -2309,6 +2315,9 @@
         <v>8</v>
       </c>
       <c r="CL5" t="s">
+        <v>8</v>
+      </c>
+      <c r="CM5" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2318,7 +2327,7 @@
       </c>
       <c r="B6" s="3">
         <f t="shared" si="0"/>
-        <v>0.96551724137931039</v>
+        <v>0.95454545454545459</v>
       </c>
       <c r="C6">
         <v>4</v>
@@ -2583,6 +2592,9 @@
       </c>
       <c r="CL6" t="s">
         <v>7</v>
+      </c>
+      <c r="CM6" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:91" x14ac:dyDescent="0.25">
@@ -2591,7 +2603,7 @@
       </c>
       <c r="B7" s="3">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.98863636363636365</v>
       </c>
       <c r="C7">
         <v>5</v>
@@ -2856,6 +2868,9 @@
       </c>
       <c r="CL7" t="s">
         <v>7</v>
+      </c>
+      <c r="CM7" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:91" x14ac:dyDescent="0.25">
@@ -2864,7 +2879,7 @@
       </c>
       <c r="B8" s="3">
         <f t="shared" si="0"/>
-        <v>0.73809523809523814</v>
+        <v>0.72941176470588232</v>
       </c>
       <c r="C8">
         <v>6</v>
@@ -3128,6 +3143,9 @@
         <v>8</v>
       </c>
       <c r="CL8" t="s">
+        <v>8</v>
+      </c>
+      <c r="CM8" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3137,7 +3155,7 @@
       </c>
       <c r="B9" s="3">
         <f t="shared" si="0"/>
-        <v>0.91954022988505746</v>
+        <v>0.92045454545454541</v>
       </c>
       <c r="C9">
         <v>7</v>
@@ -3402,6 +3420,9 @@
       </c>
       <c r="CL9" t="s">
         <v>8</v>
+      </c>
+      <c r="CM9" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:91" x14ac:dyDescent="0.25">
@@ -3410,7 +3431,7 @@
       </c>
       <c r="B10" s="3">
         <f t="shared" si="0"/>
-        <v>0.9885057471264368</v>
+        <v>0.98863636363636365</v>
       </c>
       <c r="C10">
         <v>8</v>
@@ -3674,6 +3695,9 @@
         <v>7</v>
       </c>
       <c r="CL10" t="s">
+        <v>7</v>
+      </c>
+      <c r="CM10" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3683,7 +3707,7 @@
       </c>
       <c r="B11" s="3">
         <f t="shared" si="0"/>
-        <v>0.97701149425287359</v>
+        <v>0.97727272727272729</v>
       </c>
       <c r="C11">
         <v>9</v>
@@ -3947,6 +3971,9 @@
         <v>7</v>
       </c>
       <c r="CL11" t="s">
+        <v>7</v>
+      </c>
+      <c r="CM11" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3956,7 +3983,7 @@
       </c>
       <c r="B12" s="3">
         <f t="shared" si="0"/>
-        <v>0.9885057471264368</v>
+        <v>0.98863636363636365</v>
       </c>
       <c r="C12">
         <v>10</v>
@@ -4220,6 +4247,9 @@
         <v>7</v>
       </c>
       <c r="CL12" t="s">
+        <v>7</v>
+      </c>
+      <c r="CM12" t="s">
         <v>7</v>
       </c>
     </row>
@@ -4229,7 +4259,7 @@
       </c>
       <c r="B13" s="3">
         <f t="shared" si="0"/>
-        <v>0.64367816091954022</v>
+        <v>0.63636363636363635</v>
       </c>
       <c r="C13">
         <v>11</v>
@@ -4493,6 +4523,9 @@
         <v>8</v>
       </c>
       <c r="CL13" t="s">
+        <v>8</v>
+      </c>
+      <c r="CM13" t="s">
         <v>8</v>
       </c>
     </row>
@@ -4502,7 +4535,7 @@
       </c>
       <c r="B14" s="3">
         <f t="shared" si="0"/>
-        <v>0.83908045977011492</v>
+        <v>0.82954545454545459</v>
       </c>
       <c r="C14">
         <v>12</v>
@@ -4766,6 +4799,9 @@
         <v>7</v>
       </c>
       <c r="CL14" t="s">
+        <v>8</v>
+      </c>
+      <c r="CM14" t="s">
         <v>8</v>
       </c>
     </row>
@@ -4775,7 +4811,7 @@
       </c>
       <c r="B15" s="3">
         <f t="shared" si="0"/>
-        <v>0.95402298850574707</v>
+        <v>0.95454545454545459</v>
       </c>
       <c r="C15">
         <v>13</v>
@@ -5039,6 +5075,9 @@
         <v>7</v>
       </c>
       <c r="CL15" t="s">
+        <v>7</v>
+      </c>
+      <c r="CM15" t="s">
         <v>7</v>
       </c>
     </row>
@@ -5048,7 +5087,7 @@
       </c>
       <c r="B16" s="3">
         <f t="shared" si="0"/>
-        <v>0.10714285714285714</v>
+        <v>0.10588235294117647</v>
       </c>
       <c r="C16">
         <v>14</v>
@@ -5314,14 +5353,17 @@
       <c r="CL16" t="s">
         <v>8</v>
       </c>
+      <c r="CM16" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="17" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>27</v>
       </c>
       <c r="B17" s="3">
         <f t="shared" si="0"/>
-        <v>0.9885057471264368</v>
+        <v>0.97727272727272729</v>
       </c>
       <c r="C17">
         <v>15</v>
@@ -5587,8 +5629,11 @@
       <c r="CL17" t="s">
         <v>7</v>
       </c>
+      <c r="CM17" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="18" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>28</v>
       </c>
@@ -5860,14 +5905,17 @@
       <c r="CL18" t="s">
         <v>7</v>
       </c>
+      <c r="CM18" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="19" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>30</v>
       </c>
       <c r="B19" s="3">
         <f t="shared" si="0"/>
-        <v>0.96551724137931039</v>
+        <v>0.96590909090909094</v>
       </c>
       <c r="C19">
         <v>17</v>
@@ -6133,14 +6181,17 @@
       <c r="CL19" t="s">
         <v>7</v>
       </c>
+      <c r="CM19" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="20" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>31</v>
       </c>
       <c r="B20" s="3">
         <f t="shared" si="0"/>
-        <v>0.43023255813953487</v>
+        <v>0.42528735632183906</v>
       </c>
       <c r="C20">
         <v>18</v>
@@ -6403,14 +6454,17 @@
       <c r="CK20" t="s">
         <v>8</v>
       </c>
+      <c r="CM20" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="21" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>33</v>
       </c>
       <c r="B21" s="3">
         <f t="shared" si="0"/>
-        <v>0.71264367816091956</v>
+        <v>0.71590909090909094</v>
       </c>
       <c r="C21">
         <v>19</v>
@@ -6676,14 +6730,17 @@
       <c r="CL21" t="s">
         <v>8</v>
       </c>
+      <c r="CM21" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="22" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>48</v>
       </c>
       <c r="B22" s="3">
         <f t="shared" si="0"/>
-        <v>0.9642857142857143</v>
+        <v>0.95294117647058818</v>
       </c>
       <c r="C22">
         <v>20</v>
@@ -6949,8 +7006,11 @@
       <c r="CL22" t="s">
         <v>7</v>
       </c>
+      <c r="CM22" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="23" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>17</v>
       </c>
@@ -7222,14 +7282,17 @@
       <c r="CL23" t="s">
         <v>7</v>
       </c>
+      <c r="CM23" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="24" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>34</v>
       </c>
       <c r="B24" s="3">
         <f t="shared" si="0"/>
-        <v>0.56321839080459768</v>
+        <v>0.55681818181818177</v>
       </c>
       <c r="C24">
         <v>22</v>
@@ -7495,14 +7558,17 @@
       <c r="CL24" t="s">
         <v>8</v>
       </c>
+      <c r="CM24" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="25" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>35</v>
       </c>
       <c r="B25" s="3">
         <f t="shared" si="0"/>
-        <v>0.94252873563218387</v>
+        <v>0.94318181818181823</v>
       </c>
       <c r="C25">
         <v>23</v>
@@ -7768,14 +7834,17 @@
       <c r="CL25" t="s">
         <v>7</v>
       </c>
+      <c r="CM25" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="26" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>36</v>
       </c>
       <c r="B26" s="3">
         <f t="shared" si="0"/>
-        <v>0.81609195402298851</v>
+        <v>0.81818181818181823</v>
       </c>
       <c r="C26">
         <v>24</v>
@@ -8041,14 +8110,17 @@
       <c r="CL26" t="s">
         <v>8</v>
       </c>
+      <c r="CM26" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="27" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>46</v>
       </c>
       <c r="B27" s="3">
         <f t="shared" si="0"/>
-        <v>0.96551724137931039</v>
+        <v>0.96590909090909094</v>
       </c>
       <c r="C27">
         <v>25</v>
@@ -8314,14 +8386,17 @@
       <c r="CL27" t="s">
         <v>7</v>
       </c>
+      <c r="CM27" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="28" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>10</v>
       </c>
       <c r="B28" s="3">
         <f t="shared" si="0"/>
-        <v>0.88095238095238093</v>
+        <v>0.87058823529411766</v>
       </c>
       <c r="C28">
         <v>26</v>
@@ -8587,14 +8662,17 @@
       <c r="CL28" t="s">
         <v>7</v>
       </c>
+      <c r="CM28" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="29" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>38</v>
       </c>
       <c r="B29" s="3">
         <f t="shared" si="0"/>
-        <v>0.95402298850574707</v>
+        <v>0.94318181818181823</v>
       </c>
       <c r="C29">
         <v>27</v>
@@ -8860,14 +8938,17 @@
       <c r="CL29" t="s">
         <v>8</v>
       </c>
+      <c r="CM29" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="30" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>39</v>
       </c>
       <c r="B30" s="3">
         <f t="shared" si="0"/>
-        <v>0.9885057471264368</v>
+        <v>0.97727272727272729</v>
       </c>
       <c r="C30">
         <v>28</v>
@@ -9133,14 +9214,17 @@
       <c r="CL30" t="s">
         <v>7</v>
       </c>
+      <c r="CM30" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="31" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>40</v>
       </c>
       <c r="B31" s="3">
         <f t="shared" si="0"/>
-        <v>0.12643678160919541</v>
+        <v>0.125</v>
       </c>
       <c r="C31">
         <v>29</v>
@@ -9406,14 +9490,17 @@
       <c r="CL31" t="s">
         <v>8</v>
       </c>
+      <c r="CM31" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="32" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>41</v>
       </c>
       <c r="B32" s="3">
         <f t="shared" si="0"/>
-        <v>0.83908045977011492</v>
+        <v>0.82954545454545459</v>
       </c>
       <c r="C32">
         <v>30</v>
@@ -9679,14 +9766,17 @@
       <c r="CL32" t="s">
         <v>7</v>
       </c>
+      <c r="CM32" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="33" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>42</v>
       </c>
       <c r="B33" s="3">
         <f t="shared" si="0"/>
-        <v>0.94252873563218387</v>
+        <v>0.93181818181818177</v>
       </c>
       <c r="C33">
         <v>31</v>
@@ -9952,14 +10042,17 @@
       <c r="CL33" t="s">
         <v>7</v>
       </c>
+      <c r="CM33" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="34" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>49</v>
       </c>
       <c r="B34" s="3">
         <f t="shared" si="0"/>
-        <v>0.86904761904761907</v>
+        <v>0.87058823529411766</v>
       </c>
       <c r="C34">
         <v>32</v>
@@ -10225,14 +10318,17 @@
       <c r="CL34" t="s">
         <v>7</v>
       </c>
+      <c r="CM34" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="35" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>43</v>
       </c>
       <c r="B35" s="3">
         <f t="shared" si="0"/>
-        <v>0.94252873563218387</v>
+        <v>0.94318181818181823</v>
       </c>
       <c r="C35">
         <v>33</v>
@@ -10498,14 +10594,17 @@
       <c r="CL35" t="s">
         <v>7</v>
       </c>
+      <c r="CM35" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="36" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>44</v>
       </c>
       <c r="B36" s="3">
         <f t="shared" si="0"/>
-        <v>0.44827586206896552</v>
+        <v>0.44318181818181818</v>
       </c>
       <c r="C36">
         <v>34</v>
@@ -10771,8 +10870,11 @@
       <c r="CL36" t="s">
         <v>8</v>
       </c>
+      <c r="CM36" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="38" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:91" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>7</v>
       </c>
@@ -10780,7 +10882,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>19</v>
       </c>
@@ -10790,23 +10892,23 @@
       </c>
       <c r="C39">
         <f>COUNTIF($D3:$CZ3,$C$38)</f>
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
-    <row r="40" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>20</v>
       </c>
       <c r="B40">
         <f t="shared" ref="B40:B72" si="1">COUNTIF($D4:$CZ4,$B$38)</f>
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C40">
         <f t="shared" ref="C40:C72" si="2">COUNTIF($D4:$CZ4,$C$38)</f>
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>21</v>
       </c>
@@ -10816,10 +10918,10 @@
       </c>
       <c r="C41">
         <f t="shared" si="2"/>
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
-    <row r="42" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>22</v>
       </c>
@@ -10829,10 +10931,10 @@
       </c>
       <c r="C42">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>23</v>
       </c>
@@ -10842,10 +10944,10 @@
       </c>
       <c r="C43">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>50</v>
       </c>
@@ -10855,55 +10957,55 @@
       </c>
       <c r="C44">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
-    <row r="45" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>24</v>
       </c>
       <c r="B45">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C45">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>25</v>
       </c>
       <c r="B46">
         <f t="shared" si="1"/>
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C46">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>26</v>
       </c>
       <c r="B47">
         <f t="shared" si="1"/>
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C47">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>12</v>
       </c>
       <c r="B48">
         <f t="shared" si="1"/>
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C48">
         <f t="shared" si="2"/>
@@ -10920,7 +11022,7 @@
       </c>
       <c r="C49">
         <f t="shared" si="2"/>
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -10933,7 +11035,7 @@
       </c>
       <c r="C50">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -10942,7 +11044,7 @@
       </c>
       <c r="B51">
         <f t="shared" si="1"/>
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C51">
         <f t="shared" si="2"/>
@@ -10959,7 +11061,7 @@
       </c>
       <c r="C52">
         <f t="shared" si="2"/>
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -10972,7 +11074,7 @@
       </c>
       <c r="C53">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -10981,7 +11083,7 @@
       </c>
       <c r="B54">
         <f t="shared" si="1"/>
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C54">
         <f t="shared" si="2"/>
@@ -10994,7 +11096,7 @@
       </c>
       <c r="B55">
         <f t="shared" si="1"/>
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C55">
         <f t="shared" si="2"/>
@@ -11011,7 +11113,7 @@
       </c>
       <c r="C56">
         <f t="shared" si="2"/>
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -11020,7 +11122,7 @@
       </c>
       <c r="B57">
         <f t="shared" si="1"/>
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C57">
         <f t="shared" si="2"/>
@@ -11037,7 +11139,7 @@
       </c>
       <c r="C58">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -11046,7 +11148,7 @@
       </c>
       <c r="B59">
         <f t="shared" si="1"/>
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C59">
         <f t="shared" si="2"/>
@@ -11063,7 +11165,7 @@
       </c>
       <c r="C60">
         <f t="shared" si="2"/>
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -11072,7 +11174,7 @@
       </c>
       <c r="B61">
         <f t="shared" si="1"/>
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C61">
         <f t="shared" si="2"/>
@@ -11085,7 +11187,7 @@
       </c>
       <c r="B62">
         <f t="shared" si="1"/>
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C62">
         <f t="shared" si="2"/>
@@ -11098,7 +11200,7 @@
       </c>
       <c r="B63">
         <f t="shared" si="1"/>
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C63">
         <f t="shared" si="2"/>
@@ -11115,7 +11217,7 @@
       </c>
       <c r="C64">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -11128,7 +11230,7 @@
       </c>
       <c r="C65">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -11141,7 +11243,7 @@
       </c>
       <c r="C66">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -11154,7 +11256,7 @@
       </c>
       <c r="C67">
         <f t="shared" si="2"/>
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -11167,7 +11269,7 @@
       </c>
       <c r="C68">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -11180,7 +11282,7 @@
       </c>
       <c r="C69">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -11189,7 +11291,7 @@
       </c>
       <c r="B70">
         <f t="shared" si="1"/>
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C70">
         <f t="shared" si="2"/>
@@ -11202,7 +11304,7 @@
       </c>
       <c r="B71">
         <f t="shared" si="1"/>
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C71">
         <f t="shared" si="2"/>
@@ -11219,7 +11321,7 @@
       </c>
       <c r="C72">
         <f t="shared" si="2"/>
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/1des/frequencia.xlsx
+++ b/1des/frequencia.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2023\1des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40A54414-AE0E-4577-923C-D95DD666ADE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6D575C6-18C3-481A-9E26-5018B8C9D5A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3195" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3269" uniqueCount="54">
   <si>
     <t>Alunos</t>
   </si>
@@ -252,7 +252,32 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentagem" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -925,16 +950,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:CM72"/>
+  <dimension ref="A1:CR72"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="BN3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="CJ3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="CK17" sqref="CK17"/>
+      <selection pane="bottomRight" activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="40.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.5703125" bestFit="1" customWidth="1"/>
@@ -944,10 +969,10 @@
     <col min="36" max="52" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="53" max="72" width="6.85546875" bestFit="1" customWidth="1"/>
     <col min="73" max="90" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="91" max="91" width="7" bestFit="1" customWidth="1"/>
+    <col min="91" max="96" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1217,8 +1242,23 @@
       <c r="CM1" s="2">
         <v>45261</v>
       </c>
+      <c r="CN1" s="2">
+        <v>45264</v>
+      </c>
+      <c r="CO1" s="2">
+        <v>45265</v>
+      </c>
+      <c r="CP1" s="2">
+        <v>45266</v>
+      </c>
+      <c r="CQ1" s="2">
+        <v>45267</v>
+      </c>
+      <c r="CR1" s="2">
+        <v>45268</v>
+      </c>
     </row>
-    <row r="2" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1492,14 +1532,29 @@
       <c r="CM2" t="s">
         <v>5</v>
       </c>
+      <c r="CN2" t="s">
+        <v>5</v>
+      </c>
+      <c r="CO2" t="s">
+        <v>6</v>
+      </c>
+      <c r="CP2" t="s">
+        <v>1</v>
+      </c>
+      <c r="CQ2" t="s">
+        <v>4</v>
+      </c>
+      <c r="CR2" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="3" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="3">
         <f>B39/(B39+C39)</f>
-        <v>0.20454545454545456</v>
+        <v>0.2</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -1768,14 +1823,20 @@
       <c r="CM3" t="s">
         <v>8</v>
       </c>
+      <c r="CN3" t="s">
+        <v>8</v>
+      </c>
+      <c r="CO3" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="4" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>20</v>
       </c>
       <c r="B4" s="3">
         <f t="shared" ref="B4:B36" si="0">B40/(B40+C40)</f>
-        <v>0.94318181818181823</v>
+        <v>0.94444444444444442</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -2044,14 +2105,20 @@
       <c r="CM4" t="s">
         <v>7</v>
       </c>
+      <c r="CN4" t="s">
+        <v>7</v>
+      </c>
+      <c r="CO4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="5" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>21</v>
       </c>
       <c r="B5" s="3">
         <f t="shared" si="0"/>
-        <v>3.4090909090909088E-2</v>
+        <v>3.3333333333333333E-2</v>
       </c>
       <c r="C5">
         <v>3</v>
@@ -2320,14 +2387,20 @@
       <c r="CM5" t="s">
         <v>8</v>
       </c>
+      <c r="CN5" t="s">
+        <v>8</v>
+      </c>
+      <c r="CO5" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="6" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>22</v>
       </c>
       <c r="B6" s="3">
         <f t="shared" si="0"/>
-        <v>0.95454545454545459</v>
+        <v>0.94444444444444442</v>
       </c>
       <c r="C6">
         <v>4</v>
@@ -2596,14 +2669,20 @@
       <c r="CM6" t="s">
         <v>8</v>
       </c>
+      <c r="CN6" t="s">
+        <v>8</v>
+      </c>
+      <c r="CO6" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="7" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>23</v>
       </c>
       <c r="B7" s="3">
         <f t="shared" si="0"/>
-        <v>0.98863636363636365</v>
+        <v>0.97777777777777775</v>
       </c>
       <c r="C7">
         <v>5</v>
@@ -2872,14 +2951,20 @@
       <c r="CM7" t="s">
         <v>8</v>
       </c>
+      <c r="CN7" t="s">
+        <v>8</v>
+      </c>
+      <c r="CO7" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="8" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>50</v>
       </c>
       <c r="B8" s="3">
         <f t="shared" si="0"/>
-        <v>0.72941176470588232</v>
+        <v>0.72413793103448276</v>
       </c>
       <c r="C8">
         <v>6</v>
@@ -3148,14 +3233,20 @@
       <c r="CM8" t="s">
         <v>8</v>
       </c>
+      <c r="CN8" t="s">
+        <v>8</v>
+      </c>
+      <c r="CO8" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="9" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>24</v>
       </c>
       <c r="B9" s="3">
         <f t="shared" si="0"/>
-        <v>0.92045454545454541</v>
+        <v>0.92222222222222228</v>
       </c>
       <c r="C9">
         <v>7</v>
@@ -3424,14 +3515,20 @@
       <c r="CM9" t="s">
         <v>7</v>
       </c>
+      <c r="CN9" t="s">
+        <v>7</v>
+      </c>
+      <c r="CO9" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="10" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>25</v>
       </c>
       <c r="B10" s="3">
         <f t="shared" si="0"/>
-        <v>0.98863636363636365</v>
+        <v>0.98888888888888893</v>
       </c>
       <c r="C10">
         <v>8</v>
@@ -3700,14 +3797,20 @@
       <c r="CM10" t="s">
         <v>7</v>
       </c>
+      <c r="CN10" t="s">
+        <v>7</v>
+      </c>
+      <c r="CO10" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="11" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>26</v>
       </c>
       <c r="B11" s="3">
         <f t="shared" si="0"/>
-        <v>0.97727272727272729</v>
+        <v>0.97777777777777775</v>
       </c>
       <c r="C11">
         <v>9</v>
@@ -3976,14 +4079,20 @@
       <c r="CM11" t="s">
         <v>7</v>
       </c>
+      <c r="CN11" t="s">
+        <v>7</v>
+      </c>
+      <c r="CO11" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="12" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="3">
         <f t="shared" si="0"/>
-        <v>0.98863636363636365</v>
+        <v>0.97777777777777775</v>
       </c>
       <c r="C12">
         <v>10</v>
@@ -4252,14 +4361,20 @@
       <c r="CM12" t="s">
         <v>7</v>
       </c>
+      <c r="CN12" t="s">
+        <v>8</v>
+      </c>
+      <c r="CO12" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="13" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="3">
         <f t="shared" si="0"/>
-        <v>0.63636363636363635</v>
+        <v>0.62222222222222223</v>
       </c>
       <c r="C13">
         <v>11</v>
@@ -4528,14 +4643,20 @@
       <c r="CM13" t="s">
         <v>8</v>
       </c>
+      <c r="CN13" t="s">
+        <v>8</v>
+      </c>
+      <c r="CO13" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="14" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>14</v>
       </c>
       <c r="B14" s="3">
         <f t="shared" si="0"/>
-        <v>0.82954545454545459</v>
+        <v>0.82222222222222219</v>
       </c>
       <c r="C14">
         <v>12</v>
@@ -4804,14 +4925,20 @@
       <c r="CM14" t="s">
         <v>8</v>
       </c>
+      <c r="CN14" t="s">
+        <v>8</v>
+      </c>
+      <c r="CO14" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="15" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>16</v>
       </c>
       <c r="B15" s="3">
         <f t="shared" si="0"/>
-        <v>0.95454545454545459</v>
+        <v>0.9555555555555556</v>
       </c>
       <c r="C15">
         <v>13</v>
@@ -5080,14 +5207,20 @@
       <c r="CM15" t="s">
         <v>7</v>
       </c>
+      <c r="CN15" t="s">
+        <v>7</v>
+      </c>
+      <c r="CO15" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="16" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>9</v>
       </c>
       <c r="B16" s="3">
         <f t="shared" si="0"/>
-        <v>0.10588235294117647</v>
+        <v>0.10344827586206896</v>
       </c>
       <c r="C16">
         <v>14</v>
@@ -5356,14 +5489,20 @@
       <c r="CM16" t="s">
         <v>8</v>
       </c>
+      <c r="CN16" t="s">
+        <v>8</v>
+      </c>
+      <c r="CO16" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="17" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>27</v>
       </c>
       <c r="B17" s="3">
         <f t="shared" si="0"/>
-        <v>0.97727272727272729</v>
+        <v>0.97777777777777775</v>
       </c>
       <c r="C17">
         <v>15</v>
@@ -5632,8 +5771,14 @@
       <c r="CM17" t="s">
         <v>8</v>
       </c>
+      <c r="CN17" t="s">
+        <v>7</v>
+      </c>
+      <c r="CO17" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="18" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>28</v>
       </c>
@@ -5908,14 +6053,20 @@
       <c r="CM18" t="s">
         <v>7</v>
       </c>
+      <c r="CN18" t="s">
+        <v>7</v>
+      </c>
+      <c r="CO18" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="19" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>30</v>
       </c>
       <c r="B19" s="3">
         <f t="shared" si="0"/>
-        <v>0.96590909090909094</v>
+        <v>0.96666666666666667</v>
       </c>
       <c r="C19">
         <v>17</v>
@@ -6184,14 +6335,20 @@
       <c r="CM19" t="s">
         <v>7</v>
       </c>
+      <c r="CN19" t="s">
+        <v>7</v>
+      </c>
+      <c r="CO19" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="20" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>31</v>
       </c>
       <c r="B20" s="3">
         <f t="shared" si="0"/>
-        <v>0.42528735632183906</v>
+        <v>0.41111111111111109</v>
       </c>
       <c r="C20">
         <v>18</v>
@@ -6454,17 +6611,26 @@
       <c r="CK20" t="s">
         <v>8</v>
       </c>
+      <c r="CL20" t="s">
+        <v>8</v>
+      </c>
       <c r="CM20" t="s">
         <v>8</v>
       </c>
+      <c r="CN20" t="s">
+        <v>8</v>
+      </c>
+      <c r="CO20" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="21" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>33</v>
       </c>
       <c r="B21" s="3">
         <f t="shared" si="0"/>
-        <v>0.71590909090909094</v>
+        <v>0.72222222222222221</v>
       </c>
       <c r="C21">
         <v>19</v>
@@ -6733,14 +6899,20 @@
       <c r="CM21" t="s">
         <v>7</v>
       </c>
+      <c r="CN21" t="s">
+        <v>7</v>
+      </c>
+      <c r="CO21" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="22" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>48</v>
       </c>
       <c r="B22" s="3">
         <f t="shared" si="0"/>
-        <v>0.95294117647058818</v>
+        <v>0.95402298850574707</v>
       </c>
       <c r="C22">
         <v>20</v>
@@ -7009,8 +7181,14 @@
       <c r="CM22" t="s">
         <v>8</v>
       </c>
+      <c r="CN22" t="s">
+        <v>7</v>
+      </c>
+      <c r="CO22" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="23" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>17</v>
       </c>
@@ -7285,14 +7463,20 @@
       <c r="CM23" t="s">
         <v>7</v>
       </c>
+      <c r="CN23" t="s">
+        <v>7</v>
+      </c>
+      <c r="CO23" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="24" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>34</v>
       </c>
       <c r="B24" s="3">
         <f t="shared" si="0"/>
-        <v>0.55681818181818177</v>
+        <v>0.5444444444444444</v>
       </c>
       <c r="C24">
         <v>22</v>
@@ -7561,14 +7745,20 @@
       <c r="CM24" t="s">
         <v>8</v>
       </c>
+      <c r="CN24" t="s">
+        <v>8</v>
+      </c>
+      <c r="CO24" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="25" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>35</v>
       </c>
       <c r="B25" s="3">
         <f t="shared" si="0"/>
-        <v>0.94318181818181823</v>
+        <v>0.94444444444444442</v>
       </c>
       <c r="C25">
         <v>23</v>
@@ -7837,14 +8027,20 @@
       <c r="CM25" t="s">
         <v>7</v>
       </c>
+      <c r="CN25" t="s">
+        <v>7</v>
+      </c>
+      <c r="CO25" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="26" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>36</v>
       </c>
       <c r="B26" s="3">
         <f t="shared" si="0"/>
-        <v>0.81818181818181823</v>
+        <v>0.82222222222222219</v>
       </c>
       <c r="C26">
         <v>24</v>
@@ -8113,14 +8309,20 @@
       <c r="CM26" t="s">
         <v>7</v>
       </c>
+      <c r="CN26" t="s">
+        <v>7</v>
+      </c>
+      <c r="CO26" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="27" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>46</v>
       </c>
       <c r="B27" s="3">
         <f t="shared" si="0"/>
-        <v>0.96590909090909094</v>
+        <v>0.96666666666666667</v>
       </c>
       <c r="C27">
         <v>25</v>
@@ -8389,14 +8591,20 @@
       <c r="CM27" t="s">
         <v>7</v>
       </c>
+      <c r="CN27" t="s">
+        <v>7</v>
+      </c>
+      <c r="CO27" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="28" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>10</v>
       </c>
       <c r="B28" s="3">
         <f t="shared" si="0"/>
-        <v>0.87058823529411766</v>
+        <v>0.86206896551724133</v>
       </c>
       <c r="C28">
         <v>26</v>
@@ -8665,14 +8873,20 @@
       <c r="CM28" t="s">
         <v>8</v>
       </c>
+      <c r="CN28" t="s">
+        <v>8</v>
+      </c>
+      <c r="CO28" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="29" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>38</v>
       </c>
       <c r="B29" s="3">
         <f t="shared" si="0"/>
-        <v>0.94318181818181823</v>
+        <v>0.94444444444444442</v>
       </c>
       <c r="C29">
         <v>27</v>
@@ -8941,14 +9155,20 @@
       <c r="CM29" t="s">
         <v>8</v>
       </c>
+      <c r="CN29" t="s">
+        <v>7</v>
+      </c>
+      <c r="CO29" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="30" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>39</v>
       </c>
       <c r="B30" s="3">
         <f t="shared" si="0"/>
-        <v>0.97727272727272729</v>
+        <v>0.97777777777777775</v>
       </c>
       <c r="C30">
         <v>28</v>
@@ -9217,14 +9437,20 @@
       <c r="CM30" t="s">
         <v>8</v>
       </c>
+      <c r="CN30" t="s">
+        <v>7</v>
+      </c>
+      <c r="CO30" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="31" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>40</v>
       </c>
       <c r="B31" s="3">
         <f t="shared" si="0"/>
-        <v>0.125</v>
+        <v>0.12222222222222222</v>
       </c>
       <c r="C31">
         <v>29</v>
@@ -9493,14 +9719,20 @@
       <c r="CM31" t="s">
         <v>8</v>
       </c>
+      <c r="CN31" t="s">
+        <v>8</v>
+      </c>
+      <c r="CO31" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="32" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>41</v>
       </c>
       <c r="B32" s="3">
         <f t="shared" si="0"/>
-        <v>0.82954545454545459</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="C32">
         <v>30</v>
@@ -9769,14 +10001,20 @@
       <c r="CM32" t="s">
         <v>8</v>
       </c>
+      <c r="CN32" t="s">
+        <v>7</v>
+      </c>
+      <c r="CO32" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="33" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>42</v>
       </c>
       <c r="B33" s="3">
         <f t="shared" si="0"/>
-        <v>0.93181818181818177</v>
+        <v>0.93333333333333335</v>
       </c>
       <c r="C33">
         <v>31</v>
@@ -10045,14 +10283,20 @@
       <c r="CM33" t="s">
         <v>8</v>
       </c>
+      <c r="CN33" t="s">
+        <v>7</v>
+      </c>
+      <c r="CO33" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="34" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>49</v>
       </c>
       <c r="B34" s="3">
         <f t="shared" si="0"/>
-        <v>0.87058823529411766</v>
+        <v>0.87356321839080464</v>
       </c>
       <c r="C34">
         <v>32</v>
@@ -10321,14 +10565,20 @@
       <c r="CM34" t="s">
         <v>7</v>
       </c>
+      <c r="CN34" t="s">
+        <v>7</v>
+      </c>
+      <c r="CO34" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="35" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>43</v>
       </c>
       <c r="B35" s="3">
         <f t="shared" si="0"/>
-        <v>0.94318181818181823</v>
+        <v>0.94444444444444442</v>
       </c>
       <c r="C35">
         <v>33</v>
@@ -10597,14 +10847,20 @@
       <c r="CM35" t="s">
         <v>7</v>
       </c>
+      <c r="CN35" t="s">
+        <v>7</v>
+      </c>
+      <c r="CO35" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="36" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>44</v>
       </c>
       <c r="B36" s="3">
         <f t="shared" si="0"/>
-        <v>0.44318181818181818</v>
+        <v>0.43333333333333335</v>
       </c>
       <c r="C36">
         <v>34</v>
@@ -10873,8 +11129,14 @@
       <c r="CM36" t="s">
         <v>8</v>
       </c>
+      <c r="CN36" t="s">
+        <v>8</v>
+      </c>
+      <c r="CO36" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="38" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:93" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>7</v>
       </c>
@@ -10882,7 +11144,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>19</v>
       </c>
@@ -10892,23 +11154,23 @@
       </c>
       <c r="C39">
         <f>COUNTIF($D3:$CZ3,$C$38)</f>
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
-    <row r="40" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>20</v>
       </c>
       <c r="B40">
         <f t="shared" ref="B40:B72" si="1">COUNTIF($D4:$CZ4,$B$38)</f>
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C40">
         <f t="shared" ref="C40:C72" si="2">COUNTIF($D4:$CZ4,$C$38)</f>
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>21</v>
       </c>
@@ -10918,98 +11180,98 @@
       </c>
       <c r="C41">
         <f t="shared" si="2"/>
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
-    <row r="42" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>22</v>
       </c>
       <c r="B42">
         <f t="shared" si="1"/>
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C42">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>23</v>
       </c>
       <c r="B43">
         <f t="shared" si="1"/>
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C43">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>50</v>
       </c>
       <c r="B44">
         <f t="shared" si="1"/>
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C44">
         <f t="shared" si="2"/>
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
-    <row r="45" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>24</v>
       </c>
       <c r="B45">
         <f t="shared" si="1"/>
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C45">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>25</v>
       </c>
       <c r="B46">
         <f t="shared" si="1"/>
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C46">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>26</v>
       </c>
       <c r="B47">
         <f t="shared" si="1"/>
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C47">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>12</v>
       </c>
       <c r="B48">
         <f t="shared" si="1"/>
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C48">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -11022,7 +11284,7 @@
       </c>
       <c r="C49">
         <f t="shared" si="2"/>
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -11031,11 +11293,11 @@
       </c>
       <c r="B50">
         <f t="shared" si="1"/>
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C50">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -11044,7 +11306,7 @@
       </c>
       <c r="B51">
         <f t="shared" si="1"/>
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C51">
         <f t="shared" si="2"/>
@@ -11061,7 +11323,7 @@
       </c>
       <c r="C52">
         <f t="shared" si="2"/>
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -11070,7 +11332,7 @@
       </c>
       <c r="B53">
         <f t="shared" si="1"/>
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C53">
         <f t="shared" si="2"/>
@@ -11083,7 +11345,7 @@
       </c>
       <c r="B54">
         <f t="shared" si="1"/>
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C54">
         <f t="shared" si="2"/>
@@ -11096,7 +11358,7 @@
       </c>
       <c r="B55">
         <f t="shared" si="1"/>
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C55">
         <f t="shared" si="2"/>
@@ -11113,7 +11375,7 @@
       </c>
       <c r="C56">
         <f t="shared" si="2"/>
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -11122,7 +11384,7 @@
       </c>
       <c r="B57">
         <f t="shared" si="1"/>
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C57">
         <f t="shared" si="2"/>
@@ -11135,7 +11397,7 @@
       </c>
       <c r="B58">
         <f t="shared" si="1"/>
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C58">
         <f t="shared" si="2"/>
@@ -11148,7 +11410,7 @@
       </c>
       <c r="B59">
         <f t="shared" si="1"/>
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C59">
         <f t="shared" si="2"/>
@@ -11165,7 +11427,7 @@
       </c>
       <c r="C60">
         <f t="shared" si="2"/>
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -11174,7 +11436,7 @@
       </c>
       <c r="B61">
         <f t="shared" si="1"/>
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C61">
         <f t="shared" si="2"/>
@@ -11187,7 +11449,7 @@
       </c>
       <c r="B62">
         <f t="shared" si="1"/>
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C62">
         <f t="shared" si="2"/>
@@ -11200,7 +11462,7 @@
       </c>
       <c r="B63">
         <f t="shared" si="1"/>
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C63">
         <f t="shared" si="2"/>
@@ -11213,11 +11475,11 @@
       </c>
       <c r="B64">
         <f t="shared" si="1"/>
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C64">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -11226,7 +11488,7 @@
       </c>
       <c r="B65">
         <f t="shared" si="1"/>
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C65">
         <f t="shared" si="2"/>
@@ -11239,7 +11501,7 @@
       </c>
       <c r="B66">
         <f t="shared" si="1"/>
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C66">
         <f t="shared" si="2"/>
@@ -11256,7 +11518,7 @@
       </c>
       <c r="C67">
         <f t="shared" si="2"/>
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -11265,7 +11527,7 @@
       </c>
       <c r="B68">
         <f t="shared" si="1"/>
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C68">
         <f t="shared" si="2"/>
@@ -11278,7 +11540,7 @@
       </c>
       <c r="B69">
         <f t="shared" si="1"/>
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C69">
         <f t="shared" si="2"/>
@@ -11291,7 +11553,7 @@
       </c>
       <c r="B70">
         <f t="shared" si="1"/>
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C70">
         <f t="shared" si="2"/>
@@ -11304,7 +11566,7 @@
       </c>
       <c r="B71">
         <f t="shared" si="1"/>
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C71">
         <f t="shared" si="2"/>
@@ -11321,7 +11583,7 @@
       </c>
       <c r="C72">
         <f t="shared" si="2"/>
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -11332,11 +11594,16 @@
     <mergeCell ref="A1:C1"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3:B36">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+      <formula>0.75</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/1des/frequencia.xlsx
+++ b/1des/frequencia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2023\1des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6D575C6-18C3-481A-9E26-5018B8C9D5A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF3AE472-DD90-4876-9C14-269AC90ED2EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3269" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3337" uniqueCount="54">
   <si>
     <t>Alunos</t>
   </si>
@@ -252,22 +252,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentagem" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -956,7 +941,7 @@
       <pane xSplit="3" ySplit="2" topLeftCell="CJ3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B31" sqref="B31"/>
+      <selection pane="bottomRight" activeCell="CP35" sqref="CP35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1554,7 +1539,7 @@
       </c>
       <c r="B3" s="3">
         <f>B39/(B39+C39)</f>
-        <v>0.2</v>
+        <v>0.19565217391304349</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -1827,6 +1812,12 @@
         <v>8</v>
       </c>
       <c r="CO3" t="s">
+        <v>8</v>
+      </c>
+      <c r="CP3" t="s">
+        <v>8</v>
+      </c>
+      <c r="CQ3" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1836,7 +1827,7 @@
       </c>
       <c r="B4" s="3">
         <f t="shared" ref="B4:B36" si="0">B40/(B40+C40)</f>
-        <v>0.94444444444444442</v>
+        <v>0.94565217391304346</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -2109,6 +2100,12 @@
         <v>7</v>
       </c>
       <c r="CO4" t="s">
+        <v>7</v>
+      </c>
+      <c r="CP4" t="s">
+        <v>7</v>
+      </c>
+      <c r="CQ4" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2118,7 +2115,7 @@
       </c>
       <c r="B5" s="3">
         <f t="shared" si="0"/>
-        <v>3.3333333333333333E-2</v>
+        <v>3.2608695652173912E-2</v>
       </c>
       <c r="C5">
         <v>3</v>
@@ -2391,6 +2388,12 @@
         <v>8</v>
       </c>
       <c r="CO5" t="s">
+        <v>8</v>
+      </c>
+      <c r="CP5" t="s">
+        <v>8</v>
+      </c>
+      <c r="CQ5" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2400,7 +2403,7 @@
       </c>
       <c r="B6" s="3">
         <f t="shared" si="0"/>
-        <v>0.94444444444444442</v>
+        <v>0.94565217391304346</v>
       </c>
       <c r="C6">
         <v>4</v>
@@ -2673,6 +2676,12 @@
         <v>8</v>
       </c>
       <c r="CO6" t="s">
+        <v>7</v>
+      </c>
+      <c r="CP6" t="s">
+        <v>7</v>
+      </c>
+      <c r="CQ6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2682,7 +2691,7 @@
       </c>
       <c r="B7" s="3">
         <f t="shared" si="0"/>
-        <v>0.97777777777777775</v>
+        <v>0.97826086956521741</v>
       </c>
       <c r="C7">
         <v>5</v>
@@ -2955,6 +2964,12 @@
         <v>8</v>
       </c>
       <c r="CO7" t="s">
+        <v>7</v>
+      </c>
+      <c r="CP7" t="s">
+        <v>7</v>
+      </c>
+      <c r="CQ7" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2964,7 +2979,7 @@
       </c>
       <c r="B8" s="3">
         <f t="shared" si="0"/>
-        <v>0.72413793103448276</v>
+        <v>0.7191011235955056</v>
       </c>
       <c r="C8">
         <v>6</v>
@@ -3238,6 +3253,12 @@
       </c>
       <c r="CO8" t="s">
         <v>7</v>
+      </c>
+      <c r="CP8" t="s">
+        <v>7</v>
+      </c>
+      <c r="CQ8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:96" x14ac:dyDescent="0.25">
@@ -3246,7 +3267,7 @@
       </c>
       <c r="B9" s="3">
         <f t="shared" si="0"/>
-        <v>0.92222222222222228</v>
+        <v>0.92391304347826086</v>
       </c>
       <c r="C9">
         <v>7</v>
@@ -3519,6 +3540,12 @@
         <v>7</v>
       </c>
       <c r="CO9" t="s">
+        <v>7</v>
+      </c>
+      <c r="CP9" t="s">
+        <v>7</v>
+      </c>
+      <c r="CQ9" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3528,7 +3555,7 @@
       </c>
       <c r="B10" s="3">
         <f t="shared" si="0"/>
-        <v>0.98888888888888893</v>
+        <v>0.98913043478260865</v>
       </c>
       <c r="C10">
         <v>8</v>
@@ -3801,6 +3828,12 @@
         <v>7</v>
       </c>
       <c r="CO10" t="s">
+        <v>7</v>
+      </c>
+      <c r="CP10" t="s">
+        <v>7</v>
+      </c>
+      <c r="CQ10" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3810,7 +3843,7 @@
       </c>
       <c r="B11" s="3">
         <f t="shared" si="0"/>
-        <v>0.97777777777777775</v>
+        <v>0.97826086956521741</v>
       </c>
       <c r="C11">
         <v>9</v>
@@ -4083,6 +4116,12 @@
         <v>7</v>
       </c>
       <c r="CO11" t="s">
+        <v>7</v>
+      </c>
+      <c r="CP11" t="s">
+        <v>7</v>
+      </c>
+      <c r="CQ11" t="s">
         <v>7</v>
       </c>
     </row>
@@ -4092,7 +4131,7 @@
       </c>
       <c r="B12" s="3">
         <f t="shared" si="0"/>
-        <v>0.97777777777777775</v>
+        <v>0.97826086956521741</v>
       </c>
       <c r="C12">
         <v>10</v>
@@ -4365,6 +4404,12 @@
         <v>8</v>
       </c>
       <c r="CO12" t="s">
+        <v>7</v>
+      </c>
+      <c r="CP12" t="s">
+        <v>7</v>
+      </c>
+      <c r="CQ12" t="s">
         <v>7</v>
       </c>
     </row>
@@ -4374,7 +4419,7 @@
       </c>
       <c r="B13" s="3">
         <f t="shared" si="0"/>
-        <v>0.62222222222222223</v>
+        <v>0.60869565217391308</v>
       </c>
       <c r="C13">
         <v>11</v>
@@ -4647,6 +4692,12 @@
         <v>8</v>
       </c>
       <c r="CO13" t="s">
+        <v>8</v>
+      </c>
+      <c r="CP13" t="s">
+        <v>8</v>
+      </c>
+      <c r="CQ13" t="s">
         <v>8</v>
       </c>
     </row>
@@ -4656,7 +4707,7 @@
       </c>
       <c r="B14" s="3">
         <f t="shared" si="0"/>
-        <v>0.82222222222222219</v>
+        <v>0.82608695652173914</v>
       </c>
       <c r="C14">
         <v>12</v>
@@ -4929,6 +4980,12 @@
         <v>8</v>
       </c>
       <c r="CO14" t="s">
+        <v>7</v>
+      </c>
+      <c r="CP14" t="s">
+        <v>7</v>
+      </c>
+      <c r="CQ14" t="s">
         <v>7</v>
       </c>
     </row>
@@ -4938,7 +4995,7 @@
       </c>
       <c r="B15" s="3">
         <f t="shared" si="0"/>
-        <v>0.9555555555555556</v>
+        <v>0.95652173913043481</v>
       </c>
       <c r="C15">
         <v>13</v>
@@ -5211,6 +5268,12 @@
         <v>7</v>
       </c>
       <c r="CO15" t="s">
+        <v>7</v>
+      </c>
+      <c r="CP15" t="s">
+        <v>7</v>
+      </c>
+      <c r="CQ15" t="s">
         <v>7</v>
       </c>
     </row>
@@ -5220,7 +5283,7 @@
       </c>
       <c r="B16" s="3">
         <f t="shared" si="0"/>
-        <v>0.10344827586206896</v>
+        <v>0.10112359550561797</v>
       </c>
       <c r="C16">
         <v>14</v>
@@ -5495,14 +5558,20 @@
       <c r="CO16" t="s">
         <v>8</v>
       </c>
+      <c r="CP16" t="s">
+        <v>8</v>
+      </c>
+      <c r="CQ16" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="17" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>27</v>
       </c>
       <c r="B17" s="3">
         <f t="shared" si="0"/>
-        <v>0.97777777777777775</v>
+        <v>0.97826086956521741</v>
       </c>
       <c r="C17">
         <v>15</v>
@@ -5777,8 +5846,14 @@
       <c r="CO17" t="s">
         <v>7</v>
       </c>
+      <c r="CP17" t="s">
+        <v>7</v>
+      </c>
+      <c r="CQ17" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="18" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>28</v>
       </c>
@@ -6059,14 +6134,20 @@
       <c r="CO18" t="s">
         <v>7</v>
       </c>
+      <c r="CP18" t="s">
+        <v>7</v>
+      </c>
+      <c r="CQ18" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="19" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>30</v>
       </c>
       <c r="B19" s="3">
         <f t="shared" si="0"/>
-        <v>0.96666666666666667</v>
+        <v>0.96739130434782605</v>
       </c>
       <c r="C19">
         <v>17</v>
@@ -6341,14 +6422,20 @@
       <c r="CO19" t="s">
         <v>7</v>
       </c>
+      <c r="CP19" t="s">
+        <v>7</v>
+      </c>
+      <c r="CQ19" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="20" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>31</v>
       </c>
       <c r="B20" s="3">
         <f t="shared" si="0"/>
-        <v>0.41111111111111109</v>
+        <v>0.40217391304347827</v>
       </c>
       <c r="C20">
         <v>18</v>
@@ -6623,14 +6710,20 @@
       <c r="CO20" t="s">
         <v>8</v>
       </c>
+      <c r="CP20" t="s">
+        <v>8</v>
+      </c>
+      <c r="CQ20" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="21" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>33</v>
       </c>
       <c r="B21" s="3">
         <f t="shared" si="0"/>
-        <v>0.72222222222222221</v>
+        <v>0.72826086956521741</v>
       </c>
       <c r="C21">
         <v>19</v>
@@ -6905,14 +6998,20 @@
       <c r="CO21" t="s">
         <v>7</v>
       </c>
+      <c r="CP21" t="s">
+        <v>7</v>
+      </c>
+      <c r="CQ21" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="22" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>48</v>
       </c>
       <c r="B22" s="3">
         <f t="shared" si="0"/>
-        <v>0.95402298850574707</v>
+        <v>0.9550561797752809</v>
       </c>
       <c r="C22">
         <v>20</v>
@@ -7187,8 +7286,14 @@
       <c r="CO22" t="s">
         <v>7</v>
       </c>
+      <c r="CP22" t="s">
+        <v>7</v>
+      </c>
+      <c r="CQ22" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="23" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>17</v>
       </c>
@@ -7469,14 +7574,20 @@
       <c r="CO23" t="s">
         <v>7</v>
       </c>
+      <c r="CP23" t="s">
+        <v>7</v>
+      </c>
+      <c r="CQ23" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="24" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>34</v>
       </c>
       <c r="B24" s="3">
         <f t="shared" si="0"/>
-        <v>0.5444444444444444</v>
+        <v>0.53260869565217395</v>
       </c>
       <c r="C24">
         <v>22</v>
@@ -7751,14 +7862,20 @@
       <c r="CO24" t="s">
         <v>8</v>
       </c>
+      <c r="CP24" t="s">
+        <v>8</v>
+      </c>
+      <c r="CQ24" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="25" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>35</v>
       </c>
       <c r="B25" s="3">
         <f t="shared" si="0"/>
-        <v>0.94444444444444442</v>
+        <v>0.94565217391304346</v>
       </c>
       <c r="C25">
         <v>23</v>
@@ -8033,14 +8150,20 @@
       <c r="CO25" t="s">
         <v>7</v>
       </c>
+      <c r="CP25" t="s">
+        <v>7</v>
+      </c>
+      <c r="CQ25" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="26" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>36</v>
       </c>
       <c r="B26" s="3">
         <f t="shared" si="0"/>
-        <v>0.82222222222222219</v>
+        <v>0.82608695652173914</v>
       </c>
       <c r="C26">
         <v>24</v>
@@ -8315,14 +8438,20 @@
       <c r="CO26" t="s">
         <v>7</v>
       </c>
+      <c r="CP26" t="s">
+        <v>7</v>
+      </c>
+      <c r="CQ26" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="27" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>46</v>
       </c>
       <c r="B27" s="3">
         <f t="shared" si="0"/>
-        <v>0.96666666666666667</v>
+        <v>0.96739130434782605</v>
       </c>
       <c r="C27">
         <v>25</v>
@@ -8597,14 +8726,20 @@
       <c r="CO27" t="s">
         <v>7</v>
       </c>
+      <c r="CP27" t="s">
+        <v>7</v>
+      </c>
+      <c r="CQ27" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="28" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>10</v>
       </c>
       <c r="B28" s="3">
         <f t="shared" si="0"/>
-        <v>0.86206896551724133</v>
+        <v>0.8539325842696629</v>
       </c>
       <c r="C28">
         <v>26</v>
@@ -8879,14 +9014,20 @@
       <c r="CO28" t="s">
         <v>7</v>
       </c>
+      <c r="CP28" t="s">
+        <v>7</v>
+      </c>
+      <c r="CQ28" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="29" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>38</v>
       </c>
       <c r="B29" s="3">
         <f t="shared" si="0"/>
-        <v>0.94444444444444442</v>
+        <v>0.94565217391304346</v>
       </c>
       <c r="C29">
         <v>27</v>
@@ -9161,14 +9302,20 @@
       <c r="CO29" t="s">
         <v>7</v>
       </c>
+      <c r="CP29" t="s">
+        <v>7</v>
+      </c>
+      <c r="CQ29" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="30" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>39</v>
       </c>
       <c r="B30" s="3">
         <f t="shared" si="0"/>
-        <v>0.97777777777777775</v>
+        <v>0.97826086956521741</v>
       </c>
       <c r="C30">
         <v>28</v>
@@ -9443,14 +9590,20 @@
       <c r="CO30" t="s">
         <v>7</v>
       </c>
+      <c r="CP30" t="s">
+        <v>7</v>
+      </c>
+      <c r="CQ30" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="31" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>40</v>
       </c>
       <c r="B31" s="3">
         <f t="shared" si="0"/>
-        <v>0.12222222222222222</v>
+        <v>0.11956521739130435</v>
       </c>
       <c r="C31">
         <v>29</v>
@@ -9725,14 +9878,20 @@
       <c r="CO31" t="s">
         <v>8</v>
       </c>
+      <c r="CP31" t="s">
+        <v>8</v>
+      </c>
+      <c r="CQ31" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="32" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>41</v>
       </c>
       <c r="B32" s="3">
         <f t="shared" si="0"/>
-        <v>0.83333333333333337</v>
+        <v>0.82608695652173914</v>
       </c>
       <c r="C32">
         <v>30</v>
@@ -10007,14 +10166,20 @@
       <c r="CO32" t="s">
         <v>7</v>
       </c>
+      <c r="CP32" t="s">
+        <v>7</v>
+      </c>
+      <c r="CQ32" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="33" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>42</v>
       </c>
       <c r="B33" s="3">
         <f t="shared" si="0"/>
-        <v>0.93333333333333335</v>
+        <v>0.93478260869565222</v>
       </c>
       <c r="C33">
         <v>31</v>
@@ -10289,14 +10454,20 @@
       <c r="CO33" t="s">
         <v>7</v>
       </c>
+      <c r="CP33" t="s">
+        <v>7</v>
+      </c>
+      <c r="CQ33" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="34" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>49</v>
       </c>
       <c r="B34" s="3">
         <f t="shared" si="0"/>
-        <v>0.87356321839080464</v>
+        <v>0.8764044943820225</v>
       </c>
       <c r="C34">
         <v>32</v>
@@ -10571,14 +10742,20 @@
       <c r="CO34" t="s">
         <v>7</v>
       </c>
+      <c r="CP34" t="s">
+        <v>7</v>
+      </c>
+      <c r="CQ34" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="35" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>43</v>
       </c>
       <c r="B35" s="3">
         <f t="shared" si="0"/>
-        <v>0.94444444444444442</v>
+        <v>0.94565217391304346</v>
       </c>
       <c r="C35">
         <v>33</v>
@@ -10853,14 +11030,20 @@
       <c r="CO35" t="s">
         <v>7</v>
       </c>
+      <c r="CP35" t="s">
+        <v>7</v>
+      </c>
+      <c r="CQ35" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="36" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>44</v>
       </c>
       <c r="B36" s="3">
         <f t="shared" si="0"/>
-        <v>0.43333333333333335</v>
+        <v>0.42391304347826086</v>
       </c>
       <c r="C36">
         <v>34</v>
@@ -11135,8 +11318,14 @@
       <c r="CO36" t="s">
         <v>8</v>
       </c>
+      <c r="CP36" t="s">
+        <v>8</v>
+      </c>
+      <c r="CQ36" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="38" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:95" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>7</v>
       </c>
@@ -11144,7 +11333,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>19</v>
       </c>
@@ -11154,23 +11343,23 @@
       </c>
       <c r="C39">
         <f>COUNTIF($D3:$CZ3,$C$38)</f>
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
-    <row r="40" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>20</v>
       </c>
       <c r="B40">
         <f t="shared" ref="B40:B72" si="1">COUNTIF($D4:$CZ4,$B$38)</f>
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C40">
         <f t="shared" ref="C40:C72" si="2">COUNTIF($D4:$CZ4,$C$38)</f>
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>21</v>
       </c>
@@ -11180,94 +11369,94 @@
       </c>
       <c r="C41">
         <f t="shared" si="2"/>
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
-    <row r="42" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>22</v>
       </c>
       <c r="B42">
         <f t="shared" si="1"/>
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C42">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>23</v>
       </c>
       <c r="B43">
         <f t="shared" si="1"/>
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C43">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>50</v>
       </c>
       <c r="B44">
         <f t="shared" si="1"/>
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C44">
         <f t="shared" si="2"/>
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
-    <row r="45" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>24</v>
       </c>
       <c r="B45">
         <f t="shared" si="1"/>
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C45">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>25</v>
       </c>
       <c r="B46">
         <f t="shared" si="1"/>
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C46">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>26</v>
       </c>
       <c r="B47">
         <f t="shared" si="1"/>
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C47">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>12</v>
       </c>
       <c r="B48">
         <f t="shared" si="1"/>
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C48">
         <f t="shared" si="2"/>
@@ -11284,7 +11473,7 @@
       </c>
       <c r="C49">
         <f t="shared" si="2"/>
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -11293,7 +11482,7 @@
       </c>
       <c r="B50">
         <f t="shared" si="1"/>
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C50">
         <f t="shared" si="2"/>
@@ -11306,7 +11495,7 @@
       </c>
       <c r="B51">
         <f t="shared" si="1"/>
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C51">
         <f t="shared" si="2"/>
@@ -11323,7 +11512,7 @@
       </c>
       <c r="C52">
         <f t="shared" si="2"/>
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -11332,7 +11521,7 @@
       </c>
       <c r="B53">
         <f t="shared" si="1"/>
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C53">
         <f t="shared" si="2"/>
@@ -11345,7 +11534,7 @@
       </c>
       <c r="B54">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C54">
         <f t="shared" si="2"/>
@@ -11358,7 +11547,7 @@
       </c>
       <c r="B55">
         <f t="shared" si="1"/>
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C55">
         <f t="shared" si="2"/>
@@ -11375,7 +11564,7 @@
       </c>
       <c r="C56">
         <f t="shared" si="2"/>
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -11384,7 +11573,7 @@
       </c>
       <c r="B57">
         <f t="shared" si="1"/>
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C57">
         <f t="shared" si="2"/>
@@ -11397,7 +11586,7 @@
       </c>
       <c r="B58">
         <f t="shared" si="1"/>
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C58">
         <f t="shared" si="2"/>
@@ -11410,7 +11599,7 @@
       </c>
       <c r="B59">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C59">
         <f t="shared" si="2"/>
@@ -11427,7 +11616,7 @@
       </c>
       <c r="C60">
         <f t="shared" si="2"/>
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -11436,7 +11625,7 @@
       </c>
       <c r="B61">
         <f t="shared" si="1"/>
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C61">
         <f t="shared" si="2"/>
@@ -11449,7 +11638,7 @@
       </c>
       <c r="B62">
         <f t="shared" si="1"/>
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C62">
         <f t="shared" si="2"/>
@@ -11462,7 +11651,7 @@
       </c>
       <c r="B63">
         <f t="shared" si="1"/>
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C63">
         <f t="shared" si="2"/>
@@ -11475,11 +11664,11 @@
       </c>
       <c r="B64">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C64">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -11488,7 +11677,7 @@
       </c>
       <c r="B65">
         <f t="shared" si="1"/>
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C65">
         <f t="shared" si="2"/>
@@ -11501,7 +11690,7 @@
       </c>
       <c r="B66">
         <f t="shared" si="1"/>
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C66">
         <f t="shared" si="2"/>
@@ -11518,7 +11707,7 @@
       </c>
       <c r="C67">
         <f t="shared" si="2"/>
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -11527,11 +11716,11 @@
       </c>
       <c r="B68">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C68">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -11540,7 +11729,7 @@
       </c>
       <c r="B69">
         <f t="shared" si="1"/>
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C69">
         <f t="shared" si="2"/>
@@ -11553,7 +11742,7 @@
       </c>
       <c r="B70">
         <f t="shared" si="1"/>
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C70">
         <f t="shared" si="2"/>
@@ -11566,7 +11755,7 @@
       </c>
       <c r="B71">
         <f t="shared" si="1"/>
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C71">
         <f t="shared" si="2"/>
@@ -11583,7 +11772,7 @@
       </c>
       <c r="C72">
         <f t="shared" si="2"/>
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -11594,10 +11783,10 @@
     <mergeCell ref="A1:C1"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/1des/frequencia.xlsx
+++ b/1des/frequencia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2023\1des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF3AE472-DD90-4876-9C14-269AC90ED2EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67DFBEF2-970F-47C6-82A5-060CCD17551D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="todos" sheetId="2" r:id="rId1"/>
@@ -21,12 +21,23 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3337" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3410" uniqueCount="54">
   <si>
     <t>Alunos</t>
   </si>
@@ -935,13 +946,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:CR72"/>
+  <dimension ref="A1:CW72"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="CJ3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="CP35" sqref="CP35"/>
+      <selection pane="bottomRight" activeCell="CS36" sqref="CS36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -954,10 +965,10 @@
     <col min="36" max="52" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="53" max="72" width="6.85546875" bestFit="1" customWidth="1"/>
     <col min="73" max="90" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="91" max="96" width="7" bestFit="1" customWidth="1"/>
+    <col min="91" max="97" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1242,8 +1253,23 @@
       <c r="CR1" s="2">
         <v>45268</v>
       </c>
+      <c r="CS1" s="2">
+        <v>45271</v>
+      </c>
+      <c r="CT1" s="2">
+        <v>45272</v>
+      </c>
+      <c r="CU1" s="2">
+        <v>45273</v>
+      </c>
+      <c r="CV1" s="2">
+        <v>45274</v>
+      </c>
+      <c r="CW1" s="2">
+        <v>45275</v>
+      </c>
     </row>
-    <row r="2" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1532,14 +1558,29 @@
       <c r="CR2" t="s">
         <v>5</v>
       </c>
+      <c r="CS2" t="s">
+        <v>5</v>
+      </c>
+      <c r="CT2" t="s">
+        <v>6</v>
+      </c>
+      <c r="CU2" t="s">
+        <v>1</v>
+      </c>
+      <c r="CV2" t="s">
+        <v>4</v>
+      </c>
+      <c r="CW2" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="3" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="3">
         <f>B39/(B39+C39)</f>
-        <v>0.19565217391304349</v>
+        <v>0.19148936170212766</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -1820,14 +1861,20 @@
       <c r="CQ3" t="s">
         <v>8</v>
       </c>
+      <c r="CR3" t="s">
+        <v>8</v>
+      </c>
+      <c r="CS3" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="4" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>20</v>
       </c>
       <c r="B4" s="3">
         <f t="shared" ref="B4:B36" si="0">B40/(B40+C40)</f>
-        <v>0.94565217391304346</v>
+        <v>0.94680851063829785</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -2108,14 +2155,20 @@
       <c r="CQ4" t="s">
         <v>7</v>
       </c>
+      <c r="CR4" t="s">
+        <v>7</v>
+      </c>
+      <c r="CS4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="5" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>21</v>
       </c>
       <c r="B5" s="3">
         <f t="shared" si="0"/>
-        <v>3.2608695652173912E-2</v>
+        <v>3.1914893617021274E-2</v>
       </c>
       <c r="C5">
         <v>3</v>
@@ -2396,14 +2449,20 @@
       <c r="CQ5" t="s">
         <v>8</v>
       </c>
+      <c r="CR5" t="s">
+        <v>8</v>
+      </c>
+      <c r="CS5" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="6" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>22</v>
       </c>
       <c r="B6" s="3">
         <f t="shared" si="0"/>
-        <v>0.94565217391304346</v>
+        <v>0.94680851063829785</v>
       </c>
       <c r="C6">
         <v>4</v>
@@ -2684,14 +2743,20 @@
       <c r="CQ6" t="s">
         <v>7</v>
       </c>
+      <c r="CR6" t="s">
+        <v>7</v>
+      </c>
+      <c r="CS6" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="7" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>23</v>
       </c>
       <c r="B7" s="3">
         <f t="shared" si="0"/>
-        <v>0.97826086956521741</v>
+        <v>0.97872340425531912</v>
       </c>
       <c r="C7">
         <v>5</v>
@@ -2972,14 +3037,20 @@
       <c r="CQ7" t="s">
         <v>7</v>
       </c>
+      <c r="CR7" t="s">
+        <v>7</v>
+      </c>
+      <c r="CS7" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="8" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>50</v>
       </c>
       <c r="B8" s="3">
         <f t="shared" si="0"/>
-        <v>0.7191011235955056</v>
+        <v>0.72527472527472525</v>
       </c>
       <c r="C8">
         <v>6</v>
@@ -3260,14 +3331,20 @@
       <c r="CQ8" t="s">
         <v>8</v>
       </c>
+      <c r="CR8" t="s">
+        <v>7</v>
+      </c>
+      <c r="CS8" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="9" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>24</v>
       </c>
       <c r="B9" s="3">
         <f t="shared" si="0"/>
-        <v>0.92391304347826086</v>
+        <v>0.92553191489361697</v>
       </c>
       <c r="C9">
         <v>7</v>
@@ -3548,14 +3625,20 @@
       <c r="CQ9" t="s">
         <v>7</v>
       </c>
+      <c r="CR9" t="s">
+        <v>7</v>
+      </c>
+      <c r="CS9" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="10" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>25</v>
       </c>
       <c r="B10" s="3">
         <f t="shared" si="0"/>
-        <v>0.98913043478260865</v>
+        <v>0.98936170212765961</v>
       </c>
       <c r="C10">
         <v>8</v>
@@ -3836,14 +3919,20 @@
       <c r="CQ10" t="s">
         <v>7</v>
       </c>
+      <c r="CR10" t="s">
+        <v>7</v>
+      </c>
+      <c r="CS10" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="11" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>26</v>
       </c>
       <c r="B11" s="3">
         <f t="shared" si="0"/>
-        <v>0.97826086956521741</v>
+        <v>0.97872340425531912</v>
       </c>
       <c r="C11">
         <v>9</v>
@@ -4124,14 +4213,20 @@
       <c r="CQ11" t="s">
         <v>7</v>
       </c>
+      <c r="CR11" t="s">
+        <v>7</v>
+      </c>
+      <c r="CS11" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="12" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="3">
         <f t="shared" si="0"/>
-        <v>0.97826086956521741</v>
+        <v>0.97872340425531912</v>
       </c>
       <c r="C12">
         <v>10</v>
@@ -4412,14 +4507,20 @@
       <c r="CQ12" t="s">
         <v>7</v>
       </c>
+      <c r="CR12" t="s">
+        <v>7</v>
+      </c>
+      <c r="CS12" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="13" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="3">
         <f t="shared" si="0"/>
-        <v>0.60869565217391308</v>
+        <v>0.5957446808510638</v>
       </c>
       <c r="C13">
         <v>11</v>
@@ -4700,14 +4801,20 @@
       <c r="CQ13" t="s">
         <v>8</v>
       </c>
+      <c r="CR13" t="s">
+        <v>8</v>
+      </c>
+      <c r="CS13" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="14" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>14</v>
       </c>
       <c r="B14" s="3">
         <f t="shared" si="0"/>
-        <v>0.82608695652173914</v>
+        <v>0.82978723404255317</v>
       </c>
       <c r="C14">
         <v>12</v>
@@ -4988,14 +5095,20 @@
       <c r="CQ14" t="s">
         <v>7</v>
       </c>
+      <c r="CR14" t="s">
+        <v>7</v>
+      </c>
+      <c r="CS14" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="15" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>16</v>
       </c>
       <c r="B15" s="3">
         <f t="shared" si="0"/>
-        <v>0.95652173913043481</v>
+        <v>0.95744680851063835</v>
       </c>
       <c r="C15">
         <v>13</v>
@@ -5276,14 +5389,20 @@
       <c r="CQ15" t="s">
         <v>7</v>
       </c>
+      <c r="CR15" t="s">
+        <v>7</v>
+      </c>
+      <c r="CS15" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="16" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>9</v>
       </c>
       <c r="B16" s="3">
         <f t="shared" si="0"/>
-        <v>0.10112359550561797</v>
+        <v>9.8901098901098897E-2</v>
       </c>
       <c r="C16">
         <v>14</v>
@@ -5564,14 +5683,20 @@
       <c r="CQ16" t="s">
         <v>8</v>
       </c>
+      <c r="CR16" t="s">
+        <v>8</v>
+      </c>
+      <c r="CS16" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="17" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>27</v>
       </c>
       <c r="B17" s="3">
         <f t="shared" si="0"/>
-        <v>0.97826086956521741</v>
+        <v>0.97872340425531912</v>
       </c>
       <c r="C17">
         <v>15</v>
@@ -5852,8 +5977,14 @@
       <c r="CQ17" t="s">
         <v>7</v>
       </c>
+      <c r="CR17" t="s">
+        <v>7</v>
+      </c>
+      <c r="CS17" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="18" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>28</v>
       </c>
@@ -6140,14 +6271,20 @@
       <c r="CQ18" t="s">
         <v>7</v>
       </c>
+      <c r="CR18" t="s">
+        <v>7</v>
+      </c>
+      <c r="CS18" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="19" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>30</v>
       </c>
       <c r="B19" s="3">
         <f t="shared" si="0"/>
-        <v>0.96739130434782605</v>
+        <v>0.96808510638297873</v>
       </c>
       <c r="C19">
         <v>17</v>
@@ -6428,14 +6565,20 @@
       <c r="CQ19" t="s">
         <v>7</v>
       </c>
+      <c r="CR19" t="s">
+        <v>7</v>
+      </c>
+      <c r="CS19" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="20" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>31</v>
       </c>
       <c r="B20" s="3">
         <f t="shared" si="0"/>
-        <v>0.40217391304347827</v>
+        <v>0.39361702127659576</v>
       </c>
       <c r="C20">
         <v>18</v>
@@ -6716,14 +6859,20 @@
       <c r="CQ20" t="s">
         <v>8</v>
       </c>
+      <c r="CR20" t="s">
+        <v>8</v>
+      </c>
+      <c r="CS20" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="21" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>33</v>
       </c>
       <c r="B21" s="3">
         <f t="shared" si="0"/>
-        <v>0.72826086956521741</v>
+        <v>0.73404255319148937</v>
       </c>
       <c r="C21">
         <v>19</v>
@@ -7004,14 +7153,20 @@
       <c r="CQ21" t="s">
         <v>7</v>
       </c>
+      <c r="CR21" t="s">
+        <v>7</v>
+      </c>
+      <c r="CS21" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="22" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>48</v>
       </c>
       <c r="B22" s="3">
         <f t="shared" si="0"/>
-        <v>0.9550561797752809</v>
+        <v>0.95604395604395609</v>
       </c>
       <c r="C22">
         <v>20</v>
@@ -7292,8 +7447,14 @@
       <c r="CQ22" t="s">
         <v>7</v>
       </c>
+      <c r="CR22" t="s">
+        <v>7</v>
+      </c>
+      <c r="CS22" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="23" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>17</v>
       </c>
@@ -7580,14 +7741,20 @@
       <c r="CQ23" t="s">
         <v>7</v>
       </c>
+      <c r="CR23" t="s">
+        <v>7</v>
+      </c>
+      <c r="CS23" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="24" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>34</v>
       </c>
       <c r="B24" s="3">
         <f t="shared" si="0"/>
-        <v>0.53260869565217395</v>
+        <v>0.52127659574468088</v>
       </c>
       <c r="C24">
         <v>22</v>
@@ -7868,14 +8035,20 @@
       <c r="CQ24" t="s">
         <v>8</v>
       </c>
+      <c r="CR24" t="s">
+        <v>8</v>
+      </c>
+      <c r="CS24" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="25" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>35</v>
       </c>
       <c r="B25" s="3">
         <f t="shared" si="0"/>
-        <v>0.94565217391304346</v>
+        <v>0.93617021276595747</v>
       </c>
       <c r="C25">
         <v>23</v>
@@ -8156,14 +8329,20 @@
       <c r="CQ25" t="s">
         <v>7</v>
       </c>
+      <c r="CR25" t="s">
+        <v>8</v>
+      </c>
+      <c r="CS25" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="26" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>36</v>
       </c>
       <c r="B26" s="3">
         <f t="shared" si="0"/>
-        <v>0.82608695652173914</v>
+        <v>0.82978723404255317</v>
       </c>
       <c r="C26">
         <v>24</v>
@@ -8444,14 +8623,20 @@
       <c r="CQ26" t="s">
         <v>7</v>
       </c>
+      <c r="CR26" t="s">
+        <v>7</v>
+      </c>
+      <c r="CS26" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="27" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>46</v>
       </c>
       <c r="B27" s="3">
         <f t="shared" si="0"/>
-        <v>0.96739130434782605</v>
+        <v>0.95744680851063835</v>
       </c>
       <c r="C27">
         <v>25</v>
@@ -8732,14 +8917,20 @@
       <c r="CQ27" t="s">
         <v>7</v>
       </c>
+      <c r="CR27" t="s">
+        <v>7</v>
+      </c>
+      <c r="CS27" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="28" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>10</v>
       </c>
       <c r="B28" s="3">
         <f t="shared" si="0"/>
-        <v>0.8539325842696629</v>
+        <v>0.84615384615384615</v>
       </c>
       <c r="C28">
         <v>26</v>
@@ -9020,14 +9211,20 @@
       <c r="CQ28" t="s">
         <v>8</v>
       </c>
+      <c r="CR28" t="s">
+        <v>7</v>
+      </c>
+      <c r="CS28" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="29" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>38</v>
       </c>
       <c r="B29" s="3">
         <f t="shared" si="0"/>
-        <v>0.94565217391304346</v>
+        <v>0.94680851063829785</v>
       </c>
       <c r="C29">
         <v>27</v>
@@ -9308,14 +9505,20 @@
       <c r="CQ29" t="s">
         <v>7</v>
       </c>
+      <c r="CR29" t="s">
+        <v>7</v>
+      </c>
+      <c r="CS29" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="30" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>39</v>
       </c>
       <c r="B30" s="3">
         <f t="shared" si="0"/>
-        <v>0.97826086956521741</v>
+        <v>0.97872340425531912</v>
       </c>
       <c r="C30">
         <v>28</v>
@@ -9596,14 +9799,20 @@
       <c r="CQ30" t="s">
         <v>7</v>
       </c>
+      <c r="CR30" t="s">
+        <v>7</v>
+      </c>
+      <c r="CS30" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="31" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>40</v>
       </c>
       <c r="B31" s="3">
         <f t="shared" si="0"/>
-        <v>0.11956521739130435</v>
+        <v>0.11702127659574468</v>
       </c>
       <c r="C31">
         <v>29</v>
@@ -9884,14 +10093,20 @@
       <c r="CQ31" t="s">
         <v>8</v>
       </c>
+      <c r="CR31" t="s">
+        <v>8</v>
+      </c>
+      <c r="CS31" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="32" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>41</v>
       </c>
       <c r="B32" s="3">
         <f t="shared" si="0"/>
-        <v>0.82608695652173914</v>
+        <v>0.82978723404255317</v>
       </c>
       <c r="C32">
         <v>30</v>
@@ -10172,14 +10387,20 @@
       <c r="CQ32" t="s">
         <v>8</v>
       </c>
+      <c r="CR32" t="s">
+        <v>7</v>
+      </c>
+      <c r="CS32" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="33" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>42</v>
       </c>
       <c r="B33" s="3">
         <f t="shared" si="0"/>
-        <v>0.93478260869565222</v>
+        <v>0.93617021276595747</v>
       </c>
       <c r="C33">
         <v>31</v>
@@ -10460,14 +10681,20 @@
       <c r="CQ33" t="s">
         <v>7</v>
       </c>
+      <c r="CR33" t="s">
+        <v>7</v>
+      </c>
+      <c r="CS33" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="34" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>49</v>
       </c>
       <c r="B34" s="3">
         <f t="shared" si="0"/>
-        <v>0.8764044943820225</v>
+        <v>0.87912087912087911</v>
       </c>
       <c r="C34">
         <v>32</v>
@@ -10748,14 +10975,20 @@
       <c r="CQ34" t="s">
         <v>7</v>
       </c>
+      <c r="CR34" t="s">
+        <v>7</v>
+      </c>
+      <c r="CS34" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="35" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>43</v>
       </c>
       <c r="B35" s="3">
         <f t="shared" si="0"/>
-        <v>0.94565217391304346</v>
+        <v>0.94680851063829785</v>
       </c>
       <c r="C35">
         <v>33</v>
@@ -11036,14 +11269,20 @@
       <c r="CQ35" t="s">
         <v>7</v>
       </c>
+      <c r="CR35" t="s">
+        <v>7</v>
+      </c>
+      <c r="CS35" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="36" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>44</v>
       </c>
       <c r="B36" s="3">
         <f t="shared" si="0"/>
-        <v>0.42391304347826086</v>
+        <v>0.41489361702127658</v>
       </c>
       <c r="C36">
         <v>34</v>
@@ -11324,8 +11563,14 @@
       <c r="CQ36" t="s">
         <v>8</v>
       </c>
+      <c r="CR36" t="s">
+        <v>8</v>
+      </c>
+      <c r="CS36" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="38" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:97" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>7</v>
       </c>
@@ -11333,7 +11578,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>19</v>
       </c>
@@ -11343,23 +11588,23 @@
       </c>
       <c r="C39">
         <f>COUNTIF($D3:$CZ3,$C$38)</f>
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
-    <row r="40" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>20</v>
       </c>
       <c r="B40">
         <f t="shared" ref="B40:B72" si="1">COUNTIF($D4:$CZ4,$B$38)</f>
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C40">
         <f t="shared" ref="C40:C72" si="2">COUNTIF($D4:$CZ4,$C$38)</f>
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>21</v>
       </c>
@@ -11369,94 +11614,94 @@
       </c>
       <c r="C41">
         <f t="shared" si="2"/>
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
-    <row r="42" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>22</v>
       </c>
       <c r="B42">
         <f t="shared" si="1"/>
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C42">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>23</v>
       </c>
       <c r="B43">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C43">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>50</v>
       </c>
       <c r="B44">
         <f t="shared" si="1"/>
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C44">
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
     </row>
-    <row r="45" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>24</v>
       </c>
       <c r="B45">
         <f t="shared" si="1"/>
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C45">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>25</v>
       </c>
       <c r="B46">
         <f t="shared" si="1"/>
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C46">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>26</v>
       </c>
       <c r="B47">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C47">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>12</v>
       </c>
       <c r="B48">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C48">
         <f t="shared" si="2"/>
@@ -11473,7 +11718,7 @@
       </c>
       <c r="C49">
         <f t="shared" si="2"/>
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -11482,7 +11727,7 @@
       </c>
       <c r="B50">
         <f t="shared" si="1"/>
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C50">
         <f t="shared" si="2"/>
@@ -11495,7 +11740,7 @@
       </c>
       <c r="B51">
         <f t="shared" si="1"/>
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C51">
         <f t="shared" si="2"/>
@@ -11512,7 +11757,7 @@
       </c>
       <c r="C52">
         <f t="shared" si="2"/>
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -11521,7 +11766,7 @@
       </c>
       <c r="B53">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C53">
         <f t="shared" si="2"/>
@@ -11534,7 +11779,7 @@
       </c>
       <c r="B54">
         <f t="shared" si="1"/>
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C54">
         <f t="shared" si="2"/>
@@ -11547,7 +11792,7 @@
       </c>
       <c r="B55">
         <f t="shared" si="1"/>
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C55">
         <f t="shared" si="2"/>
@@ -11564,7 +11809,7 @@
       </c>
       <c r="C56">
         <f t="shared" si="2"/>
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -11573,7 +11818,7 @@
       </c>
       <c r="B57">
         <f t="shared" si="1"/>
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C57">
         <f t="shared" si="2"/>
@@ -11586,7 +11831,7 @@
       </c>
       <c r="B58">
         <f t="shared" si="1"/>
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C58">
         <f t="shared" si="2"/>
@@ -11599,7 +11844,7 @@
       </c>
       <c r="B59">
         <f t="shared" si="1"/>
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C59">
         <f t="shared" si="2"/>
@@ -11616,7 +11861,7 @@
       </c>
       <c r="C60">
         <f t="shared" si="2"/>
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -11625,11 +11870,11 @@
       </c>
       <c r="B61">
         <f t="shared" si="1"/>
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C61">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -11638,7 +11883,7 @@
       </c>
       <c r="B62">
         <f t="shared" si="1"/>
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C62">
         <f t="shared" si="2"/>
@@ -11651,11 +11896,11 @@
       </c>
       <c r="B63">
         <f t="shared" si="1"/>
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C63">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -11664,11 +11909,11 @@
       </c>
       <c r="B64">
         <f t="shared" si="1"/>
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C64">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -11677,7 +11922,7 @@
       </c>
       <c r="B65">
         <f t="shared" si="1"/>
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C65">
         <f t="shared" si="2"/>
@@ -11690,7 +11935,7 @@
       </c>
       <c r="B66">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C66">
         <f t="shared" si="2"/>
@@ -11707,7 +11952,7 @@
       </c>
       <c r="C67">
         <f t="shared" si="2"/>
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -11716,7 +11961,7 @@
       </c>
       <c r="B68">
         <f t="shared" si="1"/>
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C68">
         <f t="shared" si="2"/>
@@ -11729,7 +11974,7 @@
       </c>
       <c r="B69">
         <f t="shared" si="1"/>
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C69">
         <f t="shared" si="2"/>
@@ -11742,7 +11987,7 @@
       </c>
       <c r="B70">
         <f t="shared" si="1"/>
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C70">
         <f t="shared" si="2"/>
@@ -11755,7 +12000,7 @@
       </c>
       <c r="B71">
         <f t="shared" si="1"/>
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C71">
         <f t="shared" si="2"/>
@@ -11772,7 +12017,7 @@
       </c>
       <c r="C72">
         <f t="shared" si="2"/>
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/1des/frequencia.xlsx
+++ b/1des/frequencia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2023\1des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67DFBEF2-970F-47C6-82A5-060CCD17551D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2859C83D-7E2A-4074-8AF5-DC520FBA74EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="todos" sheetId="2" r:id="rId1"/>
@@ -21,23 +21,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3410" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3444" uniqueCount="54">
   <si>
     <t>Alunos</t>
   </si>
@@ -952,7 +941,7 @@
       <pane xSplit="3" ySplit="2" topLeftCell="CJ3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="CS36" sqref="CS36"/>
+      <selection pane="bottomRight" activeCell="CT32" sqref="CT32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1580,7 +1569,7 @@
       </c>
       <c r="B3" s="3">
         <f>B39/(B39+C39)</f>
-        <v>0.19148936170212766</v>
+        <v>0.18947368421052632</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -1865,6 +1854,9 @@
         <v>8</v>
       </c>
       <c r="CS3" t="s">
+        <v>8</v>
+      </c>
+      <c r="CT3" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1874,7 +1866,7 @@
       </c>
       <c r="B4" s="3">
         <f t="shared" ref="B4:B36" si="0">B40/(B40+C40)</f>
-        <v>0.94680851063829785</v>
+        <v>0.94736842105263153</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -2159,6 +2151,9 @@
         <v>7</v>
       </c>
       <c r="CS4" t="s">
+        <v>7</v>
+      </c>
+      <c r="CT4" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2168,7 +2163,7 @@
       </c>
       <c r="B5" s="3">
         <f t="shared" si="0"/>
-        <v>3.1914893617021274E-2</v>
+        <v>3.1578947368421054E-2</v>
       </c>
       <c r="C5">
         <v>3</v>
@@ -2453,6 +2448,9 @@
         <v>8</v>
       </c>
       <c r="CS5" t="s">
+        <v>8</v>
+      </c>
+      <c r="CT5" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2462,7 +2460,7 @@
       </c>
       <c r="B6" s="3">
         <f t="shared" si="0"/>
-        <v>0.94680851063829785</v>
+        <v>0.94736842105263153</v>
       </c>
       <c r="C6">
         <v>4</v>
@@ -2747,6 +2745,9 @@
         <v>7</v>
       </c>
       <c r="CS6" t="s">
+        <v>7</v>
+      </c>
+      <c r="CT6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2756,7 +2757,7 @@
       </c>
       <c r="B7" s="3">
         <f t="shared" si="0"/>
-        <v>0.97872340425531912</v>
+        <v>0.97894736842105268</v>
       </c>
       <c r="C7">
         <v>5</v>
@@ -3041,6 +3042,9 @@
         <v>7</v>
       </c>
       <c r="CS7" t="s">
+        <v>7</v>
+      </c>
+      <c r="CT7" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3050,7 +3054,7 @@
       </c>
       <c r="B8" s="3">
         <f t="shared" si="0"/>
-        <v>0.72527472527472525</v>
+        <v>0.72826086956521741</v>
       </c>
       <c r="C8">
         <v>6</v>
@@ -3335,6 +3339,9 @@
         <v>7</v>
       </c>
       <c r="CS8" t="s">
+        <v>7</v>
+      </c>
+      <c r="CT8" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3344,7 +3351,7 @@
       </c>
       <c r="B9" s="3">
         <f t="shared" si="0"/>
-        <v>0.92553191489361697</v>
+        <v>0.9263157894736842</v>
       </c>
       <c r="C9">
         <v>7</v>
@@ -3629,6 +3636,9 @@
         <v>7</v>
       </c>
       <c r="CS9" t="s">
+        <v>7</v>
+      </c>
+      <c r="CT9" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3638,7 +3648,7 @@
       </c>
       <c r="B10" s="3">
         <f t="shared" si="0"/>
-        <v>0.98936170212765961</v>
+        <v>0.98947368421052628</v>
       </c>
       <c r="C10">
         <v>8</v>
@@ -3923,6 +3933,9 @@
         <v>7</v>
       </c>
       <c r="CS10" t="s">
+        <v>7</v>
+      </c>
+      <c r="CT10" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3932,7 +3945,7 @@
       </c>
       <c r="B11" s="3">
         <f t="shared" si="0"/>
-        <v>0.97872340425531912</v>
+        <v>0.97894736842105268</v>
       </c>
       <c r="C11">
         <v>9</v>
@@ -4217,6 +4230,9 @@
         <v>7</v>
       </c>
       <c r="CS11" t="s">
+        <v>7</v>
+      </c>
+      <c r="CT11" t="s">
         <v>7</v>
       </c>
     </row>
@@ -4226,7 +4242,7 @@
       </c>
       <c r="B12" s="3">
         <f t="shared" si="0"/>
-        <v>0.97872340425531912</v>
+        <v>0.97894736842105268</v>
       </c>
       <c r="C12">
         <v>10</v>
@@ -4511,6 +4527,9 @@
         <v>7</v>
       </c>
       <c r="CS12" t="s">
+        <v>7</v>
+      </c>
+      <c r="CT12" t="s">
         <v>7</v>
       </c>
     </row>
@@ -4520,7 +4539,7 @@
       </c>
       <c r="B13" s="3">
         <f t="shared" si="0"/>
-        <v>0.5957446808510638</v>
+        <v>0.58947368421052626</v>
       </c>
       <c r="C13">
         <v>11</v>
@@ -4805,6 +4824,9 @@
         <v>8</v>
       </c>
       <c r="CS13" t="s">
+        <v>8</v>
+      </c>
+      <c r="CT13" t="s">
         <v>8</v>
       </c>
     </row>
@@ -4814,7 +4836,7 @@
       </c>
       <c r="B14" s="3">
         <f t="shared" si="0"/>
-        <v>0.82978723404255317</v>
+        <v>0.83157894736842108</v>
       </c>
       <c r="C14">
         <v>12</v>
@@ -5099,6 +5121,9 @@
         <v>7</v>
       </c>
       <c r="CS14" t="s">
+        <v>7</v>
+      </c>
+      <c r="CT14" t="s">
         <v>7</v>
       </c>
     </row>
@@ -5108,7 +5133,7 @@
       </c>
       <c r="B15" s="3">
         <f t="shared" si="0"/>
-        <v>0.95744680851063835</v>
+        <v>0.95789473684210524</v>
       </c>
       <c r="C15">
         <v>13</v>
@@ -5393,6 +5418,9 @@
         <v>7</v>
       </c>
       <c r="CS15" t="s">
+        <v>7</v>
+      </c>
+      <c r="CT15" t="s">
         <v>7</v>
       </c>
     </row>
@@ -5402,7 +5430,7 @@
       </c>
       <c r="B16" s="3">
         <f t="shared" si="0"/>
-        <v>9.8901098901098897E-2</v>
+        <v>9.7826086956521743E-2</v>
       </c>
       <c r="C16">
         <v>14</v>
@@ -5689,14 +5717,17 @@
       <c r="CS16" t="s">
         <v>8</v>
       </c>
+      <c r="CT16" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="17" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>27</v>
       </c>
       <c r="B17" s="3">
         <f t="shared" si="0"/>
-        <v>0.97872340425531912</v>
+        <v>0.97894736842105268</v>
       </c>
       <c r="C17">
         <v>15</v>
@@ -5983,8 +6014,11 @@
       <c r="CS17" t="s">
         <v>7</v>
       </c>
+      <c r="CT17" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="18" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>28</v>
       </c>
@@ -6277,14 +6311,17 @@
       <c r="CS18" t="s">
         <v>7</v>
       </c>
+      <c r="CT18" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="19" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>30</v>
       </c>
       <c r="B19" s="3">
         <f t="shared" si="0"/>
-        <v>0.96808510638297873</v>
+        <v>0.96842105263157896</v>
       </c>
       <c r="C19">
         <v>17</v>
@@ -6571,14 +6608,17 @@
       <c r="CS19" t="s">
         <v>7</v>
       </c>
+      <c r="CT19" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="20" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>31</v>
       </c>
       <c r="B20" s="3">
         <f t="shared" si="0"/>
-        <v>0.39361702127659576</v>
+        <v>0.38947368421052631</v>
       </c>
       <c r="C20">
         <v>18</v>
@@ -6865,14 +6905,17 @@
       <c r="CS20" t="s">
         <v>8</v>
       </c>
+      <c r="CT20" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="21" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>33</v>
       </c>
       <c r="B21" s="3">
         <f t="shared" si="0"/>
-        <v>0.73404255319148937</v>
+        <v>0.73684210526315785</v>
       </c>
       <c r="C21">
         <v>19</v>
@@ -7159,14 +7202,17 @@
       <c r="CS21" t="s">
         <v>7</v>
       </c>
+      <c r="CT21" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="22" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>48</v>
       </c>
       <c r="B22" s="3">
         <f t="shared" si="0"/>
-        <v>0.95604395604395609</v>
+        <v>0.95652173913043481</v>
       </c>
       <c r="C22">
         <v>20</v>
@@ -7453,8 +7499,11 @@
       <c r="CS22" t="s">
         <v>7</v>
       </c>
+      <c r="CT22" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="23" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>17</v>
       </c>
@@ -7747,14 +7796,17 @@
       <c r="CS23" t="s">
         <v>7</v>
       </c>
+      <c r="CT23" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="24" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>34</v>
       </c>
       <c r="B24" s="3">
         <f t="shared" si="0"/>
-        <v>0.52127659574468088</v>
+        <v>0.51578947368421058</v>
       </c>
       <c r="C24">
         <v>22</v>
@@ -8041,14 +8093,17 @@
       <c r="CS24" t="s">
         <v>8</v>
       </c>
+      <c r="CT24" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="25" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>35</v>
       </c>
       <c r="B25" s="3">
         <f t="shared" si="0"/>
-        <v>0.93617021276595747</v>
+        <v>0.93684210526315792</v>
       </c>
       <c r="C25">
         <v>23</v>
@@ -8335,14 +8390,17 @@
       <c r="CS25" t="s">
         <v>7</v>
       </c>
+      <c r="CT25" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="26" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>36</v>
       </c>
       <c r="B26" s="3">
         <f t="shared" si="0"/>
-        <v>0.82978723404255317</v>
+        <v>0.83157894736842108</v>
       </c>
       <c r="C26">
         <v>24</v>
@@ -8629,14 +8687,17 @@
       <c r="CS26" t="s">
         <v>7</v>
       </c>
+      <c r="CT26" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="27" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>46</v>
       </c>
       <c r="B27" s="3">
         <f t="shared" si="0"/>
-        <v>0.95744680851063835</v>
+        <v>0.94736842105263153</v>
       </c>
       <c r="C27">
         <v>25</v>
@@ -8923,14 +8984,17 @@
       <c r="CS27" t="s">
         <v>8</v>
       </c>
+      <c r="CT27" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="28" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>10</v>
       </c>
       <c r="B28" s="3">
         <f t="shared" si="0"/>
-        <v>0.84615384615384615</v>
+        <v>0.84782608695652173</v>
       </c>
       <c r="C28">
         <v>26</v>
@@ -9217,14 +9281,17 @@
       <c r="CS28" t="s">
         <v>8</v>
       </c>
+      <c r="CT28" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="29" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>38</v>
       </c>
       <c r="B29" s="3">
         <f t="shared" si="0"/>
-        <v>0.94680851063829785</v>
+        <v>0.94736842105263153</v>
       </c>
       <c r="C29">
         <v>27</v>
@@ -9511,14 +9578,17 @@
       <c r="CS29" t="s">
         <v>7</v>
       </c>
+      <c r="CT29" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="30" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>39</v>
       </c>
       <c r="B30" s="3">
         <f t="shared" si="0"/>
-        <v>0.97872340425531912</v>
+        <v>0.96842105263157896</v>
       </c>
       <c r="C30">
         <v>28</v>
@@ -9805,14 +9875,17 @@
       <c r="CS30" t="s">
         <v>7</v>
       </c>
+      <c r="CT30" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="31" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>40</v>
       </c>
       <c r="B31" s="3">
         <f t="shared" si="0"/>
-        <v>0.11702127659574468</v>
+        <v>0.11578947368421053</v>
       </c>
       <c r="C31">
         <v>29</v>
@@ -10099,14 +10172,17 @@
       <c r="CS31" t="s">
         <v>8</v>
       </c>
+      <c r="CT31" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="32" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>41</v>
       </c>
       <c r="B32" s="3">
         <f t="shared" si="0"/>
-        <v>0.82978723404255317</v>
+        <v>0.83157894736842108</v>
       </c>
       <c r="C32">
         <v>30</v>
@@ -10393,14 +10469,17 @@
       <c r="CS32" t="s">
         <v>7</v>
       </c>
+      <c r="CT32" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="33" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>42</v>
       </c>
       <c r="B33" s="3">
         <f t="shared" si="0"/>
-        <v>0.93617021276595747</v>
+        <v>0.93684210526315792</v>
       </c>
       <c r="C33">
         <v>31</v>
@@ -10687,14 +10766,17 @@
       <c r="CS33" t="s">
         <v>7</v>
       </c>
+      <c r="CT33" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="34" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>49</v>
       </c>
       <c r="B34" s="3">
         <f t="shared" si="0"/>
-        <v>0.87912087912087911</v>
+        <v>0.86956521739130432</v>
       </c>
       <c r="C34">
         <v>32</v>
@@ -10981,14 +11063,17 @@
       <c r="CS34" t="s">
         <v>7</v>
       </c>
+      <c r="CT34" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="35" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>43</v>
       </c>
       <c r="B35" s="3">
         <f t="shared" si="0"/>
-        <v>0.94680851063829785</v>
+        <v>0.94736842105263153</v>
       </c>
       <c r="C35">
         <v>33</v>
@@ -11275,14 +11360,17 @@
       <c r="CS35" t="s">
         <v>7</v>
       </c>
+      <c r="CT35" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="36" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>44</v>
       </c>
       <c r="B36" s="3">
         <f t="shared" si="0"/>
-        <v>0.41489361702127658</v>
+        <v>0.41052631578947368</v>
       </c>
       <c r="C36">
         <v>34</v>
@@ -11569,8 +11657,11 @@
       <c r="CS36" t="s">
         <v>8</v>
       </c>
+      <c r="CT36" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="38" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:98" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>7</v>
       </c>
@@ -11578,7 +11669,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>19</v>
       </c>
@@ -11588,23 +11679,23 @@
       </c>
       <c r="C39">
         <f>COUNTIF($D3:$CZ3,$C$38)</f>
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
-    <row r="40" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>20</v>
       </c>
       <c r="B40">
         <f t="shared" ref="B40:B72" si="1">COUNTIF($D4:$CZ4,$B$38)</f>
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C40">
         <f t="shared" ref="C40:C72" si="2">COUNTIF($D4:$CZ4,$C$38)</f>
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>21</v>
       </c>
@@ -11614,94 +11705,94 @@
       </c>
       <c r="C41">
         <f t="shared" si="2"/>
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
-    <row r="42" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>22</v>
       </c>
       <c r="B42">
         <f t="shared" si="1"/>
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C42">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>23</v>
       </c>
       <c r="B43">
         <f t="shared" si="1"/>
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C43">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>50</v>
       </c>
       <c r="B44">
         <f t="shared" si="1"/>
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C44">
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
     </row>
-    <row r="45" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>24</v>
       </c>
       <c r="B45">
         <f t="shared" si="1"/>
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C45">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>25</v>
       </c>
       <c r="B46">
         <f t="shared" si="1"/>
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C46">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>26</v>
       </c>
       <c r="B47">
         <f t="shared" si="1"/>
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C47">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>12</v>
       </c>
       <c r="B48">
         <f t="shared" si="1"/>
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C48">
         <f t="shared" si="2"/>
@@ -11718,7 +11809,7 @@
       </c>
       <c r="C49">
         <f t="shared" si="2"/>
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -11727,7 +11818,7 @@
       </c>
       <c r="B50">
         <f t="shared" si="1"/>
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C50">
         <f t="shared" si="2"/>
@@ -11740,7 +11831,7 @@
       </c>
       <c r="B51">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C51">
         <f t="shared" si="2"/>
@@ -11757,7 +11848,7 @@
       </c>
       <c r="C52">
         <f t="shared" si="2"/>
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -11766,7 +11857,7 @@
       </c>
       <c r="B53">
         <f t="shared" si="1"/>
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C53">
         <f t="shared" si="2"/>
@@ -11779,7 +11870,7 @@
       </c>
       <c r="B54">
         <f t="shared" si="1"/>
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C54">
         <f t="shared" si="2"/>
@@ -11792,7 +11883,7 @@
       </c>
       <c r="B55">
         <f t="shared" si="1"/>
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C55">
         <f t="shared" si="2"/>
@@ -11809,7 +11900,7 @@
       </c>
       <c r="C56">
         <f t="shared" si="2"/>
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -11818,7 +11909,7 @@
       </c>
       <c r="B57">
         <f t="shared" si="1"/>
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C57">
         <f t="shared" si="2"/>
@@ -11831,7 +11922,7 @@
       </c>
       <c r="B58">
         <f t="shared" si="1"/>
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C58">
         <f t="shared" si="2"/>
@@ -11844,7 +11935,7 @@
       </c>
       <c r="B59">
         <f t="shared" si="1"/>
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C59">
         <f t="shared" si="2"/>
@@ -11861,7 +11952,7 @@
       </c>
       <c r="C60">
         <f t="shared" si="2"/>
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -11870,7 +11961,7 @@
       </c>
       <c r="B61">
         <f t="shared" si="1"/>
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C61">
         <f t="shared" si="2"/>
@@ -11883,7 +11974,7 @@
       </c>
       <c r="B62">
         <f t="shared" si="1"/>
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C62">
         <f t="shared" si="2"/>
@@ -11900,7 +11991,7 @@
       </c>
       <c r="C63">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -11909,7 +12000,7 @@
       </c>
       <c r="B64">
         <f t="shared" si="1"/>
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C64">
         <f t="shared" si="2"/>
@@ -11922,7 +12013,7 @@
       </c>
       <c r="B65">
         <f t="shared" si="1"/>
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C65">
         <f t="shared" si="2"/>
@@ -11939,7 +12030,7 @@
       </c>
       <c r="C66">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -11952,7 +12043,7 @@
       </c>
       <c r="C67">
         <f t="shared" si="2"/>
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -11961,7 +12052,7 @@
       </c>
       <c r="B68">
         <f t="shared" si="1"/>
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C68">
         <f t="shared" si="2"/>
@@ -11974,7 +12065,7 @@
       </c>
       <c r="B69">
         <f t="shared" si="1"/>
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C69">
         <f t="shared" si="2"/>
@@ -11991,7 +12082,7 @@
       </c>
       <c r="C70">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -12000,7 +12091,7 @@
       </c>
       <c r="B71">
         <f t="shared" si="1"/>
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C71">
         <f t="shared" si="2"/>
@@ -12017,7 +12108,7 @@
       </c>
       <c r="C72">
         <f t="shared" si="2"/>
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/1des/frequencia.xlsx
+++ b/1des/frequencia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2023\1des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2859C83D-7E2A-4074-8AF5-DC520FBA74EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{360FBCB8-2D24-451B-8F15-042CC4DB1B94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3444" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3546" uniqueCount="54">
   <si>
     <t>Alunos</t>
   </si>
@@ -938,10 +938,10 @@
   <dimension ref="A1:CW72"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="CJ3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="CP3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="CT32" sqref="CT32"/>
+      <selection pane="bottomRight" activeCell="CS21" sqref="CS21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1569,7 +1569,7 @@
       </c>
       <c r="B3" s="3">
         <f>B39/(B39+C39)</f>
-        <v>0.18947368421052632</v>
+        <v>0.18367346938775511</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -1857,6 +1857,15 @@
         <v>8</v>
       </c>
       <c r="CT3" t="s">
+        <v>8</v>
+      </c>
+      <c r="CU3" t="s">
+        <v>8</v>
+      </c>
+      <c r="CV3" t="s">
+        <v>8</v>
+      </c>
+      <c r="CW3" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1866,7 +1875,7 @@
       </c>
       <c r="B4" s="3">
         <f t="shared" ref="B4:B36" si="0">B40/(B40+C40)</f>
-        <v>0.94736842105263153</v>
+        <v>0.94897959183673475</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -2154,6 +2163,15 @@
         <v>7</v>
       </c>
       <c r="CT4" t="s">
+        <v>7</v>
+      </c>
+      <c r="CU4" t="s">
+        <v>7</v>
+      </c>
+      <c r="CV4" t="s">
+        <v>7</v>
+      </c>
+      <c r="CW4" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2163,7 +2181,7 @@
       </c>
       <c r="B5" s="3">
         <f t="shared" si="0"/>
-        <v>3.1578947368421054E-2</v>
+        <v>3.0612244897959183E-2</v>
       </c>
       <c r="C5">
         <v>3</v>
@@ -2451,6 +2469,15 @@
         <v>8</v>
       </c>
       <c r="CT5" t="s">
+        <v>8</v>
+      </c>
+      <c r="CU5" t="s">
+        <v>8</v>
+      </c>
+      <c r="CV5" t="s">
+        <v>8</v>
+      </c>
+      <c r="CW5" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2460,7 +2487,7 @@
       </c>
       <c r="B6" s="3">
         <f t="shared" si="0"/>
-        <v>0.94736842105263153</v>
+        <v>0.94897959183673475</v>
       </c>
       <c r="C6">
         <v>4</v>
@@ -2748,6 +2775,15 @@
         <v>7</v>
       </c>
       <c r="CT6" t="s">
+        <v>7</v>
+      </c>
+      <c r="CU6" t="s">
+        <v>7</v>
+      </c>
+      <c r="CV6" t="s">
+        <v>7</v>
+      </c>
+      <c r="CW6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2757,7 +2793,7 @@
       </c>
       <c r="B7" s="3">
         <f t="shared" si="0"/>
-        <v>0.97894736842105268</v>
+        <v>0.97959183673469385</v>
       </c>
       <c r="C7">
         <v>5</v>
@@ -3045,6 +3081,15 @@
         <v>7</v>
       </c>
       <c r="CT7" t="s">
+        <v>7</v>
+      </c>
+      <c r="CU7" t="s">
+        <v>7</v>
+      </c>
+      <c r="CV7" t="s">
+        <v>7</v>
+      </c>
+      <c r="CW7" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3054,7 +3099,7 @@
       </c>
       <c r="B8" s="3">
         <f t="shared" si="0"/>
-        <v>0.72826086956521741</v>
+        <v>0.70526315789473681</v>
       </c>
       <c r="C8">
         <v>6</v>
@@ -3343,6 +3388,15 @@
       </c>
       <c r="CT8" t="s">
         <v>7</v>
+      </c>
+      <c r="CU8" t="s">
+        <v>8</v>
+      </c>
+      <c r="CV8" t="s">
+        <v>8</v>
+      </c>
+      <c r="CW8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:101" x14ac:dyDescent="0.25">
@@ -3351,7 +3405,7 @@
       </c>
       <c r="B9" s="3">
         <f t="shared" si="0"/>
-        <v>0.9263157894736842</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="C9">
         <v>7</v>
@@ -3639,6 +3693,15 @@
         <v>7</v>
       </c>
       <c r="CT9" t="s">
+        <v>7</v>
+      </c>
+      <c r="CU9" t="s">
+        <v>7</v>
+      </c>
+      <c r="CV9" t="s">
+        <v>7</v>
+      </c>
+      <c r="CW9" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3648,7 +3711,7 @@
       </c>
       <c r="B10" s="3">
         <f t="shared" si="0"/>
-        <v>0.98947368421052628</v>
+        <v>0.98979591836734693</v>
       </c>
       <c r="C10">
         <v>8</v>
@@ -3936,6 +3999,15 @@
         <v>7</v>
       </c>
       <c r="CT10" t="s">
+        <v>7</v>
+      </c>
+      <c r="CU10" t="s">
+        <v>7</v>
+      </c>
+      <c r="CV10" t="s">
+        <v>7</v>
+      </c>
+      <c r="CW10" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3945,7 +4017,7 @@
       </c>
       <c r="B11" s="3">
         <f t="shared" si="0"/>
-        <v>0.97894736842105268</v>
+        <v>0.97959183673469385</v>
       </c>
       <c r="C11">
         <v>9</v>
@@ -4233,6 +4305,15 @@
         <v>7</v>
       </c>
       <c r="CT11" t="s">
+        <v>7</v>
+      </c>
+      <c r="CU11" t="s">
+        <v>7</v>
+      </c>
+      <c r="CV11" t="s">
+        <v>7</v>
+      </c>
+      <c r="CW11" t="s">
         <v>7</v>
       </c>
     </row>
@@ -4242,7 +4323,7 @@
       </c>
       <c r="B12" s="3">
         <f t="shared" si="0"/>
-        <v>0.97894736842105268</v>
+        <v>0.97959183673469385</v>
       </c>
       <c r="C12">
         <v>10</v>
@@ -4530,6 +4611,15 @@
         <v>7</v>
       </c>
       <c r="CT12" t="s">
+        <v>7</v>
+      </c>
+      <c r="CU12" t="s">
+        <v>7</v>
+      </c>
+      <c r="CV12" t="s">
+        <v>7</v>
+      </c>
+      <c r="CW12" t="s">
         <v>7</v>
       </c>
     </row>
@@ -4539,7 +4629,7 @@
       </c>
       <c r="B13" s="3">
         <f t="shared" si="0"/>
-        <v>0.58947368421052626</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="C13">
         <v>11</v>
@@ -4827,6 +4917,15 @@
         <v>8</v>
       </c>
       <c r="CT13" t="s">
+        <v>8</v>
+      </c>
+      <c r="CU13" t="s">
+        <v>8</v>
+      </c>
+      <c r="CV13" t="s">
+        <v>8</v>
+      </c>
+      <c r="CW13" t="s">
         <v>8</v>
       </c>
     </row>
@@ -4836,7 +4935,7 @@
       </c>
       <c r="B14" s="3">
         <f t="shared" si="0"/>
-        <v>0.83157894736842108</v>
+        <v>0.82653061224489799</v>
       </c>
       <c r="C14">
         <v>12</v>
@@ -5125,6 +5224,15 @@
       </c>
       <c r="CT14" t="s">
         <v>7</v>
+      </c>
+      <c r="CU14" t="s">
+        <v>7</v>
+      </c>
+      <c r="CV14" t="s">
+        <v>7</v>
+      </c>
+      <c r="CW14" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:101" x14ac:dyDescent="0.25">
@@ -5133,7 +5241,7 @@
       </c>
       <c r="B15" s="3">
         <f t="shared" si="0"/>
-        <v>0.95789473684210524</v>
+        <v>0.95918367346938771</v>
       </c>
       <c r="C15">
         <v>13</v>
@@ -5421,6 +5529,15 @@
         <v>7</v>
       </c>
       <c r="CT15" t="s">
+        <v>7</v>
+      </c>
+      <c r="CU15" t="s">
+        <v>7</v>
+      </c>
+      <c r="CV15" t="s">
+        <v>7</v>
+      </c>
+      <c r="CW15" t="s">
         <v>7</v>
       </c>
     </row>
@@ -5430,7 +5547,7 @@
       </c>
       <c r="B16" s="3">
         <f t="shared" si="0"/>
-        <v>9.7826086956521743E-2</v>
+        <v>9.4736842105263161E-2</v>
       </c>
       <c r="C16">
         <v>14</v>
@@ -5720,14 +5837,23 @@
       <c r="CT16" t="s">
         <v>8</v>
       </c>
+      <c r="CU16" t="s">
+        <v>8</v>
+      </c>
+      <c r="CV16" t="s">
+        <v>8</v>
+      </c>
+      <c r="CW16" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="17" spans="1:98" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>27</v>
       </c>
       <c r="B17" s="3">
         <f t="shared" si="0"/>
-        <v>0.97894736842105268</v>
+        <v>0.97959183673469385</v>
       </c>
       <c r="C17">
         <v>15</v>
@@ -6017,8 +6143,17 @@
       <c r="CT17" t="s">
         <v>7</v>
       </c>
+      <c r="CU17" t="s">
+        <v>7</v>
+      </c>
+      <c r="CV17" t="s">
+        <v>7</v>
+      </c>
+      <c r="CW17" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="18" spans="1:98" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>28</v>
       </c>
@@ -6314,14 +6449,23 @@
       <c r="CT18" t="s">
         <v>7</v>
       </c>
+      <c r="CU18" t="s">
+        <v>7</v>
+      </c>
+      <c r="CV18" t="s">
+        <v>7</v>
+      </c>
+      <c r="CW18" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="19" spans="1:98" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>30</v>
       </c>
       <c r="B19" s="3">
         <f t="shared" si="0"/>
-        <v>0.96842105263157896</v>
+        <v>0.96938775510204078</v>
       </c>
       <c r="C19">
         <v>17</v>
@@ -6611,14 +6755,23 @@
       <c r="CT19" t="s">
         <v>7</v>
       </c>
+      <c r="CU19" t="s">
+        <v>7</v>
+      </c>
+      <c r="CV19" t="s">
+        <v>7</v>
+      </c>
+      <c r="CW19" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="20" spans="1:98" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>31</v>
       </c>
       <c r="B20" s="3">
         <f t="shared" si="0"/>
-        <v>0.38947368421052631</v>
+        <v>0.37755102040816324</v>
       </c>
       <c r="C20">
         <v>18</v>
@@ -6908,14 +7061,23 @@
       <c r="CT20" t="s">
         <v>8</v>
       </c>
+      <c r="CU20" t="s">
+        <v>8</v>
+      </c>
+      <c r="CV20" t="s">
+        <v>8</v>
+      </c>
+      <c r="CW20" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="21" spans="1:98" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>33</v>
       </c>
       <c r="B21" s="3">
         <f t="shared" si="0"/>
-        <v>0.73684210526315785</v>
+        <v>0.74489795918367352</v>
       </c>
       <c r="C21">
         <v>19</v>
@@ -7205,14 +7367,23 @@
       <c r="CT21" t="s">
         <v>7</v>
       </c>
+      <c r="CU21" t="s">
+        <v>7</v>
+      </c>
+      <c r="CV21" t="s">
+        <v>7</v>
+      </c>
+      <c r="CW21" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="22" spans="1:98" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>48</v>
       </c>
       <c r="B22" s="3">
         <f t="shared" si="0"/>
-        <v>0.95652173913043481</v>
+        <v>0.95789473684210524</v>
       </c>
       <c r="C22">
         <v>20</v>
@@ -7502,8 +7673,17 @@
       <c r="CT22" t="s">
         <v>7</v>
       </c>
+      <c r="CU22" t="s">
+        <v>7</v>
+      </c>
+      <c r="CV22" t="s">
+        <v>7</v>
+      </c>
+      <c r="CW22" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="23" spans="1:98" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>17</v>
       </c>
@@ -7799,14 +7979,23 @@
       <c r="CT23" t="s">
         <v>7</v>
       </c>
+      <c r="CU23" t="s">
+        <v>7</v>
+      </c>
+      <c r="CV23" t="s">
+        <v>7</v>
+      </c>
+      <c r="CW23" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="24" spans="1:98" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>34</v>
       </c>
       <c r="B24" s="3">
         <f t="shared" si="0"/>
-        <v>0.51578947368421058</v>
+        <v>0.5</v>
       </c>
       <c r="C24">
         <v>22</v>
@@ -8096,14 +8285,23 @@
       <c r="CT24" t="s">
         <v>8</v>
       </c>
+      <c r="CU24" t="s">
+        <v>8</v>
+      </c>
+      <c r="CV24" t="s">
+        <v>8</v>
+      </c>
+      <c r="CW24" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="25" spans="1:98" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>35</v>
       </c>
       <c r="B25" s="3">
         <f t="shared" si="0"/>
-        <v>0.93684210526315792</v>
+        <v>0.93877551020408168</v>
       </c>
       <c r="C25">
         <v>23</v>
@@ -8393,14 +8591,23 @@
       <c r="CT25" t="s">
         <v>7</v>
       </c>
+      <c r="CU25" t="s">
+        <v>7</v>
+      </c>
+      <c r="CV25" t="s">
+        <v>7</v>
+      </c>
+      <c r="CW25" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="26" spans="1:98" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>36</v>
       </c>
       <c r="B26" s="3">
         <f t="shared" si="0"/>
-        <v>0.83157894736842108</v>
+        <v>0.82653061224489799</v>
       </c>
       <c r="C26">
         <v>24</v>
@@ -8690,14 +8897,23 @@
       <c r="CT26" t="s">
         <v>7</v>
       </c>
+      <c r="CU26" t="s">
+        <v>7</v>
+      </c>
+      <c r="CV26" t="s">
+        <v>7</v>
+      </c>
+      <c r="CW26" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="27" spans="1:98" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>46</v>
       </c>
       <c r="B27" s="3">
         <f t="shared" si="0"/>
-        <v>0.94736842105263153</v>
+        <v>0.94897959183673475</v>
       </c>
       <c r="C27">
         <v>25</v>
@@ -8987,14 +9203,23 @@
       <c r="CT27" t="s">
         <v>8</v>
       </c>
+      <c r="CU27" t="s">
+        <v>7</v>
+      </c>
+      <c r="CV27" t="s">
+        <v>7</v>
+      </c>
+      <c r="CW27" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="28" spans="1:98" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>10</v>
       </c>
       <c r="B28" s="3">
         <f t="shared" si="0"/>
-        <v>0.84782608695652173</v>
+        <v>0.84210526315789469</v>
       </c>
       <c r="C28">
         <v>26</v>
@@ -9284,14 +9509,23 @@
       <c r="CT28" t="s">
         <v>7</v>
       </c>
+      <c r="CU28" t="s">
+        <v>7</v>
+      </c>
+      <c r="CV28" t="s">
+        <v>7</v>
+      </c>
+      <c r="CW28" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="29" spans="1:98" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>38</v>
       </c>
       <c r="B29" s="3">
         <f t="shared" si="0"/>
-        <v>0.94736842105263153</v>
+        <v>0.93877551020408168</v>
       </c>
       <c r="C29">
         <v>27</v>
@@ -9581,14 +9815,23 @@
       <c r="CT29" t="s">
         <v>7</v>
       </c>
+      <c r="CU29" t="s">
+        <v>7</v>
+      </c>
+      <c r="CV29" t="s">
+        <v>7</v>
+      </c>
+      <c r="CW29" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="30" spans="1:98" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>39</v>
       </c>
       <c r="B30" s="3">
         <f t="shared" si="0"/>
-        <v>0.96842105263157896</v>
+        <v>0.94897959183673475</v>
       </c>
       <c r="C30">
         <v>28</v>
@@ -9878,14 +10121,23 @@
       <c r="CT30" t="s">
         <v>8</v>
       </c>
+      <c r="CU30" t="s">
+        <v>7</v>
+      </c>
+      <c r="CV30" t="s">
+        <v>8</v>
+      </c>
+      <c r="CW30" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="31" spans="1:98" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>40</v>
       </c>
       <c r="B31" s="3">
         <f t="shared" si="0"/>
-        <v>0.11578947368421053</v>
+        <v>0.11224489795918367</v>
       </c>
       <c r="C31">
         <v>29</v>
@@ -10175,14 +10427,23 @@
       <c r="CT31" t="s">
         <v>8</v>
       </c>
+      <c r="CU31" t="s">
+        <v>8</v>
+      </c>
+      <c r="CV31" t="s">
+        <v>8</v>
+      </c>
+      <c r="CW31" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="32" spans="1:98" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>41</v>
       </c>
       <c r="B32" s="3">
         <f t="shared" si="0"/>
-        <v>0.83157894736842108</v>
+        <v>0.82653061224489799</v>
       </c>
       <c r="C32">
         <v>30</v>
@@ -10472,14 +10733,23 @@
       <c r="CT32" t="s">
         <v>7</v>
       </c>
+      <c r="CU32" t="s">
+        <v>7</v>
+      </c>
+      <c r="CV32" t="s">
+        <v>7</v>
+      </c>
+      <c r="CW32" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="33" spans="1:98" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>42</v>
       </c>
       <c r="B33" s="3">
         <f t="shared" si="0"/>
-        <v>0.93684210526315792</v>
+        <v>0.93877551020408168</v>
       </c>
       <c r="C33">
         <v>31</v>
@@ -10769,14 +11039,23 @@
       <c r="CT33" t="s">
         <v>7</v>
       </c>
+      <c r="CU33" t="s">
+        <v>7</v>
+      </c>
+      <c r="CV33" t="s">
+        <v>7</v>
+      </c>
+      <c r="CW33" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="34" spans="1:98" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>49</v>
       </c>
       <c r="B34" s="3">
         <f t="shared" si="0"/>
-        <v>0.86956521739130432</v>
+        <v>0.87368421052631584</v>
       </c>
       <c r="C34">
         <v>32</v>
@@ -11066,14 +11345,23 @@
       <c r="CT34" t="s">
         <v>8</v>
       </c>
+      <c r="CU34" t="s">
+        <v>7</v>
+      </c>
+      <c r="CV34" t="s">
+        <v>7</v>
+      </c>
+      <c r="CW34" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="35" spans="1:98" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>43</v>
       </c>
       <c r="B35" s="3">
         <f t="shared" si="0"/>
-        <v>0.94736842105263153</v>
+        <v>0.94897959183673475</v>
       </c>
       <c r="C35">
         <v>33</v>
@@ -11363,14 +11651,23 @@
       <c r="CT35" t="s">
         <v>7</v>
       </c>
+      <c r="CU35" t="s">
+        <v>7</v>
+      </c>
+      <c r="CV35" t="s">
+        <v>7</v>
+      </c>
+      <c r="CW35" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="36" spans="1:98" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>44</v>
       </c>
       <c r="B36" s="3">
         <f t="shared" si="0"/>
-        <v>0.41052631578947368</v>
+        <v>0.39795918367346939</v>
       </c>
       <c r="C36">
         <v>34</v>
@@ -11660,8 +11957,17 @@
       <c r="CT36" t="s">
         <v>8</v>
       </c>
+      <c r="CU36" t="s">
+        <v>8</v>
+      </c>
+      <c r="CV36" t="s">
+        <v>8</v>
+      </c>
+      <c r="CW36" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="38" spans="1:98" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:101" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>7</v>
       </c>
@@ -11669,7 +11975,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:98" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>19</v>
       </c>
@@ -11679,23 +11985,23 @@
       </c>
       <c r="C39">
         <f>COUNTIF($D3:$CZ3,$C$38)</f>
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="40" spans="1:98" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>20</v>
       </c>
       <c r="B40">
         <f t="shared" ref="B40:B72" si="1">COUNTIF($D4:$CZ4,$B$38)</f>
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C40">
         <f t="shared" ref="C40:C72" si="2">COUNTIF($D4:$CZ4,$C$38)</f>
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:98" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>21</v>
       </c>
@@ -11705,36 +12011,36 @@
       </c>
       <c r="C41">
         <f t="shared" si="2"/>
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
-    <row r="42" spans="1:98" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>22</v>
       </c>
       <c r="B42">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C42">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:98" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>23</v>
       </c>
       <c r="B43">
         <f t="shared" si="1"/>
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C43">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:98" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>50</v>
       </c>
@@ -11744,55 +12050,55 @@
       </c>
       <c r="C44">
         <f t="shared" si="2"/>
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
-    <row r="45" spans="1:98" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>24</v>
       </c>
       <c r="B45">
         <f t="shared" si="1"/>
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C45">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:98" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>25</v>
       </c>
       <c r="B46">
         <f t="shared" si="1"/>
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C46">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:98" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>26</v>
       </c>
       <c r="B47">
         <f t="shared" si="1"/>
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C47">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:98" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>12</v>
       </c>
       <c r="B48">
         <f t="shared" si="1"/>
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C48">
         <f t="shared" si="2"/>
@@ -11809,7 +12115,7 @@
       </c>
       <c r="C49">
         <f t="shared" si="2"/>
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -11818,11 +12124,11 @@
       </c>
       <c r="B50">
         <f t="shared" si="1"/>
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C50">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -11831,7 +12137,7 @@
       </c>
       <c r="B51">
         <f t="shared" si="1"/>
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C51">
         <f t="shared" si="2"/>
@@ -11848,7 +12154,7 @@
       </c>
       <c r="C52">
         <f t="shared" si="2"/>
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -11857,7 +12163,7 @@
       </c>
       <c r="B53">
         <f t="shared" si="1"/>
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C53">
         <f t="shared" si="2"/>
@@ -11870,7 +12176,7 @@
       </c>
       <c r="B54">
         <f t="shared" si="1"/>
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C54">
         <f t="shared" si="2"/>
@@ -11883,7 +12189,7 @@
       </c>
       <c r="B55">
         <f t="shared" si="1"/>
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C55">
         <f t="shared" si="2"/>
@@ -11900,7 +12206,7 @@
       </c>
       <c r="C56">
         <f t="shared" si="2"/>
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -11909,7 +12215,7 @@
       </c>
       <c r="B57">
         <f t="shared" si="1"/>
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C57">
         <f t="shared" si="2"/>
@@ -11922,7 +12228,7 @@
       </c>
       <c r="B58">
         <f t="shared" si="1"/>
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C58">
         <f t="shared" si="2"/>
@@ -11935,7 +12241,7 @@
       </c>
       <c r="B59">
         <f t="shared" si="1"/>
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C59">
         <f t="shared" si="2"/>
@@ -11952,7 +12258,7 @@
       </c>
       <c r="C60">
         <f t="shared" si="2"/>
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -11961,7 +12267,7 @@
       </c>
       <c r="B61">
         <f t="shared" si="1"/>
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C61">
         <f t="shared" si="2"/>
@@ -11974,11 +12280,11 @@
       </c>
       <c r="B62">
         <f t="shared" si="1"/>
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C62">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -11987,7 +12293,7 @@
       </c>
       <c r="B63">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C63">
         <f t="shared" si="2"/>
@@ -12000,11 +12306,11 @@
       </c>
       <c r="B64">
         <f t="shared" si="1"/>
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C64">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -12013,11 +12319,11 @@
       </c>
       <c r="B65">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C65">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -12026,11 +12332,11 @@
       </c>
       <c r="B66">
         <f t="shared" si="1"/>
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C66">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -12043,7 +12349,7 @@
       </c>
       <c r="C67">
         <f t="shared" si="2"/>
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -12052,11 +12358,11 @@
       </c>
       <c r="B68">
         <f t="shared" si="1"/>
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C68">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -12065,7 +12371,7 @@
       </c>
       <c r="B69">
         <f t="shared" si="1"/>
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C69">
         <f t="shared" si="2"/>
@@ -12078,7 +12384,7 @@
       </c>
       <c r="B70">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C70">
         <f t="shared" si="2"/>
@@ -12091,7 +12397,7 @@
       </c>
       <c r="B71">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C71">
         <f t="shared" si="2"/>
@@ -12108,7 +12414,7 @@
       </c>
       <c r="C72">
         <f t="shared" si="2"/>
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/1des/frequencia.xlsx
+++ b/1des/frequencia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2023\1des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{360FBCB8-2D24-451B-8F15-042CC4DB1B94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E37AFA3-C9C9-41B8-B455-9B16D73FE114}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3546" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3582" uniqueCount="54">
   <si>
     <t>Alunos</t>
   </si>
@@ -935,13 +935,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:CW72"/>
+  <dimension ref="A1:CY72"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="CP3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="CS21" sqref="CS21"/>
+      <selection pane="bottomRight" activeCell="CX8" sqref="CX8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -955,9 +955,10 @@
     <col min="53" max="72" width="6.85546875" bestFit="1" customWidth="1"/>
     <col min="73" max="90" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="91" max="97" width="7" bestFit="1" customWidth="1"/>
+    <col min="102" max="102" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1257,8 +1258,14 @@
       <c r="CW1" s="2">
         <v>45275</v>
       </c>
+      <c r="CX1" s="2">
+        <v>45278</v>
+      </c>
+      <c r="CY1" s="2">
+        <v>45279</v>
+      </c>
     </row>
-    <row r="2" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1562,14 +1569,20 @@
       <c r="CW2" t="s">
         <v>5</v>
       </c>
+      <c r="CX2" t="s">
+        <v>5</v>
+      </c>
+      <c r="CY2" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="3" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="3">
         <f>B39/(B39+C39)</f>
-        <v>0.18367346938775511</v>
+        <v>0.18181818181818182</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -1868,14 +1881,17 @@
       <c r="CW3" t="s">
         <v>8</v>
       </c>
+      <c r="CX3" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="4" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>20</v>
       </c>
       <c r="B4" s="3">
         <f t="shared" ref="B4:B36" si="0">B40/(B40+C40)</f>
-        <v>0.94897959183673475</v>
+        <v>0.9494949494949495</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -2174,14 +2190,17 @@
       <c r="CW4" t="s">
         <v>7</v>
       </c>
+      <c r="CX4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="5" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>21</v>
       </c>
       <c r="B5" s="3">
         <f t="shared" si="0"/>
-        <v>3.0612244897959183E-2</v>
+        <v>3.0303030303030304E-2</v>
       </c>
       <c r="C5">
         <v>3</v>
@@ -2480,14 +2499,17 @@
       <c r="CW5" t="s">
         <v>8</v>
       </c>
+      <c r="CX5" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="6" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>22</v>
       </c>
       <c r="B6" s="3">
         <f t="shared" si="0"/>
-        <v>0.94897959183673475</v>
+        <v>0.93939393939393945</v>
       </c>
       <c r="C6">
         <v>4</v>
@@ -2786,14 +2808,17 @@
       <c r="CW6" t="s">
         <v>7</v>
       </c>
+      <c r="CX6" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="7" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>23</v>
       </c>
       <c r="B7" s="3">
         <f t="shared" si="0"/>
-        <v>0.97959183673469385</v>
+        <v>0.97979797979797978</v>
       </c>
       <c r="C7">
         <v>5</v>
@@ -3092,14 +3117,17 @@
       <c r="CW7" t="s">
         <v>7</v>
       </c>
+      <c r="CX7" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="8" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>50</v>
       </c>
       <c r="B8" s="3">
         <f t="shared" si="0"/>
-        <v>0.70526315789473681</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="C8">
         <v>6</v>
@@ -3398,14 +3426,17 @@
       <c r="CW8" t="s">
         <v>8</v>
       </c>
+      <c r="CX8" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="9" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>24</v>
       </c>
       <c r="B9" s="3">
         <f t="shared" si="0"/>
-        <v>0.9285714285714286</v>
+        <v>0.92929292929292928</v>
       </c>
       <c r="C9">
         <v>7</v>
@@ -3704,14 +3735,17 @@
       <c r="CW9" t="s">
         <v>7</v>
       </c>
+      <c r="CX9" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="10" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>25</v>
       </c>
       <c r="B10" s="3">
         <f t="shared" si="0"/>
-        <v>0.98979591836734693</v>
+        <v>0.98989898989898994</v>
       </c>
       <c r="C10">
         <v>8</v>
@@ -4010,14 +4044,17 @@
       <c r="CW10" t="s">
         <v>7</v>
       </c>
+      <c r="CX10" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="11" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>26</v>
       </c>
       <c r="B11" s="3">
         <f t="shared" si="0"/>
-        <v>0.97959183673469385</v>
+        <v>0.96969696969696972</v>
       </c>
       <c r="C11">
         <v>9</v>
@@ -4316,14 +4353,17 @@
       <c r="CW11" t="s">
         <v>7</v>
       </c>
+      <c r="CX11" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="12" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="3">
         <f t="shared" si="0"/>
-        <v>0.97959183673469385</v>
+        <v>0.97979797979797978</v>
       </c>
       <c r="C12">
         <v>10</v>
@@ -4622,14 +4662,17 @@
       <c r="CW12" t="s">
         <v>7</v>
       </c>
+      <c r="CX12" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="13" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="3">
         <f t="shared" si="0"/>
-        <v>0.5714285714285714</v>
+        <v>0.56565656565656564</v>
       </c>
       <c r="C13">
         <v>11</v>
@@ -4928,14 +4971,17 @@
       <c r="CW13" t="s">
         <v>8</v>
       </c>
+      <c r="CX13" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="14" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>14</v>
       </c>
       <c r="B14" s="3">
         <f t="shared" si="0"/>
-        <v>0.82653061224489799</v>
+        <v>0.82828282828282829</v>
       </c>
       <c r="C14">
         <v>12</v>
@@ -5234,14 +5280,17 @@
       <c r="CW14" t="s">
         <v>8</v>
       </c>
+      <c r="CX14" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="15" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>16</v>
       </c>
       <c r="B15" s="3">
         <f t="shared" si="0"/>
-        <v>0.95918367346938771</v>
+        <v>0.9494949494949495</v>
       </c>
       <c r="C15">
         <v>13</v>
@@ -5540,14 +5589,17 @@
       <c r="CW15" t="s">
         <v>7</v>
       </c>
+      <c r="CX15" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="16" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>9</v>
       </c>
       <c r="B16" s="3">
         <f t="shared" si="0"/>
-        <v>9.4736842105263161E-2</v>
+        <v>9.375E-2</v>
       </c>
       <c r="C16">
         <v>14</v>
@@ -5846,14 +5898,17 @@
       <c r="CW16" t="s">
         <v>8</v>
       </c>
+      <c r="CX16" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="17" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>27</v>
       </c>
       <c r="B17" s="3">
         <f t="shared" si="0"/>
-        <v>0.97959183673469385</v>
+        <v>0.97979797979797978</v>
       </c>
       <c r="C17">
         <v>15</v>
@@ -6152,8 +6207,11 @@
       <c r="CW17" t="s">
         <v>7</v>
       </c>
+      <c r="CX17" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="18" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>28</v>
       </c>
@@ -6458,14 +6516,17 @@
       <c r="CW18" t="s">
         <v>7</v>
       </c>
+      <c r="CX18" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="19" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>30</v>
       </c>
       <c r="B19" s="3">
         <f t="shared" si="0"/>
-        <v>0.96938775510204078</v>
+        <v>0.96969696969696972</v>
       </c>
       <c r="C19">
         <v>17</v>
@@ -6764,14 +6825,17 @@
       <c r="CW19" t="s">
         <v>7</v>
       </c>
+      <c r="CX19" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="20" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>31</v>
       </c>
       <c r="B20" s="3">
         <f t="shared" si="0"/>
-        <v>0.37755102040816324</v>
+        <v>0.37373737373737376</v>
       </c>
       <c r="C20">
         <v>18</v>
@@ -7070,14 +7134,17 @@
       <c r="CW20" t="s">
         <v>8</v>
       </c>
+      <c r="CX20" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="21" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>33</v>
       </c>
       <c r="B21" s="3">
         <f t="shared" si="0"/>
-        <v>0.74489795918367352</v>
+        <v>0.74747474747474751</v>
       </c>
       <c r="C21">
         <v>19</v>
@@ -7376,14 +7443,17 @@
       <c r="CW21" t="s">
         <v>7</v>
       </c>
+      <c r="CX21" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="22" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>48</v>
       </c>
       <c r="B22" s="3">
         <f t="shared" si="0"/>
-        <v>0.95789473684210524</v>
+        <v>0.94791666666666663</v>
       </c>
       <c r="C22">
         <v>20</v>
@@ -7682,14 +7752,17 @@
       <c r="CW22" t="s">
         <v>7</v>
       </c>
+      <c r="CX22" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="23" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>17</v>
       </c>
       <c r="B23" s="3">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.98989898989898994</v>
       </c>
       <c r="C23">
         <v>21</v>
@@ -7988,14 +8061,17 @@
       <c r="CW23" t="s">
         <v>7</v>
       </c>
+      <c r="CX23" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="24" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>34</v>
       </c>
       <c r="B24" s="3">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0.49494949494949497</v>
       </c>
       <c r="C24">
         <v>22</v>
@@ -8294,14 +8370,17 @@
       <c r="CW24" t="s">
         <v>8</v>
       </c>
+      <c r="CX24" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="25" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>35</v>
       </c>
       <c r="B25" s="3">
         <f t="shared" si="0"/>
-        <v>0.93877551020408168</v>
+        <v>0.92929292929292928</v>
       </c>
       <c r="C25">
         <v>23</v>
@@ -8600,14 +8679,17 @@
       <c r="CW25" t="s">
         <v>7</v>
       </c>
+      <c r="CX25" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="26" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>36</v>
       </c>
       <c r="B26" s="3">
         <f t="shared" si="0"/>
-        <v>0.82653061224489799</v>
+        <v>0.81818181818181823</v>
       </c>
       <c r="C26">
         <v>24</v>
@@ -8906,14 +8988,17 @@
       <c r="CW26" t="s">
         <v>8</v>
       </c>
+      <c r="CX26" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="27" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>46</v>
       </c>
       <c r="B27" s="3">
         <f t="shared" si="0"/>
-        <v>0.94897959183673475</v>
+        <v>0.9494949494949495</v>
       </c>
       <c r="C27">
         <v>25</v>
@@ -9212,14 +9297,17 @@
       <c r="CW27" t="s">
         <v>7</v>
       </c>
+      <c r="CX27" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="28" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>10</v>
       </c>
       <c r="B28" s="3">
         <f t="shared" si="0"/>
-        <v>0.84210526315789469</v>
+        <v>0.84375</v>
       </c>
       <c r="C28">
         <v>26</v>
@@ -9518,14 +9606,17 @@
       <c r="CW28" t="s">
         <v>8</v>
       </c>
+      <c r="CX28" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="29" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>38</v>
       </c>
       <c r="B29" s="3">
         <f t="shared" si="0"/>
-        <v>0.93877551020408168</v>
+        <v>0.92929292929292928</v>
       </c>
       <c r="C29">
         <v>27</v>
@@ -9824,14 +9915,17 @@
       <c r="CW29" t="s">
         <v>8</v>
       </c>
+      <c r="CX29" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="30" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>39</v>
       </c>
       <c r="B30" s="3">
         <f t="shared" si="0"/>
-        <v>0.94897959183673475</v>
+        <v>0.93939393939393945</v>
       </c>
       <c r="C30">
         <v>28</v>
@@ -10130,14 +10224,17 @@
       <c r="CW30" t="s">
         <v>8</v>
       </c>
+      <c r="CX30" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="31" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>40</v>
       </c>
       <c r="B31" s="3">
         <f t="shared" si="0"/>
-        <v>0.11224489795918367</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="C31">
         <v>29</v>
@@ -10436,14 +10533,17 @@
       <c r="CW31" t="s">
         <v>8</v>
       </c>
+      <c r="CX31" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="32" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>41</v>
       </c>
       <c r="B32" s="3">
         <f t="shared" si="0"/>
-        <v>0.82653061224489799</v>
+        <v>0.81818181818181823</v>
       </c>
       <c r="C32">
         <v>30</v>
@@ -10742,14 +10842,17 @@
       <c r="CW32" t="s">
         <v>8</v>
       </c>
+      <c r="CX32" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="33" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>42</v>
       </c>
       <c r="B33" s="3">
         <f t="shared" si="0"/>
-        <v>0.93877551020408168</v>
+        <v>0.93939393939393945</v>
       </c>
       <c r="C33">
         <v>31</v>
@@ -11048,14 +11151,17 @@
       <c r="CW33" t="s">
         <v>7</v>
       </c>
+      <c r="CX33" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="34" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>49</v>
       </c>
       <c r="B34" s="3">
         <f t="shared" si="0"/>
-        <v>0.87368421052631584</v>
+        <v>0.86458333333333337</v>
       </c>
       <c r="C34">
         <v>32</v>
@@ -11354,14 +11460,17 @@
       <c r="CW34" t="s">
         <v>7</v>
       </c>
+      <c r="CX34" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="35" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>43</v>
       </c>
       <c r="B35" s="3">
         <f t="shared" si="0"/>
-        <v>0.94897959183673475</v>
+        <v>0.93939393939393945</v>
       </c>
       <c r="C35">
         <v>33</v>
@@ -11660,14 +11769,17 @@
       <c r="CW35" t="s">
         <v>7</v>
       </c>
+      <c r="CX35" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="36" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>44</v>
       </c>
       <c r="B36" s="3">
         <f t="shared" si="0"/>
-        <v>0.39795918367346939</v>
+        <v>0.39393939393939392</v>
       </c>
       <c r="C36">
         <v>34</v>
@@ -11966,8 +12078,11 @@
       <c r="CW36" t="s">
         <v>8</v>
       </c>
+      <c r="CX36" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="38" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:102" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>7</v>
       </c>
@@ -11975,7 +12090,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>19</v>
       </c>
@@ -11985,23 +12100,23 @@
       </c>
       <c r="C39">
         <f>COUNTIF($D3:$CZ3,$C$38)</f>
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
-    <row r="40" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>20</v>
       </c>
       <c r="B40">
         <f t="shared" ref="B40:B72" si="1">COUNTIF($D4:$CZ4,$B$38)</f>
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C40">
         <f t="shared" ref="C40:C72" si="2">COUNTIF($D4:$CZ4,$C$38)</f>
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>21</v>
       </c>
@@ -12011,10 +12126,10 @@
       </c>
       <c r="C41">
         <f t="shared" si="2"/>
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
-    <row r="42" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>22</v>
       </c>
@@ -12024,62 +12139,62 @@
       </c>
       <c r="C42">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>23</v>
       </c>
       <c r="B43">
         <f t="shared" si="1"/>
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C43">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>50</v>
       </c>
       <c r="B44">
         <f t="shared" si="1"/>
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C44">
         <f t="shared" si="2"/>
         <v>28</v>
       </c>
     </row>
-    <row r="45" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>24</v>
       </c>
       <c r="B45">
         <f t="shared" si="1"/>
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C45">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>25</v>
       </c>
       <c r="B46">
         <f t="shared" si="1"/>
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C46">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>26</v>
       </c>
@@ -12089,16 +12204,16 @@
       </c>
       <c r="C47">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>12</v>
       </c>
       <c r="B48">
         <f t="shared" si="1"/>
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C48">
         <f t="shared" si="2"/>
@@ -12115,7 +12230,7 @@
       </c>
       <c r="C49">
         <f t="shared" si="2"/>
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -12124,7 +12239,7 @@
       </c>
       <c r="B50">
         <f t="shared" si="1"/>
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C50">
         <f t="shared" si="2"/>
@@ -12141,7 +12256,7 @@
       </c>
       <c r="C51">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -12154,7 +12269,7 @@
       </c>
       <c r="C52">
         <f t="shared" si="2"/>
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -12163,7 +12278,7 @@
       </c>
       <c r="B53">
         <f t="shared" si="1"/>
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C53">
         <f t="shared" si="2"/>
@@ -12176,7 +12291,7 @@
       </c>
       <c r="B54">
         <f t="shared" si="1"/>
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C54">
         <f t="shared" si="2"/>
@@ -12189,7 +12304,7 @@
       </c>
       <c r="B55">
         <f t="shared" si="1"/>
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C55">
         <f t="shared" si="2"/>
@@ -12206,7 +12321,7 @@
       </c>
       <c r="C56">
         <f t="shared" si="2"/>
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -12215,7 +12330,7 @@
       </c>
       <c r="B57">
         <f t="shared" si="1"/>
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C57">
         <f t="shared" si="2"/>
@@ -12232,7 +12347,7 @@
       </c>
       <c r="C58">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -12245,7 +12360,7 @@
       </c>
       <c r="C59">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -12258,7 +12373,7 @@
       </c>
       <c r="C60">
         <f t="shared" si="2"/>
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -12271,7 +12386,7 @@
       </c>
       <c r="C61">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -12284,7 +12399,7 @@
       </c>
       <c r="C62">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -12293,7 +12408,7 @@
       </c>
       <c r="B63">
         <f t="shared" si="1"/>
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C63">
         <f t="shared" si="2"/>
@@ -12306,7 +12421,7 @@
       </c>
       <c r="B64">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C64">
         <f t="shared" si="2"/>
@@ -12323,7 +12438,7 @@
       </c>
       <c r="C65">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -12336,7 +12451,7 @@
       </c>
       <c r="C66">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -12349,7 +12464,7 @@
       </c>
       <c r="C67">
         <f t="shared" si="2"/>
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -12362,7 +12477,7 @@
       </c>
       <c r="C68">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -12371,7 +12486,7 @@
       </c>
       <c r="B69">
         <f t="shared" si="1"/>
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C69">
         <f t="shared" si="2"/>
@@ -12388,7 +12503,7 @@
       </c>
       <c r="C70">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -12401,7 +12516,7 @@
       </c>
       <c r="C71">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -12414,7 +12529,7 @@
       </c>
       <c r="C72">
         <f t="shared" si="2"/>
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/1des/frequencia.xlsx
+++ b/1des/frequencia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2023\1des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E37AFA3-C9C9-41B8-B455-9B16D73FE114}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FBF514A-F435-411A-9D2D-2EA2118AF09A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="todos" sheetId="2" r:id="rId1"/>
@@ -21,12 +21,23 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3582" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3310" uniqueCount="54">
   <si>
     <t>Alunos</t>
   </si>
@@ -935,13 +946,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:CY72"/>
+  <dimension ref="A1:CY66"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="CP3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="BV3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="CX8" sqref="CX8"/>
+      <selection pane="bottomRight" activeCell="CY32" sqref="CY32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1581,8 +1592,8 @@
         <v>19</v>
       </c>
       <c r="B3" s="3">
-        <f>B39/(B39+C39)</f>
-        <v>0.18181818181818182</v>
+        <f t="shared" ref="B3:B33" si="0">B36/(B36+C36)</f>
+        <v>0.18</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -1882,6 +1893,9 @@
         <v>8</v>
       </c>
       <c r="CX3" t="s">
+        <v>8</v>
+      </c>
+      <c r="CY3" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1890,8 +1904,8 @@
         <v>20</v>
       </c>
       <c r="B4" s="3">
-        <f t="shared" ref="B4:B36" si="0">B40/(B40+C40)</f>
-        <v>0.9494949494949495</v>
+        <f t="shared" si="0"/>
+        <v>0.95</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -2191,6 +2205,9 @@
         <v>7</v>
       </c>
       <c r="CX4" t="s">
+        <v>7</v>
+      </c>
+      <c r="CY4" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2200,7 +2217,7 @@
       </c>
       <c r="B5" s="3">
         <f t="shared" si="0"/>
-        <v>3.0303030303030304E-2</v>
+        <v>0.03</v>
       </c>
       <c r="C5">
         <v>3</v>
@@ -2500,6 +2517,9 @@
         <v>8</v>
       </c>
       <c r="CX5" t="s">
+        <v>8</v>
+      </c>
+      <c r="CY5" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2509,7 +2529,7 @@
       </c>
       <c r="B6" s="3">
         <f t="shared" si="0"/>
-        <v>0.93939393939393945</v>
+        <v>0.93</v>
       </c>
       <c r="C6">
         <v>4</v>
@@ -2809,6 +2829,9 @@
         <v>7</v>
       </c>
       <c r="CX6" t="s">
+        <v>8</v>
+      </c>
+      <c r="CY6" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2818,7 +2841,7 @@
       </c>
       <c r="B7" s="3">
         <f t="shared" si="0"/>
-        <v>0.97979797979797978</v>
+        <v>0.98</v>
       </c>
       <c r="C7">
         <v>5</v>
@@ -3118,6 +3141,9 @@
         <v>7</v>
       </c>
       <c r="CX7" t="s">
+        <v>7</v>
+      </c>
+      <c r="CY7" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3127,7 +3153,7 @@
       </c>
       <c r="B8" s="3">
         <f t="shared" si="0"/>
-        <v>0.70833333333333337</v>
+        <v>0.73195876288659789</v>
       </c>
       <c r="C8">
         <v>6</v>
@@ -3358,7 +3384,7 @@
         <v>7</v>
       </c>
       <c r="CA8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CB8" t="s">
         <v>7</v>
@@ -3406,7 +3432,7 @@
         <v>7</v>
       </c>
       <c r="CQ8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CR8" t="s">
         <v>7</v>
@@ -3427,6 +3453,9 @@
         <v>8</v>
       </c>
       <c r="CX8" t="s">
+        <v>7</v>
+      </c>
+      <c r="CY8" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3436,7 +3465,7 @@
       </c>
       <c r="B9" s="3">
         <f t="shared" si="0"/>
-        <v>0.92929292929292928</v>
+        <v>0.92</v>
       </c>
       <c r="C9">
         <v>7</v>
@@ -3737,6 +3766,9 @@
       </c>
       <c r="CX9" t="s">
         <v>7</v>
+      </c>
+      <c r="CY9" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:103" x14ac:dyDescent="0.25">
@@ -3745,7 +3777,7 @@
       </c>
       <c r="B10" s="3">
         <f t="shared" si="0"/>
-        <v>0.98989898989898994</v>
+        <v>0.99</v>
       </c>
       <c r="C10">
         <v>8</v>
@@ -4045,6 +4077,9 @@
         <v>7</v>
       </c>
       <c r="CX10" t="s">
+        <v>7</v>
+      </c>
+      <c r="CY10" t="s">
         <v>7</v>
       </c>
     </row>
@@ -4054,7 +4089,7 @@
       </c>
       <c r="B11" s="3">
         <f t="shared" si="0"/>
-        <v>0.96969696969696972</v>
+        <v>0.97</v>
       </c>
       <c r="C11">
         <v>9</v>
@@ -4355,6 +4390,9 @@
       </c>
       <c r="CX11" t="s">
         <v>8</v>
+      </c>
+      <c r="CY11" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:103" x14ac:dyDescent="0.25">
@@ -4363,7 +4401,7 @@
       </c>
       <c r="B12" s="3">
         <f t="shared" si="0"/>
-        <v>0.97979797979797978</v>
+        <v>0.98</v>
       </c>
       <c r="C12">
         <v>10</v>
@@ -4663,16 +4701,19 @@
         <v>7</v>
       </c>
       <c r="CX12" t="s">
+        <v>7</v>
+      </c>
+      <c r="CY12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B13" s="3">
         <f t="shared" si="0"/>
-        <v>0.56565656565656564</v>
+        <v>0.84</v>
       </c>
       <c r="C13">
         <v>11</v>
@@ -4687,7 +4728,7 @@
         <v>7</v>
       </c>
       <c r="G13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H13" t="s">
         <v>7</v>
@@ -4735,7 +4776,7 @@
         <v>7</v>
       </c>
       <c r="W13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="X13" t="s">
         <v>7</v>
@@ -4789,25 +4830,25 @@
         <v>7</v>
       </c>
       <c r="AO13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AP13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AQ13" t="s">
         <v>7</v>
       </c>
       <c r="AR13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AS13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AT13" s="3" t="s">
         <v>7</v>
       </c>
       <c r="AU13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AV13" t="s">
         <v>7</v>
@@ -4825,7 +4866,7 @@
         <v>7</v>
       </c>
       <c r="BA13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BB13" t="s">
         <v>7</v>
@@ -4837,7 +4878,7 @@
         <v>7</v>
       </c>
       <c r="BE13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BF13" t="s">
         <v>7</v>
@@ -4864,10 +4905,10 @@
         <v>7</v>
       </c>
       <c r="BN13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BO13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BP13" t="s">
         <v>8</v>
@@ -4876,7 +4917,7 @@
         <v>7</v>
       </c>
       <c r="BR13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BS13" t="s">
         <v>7</v>
@@ -4885,55 +4926,55 @@
         <v>7</v>
       </c>
       <c r="BU13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BV13" t="s">
         <v>7</v>
       </c>
       <c r="BW13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BX13" t="s">
         <v>7</v>
       </c>
       <c r="BY13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BZ13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CA13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CB13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CC13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CD13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CE13" t="s">
         <v>8</v>
       </c>
       <c r="CF13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CG13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CH13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CI13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CJ13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CK13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CL13" t="s">
         <v>8</v>
@@ -4945,43 +4986,46 @@
         <v>8</v>
       </c>
       <c r="CO13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CP13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CQ13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CR13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CS13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CT13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CU13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CV13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CW13" t="s">
         <v>8</v>
       </c>
       <c r="CX13" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="CY13" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B14" s="3">
         <f t="shared" si="0"/>
-        <v>0.82828282828282829</v>
+        <v>0.95</v>
       </c>
       <c r="C14">
         <v>12</v>
@@ -4996,7 +5040,7 @@
         <v>7</v>
       </c>
       <c r="G14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H14" t="s">
         <v>7</v>
@@ -5023,7 +5067,7 @@
         <v>7</v>
       </c>
       <c r="P14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Q14" t="s">
         <v>7</v>
@@ -5062,7 +5106,7 @@
         <v>7</v>
       </c>
       <c r="AC14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AD14" t="s">
         <v>7</v>
@@ -5107,7 +5151,7 @@
         <v>7</v>
       </c>
       <c r="AR14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AS14" t="s">
         <v>7</v>
@@ -5128,7 +5172,7 @@
         <v>7</v>
       </c>
       <c r="AY14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AZ14" t="s">
         <v>7</v>
@@ -5137,10 +5181,10 @@
         <v>7</v>
       </c>
       <c r="BB14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BC14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BD14" t="s">
         <v>7</v>
@@ -5155,13 +5199,13 @@
         <v>7</v>
       </c>
       <c r="BH14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BI14" t="s">
         <v>7</v>
       </c>
       <c r="BJ14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BK14" t="s">
         <v>7</v>
@@ -5176,10 +5220,10 @@
         <v>7</v>
       </c>
       <c r="BO14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BP14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BQ14" t="s">
         <v>7</v>
@@ -5200,10 +5244,10 @@
         <v>7</v>
       </c>
       <c r="BW14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BX14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BY14" t="s">
         <v>7</v>
@@ -5215,7 +5259,7 @@
         <v>7</v>
       </c>
       <c r="CB14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CC14" t="s">
         <v>7</v>
@@ -5224,7 +5268,7 @@
         <v>7</v>
       </c>
       <c r="CE14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CF14" t="s">
         <v>7</v>
@@ -5245,13 +5289,13 @@
         <v>7</v>
       </c>
       <c r="CL14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CM14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CN14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CO14" t="s">
         <v>7</v>
@@ -5278,34 +5322,37 @@
         <v>7</v>
       </c>
       <c r="CW14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CX14" t="s">
+        <v>8</v>
+      </c>
+      <c r="CY14" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B15" s="3">
         <f t="shared" si="0"/>
-        <v>0.9494949494949495</v>
+        <v>9.2783505154639179E-2</v>
       </c>
       <c r="C15">
         <v>13</v>
       </c>
       <c r="D15" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="E15" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="F15" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="G15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H15" t="s">
         <v>7</v>
@@ -5332,286 +5379,289 @@
         <v>7</v>
       </c>
       <c r="P15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Q15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="S15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="T15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="U15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="V15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="W15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="X15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Y15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Z15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AA15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AB15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AC15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AD15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AE15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AF15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AG15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AH15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AI15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AJ15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AK15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AL15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AM15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AN15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AO15" t="s">
         <v>8</v>
       </c>
       <c r="AP15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AQ15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AR15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AS15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AT15" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AU15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AV15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AW15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AX15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AY15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AZ15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BB15" t="s">
         <v>8</v>
       </c>
       <c r="BC15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BD15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BE15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BF15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BG15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BH15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BI15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BJ15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BK15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BL15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BM15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BN15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BO15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BP15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BQ15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BR15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BS15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BT15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BU15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BV15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BW15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BX15" t="s">
         <v>8</v>
       </c>
       <c r="BY15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BZ15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CA15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CB15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CC15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CD15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CE15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CF15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CG15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CH15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CI15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CJ15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CK15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CL15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CM15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CN15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CO15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CP15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CQ15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CR15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CS15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CT15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CU15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CV15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CW15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CX15" t="s">
+        <v>8</v>
+      </c>
+      <c r="CY15" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="B16" s="3">
         <f t="shared" si="0"/>
-        <v>9.375E-2</v>
+        <v>0.97</v>
       </c>
       <c r="C16">
         <v>14</v>
       </c>
       <c r="D16" t="s">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="E16" t="s">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="F16" t="s">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="G16" t="s">
         <v>7</v>
@@ -5641,274 +5691,277 @@
         <v>7</v>
       </c>
       <c r="P16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Q16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="S16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="T16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="U16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="V16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="W16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="X16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Y16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Z16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AA16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AB16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AC16" t="s">
         <v>8</v>
       </c>
       <c r="AD16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AE16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AF16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AG16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AH16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AI16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AJ16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AK16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AL16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AM16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AN16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AO16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AP16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AQ16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AR16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AS16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AT16" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AU16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AV16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AW16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AX16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AY16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AZ16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BA16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BB16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BC16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BD16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BE16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BF16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BG16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BH16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BI16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BJ16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BK16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BL16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BM16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BN16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BO16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BP16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BQ16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BR16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BS16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BT16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BU16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BV16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BW16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BX16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BY16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BZ16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CA16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CB16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CC16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CD16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CE16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CF16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CG16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CH16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CI16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CJ16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CK16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CL16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CM16" t="s">
         <v>8</v>
       </c>
       <c r="CN16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CO16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CP16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CQ16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CR16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CS16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CT16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CU16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CV16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CW16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CX16" t="s">
+        <v>7</v>
+      </c>
+      <c r="CY16" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B17" s="3">
         <f t="shared" si="0"/>
-        <v>0.97979797979797978</v>
+        <v>1</v>
       </c>
       <c r="C17">
         <v>15</v>
@@ -5989,7 +6042,7 @@
         <v>7</v>
       </c>
       <c r="AC17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AD17" t="s">
         <v>7</v>
@@ -6175,7 +6228,7 @@
         <v>7</v>
       </c>
       <c r="CM17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CN17" t="s">
         <v>7</v>
@@ -6210,14 +6263,17 @@
       <c r="CX17" t="s">
         <v>7</v>
       </c>
+      <c r="CY17" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="18" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B18" s="3">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="C18">
         <v>16</v>
@@ -6259,7 +6315,7 @@
         <v>7</v>
       </c>
       <c r="P18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Q18" t="s">
         <v>7</v>
@@ -6367,7 +6423,7 @@
         <v>7</v>
       </c>
       <c r="AZ18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA18" t="s">
         <v>7</v>
@@ -6460,7 +6516,7 @@
         <v>7</v>
       </c>
       <c r="CE18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CF18" t="s">
         <v>7</v>
@@ -6519,14 +6575,17 @@
       <c r="CX18" t="s">
         <v>7</v>
       </c>
+      <c r="CY18" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="19" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B19" s="3">
         <f t="shared" si="0"/>
-        <v>0.96969696969696972</v>
+        <v>0.76</v>
       </c>
       <c r="C19">
         <v>17</v>
@@ -6541,7 +6600,7 @@
         <v>7</v>
       </c>
       <c r="G19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H19" t="s">
         <v>7</v>
@@ -6562,13 +6621,13 @@
         <v>7</v>
       </c>
       <c r="N19" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="O19" t="s">
         <v>7</v>
       </c>
       <c r="P19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Q19" t="s">
         <v>7</v>
@@ -6631,10 +6690,10 @@
         <v>7</v>
       </c>
       <c r="AK19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AL19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AM19" t="s">
         <v>7</v>
@@ -6649,7 +6708,7 @@
         <v>7</v>
       </c>
       <c r="AQ19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AR19" t="s">
         <v>7</v>
@@ -6676,10 +6735,10 @@
         <v>7</v>
       </c>
       <c r="AZ19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BA19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BB19" t="s">
         <v>7</v>
@@ -6688,64 +6747,64 @@
         <v>7</v>
       </c>
       <c r="BD19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BE19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BF19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BG19" t="s">
         <v>7</v>
       </c>
       <c r="BH19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BI19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BJ19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BK19" t="s">
         <v>7</v>
       </c>
       <c r="BL19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BM19" t="s">
         <v>7</v>
       </c>
       <c r="BN19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BO19" t="s">
         <v>7</v>
       </c>
       <c r="BP19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BQ19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BR19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BS19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BT19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BU19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BV19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BW19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BX19" t="s">
         <v>7</v>
@@ -6781,7 +6840,7 @@
         <v>7</v>
       </c>
       <c r="CI19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CJ19" t="s">
         <v>7</v>
@@ -6790,7 +6849,7 @@
         <v>7</v>
       </c>
       <c r="CL19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CM19" t="s">
         <v>7</v>
@@ -6828,26 +6887,29 @@
       <c r="CX19" t="s">
         <v>7</v>
       </c>
+      <c r="CY19" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="20" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="B20" s="3">
         <f t="shared" si="0"/>
-        <v>0.37373737373737376</v>
+        <v>0.93814432989690721</v>
       </c>
       <c r="C20">
         <v>18</v>
       </c>
       <c r="D20" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="E20" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="F20" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="G20" t="s">
         <v>7</v>
@@ -6865,13 +6927,13 @@
         <v>7</v>
       </c>
       <c r="L20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O20" t="s">
         <v>7</v>
@@ -6895,7 +6957,7 @@
         <v>7</v>
       </c>
       <c r="V20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="W20" t="s">
         <v>7</v>
@@ -6913,13 +6975,13 @@
         <v>7</v>
       </c>
       <c r="AB20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AC20" t="s">
         <v>7</v>
       </c>
       <c r="AD20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AE20" t="s">
         <v>7</v>
@@ -6928,7 +6990,7 @@
         <v>7</v>
       </c>
       <c r="AG20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AH20" t="s">
         <v>7</v>
@@ -6940,7 +7002,7 @@
         <v>7</v>
       </c>
       <c r="AK20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AL20" t="s">
         <v>8</v>
@@ -6952,7 +7014,7 @@
         <v>7</v>
       </c>
       <c r="AO20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AP20" t="s">
         <v>7</v>
@@ -6964,187 +7026,190 @@
         <v>7</v>
       </c>
       <c r="AS20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AT20" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AU20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AV20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AW20" t="s">
         <v>7</v>
       </c>
       <c r="AX20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AY20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AZ20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BA20" t="s">
         <v>7</v>
       </c>
       <c r="BB20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BC20" t="s">
         <v>7</v>
       </c>
       <c r="BD20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BE20" t="s">
         <v>7</v>
       </c>
       <c r="BF20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BG20" t="s">
         <v>7</v>
       </c>
       <c r="BH20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BI20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BJ20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BK20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BL20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BM20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BN20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BO20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BP20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BQ20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BR20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BS20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BT20" t="s">
         <v>8</v>
       </c>
       <c r="BU20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BV20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BW20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BX20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BY20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BZ20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CA20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CB20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CC20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CD20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CE20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CF20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CG20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CH20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CI20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CJ20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CK20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CL20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CM20" t="s">
         <v>8</v>
       </c>
       <c r="CN20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CO20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CP20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CQ20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CR20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CS20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CT20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CU20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CV20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CW20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CX20" t="s">
         <v>8</v>
       </c>
+      <c r="CY20" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="21" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="B21" s="3">
         <f t="shared" si="0"/>
-        <v>0.74747474747474751</v>
+        <v>0.98</v>
       </c>
       <c r="C21">
         <v>19</v>
@@ -7159,7 +7224,7 @@
         <v>7</v>
       </c>
       <c r="G21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H21" t="s">
         <v>7</v>
@@ -7249,10 +7314,10 @@
         <v>7</v>
       </c>
       <c r="AK21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AL21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AM21" t="s">
         <v>7</v>
@@ -7267,7 +7332,7 @@
         <v>7</v>
       </c>
       <c r="AQ21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AR21" t="s">
         <v>7</v>
@@ -7297,7 +7362,7 @@
         <v>7</v>
       </c>
       <c r="BA21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BB21" t="s">
         <v>7</v>
@@ -7306,64 +7371,64 @@
         <v>7</v>
       </c>
       <c r="BD21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BE21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BF21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BG21" t="s">
         <v>7</v>
       </c>
       <c r="BH21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BI21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BJ21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BK21" t="s">
         <v>7</v>
       </c>
       <c r="BL21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BM21" t="s">
         <v>7</v>
       </c>
       <c r="BN21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BO21" t="s">
         <v>7</v>
       </c>
       <c r="BP21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BQ21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BR21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BS21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BT21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BU21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BV21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BW21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BX21" t="s">
         <v>7</v>
@@ -7375,7 +7440,7 @@
         <v>7</v>
       </c>
       <c r="CA21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CB21" t="s">
         <v>7</v>
@@ -7387,7 +7452,7 @@
         <v>7</v>
       </c>
       <c r="CE21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CF21" t="s">
         <v>7</v>
@@ -7399,7 +7464,7 @@
         <v>7</v>
       </c>
       <c r="CI21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CJ21" t="s">
         <v>7</v>
@@ -7408,7 +7473,7 @@
         <v>7</v>
       </c>
       <c r="CL21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CM21" t="s">
         <v>7</v>
@@ -7444,31 +7509,34 @@
         <v>7</v>
       </c>
       <c r="CX21" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="CY21" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="B22" s="3">
         <f t="shared" si="0"/>
-        <v>0.94791666666666663</v>
+        <v>0.49</v>
       </c>
       <c r="C22">
         <v>20</v>
       </c>
       <c r="D22" t="s">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="E22" t="s">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="F22" t="s">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="G22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H22" t="s">
         <v>7</v>
@@ -7504,7 +7572,7 @@
         <v>7</v>
       </c>
       <c r="S22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="T22" t="s">
         <v>7</v>
@@ -7534,7 +7602,7 @@
         <v>7</v>
       </c>
       <c r="AC22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AD22" t="s">
         <v>7</v>
@@ -7567,7 +7635,7 @@
         <v>7</v>
       </c>
       <c r="AN22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AO22" t="s">
         <v>7</v>
@@ -7594,7 +7662,7 @@
         <v>7</v>
       </c>
       <c r="AW22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AX22" t="s">
         <v>7</v>
@@ -7627,142 +7695,145 @@
         <v>7</v>
       </c>
       <c r="BH22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BI22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BJ22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BK22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BL22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BM22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BN22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BO22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BP22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BQ22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BR22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BS22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BT22" t="s">
         <v>8</v>
       </c>
       <c r="BU22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BV22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BW22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BX22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BY22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BZ22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CA22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CB22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CC22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CD22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CE22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CF22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CG22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CH22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CI22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CJ22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CK22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CL22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CM22" t="s">
         <v>8</v>
       </c>
       <c r="CN22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CO22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CP22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CQ22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CR22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CS22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CT22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CU22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CV22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CW22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CX22" t="s">
         <v>8</v>
       </c>
+      <c r="CY22" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="23" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="B23" s="3">
         <f t="shared" si="0"/>
-        <v>0.98989898989898994</v>
+        <v>0.92</v>
       </c>
       <c r="C23">
         <v>21</v>
@@ -7798,7 +7869,7 @@
         <v>7</v>
       </c>
       <c r="N23" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="O23" t="s">
         <v>7</v>
@@ -7855,7 +7926,7 @@
         <v>7</v>
       </c>
       <c r="AG23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AH23" t="s">
         <v>7</v>
@@ -7921,7 +7992,7 @@
         <v>7</v>
       </c>
       <c r="BC23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BD23" t="s">
         <v>7</v>
@@ -7930,7 +8001,7 @@
         <v>7</v>
       </c>
       <c r="BF23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BG23" t="s">
         <v>7</v>
@@ -7993,10 +8064,10 @@
         <v>7</v>
       </c>
       <c r="CA23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CB23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CC23" t="s">
         <v>7</v>
@@ -8044,7 +8115,7 @@
         <v>7</v>
       </c>
       <c r="CR23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CS23" t="s">
         <v>7</v>
@@ -8064,14 +8135,17 @@
       <c r="CX23" t="s">
         <v>8</v>
       </c>
+      <c r="CY23" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="24" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B24" s="3">
         <f t="shared" si="0"/>
-        <v>0.49494949494949497</v>
+        <v>0.82</v>
       </c>
       <c r="C24">
         <v>22</v>
@@ -8086,7 +8160,7 @@
         <v>7</v>
       </c>
       <c r="G24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H24" t="s">
         <v>7</v>
@@ -8107,10 +8181,10 @@
         <v>7</v>
       </c>
       <c r="N24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="P24" t="s">
         <v>7</v>
@@ -8122,7 +8196,7 @@
         <v>7</v>
       </c>
       <c r="S24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="T24" t="s">
         <v>7</v>
@@ -8146,13 +8220,13 @@
         <v>7</v>
       </c>
       <c r="AA24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AB24" t="s">
         <v>7</v>
       </c>
       <c r="AC24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AD24" t="s">
         <v>7</v>
@@ -8179,19 +8253,19 @@
         <v>7</v>
       </c>
       <c r="AL24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AM24" t="s">
         <v>7</v>
       </c>
       <c r="AN24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AO24" t="s">
         <v>7</v>
       </c>
       <c r="AP24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AQ24" t="s">
         <v>7</v>
@@ -8209,19 +8283,19 @@
         <v>7</v>
       </c>
       <c r="AV24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AW24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AX24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AY24" t="s">
         <v>7</v>
       </c>
       <c r="AZ24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA24" t="s">
         <v>7</v>
@@ -8236,10 +8310,10 @@
         <v>7</v>
       </c>
       <c r="BE24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BF24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BG24" t="s">
         <v>7</v>
@@ -8251,76 +8325,76 @@
         <v>8</v>
       </c>
       <c r="BJ24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BK24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BL24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BM24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BN24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BO24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BP24" t="s">
         <v>8</v>
       </c>
       <c r="BQ24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BR24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BS24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BT24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BU24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BV24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BW24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BX24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BY24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BZ24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CA24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CB24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CC24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CD24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CE24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CF24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CG24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CH24" t="s">
         <v>8</v>
@@ -8338,34 +8412,34 @@
         <v>8</v>
       </c>
       <c r="CM24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CN24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CO24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CP24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CQ24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CR24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CS24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CT24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CU24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CV24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CW24" t="s">
         <v>8</v>
@@ -8373,14 +8447,17 @@
       <c r="CX24" t="s">
         <v>8</v>
       </c>
+      <c r="CY24" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="25" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="B25" s="3">
         <f t="shared" si="0"/>
-        <v>0.92929292929292928</v>
+        <v>0.95</v>
       </c>
       <c r="C25">
         <v>23</v>
@@ -8395,7 +8472,7 @@
         <v>7</v>
       </c>
       <c r="G25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H25" t="s">
         <v>7</v>
@@ -8473,7 +8550,7 @@
         <v>7</v>
       </c>
       <c r="AG25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AH25" t="s">
         <v>7</v>
@@ -8515,7 +8592,7 @@
         <v>7</v>
       </c>
       <c r="AU25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AV25" t="s">
         <v>7</v>
@@ -8539,7 +8616,7 @@
         <v>7</v>
       </c>
       <c r="BC25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BD25" t="s">
         <v>7</v>
@@ -8548,7 +8625,7 @@
         <v>7</v>
       </c>
       <c r="BF25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BG25" t="s">
         <v>7</v>
@@ -8590,7 +8667,7 @@
         <v>7</v>
       </c>
       <c r="BT25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BU25" t="s">
         <v>7</v>
@@ -8611,10 +8688,10 @@
         <v>7</v>
       </c>
       <c r="CA25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CB25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CC25" t="s">
         <v>7</v>
@@ -8662,13 +8739,13 @@
         <v>7</v>
       </c>
       <c r="CR25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CS25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CT25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CU25" t="s">
         <v>7</v>
@@ -8680,28 +8757,31 @@
         <v>7</v>
       </c>
       <c r="CX25" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="CY25" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="B26" s="3">
         <f t="shared" si="0"/>
-        <v>0.81818181818181823</v>
+        <v>0.83505154639175261</v>
       </c>
       <c r="C26">
         <v>24</v>
       </c>
       <c r="D26" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="E26" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="F26" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="G26" t="s">
         <v>7</v>
@@ -8725,10 +8805,10 @@
         <v>7</v>
       </c>
       <c r="N26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="P26" t="s">
         <v>7</v>
@@ -8764,7 +8844,7 @@
         <v>7</v>
       </c>
       <c r="AA26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AB26" t="s">
         <v>7</v>
@@ -8773,7 +8853,7 @@
         <v>7</v>
       </c>
       <c r="AD26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AE26" t="s">
         <v>7</v>
@@ -8803,13 +8883,13 @@
         <v>7</v>
       </c>
       <c r="AN26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AO26" t="s">
         <v>7</v>
       </c>
       <c r="AP26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AQ26" t="s">
         <v>7</v>
@@ -8827,19 +8907,19 @@
         <v>7</v>
       </c>
       <c r="AV26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AW26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AX26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AY26" t="s">
         <v>7</v>
       </c>
       <c r="AZ26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BA26" t="s">
         <v>7</v>
@@ -8848,13 +8928,13 @@
         <v>7</v>
       </c>
       <c r="BC26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BD26" t="s">
         <v>7</v>
       </c>
       <c r="BE26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BF26" t="s">
         <v>7</v>
@@ -8866,7 +8946,7 @@
         <v>8</v>
       </c>
       <c r="BI26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BJ26" t="s">
         <v>7</v>
@@ -8878,7 +8958,7 @@
         <v>7</v>
       </c>
       <c r="BM26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BN26" t="s">
         <v>7</v>
@@ -8887,7 +8967,7 @@
         <v>7</v>
       </c>
       <c r="BP26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BQ26" t="s">
         <v>7</v>
@@ -8908,7 +8988,7 @@
         <v>7</v>
       </c>
       <c r="BW26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BX26" t="s">
         <v>7</v>
@@ -8929,37 +9009,37 @@
         <v>7</v>
       </c>
       <c r="CD26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CE26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CF26" t="s">
         <v>7</v>
       </c>
       <c r="CG26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CH26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CI26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CJ26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CK26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CL26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CM26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CN26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CO26" t="s">
         <v>7</v>
@@ -8968,13 +9048,13 @@
         <v>7</v>
       </c>
       <c r="CQ26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CR26" t="s">
         <v>7</v>
       </c>
       <c r="CS26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CT26" t="s">
         <v>7</v>
@@ -8989,16 +9069,19 @@
         <v>8</v>
       </c>
       <c r="CX26" t="s">
+        <v>7</v>
+      </c>
+      <c r="CY26" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B27" s="3">
         <f t="shared" si="0"/>
-        <v>0.9494949494949495</v>
+        <v>0.92</v>
       </c>
       <c r="C27">
         <v>25</v>
@@ -9013,7 +9096,7 @@
         <v>7</v>
       </c>
       <c r="G27" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H27" t="s">
         <v>7</v>
@@ -9106,7 +9189,7 @@
         <v>7</v>
       </c>
       <c r="AL27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AM27" t="s">
         <v>7</v>
@@ -9133,7 +9216,7 @@
         <v>7</v>
       </c>
       <c r="AU27" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AV27" t="s">
         <v>7</v>
@@ -9208,7 +9291,7 @@
         <v>7</v>
       </c>
       <c r="BT27" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BU27" t="s">
         <v>7</v>
@@ -9238,7 +9321,7 @@
         <v>7</v>
       </c>
       <c r="CD27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CE27" t="s">
         <v>7</v>
@@ -9259,13 +9342,13 @@
         <v>7</v>
       </c>
       <c r="CK27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CL27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CM27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CN27" t="s">
         <v>7</v>
@@ -9283,10 +9366,10 @@
         <v>7</v>
       </c>
       <c r="CS27" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CT27" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CU27" t="s">
         <v>7</v>
@@ -9295,31 +9378,34 @@
         <v>7</v>
       </c>
       <c r="CW27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CX27" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="CY27" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="B28" s="3">
         <f t="shared" si="0"/>
-        <v>0.84375</v>
+        <v>0.93</v>
       </c>
       <c r="C28">
         <v>26</v>
       </c>
       <c r="D28" t="s">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="E28" t="s">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="F28" t="s">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="G28" t="s">
         <v>7</v>
@@ -9391,7 +9477,7 @@
         <v>7</v>
       </c>
       <c r="AD28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AE28" t="s">
         <v>7</v>
@@ -9418,10 +9504,10 @@
         <v>7</v>
       </c>
       <c r="AM28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AN28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AO28" t="s">
         <v>7</v>
@@ -9448,7 +9534,7 @@
         <v>7</v>
       </c>
       <c r="AW28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AX28" t="s">
         <v>7</v>
@@ -9466,7 +9552,7 @@
         <v>7</v>
       </c>
       <c r="BC28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BD28" t="s">
         <v>7</v>
@@ -9481,7 +9567,7 @@
         <v>7</v>
       </c>
       <c r="BH28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BI28" t="s">
         <v>7</v>
@@ -9496,7 +9582,7 @@
         <v>7</v>
       </c>
       <c r="BM28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BN28" t="s">
         <v>7</v>
@@ -9526,7 +9612,7 @@
         <v>7</v>
       </c>
       <c r="BW28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BX28" t="s">
         <v>7</v>
@@ -9547,16 +9633,16 @@
         <v>7</v>
       </c>
       <c r="CD28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CE28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CF28" t="s">
         <v>7</v>
       </c>
       <c r="CG28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CH28" t="s">
         <v>7</v>
@@ -9577,7 +9663,7 @@
         <v>8</v>
       </c>
       <c r="CN28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CO28" t="s">
         <v>7</v>
@@ -9586,37 +9672,40 @@
         <v>7</v>
       </c>
       <c r="CQ28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CR28" t="s">
         <v>7</v>
       </c>
       <c r="CS28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CT28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CU28" t="s">
         <v>7</v>
       </c>
       <c r="CV28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CW28" t="s">
         <v>8</v>
       </c>
       <c r="CX28" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="CY28" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B29" s="3">
         <f t="shared" si="0"/>
-        <v>0.92929292929292928</v>
+        <v>0.11</v>
       </c>
       <c r="C29">
         <v>27</v>
@@ -9628,7 +9717,7 @@
         <v>7</v>
       </c>
       <c r="F29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G29" t="s">
         <v>7</v>
@@ -9646,7 +9735,7 @@
         <v>7</v>
       </c>
       <c r="L29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M29" t="s">
         <v>7</v>
@@ -9661,220 +9750,220 @@
         <v>7</v>
       </c>
       <c r="Q29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="S29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="T29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="U29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="V29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="W29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="X29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Y29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Z29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AA29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AB29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AC29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AD29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AE29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AF29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AG29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AH29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AI29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AJ29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AK29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AL29" t="s">
         <v>8</v>
       </c>
       <c r="AM29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AN29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AO29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AP29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AQ29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AR29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AS29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AT29" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AU29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AV29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AW29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AX29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AY29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AZ29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BB29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BC29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BD29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BE29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BF29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BG29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BH29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BI29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BJ29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BK29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BL29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BM29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BN29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BO29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BP29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BQ29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BR29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BS29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BT29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BU29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BV29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BW29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BX29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BY29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BZ29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CA29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CB29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CC29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CD29" t="s">
         <v>8</v>
       </c>
       <c r="CE29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CF29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CG29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CH29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CI29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CJ29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CK29" t="s">
         <v>8</v>
@@ -9886,31 +9975,31 @@
         <v>8</v>
       </c>
       <c r="CN29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CO29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CP29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CQ29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CR29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CS29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CT29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CU29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CV29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CW29" t="s">
         <v>8</v>
@@ -9918,14 +10007,17 @@
       <c r="CX29" t="s">
         <v>8</v>
       </c>
+      <c r="CY29" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="30" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B30" s="3">
         <f t="shared" si="0"/>
-        <v>0.93939393939393945</v>
+        <v>0.81</v>
       </c>
       <c r="C30">
         <v>28</v>
@@ -9940,7 +10032,7 @@
         <v>7</v>
       </c>
       <c r="G30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H30" t="s">
         <v>7</v>
@@ -10036,7 +10128,7 @@
         <v>7</v>
       </c>
       <c r="AM30" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AN30" t="s">
         <v>7</v>
@@ -10078,7 +10170,7 @@
         <v>7</v>
       </c>
       <c r="BA30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BB30" t="s">
         <v>7</v>
@@ -10093,7 +10185,7 @@
         <v>7</v>
       </c>
       <c r="BF30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BG30" t="s">
         <v>7</v>
@@ -10117,28 +10209,28 @@
         <v>7</v>
       </c>
       <c r="BN30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BO30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BP30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BQ30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BR30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BS30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BT30" t="s">
         <v>7</v>
       </c>
       <c r="BU30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BV30" t="s">
         <v>7</v>
@@ -10159,13 +10251,13 @@
         <v>7</v>
       </c>
       <c r="CB30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CC30" t="s">
         <v>7</v>
       </c>
       <c r="CD30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CE30" t="s">
         <v>7</v>
@@ -10174,7 +10266,7 @@
         <v>7</v>
       </c>
       <c r="CG30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CH30" t="s">
         <v>7</v>
@@ -10183,7 +10275,7 @@
         <v>7</v>
       </c>
       <c r="CJ30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CK30" t="s">
         <v>7</v>
@@ -10204,7 +10296,7 @@
         <v>7</v>
       </c>
       <c r="CQ30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CR30" t="s">
         <v>7</v>
@@ -10213,13 +10305,13 @@
         <v>7</v>
       </c>
       <c r="CT30" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CU30" t="s">
         <v>7</v>
       </c>
       <c r="CV30" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CW30" t="s">
         <v>8</v>
@@ -10227,14 +10319,17 @@
       <c r="CX30" t="s">
         <v>8</v>
       </c>
+      <c r="CY30" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="31" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B31" s="3">
         <f t="shared" si="0"/>
-        <v>0.1111111111111111</v>
+        <v>0.93</v>
       </c>
       <c r="C31">
         <v>29</v>
@@ -10246,7 +10341,7 @@
         <v>7</v>
       </c>
       <c r="F31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G31" t="s">
         <v>7</v>
@@ -10264,7 +10359,7 @@
         <v>7</v>
       </c>
       <c r="L31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M31" t="s">
         <v>7</v>
@@ -10276,112 +10371,112 @@
         <v>7</v>
       </c>
       <c r="P31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Q31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="S31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="T31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="U31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="V31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="W31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="X31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Y31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Z31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AA31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AB31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AC31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AD31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AE31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AF31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AG31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AH31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AI31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AJ31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AK31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AL31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AM31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AN31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AO31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AP31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AQ31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AR31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AS31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AT31" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AU31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AV31" t="s">
         <v>8</v>
       </c>
       <c r="AW31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AX31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AY31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AZ31" t="s">
         <v>8</v>
@@ -10390,175 +10485,178 @@
         <v>8</v>
       </c>
       <c r="BB31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BC31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BD31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BE31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BF31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BG31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BH31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BI31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BJ31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BK31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BL31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BM31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BN31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BO31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BP31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BQ31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BR31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BS31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BT31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BU31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BV31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BW31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BX31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BY31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BZ31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CA31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CB31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CC31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CD31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CE31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CF31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CG31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CH31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CI31" t="s">
         <v>8</v>
       </c>
       <c r="CJ31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CK31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CL31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CM31" t="s">
         <v>8</v>
       </c>
       <c r="CN31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CO31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CP31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CQ31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CR31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CS31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CT31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CU31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CV31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CW31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CX31" t="s">
+        <v>7</v>
+      </c>
+      <c r="CY31" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="B32" s="3">
         <f t="shared" si="0"/>
-        <v>0.81818181818181823</v>
+        <v>0.85567010309278346</v>
       </c>
       <c r="C32">
         <v>30</v>
       </c>
       <c r="D32" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="E32" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="F32" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="G32" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H32" t="s">
         <v>7</v>
@@ -10579,7 +10677,7 @@
         <v>7</v>
       </c>
       <c r="N32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O32" t="s">
         <v>7</v>
@@ -10621,7 +10719,7 @@
         <v>7</v>
       </c>
       <c r="AB32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AC32" t="s">
         <v>7</v>
@@ -10651,7 +10749,7 @@
         <v>7</v>
       </c>
       <c r="AL32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AM32" t="s">
         <v>7</v>
@@ -10672,13 +10770,13 @@
         <v>7</v>
       </c>
       <c r="AS32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AT32" s="3" t="s">
         <v>7</v>
       </c>
       <c r="AU32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AV32" t="s">
         <v>7</v>
@@ -10696,7 +10794,7 @@
         <v>7</v>
       </c>
       <c r="BA32" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BB32" t="s">
         <v>7</v>
@@ -10708,10 +10806,10 @@
         <v>7</v>
       </c>
       <c r="BE32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BF32" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BG32" t="s">
         <v>7</v>
@@ -10735,28 +10833,28 @@
         <v>7</v>
       </c>
       <c r="BN32" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BO32" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BP32" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BQ32" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BR32" t="s">
         <v>8</v>
       </c>
       <c r="BS32" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BT32" t="s">
         <v>7</v>
       </c>
       <c r="BU32" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BV32" t="s">
         <v>7</v>
@@ -10786,13 +10884,13 @@
         <v>8</v>
       </c>
       <c r="CE32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CF32" t="s">
         <v>7</v>
       </c>
       <c r="CG32" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CH32" t="s">
         <v>7</v>
@@ -10810,7 +10908,7 @@
         <v>7</v>
       </c>
       <c r="CM32" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CN32" t="s">
         <v>7</v>
@@ -10822,7 +10920,7 @@
         <v>7</v>
       </c>
       <c r="CQ32" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CR32" t="s">
         <v>7</v>
@@ -10831,7 +10929,7 @@
         <v>7</v>
       </c>
       <c r="CT32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CU32" t="s">
         <v>7</v>
@@ -10840,19 +10938,22 @@
         <v>7</v>
       </c>
       <c r="CW32" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CX32" t="s">
         <v>8</v>
       </c>
+      <c r="CY32" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="33" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B33" s="3">
         <f t="shared" si="0"/>
-        <v>0.93939393939393945</v>
+        <v>0.93</v>
       </c>
       <c r="C33">
         <v>31</v>
@@ -10894,7 +10995,7 @@
         <v>7</v>
       </c>
       <c r="P33" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Q33" t="s">
         <v>7</v>
@@ -10990,22 +11091,22 @@
         <v>7</v>
       </c>
       <c r="AV33" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AW33" t="s">
         <v>7</v>
       </c>
       <c r="AX33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AY33" t="s">
         <v>7</v>
       </c>
       <c r="AZ33" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BA33" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BB33" t="s">
         <v>7</v>
@@ -11017,7 +11118,7 @@
         <v>7</v>
       </c>
       <c r="BE33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BF33" t="s">
         <v>7</v>
@@ -11056,10 +11157,10 @@
         <v>7</v>
       </c>
       <c r="BR33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BS33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BT33" t="s">
         <v>7</v>
@@ -11092,7 +11193,7 @@
         <v>7</v>
       </c>
       <c r="CD33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CE33" t="s">
         <v>7</v>
@@ -11107,7 +11208,7 @@
         <v>7</v>
       </c>
       <c r="CI33" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CJ33" t="s">
         <v>7</v>
@@ -11119,7 +11220,7 @@
         <v>7</v>
       </c>
       <c r="CM33" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CN33" t="s">
         <v>7</v>
@@ -11152,1198 +11253,313 @@
         <v>7</v>
       </c>
       <c r="CX33" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="CY33" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:102" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>49</v>
-      </c>
-      <c r="B34" s="3">
-        <f t="shared" si="0"/>
-        <v>0.86458333333333337</v>
-      </c>
-      <c r="C34">
-        <v>32</v>
-      </c>
-      <c r="D34" t="s">
-        <v>47</v>
-      </c>
-      <c r="E34" t="s">
-        <v>47</v>
-      </c>
-      <c r="F34" t="s">
-        <v>47</v>
-      </c>
-      <c r="G34" t="s">
-        <v>7</v>
-      </c>
-      <c r="H34" t="s">
-        <v>7</v>
-      </c>
-      <c r="I34" t="s">
-        <v>7</v>
-      </c>
-      <c r="J34" t="s">
-        <v>7</v>
-      </c>
-      <c r="K34" t="s">
-        <v>7</v>
-      </c>
-      <c r="L34" t="s">
-        <v>7</v>
-      </c>
-      <c r="M34" t="s">
-        <v>7</v>
-      </c>
-      <c r="N34" t="s">
-        <v>8</v>
-      </c>
-      <c r="O34" t="s">
-        <v>7</v>
-      </c>
-      <c r="P34" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q34" t="s">
-        <v>7</v>
-      </c>
-      <c r="R34" t="s">
-        <v>7</v>
-      </c>
-      <c r="S34" t="s">
-        <v>7</v>
-      </c>
-      <c r="T34" t="s">
-        <v>7</v>
-      </c>
-      <c r="U34" t="s">
-        <v>7</v>
-      </c>
-      <c r="V34" t="s">
-        <v>7</v>
-      </c>
-      <c r="W34" t="s">
-        <v>7</v>
-      </c>
-      <c r="X34" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y34" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z34" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA34" t="s">
-        <v>7</v>
-      </c>
-      <c r="AB34" t="s">
-        <v>8</v>
-      </c>
-      <c r="AC34" t="s">
-        <v>7</v>
-      </c>
-      <c r="AD34" t="s">
-        <v>7</v>
-      </c>
-      <c r="AE34" t="s">
-        <v>7</v>
-      </c>
-      <c r="AF34" t="s">
-        <v>7</v>
-      </c>
-      <c r="AG34" t="s">
-        <v>7</v>
-      </c>
-      <c r="AH34" t="s">
-        <v>7</v>
-      </c>
-      <c r="AI34" t="s">
-        <v>7</v>
-      </c>
-      <c r="AJ34" t="s">
-        <v>7</v>
-      </c>
-      <c r="AK34" t="s">
-        <v>7</v>
-      </c>
-      <c r="AL34" t="s">
-        <v>8</v>
-      </c>
-      <c r="AM34" t="s">
-        <v>7</v>
-      </c>
-      <c r="AN34" t="s">
-        <v>7</v>
-      </c>
-      <c r="AO34" t="s">
-        <v>7</v>
-      </c>
-      <c r="AP34" t="s">
-        <v>7</v>
-      </c>
-      <c r="AQ34" t="s">
-        <v>7</v>
-      </c>
-      <c r="AR34" t="s">
-        <v>7</v>
-      </c>
-      <c r="AS34" t="s">
-        <v>8</v>
-      </c>
-      <c r="AT34" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AU34" t="s">
-        <v>8</v>
-      </c>
-      <c r="AV34" t="s">
-        <v>7</v>
-      </c>
-      <c r="AW34" t="s">
-        <v>7</v>
-      </c>
-      <c r="AX34" t="s">
-        <v>7</v>
-      </c>
-      <c r="AY34" t="s">
-        <v>7</v>
-      </c>
-      <c r="AZ34" t="s">
-        <v>7</v>
-      </c>
-      <c r="BA34" t="s">
-        <v>7</v>
-      </c>
-      <c r="BB34" t="s">
-        <v>7</v>
-      </c>
-      <c r="BC34" t="s">
-        <v>7</v>
-      </c>
-      <c r="BD34" t="s">
-        <v>7</v>
-      </c>
-      <c r="BE34" t="s">
-        <v>8</v>
-      </c>
-      <c r="BF34" t="s">
-        <v>7</v>
-      </c>
-      <c r="BG34" t="s">
-        <v>7</v>
-      </c>
-      <c r="BH34" t="s">
-        <v>7</v>
-      </c>
-      <c r="BI34" t="s">
-        <v>7</v>
-      </c>
-      <c r="BJ34" t="s">
-        <v>7</v>
-      </c>
-      <c r="BK34" t="s">
-        <v>7</v>
-      </c>
-      <c r="BL34" t="s">
-        <v>7</v>
-      </c>
-      <c r="BM34" t="s">
-        <v>7</v>
-      </c>
-      <c r="BN34" t="s">
-        <v>7</v>
-      </c>
-      <c r="BO34" t="s">
-        <v>7</v>
-      </c>
-      <c r="BP34" t="s">
-        <v>7</v>
-      </c>
-      <c r="BQ34" t="s">
-        <v>7</v>
-      </c>
-      <c r="BR34" t="s">
-        <v>8</v>
-      </c>
-      <c r="BS34" t="s">
-        <v>7</v>
-      </c>
-      <c r="BT34" t="s">
-        <v>7</v>
-      </c>
-      <c r="BU34" t="s">
-        <v>7</v>
-      </c>
-      <c r="BV34" t="s">
-        <v>7</v>
-      </c>
-      <c r="BW34" t="s">
-        <v>7</v>
-      </c>
-      <c r="BX34" t="s">
-        <v>7</v>
-      </c>
-      <c r="BY34" t="s">
-        <v>7</v>
-      </c>
-      <c r="BZ34" t="s">
-        <v>7</v>
-      </c>
-      <c r="CA34" t="s">
-        <v>7</v>
-      </c>
-      <c r="CB34" t="s">
-        <v>8</v>
-      </c>
-      <c r="CC34" t="s">
-        <v>7</v>
-      </c>
-      <c r="CD34" t="s">
-        <v>8</v>
-      </c>
-      <c r="CE34" t="s">
-        <v>8</v>
-      </c>
-      <c r="CF34" t="s">
-        <v>7</v>
-      </c>
-      <c r="CG34" t="s">
-        <v>7</v>
-      </c>
-      <c r="CH34" t="s">
-        <v>7</v>
-      </c>
-      <c r="CI34" t="s">
-        <v>7</v>
-      </c>
-      <c r="CJ34" t="s">
-        <v>8</v>
-      </c>
-      <c r="CK34" t="s">
-        <v>7</v>
-      </c>
-      <c r="CL34" t="s">
-        <v>7</v>
-      </c>
-      <c r="CM34" t="s">
-        <v>7</v>
-      </c>
-      <c r="CN34" t="s">
-        <v>7</v>
-      </c>
-      <c r="CO34" t="s">
-        <v>7</v>
-      </c>
-      <c r="CP34" t="s">
-        <v>7</v>
-      </c>
-      <c r="CQ34" t="s">
-        <v>7</v>
-      </c>
-      <c r="CR34" t="s">
-        <v>7</v>
-      </c>
-      <c r="CS34" t="s">
-        <v>7</v>
-      </c>
-      <c r="CT34" t="s">
-        <v>8</v>
-      </c>
-      <c r="CU34" t="s">
-        <v>7</v>
-      </c>
-      <c r="CV34" t="s">
-        <v>7</v>
-      </c>
-      <c r="CW34" t="s">
-        <v>7</v>
-      </c>
-      <c r="CX34" t="s">
+    <row r="35" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:102" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>43</v>
-      </c>
-      <c r="B35" s="3">
-        <f t="shared" si="0"/>
-        <v>0.93939393939393945</v>
-      </c>
-      <c r="C35">
-        <v>33</v>
-      </c>
-      <c r="D35" t="s">
-        <v>7</v>
-      </c>
-      <c r="E35" t="s">
-        <v>7</v>
-      </c>
-      <c r="F35" t="s">
-        <v>7</v>
-      </c>
-      <c r="G35" t="s">
-        <v>7</v>
-      </c>
-      <c r="H35" t="s">
-        <v>7</v>
-      </c>
-      <c r="I35" t="s">
-        <v>7</v>
-      </c>
-      <c r="J35" t="s">
-        <v>7</v>
-      </c>
-      <c r="K35" t="s">
-        <v>7</v>
-      </c>
-      <c r="L35" t="s">
-        <v>7</v>
-      </c>
-      <c r="M35" t="s">
-        <v>7</v>
-      </c>
-      <c r="N35" t="s">
-        <v>7</v>
-      </c>
-      <c r="O35" t="s">
-        <v>7</v>
-      </c>
-      <c r="P35" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q35" t="s">
-        <v>7</v>
-      </c>
-      <c r="R35" t="s">
-        <v>7</v>
-      </c>
-      <c r="S35" t="s">
-        <v>7</v>
-      </c>
-      <c r="T35" t="s">
-        <v>7</v>
-      </c>
-      <c r="U35" t="s">
-        <v>7</v>
-      </c>
-      <c r="V35" t="s">
-        <v>7</v>
-      </c>
-      <c r="W35" t="s">
-        <v>7</v>
-      </c>
-      <c r="X35" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y35" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z35" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA35" t="s">
-        <v>7</v>
-      </c>
-      <c r="AB35" t="s">
-        <v>7</v>
-      </c>
-      <c r="AC35" t="s">
-        <v>7</v>
-      </c>
-      <c r="AD35" t="s">
-        <v>7</v>
-      </c>
-      <c r="AE35" t="s">
-        <v>7</v>
-      </c>
-      <c r="AF35" t="s">
-        <v>7</v>
-      </c>
-      <c r="AG35" t="s">
-        <v>7</v>
-      </c>
-      <c r="AH35" t="s">
-        <v>7</v>
-      </c>
-      <c r="AI35" t="s">
-        <v>7</v>
-      </c>
-      <c r="AJ35" t="s">
-        <v>7</v>
-      </c>
-      <c r="AK35" t="s">
-        <v>7</v>
-      </c>
-      <c r="AL35" t="s">
-        <v>7</v>
-      </c>
-      <c r="AM35" t="s">
-        <v>7</v>
-      </c>
-      <c r="AN35" t="s">
-        <v>7</v>
-      </c>
-      <c r="AO35" t="s">
-        <v>7</v>
-      </c>
-      <c r="AP35" t="s">
-        <v>7</v>
-      </c>
-      <c r="AQ35" t="s">
-        <v>7</v>
-      </c>
-      <c r="AR35" t="s">
-        <v>7</v>
-      </c>
-      <c r="AS35" t="s">
-        <v>7</v>
-      </c>
-      <c r="AT35" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AU35" t="s">
-        <v>7</v>
-      </c>
-      <c r="AV35" t="s">
-        <v>7</v>
-      </c>
-      <c r="AW35" t="s">
-        <v>7</v>
-      </c>
-      <c r="AX35" t="s">
-        <v>8</v>
-      </c>
-      <c r="AY35" t="s">
-        <v>7</v>
-      </c>
-      <c r="AZ35" t="s">
-        <v>7</v>
-      </c>
-      <c r="BA35" t="s">
-        <v>7</v>
-      </c>
-      <c r="BB35" t="s">
-        <v>7</v>
-      </c>
-      <c r="BC35" t="s">
-        <v>7</v>
-      </c>
-      <c r="BD35" t="s">
-        <v>7</v>
-      </c>
-      <c r="BE35" t="s">
-        <v>8</v>
-      </c>
-      <c r="BF35" t="s">
-        <v>7</v>
-      </c>
-      <c r="BG35" t="s">
-        <v>7</v>
-      </c>
-      <c r="BH35" t="s">
-        <v>7</v>
-      </c>
-      <c r="BI35" t="s">
-        <v>7</v>
-      </c>
-      <c r="BJ35" t="s">
-        <v>7</v>
-      </c>
-      <c r="BK35" t="s">
-        <v>7</v>
-      </c>
-      <c r="BL35" t="s">
-        <v>7</v>
-      </c>
-      <c r="BM35" t="s">
-        <v>7</v>
-      </c>
-      <c r="BN35" t="s">
-        <v>7</v>
-      </c>
-      <c r="BO35" t="s">
-        <v>7</v>
-      </c>
-      <c r="BP35" t="s">
-        <v>7</v>
-      </c>
-      <c r="BQ35" t="s">
-        <v>7</v>
-      </c>
-      <c r="BR35" t="s">
-        <v>8</v>
-      </c>
-      <c r="BS35" t="s">
-        <v>8</v>
-      </c>
-      <c r="BT35" t="s">
-        <v>7</v>
-      </c>
-      <c r="BU35" t="s">
-        <v>7</v>
-      </c>
-      <c r="BV35" t="s">
-        <v>7</v>
-      </c>
-      <c r="BW35" t="s">
-        <v>7</v>
-      </c>
-      <c r="BX35" t="s">
-        <v>7</v>
-      </c>
-      <c r="BY35" t="s">
-        <v>7</v>
-      </c>
-      <c r="BZ35" t="s">
-        <v>7</v>
-      </c>
-      <c r="CA35" t="s">
-        <v>7</v>
-      </c>
-      <c r="CB35" t="s">
-        <v>7</v>
-      </c>
-      <c r="CC35" t="s">
-        <v>7</v>
-      </c>
-      <c r="CD35" t="s">
-        <v>8</v>
-      </c>
-      <c r="CE35" t="s">
-        <v>7</v>
-      </c>
-      <c r="CF35" t="s">
-        <v>7</v>
-      </c>
-      <c r="CG35" t="s">
-        <v>7</v>
-      </c>
-      <c r="CH35" t="s">
-        <v>7</v>
-      </c>
-      <c r="CI35" t="s">
-        <v>7</v>
-      </c>
-      <c r="CJ35" t="s">
-        <v>7</v>
-      </c>
-      <c r="CK35" t="s">
-        <v>7</v>
-      </c>
-      <c r="CL35" t="s">
-        <v>7</v>
-      </c>
-      <c r="CM35" t="s">
-        <v>7</v>
-      </c>
-      <c r="CN35" t="s">
-        <v>7</v>
-      </c>
-      <c r="CO35" t="s">
-        <v>7</v>
-      </c>
-      <c r="CP35" t="s">
-        <v>7</v>
-      </c>
-      <c r="CQ35" t="s">
-        <v>7</v>
-      </c>
-      <c r="CR35" t="s">
-        <v>7</v>
-      </c>
-      <c r="CS35" t="s">
-        <v>7</v>
-      </c>
-      <c r="CT35" t="s">
-        <v>7</v>
-      </c>
-      <c r="CU35" t="s">
-        <v>7</v>
-      </c>
-      <c r="CV35" t="s">
-        <v>7</v>
-      </c>
-      <c r="CW35" t="s">
-        <v>7</v>
-      </c>
-      <c r="CX35" t="s">
-        <v>8</v>
+    <row r="36" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>19</v>
+      </c>
+      <c r="B36">
+        <f t="shared" ref="B36:B66" si="1">COUNTIF($D3:$CZ3,$B$35)</f>
+        <v>18</v>
+      </c>
+      <c r="C36">
+        <f t="shared" ref="C36:C66" si="2">COUNTIF($D3:$CZ3,$C$35)</f>
+        <v>82</v>
       </c>
     </row>
-    <row r="36" spans="1:102" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>44</v>
-      </c>
-      <c r="B36" s="3">
-        <f t="shared" si="0"/>
-        <v>0.39393939393939392</v>
-      </c>
-      <c r="C36">
-        <v>34</v>
-      </c>
-      <c r="D36" t="s">
-        <v>7</v>
-      </c>
-      <c r="E36" t="s">
-        <v>7</v>
-      </c>
-      <c r="F36" t="s">
-        <v>7</v>
-      </c>
-      <c r="G36" t="s">
-        <v>7</v>
-      </c>
-      <c r="H36" t="s">
-        <v>7</v>
-      </c>
-      <c r="I36" t="s">
-        <v>7</v>
-      </c>
-      <c r="J36" t="s">
-        <v>7</v>
-      </c>
-      <c r="K36" t="s">
-        <v>8</v>
-      </c>
-      <c r="L36" t="s">
-        <v>7</v>
-      </c>
-      <c r="M36" t="s">
-        <v>7</v>
-      </c>
-      <c r="N36" t="s">
-        <v>7</v>
-      </c>
-      <c r="O36" t="s">
-        <v>7</v>
-      </c>
-      <c r="P36" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q36" t="s">
-        <v>7</v>
-      </c>
-      <c r="R36" t="s">
-        <v>7</v>
-      </c>
-      <c r="S36" t="s">
-        <v>7</v>
-      </c>
-      <c r="T36" t="s">
-        <v>7</v>
-      </c>
-      <c r="U36" t="s">
-        <v>7</v>
-      </c>
-      <c r="V36" t="s">
-        <v>7</v>
-      </c>
-      <c r="W36" t="s">
-        <v>8</v>
-      </c>
-      <c r="X36" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y36" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z36" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA36" t="s">
-        <v>8</v>
-      </c>
-      <c r="AB36" t="s">
-        <v>8</v>
-      </c>
-      <c r="AC36" t="s">
-        <v>7</v>
-      </c>
-      <c r="AD36" t="s">
-        <v>7</v>
-      </c>
-      <c r="AE36" t="s">
-        <v>7</v>
-      </c>
-      <c r="AF36" t="s">
-        <v>7</v>
-      </c>
-      <c r="AG36" t="s">
-        <v>7</v>
-      </c>
-      <c r="AH36" t="s">
-        <v>7</v>
-      </c>
-      <c r="AI36" t="s">
-        <v>7</v>
-      </c>
-      <c r="AJ36" t="s">
-        <v>7</v>
-      </c>
-      <c r="AK36" t="s">
-        <v>7</v>
-      </c>
-      <c r="AL36" t="s">
-        <v>7</v>
-      </c>
-      <c r="AM36" t="s">
-        <v>8</v>
-      </c>
-      <c r="AN36" t="s">
-        <v>7</v>
-      </c>
-      <c r="AO36" t="s">
-        <v>8</v>
-      </c>
-      <c r="AP36" t="s">
-        <v>7</v>
-      </c>
-      <c r="AQ36" t="s">
-        <v>7</v>
-      </c>
-      <c r="AR36" t="s">
-        <v>8</v>
-      </c>
-      <c r="AS36" t="s">
-        <v>8</v>
-      </c>
-      <c r="AT36" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AU36" t="s">
-        <v>7</v>
-      </c>
-      <c r="AV36" t="s">
-        <v>8</v>
-      </c>
-      <c r="AW36" t="s">
-        <v>8</v>
-      </c>
-      <c r="AX36" t="s">
-        <v>8</v>
-      </c>
-      <c r="AY36" t="s">
-        <v>8</v>
-      </c>
-      <c r="AZ36" t="s">
-        <v>8</v>
-      </c>
-      <c r="BA36" t="s">
-        <v>7</v>
-      </c>
-      <c r="BB36" t="s">
-        <v>7</v>
-      </c>
-      <c r="BC36" t="s">
-        <v>8</v>
-      </c>
-      <c r="BD36" t="s">
-        <v>8</v>
-      </c>
-      <c r="BE36" t="s">
-        <v>7</v>
-      </c>
-      <c r="BF36" t="s">
-        <v>8</v>
-      </c>
-      <c r="BG36" t="s">
-        <v>8</v>
-      </c>
-      <c r="BH36" t="s">
-        <v>8</v>
-      </c>
-      <c r="BI36" t="s">
-        <v>8</v>
-      </c>
-      <c r="BJ36" t="s">
-        <v>8</v>
-      </c>
-      <c r="BK36" t="s">
-        <v>8</v>
-      </c>
-      <c r="BL36" t="s">
-        <v>8</v>
-      </c>
-      <c r="BM36" t="s">
-        <v>8</v>
-      </c>
-      <c r="BN36" t="s">
-        <v>8</v>
-      </c>
-      <c r="BO36" t="s">
-        <v>8</v>
-      </c>
-      <c r="BP36" t="s">
-        <v>8</v>
-      </c>
-      <c r="BQ36" t="s">
-        <v>8</v>
-      </c>
-      <c r="BR36" t="s">
-        <v>8</v>
-      </c>
-      <c r="BS36" t="s">
-        <v>8</v>
-      </c>
-      <c r="BT36" t="s">
-        <v>8</v>
-      </c>
-      <c r="BU36" t="s">
-        <v>8</v>
-      </c>
-      <c r="BV36" t="s">
-        <v>8</v>
-      </c>
-      <c r="BW36" t="s">
-        <v>8</v>
-      </c>
-      <c r="BX36" t="s">
-        <v>8</v>
-      </c>
-      <c r="BY36" t="s">
-        <v>8</v>
-      </c>
-      <c r="BZ36" t="s">
-        <v>8</v>
-      </c>
-      <c r="CA36" t="s">
-        <v>8</v>
-      </c>
-      <c r="CB36" t="s">
-        <v>8</v>
-      </c>
-      <c r="CC36" t="s">
-        <v>8</v>
-      </c>
-      <c r="CD36" t="s">
-        <v>8</v>
-      </c>
-      <c r="CE36" t="s">
-        <v>8</v>
-      </c>
-      <c r="CF36" t="s">
-        <v>8</v>
-      </c>
-      <c r="CG36" t="s">
-        <v>8</v>
-      </c>
-      <c r="CH36" t="s">
-        <v>8</v>
-      </c>
-      <c r="CI36" t="s">
-        <v>8</v>
-      </c>
-      <c r="CJ36" t="s">
-        <v>8</v>
-      </c>
-      <c r="CK36" t="s">
-        <v>8</v>
-      </c>
-      <c r="CL36" t="s">
-        <v>8</v>
-      </c>
-      <c r="CM36" t="s">
-        <v>8</v>
-      </c>
-      <c r="CN36" t="s">
-        <v>8</v>
-      </c>
-      <c r="CO36" t="s">
-        <v>8</v>
-      </c>
-      <c r="CP36" t="s">
-        <v>8</v>
-      </c>
-      <c r="CQ36" t="s">
-        <v>8</v>
-      </c>
-      <c r="CR36" t="s">
-        <v>8</v>
-      </c>
-      <c r="CS36" t="s">
-        <v>8</v>
-      </c>
-      <c r="CT36" t="s">
-        <v>8</v>
-      </c>
-      <c r="CU36" t="s">
-        <v>8</v>
-      </c>
-      <c r="CV36" t="s">
-        <v>8</v>
-      </c>
-      <c r="CW36" t="s">
-        <v>8</v>
-      </c>
-      <c r="CX36" t="s">
-        <v>8</v>
+    <row r="37" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>20</v>
+      </c>
+      <c r="B37">
+        <f t="shared" si="1"/>
+        <v>95</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="2"/>
+        <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:102" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
-        <v>7</v>
-      </c>
-      <c r="C38" t="s">
-        <v>8</v>
+    <row r="38" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>21</v>
+      </c>
+      <c r="B38">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="2"/>
+        <v>97</v>
       </c>
     </row>
-    <row r="39" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B39">
-        <f>COUNTIF($D3:$CZ3,$B$38)</f>
-        <v>18</v>
+        <f t="shared" si="1"/>
+        <v>93</v>
       </c>
       <c r="C39">
-        <f>COUNTIF($D3:$CZ3,$C$38)</f>
-        <v>81</v>
+        <f t="shared" si="2"/>
+        <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B40">
-        <f t="shared" ref="B40:B72" si="1">COUNTIF($D4:$CZ4,$B$38)</f>
-        <v>94</v>
+        <f t="shared" si="1"/>
+        <v>98</v>
       </c>
       <c r="C40">
-        <f t="shared" ref="C40:C72" si="2">COUNTIF($D4:$CZ4,$C$38)</f>
-        <v>5</v>
+        <f t="shared" si="2"/>
+        <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="B41">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>71</v>
       </c>
       <c r="C41">
         <f t="shared" si="2"/>
-        <v>96</v>
+        <v>26</v>
       </c>
     </row>
-    <row r="42" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B42">
         <f t="shared" si="1"/>
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C42">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B43">
         <f t="shared" si="1"/>
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C43">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="B44">
         <f t="shared" si="1"/>
-        <v>68</v>
+        <v>97</v>
       </c>
       <c r="C44">
         <f t="shared" si="2"/>
-        <v>28</v>
+        <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B45">
         <f t="shared" si="1"/>
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="C45">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B46">
         <f t="shared" si="1"/>
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="C46">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
-    <row r="47" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B47">
         <f t="shared" si="1"/>
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C47">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B48">
         <f t="shared" si="1"/>
-        <v>97</v>
+        <v>9</v>
       </c>
       <c r="C48">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>88</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="B49">
         <f t="shared" si="1"/>
-        <v>56</v>
+        <v>97</v>
       </c>
       <c r="C49">
         <f t="shared" si="2"/>
-        <v>43</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="B50">
         <f t="shared" si="1"/>
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="C50">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="B51">
         <f t="shared" si="1"/>
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C51">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="B52">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>76</v>
       </c>
       <c r="C52">
         <f t="shared" si="2"/>
-        <v>87</v>
+        <v>24</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="B53">
         <f t="shared" si="1"/>
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C53">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="B54">
         <f t="shared" si="1"/>
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C54">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B55">
         <f t="shared" si="1"/>
-        <v>96</v>
+        <v>49</v>
       </c>
       <c r="C55">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>51</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B56">
         <f t="shared" si="1"/>
-        <v>37</v>
+        <v>92</v>
       </c>
       <c r="C56">
         <f t="shared" si="2"/>
-        <v>62</v>
+        <v>8</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B57">
         <f t="shared" si="1"/>
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="C57">
         <f t="shared" si="2"/>
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B58">
         <f t="shared" si="1"/>
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C58">
         <f t="shared" si="2"/>
@@ -12352,37 +11568,37 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B59">
         <f t="shared" si="1"/>
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="C59">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B60">
         <f t="shared" si="1"/>
-        <v>49</v>
+        <v>92</v>
       </c>
       <c r="C60">
         <f t="shared" si="2"/>
-        <v>50</v>
+        <v>8</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B61">
         <f t="shared" si="1"/>
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C61">
         <f t="shared" si="2"/>
@@ -12391,59 +11607,59 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B62">
         <f t="shared" si="1"/>
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="C62">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>89</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B63">
         <f t="shared" si="1"/>
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="C63">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="B64">
         <f t="shared" si="1"/>
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="C64">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="B65">
         <f t="shared" si="1"/>
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="C65">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B66">
         <f t="shared" si="1"/>
@@ -12451,90 +11667,12 @@
       </c>
       <c r="C66">
         <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>40</v>
-      </c>
-      <c r="B67">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="C67">
-        <f t="shared" si="2"/>
-        <v>88</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>41</v>
-      </c>
-      <c r="B68">
-        <f t="shared" si="1"/>
-        <v>81</v>
-      </c>
-      <c r="C68">
-        <f t="shared" si="2"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>42</v>
-      </c>
-      <c r="B69">
-        <f t="shared" si="1"/>
-        <v>93</v>
-      </c>
-      <c r="C69">
-        <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>49</v>
-      </c>
-      <c r="B70">
-        <f t="shared" si="1"/>
-        <v>83</v>
-      </c>
-      <c r="C70">
-        <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>43</v>
-      </c>
-      <c r="B71">
-        <f t="shared" si="1"/>
-        <v>93</v>
-      </c>
-      <c r="C71">
-        <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>44</v>
-      </c>
-      <c r="B72">
-        <f t="shared" si="1"/>
-        <v>39</v>
-      </c>
-      <c r="C72">
-        <f t="shared" si="2"/>
-        <v>60</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:BJ36">
-    <sortCondition ref="C2:C36"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:BJ33">
+    <sortCondition ref="C2:C33"/>
   </sortState>
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>
@@ -12547,7 +11685,7 @@
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B3:B36">
+  <conditionalFormatting sqref="B3:B33">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>0.75</formula>
     </cfRule>
